--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-30-1-500-7 (Каласы)/от 23.10.2019 Каласы.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-30-1-500-7 (Каласы)/от 23.10.2019 Каласы.xlsx
@@ -13,33 +13,38 @@
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
-    <sheet name="Акт приемки" sheetId="14" r:id="rId2"/>
-    <sheet name="Чист. форма" sheetId="8" r:id="rId3"/>
-    <sheet name="Чист.  поддон" sheetId="4" r:id="rId4"/>
-    <sheet name="Черн. форма" sheetId="3" r:id="rId5"/>
-    <sheet name="Черн. поддон" sheetId="1" r:id="rId6"/>
-    <sheet name="Горл. кольцо" sheetId="9" r:id="rId7"/>
-    <sheet name="Финиш. кольцо" sheetId="5" r:id="rId8"/>
-    <sheet name="Плунжер" sheetId="10" r:id="rId9"/>
-    <sheet name="Втулка" sheetId="11" r:id="rId10"/>
-    <sheet name="Дут. головка" sheetId="6" r:id="rId11"/>
-    <sheet name="Воронка" sheetId="12" r:id="rId12"/>
+    <sheet name="Паспорт" sheetId="16" r:id="rId2"/>
+    <sheet name="Акт приемки" sheetId="14" r:id="rId3"/>
+    <sheet name="Чист. форма" sheetId="8" r:id="rId4"/>
+    <sheet name="Чист.  поддон" sheetId="4" r:id="rId5"/>
+    <sheet name="Черн. форма" sheetId="3" r:id="rId6"/>
+    <sheet name="Черн. поддон" sheetId="1" r:id="rId7"/>
+    <sheet name="Горл. кольцо" sheetId="9" r:id="rId8"/>
+    <sheet name="Финиш. кольцо" sheetId="5" r:id="rId9"/>
+    <sheet name="Плунжер" sheetId="10" r:id="rId10"/>
+    <sheet name="Втулка" sheetId="11" r:id="rId11"/>
+    <sheet name="Дут. головка" sheetId="6" r:id="rId12"/>
+    <sheet name="Воронка" sheetId="12" r:id="rId13"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId14"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Акт приемки'!$A$1:$J$57</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Горл. кольцо'!$A$1:$S$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">Плунжер!$A$1:$S$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Черн. поддон'!$A$1:$S$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Черн. форма'!$A$1:$R$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист.  поддон'!$A$1:$S$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Чист. форма'!$A$1:$S$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Акт приемки'!$A$1:$J$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Горл. кольцо'!$A$1:$S$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$I$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">Плунжер!$A$1:$S$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Черн. поддон'!$A$1:$S$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Черн. форма'!$A$1:$R$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Чист.  поддон'!$A$1:$S$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист. форма'!$A$1:$S$25</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="140">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -382,12 +387,97 @@
   <si>
     <t>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</t>
   </si>
+  <si>
+    <t>Формокомплект бутылки</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (владелец ООО "Ведатранзит" дог. №3 от 23.01.2019)</t>
+  </si>
+  <si>
+    <t>Дата поставки  03.10.2019 (c остаточным ресурсом 100 %)</t>
+  </si>
+  <si>
+    <t>№ п/п</t>
+  </si>
+  <si>
+    <t>Наименование деталей</t>
+  </si>
+  <si>
+    <t>Кол-во по ТТН, шт</t>
+  </si>
+  <si>
+    <t>Фактическое количество деталей по акту приемки, шт.</t>
+  </si>
+  <si>
+    <t>Кол-во непригодных, шт.</t>
+  </si>
+  <si>
+    <t>Фактически пригодных деталей, шт.</t>
+  </si>
+  <si>
+    <t>Остаточный ресурс детали, %</t>
+  </si>
+  <si>
+    <t>Процесс эксплуатации формокомплекта</t>
+  </si>
+  <si>
+    <t>Начальный ресурс формо-комплекта, шт.</t>
+  </si>
+  <si>
+    <t>Дата установки формо-комплекта</t>
+  </si>
+  <si>
+    <t>Дата      снятия формо-комплекта</t>
+  </si>
+  <si>
+    <t>Дата текущего контроля</t>
+  </si>
+  <si>
+    <t>Количество выпущеной продукции, шт.</t>
+  </si>
+  <si>
+    <t>Количество капель, прошедших через формы, шт.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выработка формо-комплекта            в ,% </t>
+  </si>
+  <si>
+    <t>Остаточный ресурс формо-комплекта, шт.</t>
+  </si>
+  <si>
+    <t>Остаточный ресурс формо-комплекта, %.</t>
+  </si>
+  <si>
+    <t>Итого:</t>
+  </si>
+  <si>
+    <t>Остаточный ресурс формокомплекта</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>сутки</t>
+  </si>
+  <si>
+    <t>Начальник УРФ                                             А.Д. Гавриленко</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="41" x14ac:knownFonts="1">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+  </numFmts>
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -672,8 +762,124 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="61"/>
+      <name val="Arial CYR"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="Arial CYR"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="15"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="10"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="14"/>
+      <name val="Arial CYR"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -728,8 +934,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="93">
+  <borders count="99">
     <border>
       <left/>
       <right/>
@@ -1847,13 +2071,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="528">
+  <cellXfs count="633">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3012,6 +3314,229 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="98" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="47" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="47" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3062,6 +3587,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3421,11 +3968,17 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
     <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Процентный" xfId="4" builtinId="5"/>
+    <cellStyle name="Финансовый" xfId="3" builtinId="3"/>
   </cellStyles>
   <dxfs count="20">
     <dxf>
@@ -5351,6 +5904,106 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Детали ф-тов"/>
+      <sheetName val="Паспорт"/>
+      <sheetName val="Данные"/>
+      <sheetName val="Акт приемки"/>
+      <sheetName val="Чист. форма"/>
+      <sheetName val="Чист.  поддон"/>
+      <sheetName val="Черн. форма"/>
+      <sheetName val="Черн. поддон"/>
+      <sheetName val="Горл. кольцо"/>
+      <sheetName val="Финиш. кольцо"/>
+      <sheetName val="Плунжер"/>
+      <sheetName val="Втулка"/>
+      <sheetName val="Дут. головка"/>
+      <sheetName val="Воронка"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Чистовая форма</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Чистовой поддон</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Черновая форма</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Черновой поддон</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Горловое кольцо</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Направляющее кольцо</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Плунжер</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Втулка плунжера</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Хватки</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Воронка</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Плита охлаждения</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Дутьевая головка</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -5640,8 +6293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5653,25 +6306,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="392" t="s">
+      <c r="A1" s="485" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="396"/>
-      <c r="C1" s="396"/>
-      <c r="D1" s="396"/>
-      <c r="E1" s="396"/>
+      <c r="B1" s="489"/>
+      <c r="C1" s="489"/>
+      <c r="D1" s="489"/>
+      <c r="E1" s="489"/>
       <c r="G1" s="371" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="393" t="s">
+      <c r="A2" s="486" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="394"/>
-      <c r="C2" s="394"/>
-      <c r="D2" s="394"/>
-      <c r="E2" s="395"/>
+      <c r="B2" s="487"/>
+      <c r="C2" s="487"/>
+      <c r="D2" s="487"/>
+      <c r="E2" s="488"/>
       <c r="G2" s="370" t="s">
         <v>79</v>
       </c>
@@ -5682,45 +6335,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="397" t="s">
+      <c r="A4" s="490" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="398"/>
-      <c r="C4" s="398"/>
-      <c r="D4" s="398"/>
-      <c r="E4" s="398"/>
+      <c r="B4" s="491"/>
+      <c r="C4" s="491"/>
+      <c r="D4" s="491"/>
+      <c r="E4" s="491"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="399" t="s">
+      <c r="A5" s="492" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="400"/>
-      <c r="C5" s="400"/>
-      <c r="D5" s="400"/>
-      <c r="E5" s="401"/>
+      <c r="B5" s="493"/>
+      <c r="C5" s="493"/>
+      <c r="D5" s="493"/>
+      <c r="E5" s="494"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="392" t="s">
+      <c r="A7" s="485" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="396"/>
-      <c r="C7" s="396"/>
-      <c r="D7" s="396"/>
-      <c r="E7" s="396"/>
+      <c r="B7" s="489"/>
+      <c r="C7" s="489"/>
+      <c r="D7" s="489"/>
+      <c r="E7" s="489"/>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="402"/>
-      <c r="B8" s="403"/>
-      <c r="C8" s="403"/>
-      <c r="D8" s="403"/>
-      <c r="E8" s="404"/>
+      <c r="A8" s="495"/>
+      <c r="B8" s="496"/>
+      <c r="C8" s="496"/>
+      <c r="D8" s="496"/>
+      <c r="E8" s="497"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="392" t="s">
+      <c r="A10" s="485" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="392"/>
+      <c r="B10" s="485"/>
       <c r="C10" s="372"/>
       <c r="D10" s="380" t="s">
         <v>94</v>
@@ -5731,33 +6384,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="390"/>
-      <c r="B11" s="391"/>
+      <c r="A11" s="483"/>
+      <c r="B11" s="484"/>
       <c r="D11" s="379">
         <v>43761</v>
       </c>
-      <c r="F11" s="405" t="s">
+      <c r="F11" s="498" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="405"/>
-      <c r="H11" s="405"/>
-      <c r="I11" s="405"/>
-      <c r="J11" s="406" t="s">
+      <c r="G11" s="498"/>
+      <c r="H11" s="498"/>
+      <c r="I11" s="498"/>
+      <c r="J11" s="499" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="406"/>
+      <c r="K11" s="499"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="405" t="s">
+      <c r="F12" s="498" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="405"/>
-      <c r="H12" s="405"/>
-      <c r="I12" s="405"/>
-      <c r="J12" s="406" t="s">
+      <c r="G12" s="498"/>
+      <c r="H12" s="498"/>
+      <c r="I12" s="498"/>
+      <c r="J12" s="499" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="406"/>
+      <c r="K12" s="499"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="373" t="s">
@@ -5769,16 +6422,16 @@
       <c r="C13" s="384" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="405" t="s">
+      <c r="F13" s="498" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="405"/>
-      <c r="H13" s="405"/>
-      <c r="I13" s="405"/>
-      <c r="J13" s="406" t="s">
+      <c r="G13" s="498"/>
+      <c r="H13" s="498"/>
+      <c r="I13" s="498"/>
+      <c r="J13" s="499" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="406"/>
+      <c r="K13" s="499"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="375" t="s">
@@ -5932,11 +6585,11 @@
       <c r="A28" s="381"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="389" t="s">
+      <c r="A29" s="482" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="389"/>
-      <c r="C29" s="389"/>
+      <c r="B29" s="482"/>
+      <c r="C29" s="482"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -5967,6 +6620,619 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S20"/>
+  <sheetViews>
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.33203125" style="169" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" style="169" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="169" customWidth="1"/>
+    <col min="4" max="5" width="6.33203125" style="169" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" style="169" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="169" customWidth="1"/>
+    <col min="8" max="18" width="9" style="169" customWidth="1"/>
+    <col min="19" max="19" width="1.44140625" style="169" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="169"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="165"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="168"/>
+    </row>
+    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="170"/>
+      <c r="B2" s="589"/>
+      <c r="C2" s="590"/>
+      <c r="D2" s="591"/>
+      <c r="E2" s="598" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="599"/>
+      <c r="G2" s="599"/>
+      <c r="H2" s="600"/>
+      <c r="I2" s="604" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="605"/>
+      <c r="K2" s="608">
+        <f>Данные!B20</f>
+        <v>50</v>
+      </c>
+      <c r="L2" s="609"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="620"/>
+      <c r="Q2" s="620"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="175"/>
+    </row>
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="170"/>
+      <c r="B3" s="592"/>
+      <c r="C3" s="593"/>
+      <c r="D3" s="594"/>
+      <c r="E3" s="601" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="602"/>
+      <c r="G3" s="602"/>
+      <c r="H3" s="603"/>
+      <c r="I3" s="606"/>
+      <c r="J3" s="607"/>
+      <c r="K3" s="610"/>
+      <c r="L3" s="611"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="177"/>
+      <c r="O3" s="177"/>
+      <c r="P3" s="177"/>
+      <c r="Q3" s="177"/>
+      <c r="R3" s="178"/>
+      <c r="S3" s="175"/>
+    </row>
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="170"/>
+      <c r="B4" s="595"/>
+      <c r="C4" s="596"/>
+      <c r="D4" s="597"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="250"/>
+      <c r="G4" s="250"/>
+      <c r="H4" s="250"/>
+      <c r="I4" s="251"/>
+      <c r="J4" s="249"/>
+      <c r="K4" s="252"/>
+      <c r="L4" s="253"/>
+      <c r="M4" s="176"/>
+      <c r="N4" s="177"/>
+      <c r="O4" s="177"/>
+      <c r="P4" s="177"/>
+      <c r="Q4" s="177"/>
+      <c r="R4" s="178"/>
+      <c r="S4" s="175"/>
+    </row>
+    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="170"/>
+      <c r="B5" s="543" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="582"/>
+      <c r="D5" s="492" t="str">
+        <f>Данные!$A5</f>
+        <v>PCI</v>
+      </c>
+      <c r="E5" s="493"/>
+      <c r="F5" s="493"/>
+      <c r="G5" s="493"/>
+      <c r="H5" s="494"/>
+      <c r="I5" s="583"/>
+      <c r="J5" s="584"/>
+      <c r="K5" s="585"/>
+      <c r="L5" s="494"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="177"/>
+      <c r="O5" s="177"/>
+      <c r="P5" s="177"/>
+      <c r="Q5" s="177"/>
+      <c r="R5" s="178"/>
+      <c r="S5" s="175"/>
+    </row>
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="170"/>
+      <c r="B6" s="543" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="582"/>
+      <c r="D6" s="486" t="str">
+        <f>Данные!$A2</f>
+        <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
+      </c>
+      <c r="E6" s="548"/>
+      <c r="F6" s="548"/>
+      <c r="G6" s="548"/>
+      <c r="H6" s="549"/>
+      <c r="I6" s="583"/>
+      <c r="J6" s="584"/>
+      <c r="K6" s="585"/>
+      <c r="L6" s="494"/>
+      <c r="M6" s="176"/>
+      <c r="N6" s="177"/>
+      <c r="O6" s="177"/>
+      <c r="P6" s="177"/>
+      <c r="Q6" s="177"/>
+      <c r="R6" s="178"/>
+      <c r="S6" s="175"/>
+    </row>
+    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="170"/>
+      <c r="B7" s="550" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="586"/>
+      <c r="D7" s="495">
+        <f>Данные!$A8</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="552"/>
+      <c r="F7" s="552"/>
+      <c r="G7" s="552"/>
+      <c r="H7" s="553"/>
+      <c r="I7" s="587" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="586"/>
+      <c r="K7" s="483">
+        <f>Данные!$A11</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="484"/>
+      <c r="M7" s="179"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177"/>
+      <c r="Q7" s="177"/>
+      <c r="R7" s="178"/>
+      <c r="S7" s="175"/>
+    </row>
+    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="180"/>
+      <c r="B8" s="181"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="183"/>
+      <c r="K8" s="183"/>
+      <c r="L8" s="183"/>
+      <c r="M8" s="184"/>
+      <c r="N8" s="184"/>
+      <c r="O8" s="183"/>
+      <c r="P8" s="183"/>
+      <c r="Q8" s="183"/>
+      <c r="R8" s="185"/>
+      <c r="S8" s="186"/>
+    </row>
+    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="187"/>
+      <c r="B9" s="254" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="255" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="256" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="256" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="257" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="258" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="188"/>
+      <c r="I9" s="188"/>
+      <c r="J9" s="188"/>
+      <c r="K9" s="188"/>
+      <c r="L9" s="188"/>
+      <c r="M9" s="201"/>
+      <c r="N9" s="344"/>
+      <c r="O9" s="344"/>
+      <c r="P9" s="345"/>
+      <c r="Q9" s="344"/>
+      <c r="R9" s="346"/>
+      <c r="S9" s="202"/>
+    </row>
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="180"/>
+      <c r="B10" s="189" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="190">
+        <v>74.75</v>
+      </c>
+      <c r="D10" s="190">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="190">
+        <v>-0.05</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
+      <c r="J10" s="190"/>
+      <c r="K10" s="190"/>
+      <c r="L10" s="190"/>
+      <c r="M10" s="190"/>
+      <c r="N10" s="347" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="347"/>
+      <c r="P10" s="347"/>
+      <c r="Q10" s="347"/>
+      <c r="R10" s="348"/>
+      <c r="S10" s="186"/>
+    </row>
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="180"/>
+      <c r="B11" s="191" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="192">
+        <v>21.1</v>
+      </c>
+      <c r="D11" s="192">
+        <v>0.02</v>
+      </c>
+      <c r="E11" s="192">
+        <v>0</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="192"/>
+      <c r="I11" s="192"/>
+      <c r="J11" s="192"/>
+      <c r="K11" s="192"/>
+      <c r="L11" s="192"/>
+      <c r="M11" s="192"/>
+      <c r="N11" s="349"/>
+      <c r="O11" s="349"/>
+      <c r="P11" s="349"/>
+      <c r="Q11" s="349"/>
+      <c r="R11" s="350"/>
+      <c r="S11" s="186"/>
+    </row>
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="180"/>
+      <c r="B12" s="191" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="359">
+        <v>45.2</v>
+      </c>
+      <c r="D12" s="192">
+        <v>0</v>
+      </c>
+      <c r="E12" s="203">
+        <v>-0.1</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="192"/>
+      <c r="I12" s="192"/>
+      <c r="J12" s="192"/>
+      <c r="K12" s="192"/>
+      <c r="L12" s="192"/>
+      <c r="M12" s="192"/>
+      <c r="N12" s="349"/>
+      <c r="O12" s="349"/>
+      <c r="P12" s="349"/>
+      <c r="Q12" s="349"/>
+      <c r="R12" s="350"/>
+      <c r="S12" s="186"/>
+    </row>
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="180"/>
+      <c r="B13" s="191" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="359">
+        <v>37</v>
+      </c>
+      <c r="D13" s="192">
+        <v>0</v>
+      </c>
+      <c r="E13" s="192">
+        <v>-0.1</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="192"/>
+      <c r="I13" s="192"/>
+      <c r="J13" s="192"/>
+      <c r="K13" s="192"/>
+      <c r="L13" s="192"/>
+      <c r="M13" s="192"/>
+      <c r="N13" s="349"/>
+      <c r="O13" s="349"/>
+      <c r="P13" s="349"/>
+      <c r="Q13" s="349"/>
+      <c r="R13" s="350"/>
+      <c r="S13" s="186"/>
+    </row>
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="180"/>
+      <c r="B14" s="191" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="359">
+        <v>28.5</v>
+      </c>
+      <c r="D14" s="192">
+        <v>0</v>
+      </c>
+      <c r="E14" s="192">
+        <v>-0.1</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="192"/>
+      <c r="I14" s="192"/>
+      <c r="J14" s="192"/>
+      <c r="K14" s="192"/>
+      <c r="L14" s="192"/>
+      <c r="M14" s="192"/>
+      <c r="N14" s="349"/>
+      <c r="O14" s="349"/>
+      <c r="P14" s="349"/>
+      <c r="Q14" s="349"/>
+      <c r="R14" s="350"/>
+      <c r="S14" s="186"/>
+    </row>
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="180"/>
+      <c r="B15" s="191" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="359">
+        <v>9.5</v>
+      </c>
+      <c r="D15" s="192">
+        <v>0.02</v>
+      </c>
+      <c r="E15" s="192">
+        <v>-0.05</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="192"/>
+      <c r="I15" s="192"/>
+      <c r="J15" s="192"/>
+      <c r="K15" s="192"/>
+      <c r="L15" s="192"/>
+      <c r="M15" s="192"/>
+      <c r="N15" s="349"/>
+      <c r="O15" s="349"/>
+      <c r="P15" s="349"/>
+      <c r="Q15" s="349"/>
+      <c r="R15" s="350"/>
+      <c r="S15" s="186"/>
+    </row>
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="180"/>
+      <c r="B16" s="191" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="359">
+        <v>23.8</v>
+      </c>
+      <c r="D16" s="192">
+        <v>0</v>
+      </c>
+      <c r="E16" s="192">
+        <v>-0.05</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="192"/>
+      <c r="I16" s="192"/>
+      <c r="J16" s="192"/>
+      <c r="K16" s="192"/>
+      <c r="L16" s="192"/>
+      <c r="M16" s="192"/>
+      <c r="N16" s="349"/>
+      <c r="O16" s="349"/>
+      <c r="P16" s="349"/>
+      <c r="Q16" s="349"/>
+      <c r="R16" s="350"/>
+      <c r="S16" s="186"/>
+    </row>
+    <row r="17" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="180"/>
+      <c r="B17" s="191" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="192">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="D17" s="192">
+        <v>0.05</v>
+      </c>
+      <c r="E17" s="192">
+        <v>0</v>
+      </c>
+      <c r="F17" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="192"/>
+      <c r="L17" s="192"/>
+      <c r="M17" s="192"/>
+      <c r="N17" s="349"/>
+      <c r="O17" s="349"/>
+      <c r="P17" s="349"/>
+      <c r="Q17" s="349"/>
+      <c r="R17" s="350"/>
+      <c r="S17" s="186"/>
+    </row>
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="180"/>
+      <c r="B18" s="191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="359">
+        <v>28.5</v>
+      </c>
+      <c r="D18" s="192">
+        <v>0</v>
+      </c>
+      <c r="E18" s="192">
+        <v>-0.03</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="192"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="192"/>
+      <c r="K18" s="192"/>
+      <c r="L18" s="192"/>
+      <c r="M18" s="192"/>
+      <c r="N18" s="349"/>
+      <c r="O18" s="349"/>
+      <c r="P18" s="349"/>
+      <c r="Q18" s="349"/>
+      <c r="R18" s="350"/>
+      <c r="S18" s="186"/>
+    </row>
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="193"/>
+      <c r="B19" s="194"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="195"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="194"/>
+      <c r="J19" s="194"/>
+      <c r="K19" s="194"/>
+      <c r="L19" s="194"/>
+      <c r="M19" s="194"/>
+      <c r="N19" s="194"/>
+      <c r="O19" s="194"/>
+      <c r="P19" s="194"/>
+      <c r="Q19" s="194"/>
+      <c r="R19" s="194"/>
+      <c r="S19" s="196"/>
+    </row>
+    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="R14:R15">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"ok"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="notBetween">
+      <formula>$C14+$D14</formula>
+      <formula>$C14+$E14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S20"/>
   <sheetViews>
@@ -6013,47 +7279,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="209"/>
-      <c r="B2" s="486"/>
-      <c r="C2" s="487"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="495" t="s">
+      <c r="B2" s="589"/>
+      <c r="C2" s="590"/>
+      <c r="D2" s="591"/>
+      <c r="E2" s="598" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="496"/>
-      <c r="G2" s="496"/>
-      <c r="H2" s="497"/>
-      <c r="I2" s="501" t="s">
+      <c r="F2" s="599"/>
+      <c r="G2" s="599"/>
+      <c r="H2" s="600"/>
+      <c r="I2" s="604" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="502"/>
-      <c r="K2" s="505">
+      <c r="J2" s="605"/>
+      <c r="K2" s="608">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="L2" s="506"/>
+      <c r="L2" s="609"/>
       <c r="M2" s="210"/>
       <c r="N2" s="211"/>
       <c r="O2" s="212"/>
-      <c r="P2" s="521"/>
-      <c r="Q2" s="521"/>
+      <c r="P2" s="624"/>
+      <c r="Q2" s="624"/>
       <c r="R2" s="213"/>
       <c r="S2" s="214"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="209"/>
-      <c r="B3" s="489"/>
-      <c r="C3" s="490"/>
-      <c r="D3" s="491"/>
-      <c r="E3" s="498" t="s">
+      <c r="B3" s="592"/>
+      <c r="C3" s="593"/>
+      <c r="D3" s="594"/>
+      <c r="E3" s="601" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="499"/>
-      <c r="G3" s="499"/>
-      <c r="H3" s="500"/>
-      <c r="I3" s="503"/>
-      <c r="J3" s="504"/>
-      <c r="K3" s="507"/>
-      <c r="L3" s="508"/>
+      <c r="F3" s="602"/>
+      <c r="G3" s="602"/>
+      <c r="H3" s="603"/>
+      <c r="I3" s="606"/>
+      <c r="J3" s="607"/>
+      <c r="K3" s="610"/>
+      <c r="L3" s="611"/>
       <c r="M3" s="215"/>
       <c r="N3" s="216"/>
       <c r="O3" s="216"/>
@@ -6064,9 +7330,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="209"/>
-      <c r="B4" s="492"/>
-      <c r="C4" s="493"/>
-      <c r="D4" s="494"/>
+      <c r="B4" s="595"/>
+      <c r="C4" s="596"/>
+      <c r="D4" s="597"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -6085,22 +7351,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="209"/>
-      <c r="B5" s="440" t="s">
+      <c r="B5" s="543" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="479"/>
-      <c r="D5" s="399" t="str">
+      <c r="C5" s="582"/>
+      <c r="D5" s="492" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="480"/>
-      <c r="J5" s="481"/>
-      <c r="K5" s="482"/>
-      <c r="L5" s="401"/>
+      <c r="E5" s="493"/>
+      <c r="F5" s="493"/>
+      <c r="G5" s="493"/>
+      <c r="H5" s="494"/>
+      <c r="I5" s="583"/>
+      <c r="J5" s="584"/>
+      <c r="K5" s="585"/>
+      <c r="L5" s="494"/>
       <c r="M5" s="218"/>
       <c r="N5" s="216"/>
       <c r="O5" s="216"/>
@@ -6111,22 +7377,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="209"/>
-      <c r="B6" s="440" t="s">
+      <c r="B6" s="543" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="479"/>
-      <c r="D6" s="393" t="str">
+      <c r="C6" s="582"/>
+      <c r="D6" s="486" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="445"/>
-      <c r="F6" s="445"/>
-      <c r="G6" s="445"/>
-      <c r="H6" s="446"/>
-      <c r="I6" s="480"/>
-      <c r="J6" s="481"/>
-      <c r="K6" s="482"/>
-      <c r="L6" s="401"/>
+      <c r="E6" s="548"/>
+      <c r="F6" s="548"/>
+      <c r="G6" s="548"/>
+      <c r="H6" s="549"/>
+      <c r="I6" s="583"/>
+      <c r="J6" s="584"/>
+      <c r="K6" s="585"/>
+      <c r="L6" s="494"/>
       <c r="M6" s="215"/>
       <c r="N6" s="216"/>
       <c r="O6" s="216"/>
@@ -6137,27 +7403,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="209"/>
-      <c r="B7" s="447" t="s">
+      <c r="B7" s="550" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="483"/>
-      <c r="D7" s="402">
+      <c r="C7" s="586"/>
+      <c r="D7" s="495">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="449"/>
-      <c r="F7" s="449"/>
-      <c r="G7" s="449"/>
-      <c r="H7" s="450"/>
-      <c r="I7" s="484" t="s">
+      <c r="E7" s="552"/>
+      <c r="F7" s="552"/>
+      <c r="G7" s="552"/>
+      <c r="H7" s="553"/>
+      <c r="I7" s="587" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="483"/>
-      <c r="K7" s="390">
+      <c r="J7" s="586"/>
+      <c r="K7" s="483">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="484"/>
       <c r="M7" s="218"/>
       <c r="N7" s="216"/>
       <c r="O7" s="216"/>
@@ -6486,12 +7752,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="219"/>
-      <c r="B18" s="518" t="s">
+      <c r="B18" s="621" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="519"/>
-      <c r="D18" s="519"/>
-      <c r="E18" s="520"/>
+      <c r="C18" s="622"/>
+      <c r="D18" s="622"/>
+      <c r="E18" s="623"/>
       <c r="F18" s="116" t="s">
         <v>16</v>
       </c>
@@ -6592,7 +7858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S21"/>
   <sheetViews>
@@ -6639,47 +7905,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="133"/>
-      <c r="B2" s="486"/>
-      <c r="C2" s="487"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="495" t="s">
+      <c r="B2" s="589"/>
+      <c r="C2" s="590"/>
+      <c r="D2" s="591"/>
+      <c r="E2" s="598" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="496"/>
-      <c r="G2" s="496"/>
-      <c r="H2" s="497"/>
-      <c r="I2" s="501" t="s">
+      <c r="F2" s="599"/>
+      <c r="G2" s="599"/>
+      <c r="H2" s="600"/>
+      <c r="I2" s="604" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="502"/>
-      <c r="K2" s="505">
+      <c r="J2" s="605"/>
+      <c r="K2" s="608">
         <f>Данные!B26</f>
         <v>24</v>
       </c>
-      <c r="L2" s="506"/>
+      <c r="L2" s="609"/>
       <c r="M2" s="134"/>
       <c r="N2" s="135"/>
       <c r="O2" s="136"/>
-      <c r="P2" s="522"/>
-      <c r="Q2" s="522"/>
+      <c r="P2" s="625"/>
+      <c r="Q2" s="625"/>
       <c r="R2" s="137"/>
       <c r="S2" s="138"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="133"/>
-      <c r="B3" s="489"/>
-      <c r="C3" s="490"/>
-      <c r="D3" s="491"/>
-      <c r="E3" s="498" t="s">
+      <c r="B3" s="592"/>
+      <c r="C3" s="593"/>
+      <c r="D3" s="594"/>
+      <c r="E3" s="601" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="499"/>
-      <c r="G3" s="499"/>
-      <c r="H3" s="500"/>
-      <c r="I3" s="503"/>
-      <c r="J3" s="504"/>
-      <c r="K3" s="507"/>
-      <c r="L3" s="508"/>
+      <c r="F3" s="602"/>
+      <c r="G3" s="602"/>
+      <c r="H3" s="603"/>
+      <c r="I3" s="606"/>
+      <c r="J3" s="607"/>
+      <c r="K3" s="610"/>
+      <c r="L3" s="611"/>
       <c r="M3" s="139"/>
       <c r="N3" s="140"/>
       <c r="O3" s="140"/>
@@ -6690,9 +7956,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="133"/>
-      <c r="B4" s="492"/>
-      <c r="C4" s="493"/>
-      <c r="D4" s="494"/>
+      <c r="B4" s="595"/>
+      <c r="C4" s="596"/>
+      <c r="D4" s="597"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -6711,22 +7977,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="133"/>
-      <c r="B5" s="440" t="s">
+      <c r="B5" s="543" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="479"/>
-      <c r="D5" s="399" t="str">
+      <c r="C5" s="582"/>
+      <c r="D5" s="492" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="480"/>
-      <c r="J5" s="481"/>
-      <c r="K5" s="482"/>
-      <c r="L5" s="401"/>
+      <c r="E5" s="493"/>
+      <c r="F5" s="493"/>
+      <c r="G5" s="493"/>
+      <c r="H5" s="494"/>
+      <c r="I5" s="583"/>
+      <c r="J5" s="584"/>
+      <c r="K5" s="585"/>
+      <c r="L5" s="494"/>
       <c r="M5" s="142"/>
       <c r="N5" s="140"/>
       <c r="O5" s="140"/>
@@ -6737,22 +8003,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="133"/>
-      <c r="B6" s="440" t="s">
+      <c r="B6" s="543" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="479"/>
-      <c r="D6" s="393" t="str">
+      <c r="C6" s="582"/>
+      <c r="D6" s="486" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="445"/>
-      <c r="F6" s="445"/>
-      <c r="G6" s="445"/>
-      <c r="H6" s="446"/>
-      <c r="I6" s="480"/>
-      <c r="J6" s="481"/>
-      <c r="K6" s="482"/>
-      <c r="L6" s="401"/>
+      <c r="E6" s="548"/>
+      <c r="F6" s="548"/>
+      <c r="G6" s="548"/>
+      <c r="H6" s="549"/>
+      <c r="I6" s="583"/>
+      <c r="J6" s="584"/>
+      <c r="K6" s="585"/>
+      <c r="L6" s="494"/>
       <c r="M6" s="139"/>
       <c r="N6" s="140"/>
       <c r="O6" s="140"/>
@@ -6763,27 +8029,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="133"/>
-      <c r="B7" s="447" t="s">
+      <c r="B7" s="550" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="483"/>
-      <c r="D7" s="402">
+      <c r="C7" s="586"/>
+      <c r="D7" s="495">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="449"/>
-      <c r="F7" s="449"/>
-      <c r="G7" s="449"/>
-      <c r="H7" s="450"/>
-      <c r="I7" s="484" t="s">
+      <c r="E7" s="552"/>
+      <c r="F7" s="552"/>
+      <c r="G7" s="552"/>
+      <c r="H7" s="553"/>
+      <c r="I7" s="587" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="483"/>
-      <c r="K7" s="390">
+      <c r="J7" s="586"/>
+      <c r="K7" s="483">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="484"/>
       <c r="M7" s="142"/>
       <c r="N7" s="140"/>
       <c r="O7" s="140"/>
@@ -7200,7 +8466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
@@ -7247,47 +8513,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="266"/>
-      <c r="B2" s="486"/>
-      <c r="C2" s="487"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="495" t="s">
+      <c r="B2" s="589"/>
+      <c r="C2" s="590"/>
+      <c r="D2" s="591"/>
+      <c r="E2" s="598" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="496"/>
-      <c r="G2" s="496"/>
-      <c r="H2" s="497"/>
-      <c r="I2" s="501" t="s">
+      <c r="F2" s="599"/>
+      <c r="G2" s="599"/>
+      <c r="H2" s="600"/>
+      <c r="I2" s="604" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="502"/>
-      <c r="K2" s="523">
+      <c r="J2" s="605"/>
+      <c r="K2" s="626">
         <f>Данные!B23</f>
         <v>24</v>
       </c>
-      <c r="L2" s="524"/>
+      <c r="L2" s="627"/>
       <c r="M2" s="267"/>
       <c r="N2" s="268"/>
       <c r="O2" s="269"/>
-      <c r="P2" s="527"/>
-      <c r="Q2" s="527"/>
+      <c r="P2" s="630"/>
+      <c r="Q2" s="630"/>
       <c r="R2" s="270"/>
       <c r="S2" s="271"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="266"/>
-      <c r="B3" s="489"/>
-      <c r="C3" s="490"/>
-      <c r="D3" s="491"/>
-      <c r="E3" s="498" t="s">
+      <c r="B3" s="592"/>
+      <c r="C3" s="593"/>
+      <c r="D3" s="594"/>
+      <c r="E3" s="601" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="499"/>
-      <c r="G3" s="499"/>
-      <c r="H3" s="500"/>
-      <c r="I3" s="503"/>
-      <c r="J3" s="504"/>
-      <c r="K3" s="525"/>
-      <c r="L3" s="526"/>
+      <c r="F3" s="602"/>
+      <c r="G3" s="602"/>
+      <c r="H3" s="603"/>
+      <c r="I3" s="606"/>
+      <c r="J3" s="607"/>
+      <c r="K3" s="628"/>
+      <c r="L3" s="629"/>
       <c r="M3" s="272"/>
       <c r="N3" s="273"/>
       <c r="O3" s="273"/>
@@ -7298,9 +8564,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="266"/>
-      <c r="B4" s="492"/>
-      <c r="C4" s="493"/>
-      <c r="D4" s="494"/>
+      <c r="B4" s="595"/>
+      <c r="C4" s="596"/>
+      <c r="D4" s="597"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7319,22 +8585,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="266"/>
-      <c r="B5" s="440" t="s">
+      <c r="B5" s="543" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="479"/>
-      <c r="D5" s="399" t="str">
+      <c r="C5" s="582"/>
+      <c r="D5" s="492" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="480"/>
-      <c r="J5" s="481"/>
-      <c r="K5" s="482"/>
-      <c r="L5" s="401"/>
+      <c r="E5" s="493"/>
+      <c r="F5" s="493"/>
+      <c r="G5" s="493"/>
+      <c r="H5" s="494"/>
+      <c r="I5" s="583"/>
+      <c r="J5" s="584"/>
+      <c r="K5" s="585"/>
+      <c r="L5" s="494"/>
       <c r="M5" s="275"/>
       <c r="N5" s="273"/>
       <c r="O5" s="273"/>
@@ -7345,22 +8611,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="266"/>
-      <c r="B6" s="440" t="s">
+      <c r="B6" s="543" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="479"/>
-      <c r="D6" s="393" t="str">
+      <c r="C6" s="582"/>
+      <c r="D6" s="486" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="445"/>
-      <c r="F6" s="445"/>
-      <c r="G6" s="445"/>
-      <c r="H6" s="446"/>
-      <c r="I6" s="480"/>
-      <c r="J6" s="481"/>
-      <c r="K6" s="482"/>
-      <c r="L6" s="401"/>
+      <c r="E6" s="548"/>
+      <c r="F6" s="548"/>
+      <c r="G6" s="548"/>
+      <c r="H6" s="549"/>
+      <c r="I6" s="583"/>
+      <c r="J6" s="584"/>
+      <c r="K6" s="585"/>
+      <c r="L6" s="494"/>
       <c r="M6" s="272"/>
       <c r="N6" s="273"/>
       <c r="O6" s="273"/>
@@ -7371,27 +8637,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="266"/>
-      <c r="B7" s="447" t="s">
+      <c r="B7" s="550" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="483"/>
-      <c r="D7" s="402">
+      <c r="C7" s="586"/>
+      <c r="D7" s="495">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="449"/>
-      <c r="F7" s="449"/>
-      <c r="G7" s="449"/>
-      <c r="H7" s="450"/>
-      <c r="I7" s="484" t="s">
+      <c r="E7" s="552"/>
+      <c r="F7" s="552"/>
+      <c r="G7" s="552"/>
+      <c r="H7" s="553"/>
+      <c r="I7" s="587" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="483"/>
-      <c r="K7" s="390">
+      <c r="J7" s="586"/>
+      <c r="K7" s="483">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="484"/>
       <c r="M7" s="275"/>
       <c r="N7" s="273"/>
       <c r="O7" s="273"/>
@@ -7664,6 +8930,7 @@
     <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
@@ -7681,7 +8948,6 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -7708,10 +8974,1070 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="390"/>
+      <c r="B1" s="632" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="390"/>
+      <c r="D1" s="631" t="str">
+        <f>Данные!A2</f>
+        <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
+      </c>
+      <c r="E1" s="390"/>
+      <c r="F1" s="390"/>
+      <c r="G1" s="390"/>
+      <c r="H1" s="390"/>
+      <c r="I1" s="390"/>
+      <c r="J1" s="390"/>
+      <c r="K1" s="390"/>
+      <c r="L1" s="390"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="390"/>
+      <c r="B2" s="390" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="390"/>
+      <c r="D2" s="390"/>
+      <c r="E2" s="390"/>
+      <c r="F2" s="390"/>
+      <c r="G2" s="390"/>
+      <c r="H2" s="390"/>
+      <c r="I2" s="390"/>
+      <c r="J2" s="391"/>
+      <c r="K2" s="391"/>
+      <c r="L2" s="391"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="502" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="502"/>
+      <c r="C3" s="502"/>
+      <c r="D3" s="502"/>
+      <c r="E3" s="502"/>
+      <c r="F3" s="502"/>
+      <c r="G3" s="502"/>
+      <c r="H3" s="502"/>
+      <c r="I3" s="502"/>
+      <c r="K3" s="392"/>
+      <c r="L3" s="392"/>
+      <c r="M3" s="393"/>
+    </row>
+    <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="393"/>
+      <c r="B4" s="394"/>
+      <c r="C4" s="394"/>
+      <c r="F4" s="395"/>
+      <c r="G4" s="396"/>
+      <c r="H4" s="395"/>
+      <c r="I4" s="395"/>
+      <c r="J4" s="392"/>
+      <c r="K4" s="392"/>
+      <c r="M4" s="372"/>
+    </row>
+    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="397" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="398" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="398" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="399" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="398" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="398" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="398" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="400" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="401"/>
+      <c r="J5" s="401"/>
+      <c r="K5" s="401"/>
+      <c r="L5" s="401"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="402">
+        <v>1</v>
+      </c>
+      <c r="B6" s="403" t="str">
+        <f>[1]Данные!A14</f>
+        <v>Чистовая форма</v>
+      </c>
+      <c r="C6" s="382" t="str">
+        <f>Данные!C14</f>
+        <v>ХXI-КПМ-30-1-500-7</v>
+      </c>
+      <c r="D6" s="404">
+        <f>Данные!$B14</f>
+        <v>26</v>
+      </c>
+      <c r="E6" s="404">
+        <v>26</v>
+      </c>
+      <c r="F6" s="405"/>
+      <c r="G6" s="404">
+        <f>E6-F6</f>
+        <v>26</v>
+      </c>
+      <c r="H6" s="406"/>
+      <c r="I6" s="407"/>
+      <c r="J6" s="393"/>
+      <c r="K6" s="393"/>
+      <c r="L6" s="407"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="408">
+        <f>A6+1</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="409" t="str">
+        <f>[1]Данные!A15</f>
+        <v>Чистовой поддон</v>
+      </c>
+      <c r="C7" s="382" t="str">
+        <f>Данные!C15</f>
+        <v>ХXI-КПМ-30-1-500-7</v>
+      </c>
+      <c r="D7" s="410">
+        <f>Данные!$B15</f>
+        <v>26</v>
+      </c>
+      <c r="E7" s="410">
+        <v>26</v>
+      </c>
+      <c r="F7" s="389"/>
+      <c r="G7" s="410">
+        <f t="shared" ref="G7:G17" si="0">E7-F7</f>
+        <v>26</v>
+      </c>
+      <c r="H7" s="411"/>
+      <c r="I7" s="407"/>
+      <c r="J7" s="393"/>
+      <c r="K7" s="393"/>
+      <c r="L7" s="407"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="408">
+        <f t="shared" ref="A8:A17" si="1">A7+1</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="409" t="str">
+        <f>[1]Данные!A16</f>
+        <v>Черновая форма</v>
+      </c>
+      <c r="C8" s="382" t="str">
+        <f>Данные!C16</f>
+        <v>ХXI-КПМ-30-1-500-7</v>
+      </c>
+      <c r="D8" s="410">
+        <f>Данные!$B16</f>
+        <v>30</v>
+      </c>
+      <c r="E8" s="410">
+        <v>30</v>
+      </c>
+      <c r="F8" s="389"/>
+      <c r="G8" s="410">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H8" s="412"/>
+      <c r="I8" s="407"/>
+      <c r="J8" s="393"/>
+      <c r="K8" s="393"/>
+      <c r="L8" s="407"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="408">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="409" t="str">
+        <f>[1]Данные!A17</f>
+        <v>Черновой поддон</v>
+      </c>
+      <c r="C9" s="382" t="str">
+        <f>Данные!C17</f>
+        <v>ХXI-КПМ-30-1-500-7</v>
+      </c>
+      <c r="D9" s="410">
+        <f>Данные!$B17</f>
+        <v>30</v>
+      </c>
+      <c r="E9" s="410">
+        <v>30</v>
+      </c>
+      <c r="F9" s="389"/>
+      <c r="G9" s="410">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H9" s="412"/>
+      <c r="I9" s="407"/>
+      <c r="J9" s="413"/>
+      <c r="K9" s="393"/>
+      <c r="L9" s="407"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="408">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="409" t="str">
+        <f>[1]Данные!A18</f>
+        <v>Горловое кольцо</v>
+      </c>
+      <c r="C10" s="382" t="str">
+        <f>Данные!C18</f>
+        <v>ХXI-КПМ-30-1-500-7</v>
+      </c>
+      <c r="D10" s="410">
+        <f>Данные!$B18</f>
+        <v>70</v>
+      </c>
+      <c r="E10" s="410">
+        <v>70</v>
+      </c>
+      <c r="F10" s="389"/>
+      <c r="G10" s="410">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="H10" s="412"/>
+      <c r="I10" s="413"/>
+      <c r="J10" s="413"/>
+      <c r="K10" s="413"/>
+      <c r="L10" s="407"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="408">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="409" t="str">
+        <f>[1]Данные!A19</f>
+        <v>Направляющее кольцо</v>
+      </c>
+      <c r="C11" s="382" t="str">
+        <f>Данные!C19</f>
+        <v>ХXI-КПМ-30-1-500-7</v>
+      </c>
+      <c r="D11" s="410">
+        <f>Данные!$B19</f>
+        <v>70</v>
+      </c>
+      <c r="E11" s="410">
+        <v>70</v>
+      </c>
+      <c r="F11" s="389"/>
+      <c r="G11" s="410">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="H11" s="412"/>
+      <c r="I11" s="407"/>
+      <c r="J11" s="413"/>
+      <c r="K11" s="393"/>
+      <c r="L11" s="407"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="408">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="409" t="str">
+        <f>[1]Данные!A20</f>
+        <v>Плунжер</v>
+      </c>
+      <c r="C12" s="382" t="str">
+        <f>Данные!C20</f>
+        <v>ХXI-КПМ-30-1-500-7</v>
+      </c>
+      <c r="D12" s="410">
+        <f>Данные!$B20</f>
+        <v>50</v>
+      </c>
+      <c r="E12" s="410">
+        <v>50</v>
+      </c>
+      <c r="F12" s="414"/>
+      <c r="G12" s="410">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H12" s="412"/>
+      <c r="I12" s="413"/>
+      <c r="J12" s="413"/>
+      <c r="K12" s="413"/>
+      <c r="L12" s="407"/>
+      <c r="M12" s="415"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="408">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="409" t="str">
+        <f>[1]Данные!A21</f>
+        <v>Втулка плунжера</v>
+      </c>
+      <c r="C13" s="382" t="str">
+        <f>Данные!C21</f>
+        <v>ХXI-КПМ-30-1-500-7</v>
+      </c>
+      <c r="D13" s="410">
+        <f>Данные!$B21</f>
+        <v>24</v>
+      </c>
+      <c r="E13" s="410">
+        <v>24</v>
+      </c>
+      <c r="F13" s="416"/>
+      <c r="G13" s="410">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H13" s="412"/>
+      <c r="I13" s="413"/>
+      <c r="J13" s="413"/>
+      <c r="K13" s="413"/>
+      <c r="L13" s="407"/>
+      <c r="M13" s="415"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="408">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="409" t="str">
+        <f>[1]Данные!A22</f>
+        <v>Хватки</v>
+      </c>
+      <c r="C14" s="382">
+        <f>Данные!C22</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="410" t="str">
+        <f>Данные!$B22</f>
+        <v>нет</v>
+      </c>
+      <c r="E14" s="481" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="389"/>
+      <c r="G14" s="410" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H14" s="412" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="413"/>
+      <c r="J14" s="413"/>
+      <c r="K14" s="413"/>
+      <c r="L14" s="407"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="408">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="409" t="str">
+        <f>[1]Данные!A23</f>
+        <v>Воронка</v>
+      </c>
+      <c r="C15" s="382" t="str">
+        <f>Данные!C23</f>
+        <v>ХXI-КПМ-30-1-500-7</v>
+      </c>
+      <c r="D15" s="410">
+        <f>Данные!$B23</f>
+        <v>24</v>
+      </c>
+      <c r="E15" s="410">
+        <v>24</v>
+      </c>
+      <c r="F15" s="414"/>
+      <c r="G15" s="410">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H15" s="412"/>
+      <c r="I15" s="413"/>
+      <c r="J15" s="413"/>
+      <c r="K15" s="413"/>
+      <c r="L15" s="407"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="408">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B16" s="409" t="str">
+        <f>[1]Данные!A24</f>
+        <v>Плита охлаждения</v>
+      </c>
+      <c r="C16" s="382" t="str">
+        <f>Данные!C24</f>
+        <v>ХXI-КПМ-30-1-500-7</v>
+      </c>
+      <c r="D16" s="410">
+        <f>Данные!$B24</f>
+        <v>9</v>
+      </c>
+      <c r="E16" s="410">
+        <v>9</v>
+      </c>
+      <c r="F16" s="389"/>
+      <c r="G16" s="410">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H16" s="412"/>
+      <c r="I16" s="413"/>
+      <c r="J16" s="413"/>
+      <c r="K16" s="413"/>
+      <c r="L16" s="407"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="417">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B17" s="418" t="str">
+        <f>[1]Данные!A25</f>
+        <v>Дутьевая головка</v>
+      </c>
+      <c r="C17" s="419" t="str">
+        <f>Данные!C26</f>
+        <v>ХXI-КПМ-30-1-500-7</v>
+      </c>
+      <c r="D17" s="420">
+        <f>Данные!$B26</f>
+        <v>24</v>
+      </c>
+      <c r="E17" s="420">
+        <v>24</v>
+      </c>
+      <c r="F17" s="421"/>
+      <c r="G17" s="420">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H17" s="422"/>
+      <c r="I17" s="413"/>
+      <c r="J17" s="423"/>
+      <c r="K17" s="413"/>
+      <c r="L17" s="407"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="424"/>
+      <c r="B18" s="425"/>
+      <c r="C18" s="393"/>
+      <c r="D18" s="426"/>
+      <c r="E18" s="393"/>
+      <c r="F18" s="393"/>
+      <c r="G18" s="393"/>
+      <c r="H18" s="393"/>
+      <c r="I18" s="393"/>
+      <c r="J18" s="393"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="393"/>
+      <c r="B19" s="427" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="372"/>
+      <c r="D19" s="372"/>
+      <c r="E19" s="372"/>
+      <c r="F19" s="372"/>
+      <c r="G19" s="393"/>
+      <c r="H19" s="393"/>
+      <c r="I19" s="393"/>
+      <c r="J19" s="428"/>
+      <c r="K19" s="428"/>
+      <c r="L19" s="428"/>
+    </row>
+    <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="397" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="398" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="398" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="398" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="398" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="398" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="429" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" s="430" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" s="431" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" s="401"/>
+      <c r="K20" s="401"/>
+      <c r="L20" s="401"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="432">
+        <f>D6*700000</f>
+        <v>18200000</v>
+      </c>
+      <c r="B21" s="433">
+        <v>43759</v>
+      </c>
+      <c r="C21" s="434">
+        <v>43765</v>
+      </c>
+      <c r="D21" s="433">
+        <v>43769</v>
+      </c>
+      <c r="E21" s="435">
+        <v>948096</v>
+      </c>
+      <c r="F21" s="435">
+        <v>1031915</v>
+      </c>
+      <c r="G21" s="436">
+        <f>F21/A$21</f>
+        <v>5.6698626373626375E-2</v>
+      </c>
+      <c r="H21" s="437">
+        <f>A21-F21</f>
+        <v>17168085</v>
+      </c>
+      <c r="I21" s="438">
+        <f>1-G21</f>
+        <v>0.94330137362637367</v>
+      </c>
+      <c r="J21" s="439"/>
+      <c r="K21" s="413"/>
+      <c r="L21" s="413"/>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="440"/>
+      <c r="B22" s="441"/>
+      <c r="C22" s="441"/>
+      <c r="D22" s="441"/>
+      <c r="E22" s="442"/>
+      <c r="F22" s="442"/>
+      <c r="G22" s="436">
+        <f>F22/A$21</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="443">
+        <f>H21-F22</f>
+        <v>17168085</v>
+      </c>
+      <c r="I22" s="444">
+        <f>I21-G22</f>
+        <v>0.94330137362637367</v>
+      </c>
+      <c r="J22" s="393"/>
+      <c r="K22" s="393"/>
+      <c r="L22" s="393"/>
+    </row>
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="445"/>
+      <c r="B23" s="446"/>
+      <c r="C23" s="446"/>
+      <c r="D23" s="446"/>
+      <c r="E23" s="447"/>
+      <c r="F23" s="447"/>
+      <c r="G23" s="448"/>
+      <c r="H23" s="449"/>
+      <c r="I23" s="450"/>
+      <c r="J23" s="439"/>
+      <c r="K23" s="413"/>
+      <c r="L23" s="413"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="445"/>
+      <c r="B24" s="385"/>
+      <c r="C24" s="385"/>
+      <c r="D24" s="385"/>
+      <c r="E24" s="385"/>
+      <c r="F24" s="385"/>
+      <c r="G24" s="385"/>
+      <c r="H24" s="385"/>
+      <c r="I24" s="451"/>
+      <c r="J24" s="439"/>
+      <c r="K24" s="439"/>
+      <c r="L24" s="393"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="445"/>
+      <c r="B25" s="446"/>
+      <c r="C25" s="446"/>
+      <c r="D25" s="446"/>
+      <c r="E25" s="447"/>
+      <c r="F25" s="447"/>
+      <c r="G25" s="452"/>
+      <c r="H25" s="449"/>
+      <c r="I25" s="450"/>
+      <c r="J25" s="439"/>
+      <c r="K25" s="453"/>
+      <c r="L25" s="393"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="445"/>
+      <c r="B26" s="446"/>
+      <c r="C26" s="446"/>
+      <c r="D26" s="446"/>
+      <c r="E26" s="447"/>
+      <c r="F26" s="447"/>
+      <c r="G26" s="452"/>
+      <c r="H26" s="449"/>
+      <c r="I26" s="450"/>
+      <c r="J26" s="439"/>
+      <c r="K26" s="439"/>
+      <c r="L26" s="393"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="445"/>
+      <c r="B27" s="446"/>
+      <c r="C27" s="446"/>
+      <c r="D27" s="446"/>
+      <c r="E27" s="449"/>
+      <c r="F27" s="447"/>
+      <c r="G27" s="452"/>
+      <c r="H27" s="449"/>
+      <c r="I27" s="450"/>
+      <c r="J27" s="439"/>
+      <c r="K27" s="439"/>
+      <c r="L27" s="393"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="445"/>
+      <c r="B28" s="446"/>
+      <c r="C28" s="446"/>
+      <c r="D28" s="446"/>
+      <c r="E28" s="449"/>
+      <c r="F28" s="447"/>
+      <c r="G28" s="452"/>
+      <c r="H28" s="449"/>
+      <c r="I28" s="450"/>
+      <c r="J28" s="439"/>
+      <c r="K28" s="439"/>
+      <c r="L28" s="393"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="445"/>
+      <c r="B29" s="446"/>
+      <c r="C29" s="446"/>
+      <c r="D29" s="385"/>
+      <c r="E29" s="385"/>
+      <c r="F29" s="447"/>
+      <c r="G29" s="454"/>
+      <c r="H29" s="449"/>
+      <c r="I29" s="455"/>
+      <c r="J29" s="439"/>
+      <c r="K29" s="439"/>
+      <c r="L29" s="393"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="445"/>
+      <c r="B30" s="446"/>
+      <c r="C30" s="446"/>
+      <c r="D30" s="385"/>
+      <c r="E30" s="385"/>
+      <c r="F30" s="447"/>
+      <c r="G30" s="452"/>
+      <c r="H30" s="449"/>
+      <c r="I30" s="455"/>
+      <c r="J30" s="439"/>
+      <c r="K30" s="439"/>
+      <c r="L30" s="393"/>
+    </row>
+    <row r="31" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="456"/>
+      <c r="B31" s="457"/>
+      <c r="C31" s="457"/>
+      <c r="D31" s="458"/>
+      <c r="E31" s="458"/>
+      <c r="F31" s="459"/>
+      <c r="G31" s="460"/>
+      <c r="H31" s="461"/>
+      <c r="I31" s="462"/>
+      <c r="J31" s="393"/>
+      <c r="K31" s="393"/>
+      <c r="L31" s="393"/>
+    </row>
+    <row r="32" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="463" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="464"/>
+      <c r="C32" s="464"/>
+      <c r="D32" s="465"/>
+      <c r="E32" s="466">
+        <f>SUM(E21:E31)</f>
+        <v>948096</v>
+      </c>
+      <c r="F32" s="467">
+        <f>SUM(F21:F31)</f>
+        <v>1031915</v>
+      </c>
+      <c r="G32" s="468">
+        <f>SUM(G21:G31)</f>
+        <v>5.6698626373626375E-2</v>
+      </c>
+      <c r="H32" s="469">
+        <f>A21-F32</f>
+        <v>17168085</v>
+      </c>
+      <c r="I32" s="470">
+        <f>1-G32</f>
+        <v>0.94330137362637367</v>
+      </c>
+      <c r="J32" s="471"/>
+      <c r="K32" s="471"/>
+      <c r="L32" s="471"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="393"/>
+      <c r="B35" s="393"/>
+      <c r="C35" s="393"/>
+      <c r="D35" s="393"/>
+      <c r="E35" s="393"/>
+      <c r="F35" s="393"/>
+      <c r="G35" s="393"/>
+      <c r="H35" s="393"/>
+      <c r="I35" s="393"/>
+      <c r="J35" s="393"/>
+    </row>
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="503" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="503"/>
+      <c r="C36" s="503"/>
+      <c r="D36" s="503"/>
+      <c r="E36" s="393"/>
+      <c r="F36" s="393"/>
+      <c r="G36" s="393"/>
+      <c r="H36" s="393"/>
+      <c r="I36" s="393"/>
+      <c r="J36" s="393"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="504" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="504"/>
+      <c r="C37" s="472" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="472" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="393"/>
+      <c r="F37" s="393"/>
+      <c r="G37" s="393"/>
+      <c r="H37" s="393"/>
+      <c r="I37" s="393"/>
+      <c r="J37" s="393"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="505">
+        <f>A21-F32</f>
+        <v>17168085</v>
+      </c>
+      <c r="B38" s="506"/>
+      <c r="C38" s="473">
+        <f>1-G32</f>
+        <v>0.94330137362637367</v>
+      </c>
+      <c r="D38" s="474">
+        <f>(C38/0.8)*100</f>
+        <v>117.91267170329671</v>
+      </c>
+      <c r="E38" s="475" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" s="475"/>
+      <c r="G38" s="475"/>
+      <c r="H38" s="475"/>
+      <c r="I38" s="475"/>
+      <c r="J38" s="475"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="393"/>
+      <c r="B39" s="393"/>
+      <c r="C39" s="393"/>
+      <c r="D39" s="393"/>
+      <c r="E39" s="393"/>
+      <c r="F39" s="393"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="393"/>
+      <c r="B40" s="393"/>
+      <c r="C40" s="393"/>
+      <c r="D40" s="393"/>
+      <c r="E40" s="393"/>
+      <c r="F40" s="393"/>
+      <c r="G40" s="393"/>
+      <c r="H40" s="393"/>
+      <c r="I40" s="393"/>
+      <c r="J40" s="393"/>
+      <c r="K40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="393"/>
+      <c r="B41" s="476"/>
+      <c r="C41" s="476"/>
+      <c r="D41" s="393"/>
+      <c r="E41" s="393"/>
+      <c r="F41" s="393"/>
+      <c r="G41" s="393"/>
+      <c r="H41" s="393"/>
+      <c r="I41" s="393"/>
+      <c r="J41" s="393"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="477"/>
+      <c r="B42" s="477"/>
+      <c r="C42" s="477"/>
+      <c r="D42" s="477"/>
+      <c r="E42" s="477"/>
+      <c r="F42" s="477"/>
+      <c r="G42" s="477"/>
+      <c r="H42" s="477"/>
+      <c r="I42" s="507"/>
+      <c r="J42" s="508"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="478"/>
+      <c r="B43" s="479"/>
+      <c r="C43" s="479"/>
+      <c r="D43" s="393"/>
+      <c r="E43" s="393"/>
+      <c r="F43" s="479"/>
+      <c r="G43" s="423"/>
+      <c r="H43" s="479"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="478"/>
+      <c r="B44" s="479"/>
+      <c r="C44" s="479"/>
+      <c r="D44" s="479"/>
+      <c r="E44" s="479"/>
+      <c r="F44" s="479"/>
+      <c r="G44" s="423"/>
+      <c r="H44" s="479"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="478"/>
+      <c r="B45" s="479"/>
+      <c r="C45" s="479"/>
+      <c r="D45" s="393"/>
+      <c r="E45" s="393"/>
+      <c r="F45" s="479"/>
+      <c r="G45" s="423"/>
+      <c r="H45" s="479"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="478"/>
+      <c r="B46" s="479"/>
+      <c r="C46" s="479"/>
+      <c r="D46" s="479"/>
+      <c r="E46" s="479"/>
+      <c r="F46" s="479"/>
+      <c r="G46" s="423"/>
+      <c r="H46" s="479"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="478"/>
+      <c r="B47" s="479"/>
+      <c r="C47" s="479"/>
+      <c r="D47" s="393"/>
+      <c r="E47" s="393"/>
+      <c r="F47" s="479"/>
+      <c r="G47" s="423"/>
+      <c r="H47" s="479"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="478"/>
+      <c r="B48" s="479"/>
+      <c r="C48" s="413"/>
+      <c r="D48" s="480"/>
+      <c r="E48" s="480"/>
+      <c r="F48" s="413"/>
+      <c r="G48" s="413"/>
+      <c r="H48" s="413"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="478"/>
+      <c r="B49" s="479"/>
+      <c r="C49" s="479"/>
+      <c r="D49" s="479"/>
+      <c r="E49" s="479"/>
+      <c r="F49" s="479"/>
+      <c r="G49" s="423"/>
+      <c r="H49" s="479"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="478"/>
+      <c r="B50" s="479"/>
+      <c r="C50" s="479"/>
+      <c r="D50" s="479"/>
+      <c r="E50" s="479"/>
+      <c r="F50" s="479"/>
+      <c r="G50" s="423"/>
+      <c r="H50" s="479"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="478"/>
+      <c r="B51" s="479"/>
+      <c r="C51" s="479"/>
+      <c r="D51" s="393"/>
+      <c r="E51" s="393"/>
+      <c r="F51" s="479"/>
+      <c r="G51" s="423"/>
+      <c r="H51" s="479"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="393"/>
+      <c r="B52" s="500"/>
+      <c r="C52" s="500"/>
+      <c r="D52" s="501"/>
+      <c r="E52" s="475"/>
+      <c r="F52" s="393"/>
+      <c r="G52" s="393"/>
+      <c r="H52" s="393"/>
+      <c r="I52" s="393"/>
+      <c r="J52" s="393"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="477"/>
+      <c r="B53" s="477"/>
+      <c r="C53" s="477"/>
+      <c r="D53" s="477"/>
+      <c r="E53" s="477"/>
+      <c r="F53" s="477"/>
+      <c r="G53" s="477"/>
+      <c r="H53" s="477"/>
+      <c r="I53" s="507"/>
+      <c r="J53" s="508"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="478"/>
+      <c r="B54" s="393"/>
+      <c r="C54" s="393"/>
+      <c r="D54" s="393"/>
+      <c r="E54" s="393"/>
+      <c r="F54" s="423"/>
+      <c r="G54" s="423"/>
+      <c r="H54" s="479"/>
+      <c r="I54" s="509"/>
+      <c r="J54" s="509"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="478"/>
+      <c r="B55" s="393"/>
+      <c r="C55" s="393"/>
+      <c r="D55" s="413"/>
+      <c r="E55" s="413"/>
+      <c r="F55" s="413"/>
+      <c r="G55" s="413"/>
+      <c r="H55" s="413"/>
+      <c r="I55" s="509"/>
+      <c r="J55" s="509"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="393"/>
+      <c r="B56" s="393"/>
+      <c r="C56" s="393"/>
+      <c r="D56" s="393"/>
+      <c r="E56" s="393"/>
+      <c r="F56" s="393"/>
+      <c r="G56" s="393"/>
+      <c r="H56" s="393"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="507"/>
+      <c r="C61" s="508"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="507"/>
+      <c r="C68" s="508"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="I42:J42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="38" max="16383" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A22" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7777,47 +10103,47 @@
       <c r="J8" s="317"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="408" t="s">
+      <c r="A11" s="511" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="408"/>
-      <c r="C11" s="408"/>
-      <c r="D11" s="408"/>
-      <c r="E11" s="408"/>
-      <c r="F11" s="408"/>
-      <c r="G11" s="408"/>
-      <c r="H11" s="408"/>
-      <c r="I11" s="408"/>
-      <c r="J11" s="408"/>
+      <c r="B11" s="511"/>
+      <c r="C11" s="511"/>
+      <c r="D11" s="511"/>
+      <c r="E11" s="511"/>
+      <c r="F11" s="511"/>
+      <c r="G11" s="511"/>
+      <c r="H11" s="511"/>
+      <c r="I11" s="511"/>
+      <c r="J11" s="511"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="407" t="s">
+      <c r="A12" s="510" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="407"/>
-      <c r="C12" s="407"/>
-      <c r="D12" s="407"/>
-      <c r="E12" s="407"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="407"/>
-      <c r="H12" s="407"/>
-      <c r="I12" s="407"/>
-      <c r="J12" s="407"/>
+      <c r="B12" s="510"/>
+      <c r="C12" s="510"/>
+      <c r="D12" s="510"/>
+      <c r="E12" s="510"/>
+      <c r="F12" s="510"/>
+      <c r="G12" s="510"/>
+      <c r="H12" s="510"/>
+      <c r="I12" s="510"/>
+      <c r="J12" s="510"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="409" t="str">
+      <c r="A13" s="512" t="str">
         <f>Данные!A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="B13" s="408"/>
-      <c r="C13" s="408"/>
-      <c r="D13" s="408"/>
-      <c r="E13" s="408"/>
-      <c r="F13" s="408"/>
-      <c r="G13" s="408"/>
-      <c r="H13" s="408"/>
-      <c r="I13" s="408"/>
-      <c r="J13" s="408"/>
+      <c r="B13" s="511"/>
+      <c r="C13" s="511"/>
+      <c r="D13" s="511"/>
+      <c r="E13" s="511"/>
+      <c r="F13" s="511"/>
+      <c r="G13" s="511"/>
+      <c r="H13" s="511"/>
+      <c r="I13" s="511"/>
+      <c r="J13" s="511"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="311" t="s">
@@ -7942,482 +10268,482 @@
       <c r="J21" s="312"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="413" t="s">
+      <c r="A22" s="516" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="413" t="s">
+      <c r="B22" s="516" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="413"/>
-      <c r="D22" s="413"/>
-      <c r="E22" s="413" t="s">
+      <c r="C22" s="516"/>
+      <c r="D22" s="516"/>
+      <c r="E22" s="516" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="413"/>
-      <c r="G22" s="431" t="s">
+      <c r="F22" s="516"/>
+      <c r="G22" s="534" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="413" t="s">
+      <c r="H22" s="516" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="413"/>
-      <c r="J22" s="413"/>
+      <c r="I22" s="516"/>
+      <c r="J22" s="516"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="413"/>
-      <c r="B23" s="413"/>
-      <c r="C23" s="413"/>
-      <c r="D23" s="413"/>
-      <c r="E23" s="413"/>
-      <c r="F23" s="413"/>
-      <c r="G23" s="431"/>
-      <c r="H23" s="413"/>
-      <c r="I23" s="413"/>
-      <c r="J23" s="413"/>
+      <c r="A23" s="516"/>
+      <c r="B23" s="516"/>
+      <c r="C23" s="516"/>
+      <c r="D23" s="516"/>
+      <c r="E23" s="516"/>
+      <c r="F23" s="516"/>
+      <c r="G23" s="534"/>
+      <c r="H23" s="516"/>
+      <c r="I23" s="516"/>
+      <c r="J23" s="516"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="414">
+      <c r="A24" s="517">
         <v>1</v>
       </c>
-      <c r="B24" s="428" t="s">
+      <c r="B24" s="531" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="429"/>
-      <c r="D24" s="430"/>
-      <c r="E24" s="416" t="str">
+      <c r="C24" s="532"/>
+      <c r="D24" s="533"/>
+      <c r="E24" s="519" t="str">
         <f>Данные!C14</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F24" s="417"/>
-      <c r="G24" s="420">
+      <c r="F24" s="520"/>
+      <c r="G24" s="523">
         <f>Данные!B14</f>
         <v>26</v>
       </c>
-      <c r="H24" s="422"/>
-      <c r="I24" s="423"/>
-      <c r="J24" s="424"/>
+      <c r="H24" s="525"/>
+      <c r="I24" s="526"/>
+      <c r="J24" s="527"/>
     </row>
     <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="415"/>
-      <c r="B25" s="410" t="str">
+      <c r="A25" s="518"/>
+      <c r="B25" s="513" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C25" s="411"/>
-      <c r="D25" s="412"/>
-      <c r="E25" s="418"/>
-      <c r="F25" s="419"/>
-      <c r="G25" s="421"/>
-      <c r="H25" s="425"/>
-      <c r="I25" s="426"/>
-      <c r="J25" s="427"/>
+      <c r="C25" s="514"/>
+      <c r="D25" s="515"/>
+      <c r="E25" s="521"/>
+      <c r="F25" s="522"/>
+      <c r="G25" s="524"/>
+      <c r="H25" s="528"/>
+      <c r="I25" s="529"/>
+      <c r="J25" s="530"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="414">
+      <c r="A26" s="517">
         <v>1</v>
       </c>
-      <c r="B26" s="432" t="s">
+      <c r="B26" s="535" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="433"/>
-      <c r="D26" s="434"/>
-      <c r="E26" s="416" t="str">
+      <c r="C26" s="536"/>
+      <c r="D26" s="537"/>
+      <c r="E26" s="519" t="str">
         <f>Данные!C15</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F26" s="417"/>
-      <c r="G26" s="420">
+      <c r="F26" s="520"/>
+      <c r="G26" s="523">
         <f>Данные!B15</f>
         <v>26</v>
       </c>
-      <c r="H26" s="422"/>
-      <c r="I26" s="423"/>
-      <c r="J26" s="424"/>
+      <c r="H26" s="525"/>
+      <c r="I26" s="526"/>
+      <c r="J26" s="527"/>
     </row>
     <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="415"/>
-      <c r="B27" s="410" t="str">
+      <c r="A27" s="518"/>
+      <c r="B27" s="513" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C27" s="411"/>
-      <c r="D27" s="412"/>
-      <c r="E27" s="418"/>
-      <c r="F27" s="419"/>
-      <c r="G27" s="421"/>
-      <c r="H27" s="425"/>
-      <c r="I27" s="426"/>
-      <c r="J27" s="427"/>
+      <c r="C27" s="514"/>
+      <c r="D27" s="515"/>
+      <c r="E27" s="521"/>
+      <c r="F27" s="522"/>
+      <c r="G27" s="524"/>
+      <c r="H27" s="528"/>
+      <c r="I27" s="529"/>
+      <c r="J27" s="530"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="414">
+      <c r="A28" s="517">
         <v>1</v>
       </c>
-      <c r="B28" s="432" t="s">
+      <c r="B28" s="535" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="433"/>
-      <c r="D28" s="434"/>
-      <c r="E28" s="416" t="str">
+      <c r="C28" s="536"/>
+      <c r="D28" s="537"/>
+      <c r="E28" s="519" t="str">
         <f>Данные!C16</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F28" s="417"/>
-      <c r="G28" s="420">
+      <c r="F28" s="520"/>
+      <c r="G28" s="523">
         <f>Данные!B16</f>
         <v>30</v>
       </c>
-      <c r="H28" s="422"/>
-      <c r="I28" s="423"/>
-      <c r="J28" s="424"/>
+      <c r="H28" s="525"/>
+      <c r="I28" s="526"/>
+      <c r="J28" s="527"/>
     </row>
     <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="415"/>
-      <c r="B29" s="410" t="str">
+      <c r="A29" s="518"/>
+      <c r="B29" s="513" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C29" s="411"/>
-      <c r="D29" s="412"/>
-      <c r="E29" s="418"/>
-      <c r="F29" s="419"/>
-      <c r="G29" s="421"/>
-      <c r="H29" s="425"/>
-      <c r="I29" s="426"/>
-      <c r="J29" s="427"/>
+      <c r="C29" s="514"/>
+      <c r="D29" s="515"/>
+      <c r="E29" s="521"/>
+      <c r="F29" s="522"/>
+      <c r="G29" s="524"/>
+      <c r="H29" s="528"/>
+      <c r="I29" s="529"/>
+      <c r="J29" s="530"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="414">
+      <c r="A30" s="517">
         <v>1</v>
       </c>
-      <c r="B30" s="432" t="s">
+      <c r="B30" s="535" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="433"/>
-      <c r="D30" s="434"/>
-      <c r="E30" s="416" t="str">
+      <c r="C30" s="536"/>
+      <c r="D30" s="537"/>
+      <c r="E30" s="519" t="str">
         <f>Данные!C17</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F30" s="417"/>
-      <c r="G30" s="420">
+      <c r="F30" s="520"/>
+      <c r="G30" s="523">
         <f>Данные!B17</f>
         <v>30</v>
       </c>
-      <c r="H30" s="422"/>
-      <c r="I30" s="423"/>
-      <c r="J30" s="424"/>
+      <c r="H30" s="525"/>
+      <c r="I30" s="526"/>
+      <c r="J30" s="527"/>
     </row>
     <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="435"/>
-      <c r="B31" s="410" t="str">
+      <c r="A31" s="538"/>
+      <c r="B31" s="513" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C31" s="411"/>
-      <c r="D31" s="412"/>
-      <c r="E31" s="436"/>
-      <c r="F31" s="419"/>
-      <c r="G31" s="421"/>
-      <c r="H31" s="425"/>
-      <c r="I31" s="426"/>
-      <c r="J31" s="427"/>
+      <c r="C31" s="514"/>
+      <c r="D31" s="515"/>
+      <c r="E31" s="539"/>
+      <c r="F31" s="522"/>
+      <c r="G31" s="524"/>
+      <c r="H31" s="528"/>
+      <c r="I31" s="529"/>
+      <c r="J31" s="530"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="414">
+      <c r="A32" s="517">
         <v>1</v>
       </c>
-      <c r="B32" s="432" t="s">
+      <c r="B32" s="535" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="433"/>
-      <c r="D32" s="434"/>
-      <c r="E32" s="416" t="str">
+      <c r="C32" s="536"/>
+      <c r="D32" s="537"/>
+      <c r="E32" s="519" t="str">
         <f>Данные!C18</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F32" s="417"/>
-      <c r="G32" s="420">
+      <c r="F32" s="520"/>
+      <c r="G32" s="523">
         <f>Данные!B18</f>
         <v>70</v>
       </c>
-      <c r="H32" s="422"/>
-      <c r="I32" s="423"/>
-      <c r="J32" s="424"/>
+      <c r="H32" s="525"/>
+      <c r="I32" s="526"/>
+      <c r="J32" s="527"/>
     </row>
     <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="435"/>
-      <c r="B33" s="410" t="str">
+      <c r="A33" s="538"/>
+      <c r="B33" s="513" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C33" s="411"/>
-      <c r="D33" s="412"/>
-      <c r="E33" s="436"/>
-      <c r="F33" s="419"/>
-      <c r="G33" s="421"/>
-      <c r="H33" s="425"/>
-      <c r="I33" s="426"/>
-      <c r="J33" s="427"/>
+      <c r="C33" s="514"/>
+      <c r="D33" s="515"/>
+      <c r="E33" s="539"/>
+      <c r="F33" s="522"/>
+      <c r="G33" s="524"/>
+      <c r="H33" s="528"/>
+      <c r="I33" s="529"/>
+      <c r="J33" s="530"/>
     </row>
     <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="414">
+      <c r="A34" s="517">
         <v>1</v>
       </c>
-      <c r="B34" s="432" t="s">
+      <c r="B34" s="535" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="433"/>
-      <c r="D34" s="434"/>
-      <c r="E34" s="416" t="str">
+      <c r="C34" s="536"/>
+      <c r="D34" s="537"/>
+      <c r="E34" s="519" t="str">
         <f>Данные!C19</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F34" s="417"/>
-      <c r="G34" s="420">
+      <c r="F34" s="520"/>
+      <c r="G34" s="523">
         <f>Данные!B19</f>
         <v>70</v>
       </c>
-      <c r="H34" s="422"/>
-      <c r="I34" s="423"/>
-      <c r="J34" s="424"/>
+      <c r="H34" s="525"/>
+      <c r="I34" s="526"/>
+      <c r="J34" s="527"/>
     </row>
     <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="435"/>
-      <c r="B35" s="410" t="str">
+      <c r="A35" s="538"/>
+      <c r="B35" s="513" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C35" s="411"/>
-      <c r="D35" s="412"/>
-      <c r="E35" s="436"/>
-      <c r="F35" s="419"/>
-      <c r="G35" s="421"/>
-      <c r="H35" s="425"/>
-      <c r="I35" s="426"/>
-      <c r="J35" s="427"/>
+      <c r="C35" s="514"/>
+      <c r="D35" s="515"/>
+      <c r="E35" s="539"/>
+      <c r="F35" s="522"/>
+      <c r="G35" s="524"/>
+      <c r="H35" s="528"/>
+      <c r="I35" s="529"/>
+      <c r="J35" s="530"/>
     </row>
     <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="414">
+      <c r="A36" s="517">
         <v>1</v>
       </c>
-      <c r="B36" s="432" t="s">
+      <c r="B36" s="535" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="433"/>
-      <c r="D36" s="434"/>
-      <c r="E36" s="416" t="str">
+      <c r="C36" s="536"/>
+      <c r="D36" s="537"/>
+      <c r="E36" s="519" t="str">
         <f>Данные!C20</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F36" s="417"/>
-      <c r="G36" s="420">
+      <c r="F36" s="520"/>
+      <c r="G36" s="523">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="H36" s="422"/>
-      <c r="I36" s="423"/>
-      <c r="J36" s="424"/>
+      <c r="H36" s="525"/>
+      <c r="I36" s="526"/>
+      <c r="J36" s="527"/>
     </row>
     <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="435"/>
-      <c r="B37" s="410" t="str">
+      <c r="A37" s="538"/>
+      <c r="B37" s="513" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C37" s="411"/>
-      <c r="D37" s="412"/>
-      <c r="E37" s="436"/>
-      <c r="F37" s="419"/>
-      <c r="G37" s="421"/>
-      <c r="H37" s="425"/>
-      <c r="I37" s="426"/>
-      <c r="J37" s="427"/>
+      <c r="C37" s="514"/>
+      <c r="D37" s="515"/>
+      <c r="E37" s="539"/>
+      <c r="F37" s="522"/>
+      <c r="G37" s="524"/>
+      <c r="H37" s="528"/>
+      <c r="I37" s="529"/>
+      <c r="J37" s="530"/>
     </row>
     <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="414">
+      <c r="A38" s="517">
         <v>1</v>
       </c>
-      <c r="B38" s="432" t="s">
+      <c r="B38" s="535" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="433"/>
-      <c r="D38" s="434"/>
-      <c r="E38" s="416" t="str">
+      <c r="C38" s="536"/>
+      <c r="D38" s="537"/>
+      <c r="E38" s="519" t="str">
         <f>Данные!C21</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F38" s="417"/>
-      <c r="G38" s="420">
+      <c r="F38" s="520"/>
+      <c r="G38" s="523">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="H38" s="422"/>
-      <c r="I38" s="423"/>
-      <c r="J38" s="424"/>
+      <c r="H38" s="525"/>
+      <c r="I38" s="526"/>
+      <c r="J38" s="527"/>
     </row>
     <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="435"/>
-      <c r="B39" s="410" t="str">
+      <c r="A39" s="538"/>
+      <c r="B39" s="513" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C39" s="411"/>
-      <c r="D39" s="412"/>
-      <c r="E39" s="436"/>
-      <c r="F39" s="419"/>
-      <c r="G39" s="421"/>
-      <c r="H39" s="425"/>
-      <c r="I39" s="426"/>
-      <c r="J39" s="427"/>
+      <c r="C39" s="514"/>
+      <c r="D39" s="515"/>
+      <c r="E39" s="539"/>
+      <c r="F39" s="522"/>
+      <c r="G39" s="524"/>
+      <c r="H39" s="528"/>
+      <c r="I39" s="529"/>
+      <c r="J39" s="530"/>
     </row>
     <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="414">
+      <c r="A40" s="517">
         <v>1</v>
       </c>
-      <c r="B40" s="432" t="s">
+      <c r="B40" s="535" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="433"/>
-      <c r="D40" s="434"/>
-      <c r="E40" s="416" t="str">
+      <c r="C40" s="536"/>
+      <c r="D40" s="537"/>
+      <c r="E40" s="519" t="str">
         <f>Данные!C23</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F40" s="417"/>
-      <c r="G40" s="420">
+      <c r="F40" s="520"/>
+      <c r="G40" s="523">
         <f>Данные!B23</f>
         <v>24</v>
       </c>
-      <c r="H40" s="422"/>
-      <c r="I40" s="423"/>
-      <c r="J40" s="424"/>
+      <c r="H40" s="525"/>
+      <c r="I40" s="526"/>
+      <c r="J40" s="527"/>
     </row>
     <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="435"/>
-      <c r="B41" s="410" t="str">
+      <c r="A41" s="538"/>
+      <c r="B41" s="513" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C41" s="411"/>
-      <c r="D41" s="412"/>
-      <c r="E41" s="436"/>
-      <c r="F41" s="419"/>
-      <c r="G41" s="421"/>
-      <c r="H41" s="425"/>
-      <c r="I41" s="426"/>
-      <c r="J41" s="427"/>
+      <c r="C41" s="514"/>
+      <c r="D41" s="515"/>
+      <c r="E41" s="539"/>
+      <c r="F41" s="522"/>
+      <c r="G41" s="524"/>
+      <c r="H41" s="528"/>
+      <c r="I41" s="529"/>
+      <c r="J41" s="530"/>
     </row>
     <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="414">
+      <c r="A42" s="517">
         <v>1</v>
       </c>
-      <c r="B42" s="432" t="s">
+      <c r="B42" s="535" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="433"/>
-      <c r="D42" s="434"/>
-      <c r="E42" s="416" t="str">
+      <c r="C42" s="536"/>
+      <c r="D42" s="537"/>
+      <c r="E42" s="519" t="str">
         <f>Данные!C26</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F42" s="417"/>
-      <c r="G42" s="420">
+      <c r="F42" s="520"/>
+      <c r="G42" s="523">
         <f>Данные!B26</f>
         <v>24</v>
       </c>
-      <c r="H42" s="422"/>
-      <c r="I42" s="423"/>
-      <c r="J42" s="424"/>
+      <c r="H42" s="525"/>
+      <c r="I42" s="526"/>
+      <c r="J42" s="527"/>
     </row>
     <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="435"/>
-      <c r="B43" s="410" t="str">
+      <c r="A43" s="538"/>
+      <c r="B43" s="513" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C43" s="411"/>
-      <c r="D43" s="412"/>
-      <c r="E43" s="436"/>
-      <c r="F43" s="419"/>
-      <c r="G43" s="421"/>
-      <c r="H43" s="425"/>
-      <c r="I43" s="426"/>
-      <c r="J43" s="427"/>
+      <c r="C43" s="514"/>
+      <c r="D43" s="515"/>
+      <c r="E43" s="539"/>
+      <c r="F43" s="522"/>
+      <c r="G43" s="524"/>
+      <c r="H43" s="528"/>
+      <c r="I43" s="529"/>
+      <c r="J43" s="530"/>
     </row>
     <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="414">
+      <c r="A44" s="517">
         <v>1</v>
       </c>
-      <c r="B44" s="432" t="s">
+      <c r="B44" s="535" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="433"/>
-      <c r="D44" s="434"/>
-      <c r="E44" s="416">
+      <c r="C44" s="536"/>
+      <c r="D44" s="537"/>
+      <c r="E44" s="519">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="417"/>
-      <c r="G44" s="420">
+      <c r="F44" s="520"/>
+      <c r="G44" s="523">
         <f>Данные!B27</f>
         <v>24</v>
       </c>
-      <c r="H44" s="422"/>
-      <c r="I44" s="423"/>
-      <c r="J44" s="424"/>
+      <c r="H44" s="525"/>
+      <c r="I44" s="526"/>
+      <c r="J44" s="527"/>
     </row>
     <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="435"/>
-      <c r="B45" s="410" t="str">
+      <c r="A45" s="538"/>
+      <c r="B45" s="513" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C45" s="411"/>
-      <c r="D45" s="412"/>
-      <c r="E45" s="436"/>
-      <c r="F45" s="419"/>
-      <c r="G45" s="421"/>
-      <c r="H45" s="425"/>
-      <c r="I45" s="426"/>
-      <c r="J45" s="427"/>
+      <c r="C45" s="514"/>
+      <c r="D45" s="515"/>
+      <c r="E45" s="539"/>
+      <c r="F45" s="522"/>
+      <c r="G45" s="524"/>
+      <c r="H45" s="528"/>
+      <c r="I45" s="529"/>
+      <c r="J45" s="530"/>
     </row>
     <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="414">
+      <c r="A46" s="517">
         <v>1</v>
       </c>
-      <c r="B46" s="432" t="s">
+      <c r="B46" s="535" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="433"/>
-      <c r="D46" s="434"/>
-      <c r="E46" s="416" t="str">
+      <c r="C46" s="536"/>
+      <c r="D46" s="537"/>
+      <c r="E46" s="519" t="str">
         <f>Данные!C24</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F46" s="417"/>
-      <c r="G46" s="420">
+      <c r="F46" s="520"/>
+      <c r="G46" s="523">
         <f>Данные!B24</f>
         <v>9</v>
       </c>
-      <c r="H46" s="422"/>
-      <c r="I46" s="423"/>
-      <c r="J46" s="424"/>
+      <c r="H46" s="525"/>
+      <c r="I46" s="526"/>
+      <c r="J46" s="527"/>
     </row>
     <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="435"/>
-      <c r="B47" s="410" t="str">
+      <c r="A47" s="538"/>
+      <c r="B47" s="513" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C47" s="411"/>
-      <c r="D47" s="412"/>
-      <c r="E47" s="436"/>
-      <c r="F47" s="419"/>
-      <c r="G47" s="421"/>
-      <c r="H47" s="425"/>
-      <c r="I47" s="426"/>
-      <c r="J47" s="427"/>
+      <c r="C47" s="514"/>
+      <c r="D47" s="515"/>
+      <c r="E47" s="539"/>
+      <c r="F47" s="522"/>
+      <c r="G47" s="524"/>
+      <c r="H47" s="528"/>
+      <c r="I47" s="529"/>
+      <c r="J47" s="530"/>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="311"/>
@@ -8633,7 +10959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
@@ -8680,47 +11006,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="455"/>
-      <c r="C2" s="456"/>
-      <c r="D2" s="457"/>
-      <c r="E2" s="464" t="s">
+      <c r="B2" s="558"/>
+      <c r="C2" s="559"/>
+      <c r="D2" s="560"/>
+      <c r="E2" s="567" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="465"/>
-      <c r="G2" s="465"/>
-      <c r="H2" s="466"/>
-      <c r="I2" s="471" t="s">
+      <c r="F2" s="568"/>
+      <c r="G2" s="568"/>
+      <c r="H2" s="569"/>
+      <c r="I2" s="574" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="472"/>
-      <c r="K2" s="475">
+      <c r="J2" s="575"/>
+      <c r="K2" s="578">
         <f>Данные!B14</f>
         <v>26</v>
       </c>
-      <c r="L2" s="476"/>
+      <c r="L2" s="579"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="467"/>
-      <c r="Q2" s="467"/>
+      <c r="P2" s="570"/>
+      <c r="Q2" s="570"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="458"/>
-      <c r="C3" s="459"/>
-      <c r="D3" s="460"/>
-      <c r="E3" s="468" t="s">
+      <c r="B3" s="561"/>
+      <c r="C3" s="562"/>
+      <c r="D3" s="563"/>
+      <c r="E3" s="571" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="469"/>
-      <c r="G3" s="469"/>
-      <c r="H3" s="470"/>
-      <c r="I3" s="473"/>
-      <c r="J3" s="474"/>
-      <c r="K3" s="477"/>
-      <c r="L3" s="478"/>
+      <c r="F3" s="572"/>
+      <c r="G3" s="572"/>
+      <c r="H3" s="573"/>
+      <c r="I3" s="576"/>
+      <c r="J3" s="577"/>
+      <c r="K3" s="580"/>
+      <c r="L3" s="581"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -8731,9 +11057,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="461"/>
-      <c r="C4" s="462"/>
-      <c r="D4" s="463"/>
+      <c r="B4" s="564"/>
+      <c r="C4" s="565"/>
+      <c r="D4" s="566"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -8752,22 +11078,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="440" t="s">
+      <c r="B5" s="543" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="441"/>
-      <c r="D5" s="399" t="str">
+      <c r="C5" s="544"/>
+      <c r="D5" s="492" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="442"/>
-      <c r="J5" s="443"/>
-      <c r="K5" s="400"/>
-      <c r="L5" s="401"/>
+      <c r="E5" s="493"/>
+      <c r="F5" s="493"/>
+      <c r="G5" s="493"/>
+      <c r="H5" s="494"/>
+      <c r="I5" s="545"/>
+      <c r="J5" s="546"/>
+      <c r="K5" s="493"/>
+      <c r="L5" s="494"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -8778,22 +11104,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="440" t="s">
+      <c r="B6" s="543" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="444"/>
-      <c r="D6" s="393" t="str">
+      <c r="C6" s="547"/>
+      <c r="D6" s="486" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="445"/>
-      <c r="F6" s="445"/>
-      <c r="G6" s="445"/>
-      <c r="H6" s="446"/>
-      <c r="I6" s="442"/>
-      <c r="J6" s="443"/>
-      <c r="K6" s="400"/>
-      <c r="L6" s="401"/>
+      <c r="E6" s="548"/>
+      <c r="F6" s="548"/>
+      <c r="G6" s="548"/>
+      <c r="H6" s="549"/>
+      <c r="I6" s="545"/>
+      <c r="J6" s="546"/>
+      <c r="K6" s="493"/>
+      <c r="L6" s="494"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -8804,27 +11130,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="447" t="s">
+      <c r="B7" s="550" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="448"/>
-      <c r="D7" s="402">
+      <c r="C7" s="551"/>
+      <c r="D7" s="495">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="449"/>
-      <c r="F7" s="449"/>
-      <c r="G7" s="449"/>
-      <c r="H7" s="450"/>
-      <c r="I7" s="447" t="s">
+      <c r="E7" s="552"/>
+      <c r="F7" s="552"/>
+      <c r="G7" s="552"/>
+      <c r="H7" s="553"/>
+      <c r="I7" s="550" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="451"/>
-      <c r="K7" s="390">
+      <c r="J7" s="554"/>
+      <c r="K7" s="483">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="484"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -9318,12 +11644,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="452" t="s">
+      <c r="B23" s="555" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="453"/>
-      <c r="D23" s="453"/>
-      <c r="E23" s="454"/>
+      <c r="C23" s="556"/>
+      <c r="D23" s="556"/>
+      <c r="E23" s="557"/>
       <c r="F23" s="116" t="s">
         <v>16</v>
       </c>
@@ -9345,12 +11671,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="437" t="s">
+      <c r="B24" s="540" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="438"/>
-      <c r="D24" s="438"/>
-      <c r="E24" s="439"/>
+      <c r="C24" s="541"/>
+      <c r="D24" s="541"/>
+      <c r="E24" s="542"/>
       <c r="F24" s="116" t="s">
         <v>16</v>
       </c>
@@ -9432,7 +11758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S18"/>
   <sheetViews>
@@ -9479,50 +11805,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="486">
+      <c r="B2" s="589">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="487"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="495" t="s">
+      <c r="C2" s="590"/>
+      <c r="D2" s="591"/>
+      <c r="E2" s="598" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="496"/>
-      <c r="G2" s="496"/>
-      <c r="H2" s="497"/>
-      <c r="I2" s="501" t="s">
+      <c r="F2" s="599"/>
+      <c r="G2" s="599"/>
+      <c r="H2" s="600"/>
+      <c r="I2" s="604" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="502"/>
-      <c r="K2" s="505">
+      <c r="J2" s="605"/>
+      <c r="K2" s="608">
         <f>Данные!B15</f>
         <v>26</v>
       </c>
-      <c r="L2" s="506"/>
+      <c r="L2" s="609"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="467"/>
-      <c r="Q2" s="467"/>
+      <c r="P2" s="570"/>
+      <c r="Q2" s="570"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="489"/>
-      <c r="C3" s="490"/>
-      <c r="D3" s="491"/>
-      <c r="E3" s="498" t="s">
+      <c r="B3" s="592"/>
+      <c r="C3" s="593"/>
+      <c r="D3" s="594"/>
+      <c r="E3" s="601" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="499"/>
-      <c r="G3" s="499"/>
-      <c r="H3" s="500"/>
-      <c r="I3" s="503"/>
-      <c r="J3" s="504"/>
-      <c r="K3" s="507"/>
-      <c r="L3" s="508"/>
+      <c r="F3" s="602"/>
+      <c r="G3" s="602"/>
+      <c r="H3" s="603"/>
+      <c r="I3" s="606"/>
+      <c r="J3" s="607"/>
+      <c r="K3" s="610"/>
+      <c r="L3" s="611"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -9533,9 +11859,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="492"/>
-      <c r="C4" s="493"/>
-      <c r="D4" s="494"/>
+      <c r="B4" s="595"/>
+      <c r="C4" s="596"/>
+      <c r="D4" s="597"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -9554,22 +11880,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="440" t="s">
+      <c r="B5" s="543" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="479"/>
-      <c r="D5" s="399" t="str">
+      <c r="C5" s="582"/>
+      <c r="D5" s="492" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="480"/>
-      <c r="J5" s="481"/>
-      <c r="K5" s="482"/>
-      <c r="L5" s="401"/>
+      <c r="E5" s="493"/>
+      <c r="F5" s="493"/>
+      <c r="G5" s="493"/>
+      <c r="H5" s="494"/>
+      <c r="I5" s="583"/>
+      <c r="J5" s="584"/>
+      <c r="K5" s="585"/>
+      <c r="L5" s="494"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -9580,22 +11906,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="440" t="s">
+      <c r="B6" s="543" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="479"/>
-      <c r="D6" s="393" t="str">
+      <c r="C6" s="582"/>
+      <c r="D6" s="486" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="445"/>
-      <c r="F6" s="445"/>
-      <c r="G6" s="445"/>
-      <c r="H6" s="446"/>
-      <c r="I6" s="480"/>
-      <c r="J6" s="481"/>
-      <c r="K6" s="482"/>
-      <c r="L6" s="401"/>
+      <c r="E6" s="548"/>
+      <c r="F6" s="548"/>
+      <c r="G6" s="548"/>
+      <c r="H6" s="549"/>
+      <c r="I6" s="583"/>
+      <c r="J6" s="584"/>
+      <c r="K6" s="585"/>
+      <c r="L6" s="494"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -9606,27 +11932,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="447" t="s">
+      <c r="B7" s="550" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="483"/>
-      <c r="D7" s="402">
+      <c r="C7" s="586"/>
+      <c r="D7" s="495">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="449"/>
-      <c r="F7" s="449"/>
-      <c r="G7" s="449"/>
-      <c r="H7" s="450"/>
-      <c r="I7" s="484" t="s">
+      <c r="E7" s="552"/>
+      <c r="F7" s="552"/>
+      <c r="G7" s="552"/>
+      <c r="H7" s="553"/>
+      <c r="I7" s="587" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="483"/>
-      <c r="K7" s="390">
+      <c r="J7" s="586"/>
+      <c r="K7" s="483">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="484"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -9823,13 +12149,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="452" t="s">
+      <c r="B14" s="555" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="453"/>
-      <c r="D14" s="453"/>
-      <c r="E14" s="453"/>
-      <c r="F14" s="485"/>
+      <c r="C14" s="556"/>
+      <c r="D14" s="556"/>
+      <c r="E14" s="556"/>
+      <c r="F14" s="588"/>
       <c r="G14" s="56" t="s">
         <v>77</v>
       </c>
@@ -9848,12 +12174,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78"/>
-      <c r="B15" s="437" t="s">
+      <c r="B15" s="540" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="438"/>
-      <c r="D15" s="438"/>
-      <c r="E15" s="439"/>
+      <c r="C15" s="541"/>
+      <c r="D15" s="541"/>
+      <c r="E15" s="542"/>
       <c r="F15" s="116" t="s">
         <v>16</v>
       </c>
@@ -9950,7 +12276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
@@ -9997,47 +12323,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="455"/>
-      <c r="C2" s="456"/>
-      <c r="D2" s="457"/>
-      <c r="E2" s="464" t="s">
+      <c r="B2" s="558"/>
+      <c r="C2" s="559"/>
+      <c r="D2" s="560"/>
+      <c r="E2" s="567" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="465"/>
-      <c r="G2" s="465"/>
-      <c r="H2" s="466"/>
-      <c r="I2" s="471" t="s">
+      <c r="F2" s="568"/>
+      <c r="G2" s="568"/>
+      <c r="H2" s="569"/>
+      <c r="I2" s="574" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="472"/>
-      <c r="K2" s="475">
+      <c r="J2" s="575"/>
+      <c r="K2" s="578">
         <f>Данные!B16</f>
         <v>30</v>
       </c>
-      <c r="L2" s="476"/>
+      <c r="L2" s="579"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="467"/>
-      <c r="Q2" s="467"/>
+      <c r="P2" s="570"/>
+      <c r="Q2" s="570"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="458"/>
-      <c r="C3" s="459"/>
-      <c r="D3" s="460"/>
-      <c r="E3" s="468" t="s">
+      <c r="B3" s="561"/>
+      <c r="C3" s="562"/>
+      <c r="D3" s="563"/>
+      <c r="E3" s="571" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="469"/>
-      <c r="G3" s="469"/>
-      <c r="H3" s="470"/>
-      <c r="I3" s="473"/>
-      <c r="J3" s="474"/>
-      <c r="K3" s="477"/>
-      <c r="L3" s="478"/>
+      <c r="F3" s="572"/>
+      <c r="G3" s="572"/>
+      <c r="H3" s="573"/>
+      <c r="I3" s="576"/>
+      <c r="J3" s="577"/>
+      <c r="K3" s="580"/>
+      <c r="L3" s="581"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -10048,9 +12374,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="461"/>
-      <c r="C4" s="462"/>
-      <c r="D4" s="463"/>
+      <c r="B4" s="564"/>
+      <c r="C4" s="565"/>
+      <c r="D4" s="566"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10069,22 +12395,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="440" t="s">
+      <c r="B5" s="543" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="441"/>
-      <c r="D5" s="399" t="str">
+      <c r="C5" s="544"/>
+      <c r="D5" s="492" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="442"/>
-      <c r="J5" s="443"/>
-      <c r="K5" s="400"/>
-      <c r="L5" s="401"/>
+      <c r="E5" s="493"/>
+      <c r="F5" s="493"/>
+      <c r="G5" s="493"/>
+      <c r="H5" s="494"/>
+      <c r="I5" s="545"/>
+      <c r="J5" s="546"/>
+      <c r="K5" s="493"/>
+      <c r="L5" s="494"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -10095,22 +12421,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="440" t="s">
+      <c r="B6" s="543" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="444"/>
-      <c r="D6" s="393" t="str">
+      <c r="C6" s="547"/>
+      <c r="D6" s="486" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="445"/>
-      <c r="F6" s="445"/>
-      <c r="G6" s="445"/>
-      <c r="H6" s="446"/>
-      <c r="I6" s="442"/>
-      <c r="J6" s="443"/>
-      <c r="K6" s="400"/>
-      <c r="L6" s="401"/>
+      <c r="E6" s="548"/>
+      <c r="F6" s="548"/>
+      <c r="G6" s="548"/>
+      <c r="H6" s="549"/>
+      <c r="I6" s="545"/>
+      <c r="J6" s="546"/>
+      <c r="K6" s="493"/>
+      <c r="L6" s="494"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -10121,27 +12447,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="447" t="s">
+      <c r="B7" s="550" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="448"/>
-      <c r="D7" s="402">
+      <c r="C7" s="551"/>
+      <c r="D7" s="495">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="449"/>
-      <c r="F7" s="449"/>
-      <c r="G7" s="449"/>
-      <c r="H7" s="450"/>
-      <c r="I7" s="447" t="s">
+      <c r="E7" s="552"/>
+      <c r="F7" s="552"/>
+      <c r="G7" s="552"/>
+      <c r="H7" s="553"/>
+      <c r="I7" s="550" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="451"/>
-      <c r="K7" s="390">
+      <c r="J7" s="554"/>
+      <c r="K7" s="483">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="484"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -10624,6 +12950,7 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
@@ -10641,7 +12968,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
-    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -10662,7 +12988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
@@ -10709,47 +13035,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="455"/>
-      <c r="C2" s="456"/>
-      <c r="D2" s="457"/>
-      <c r="E2" s="464" t="s">
+      <c r="B2" s="558"/>
+      <c r="C2" s="559"/>
+      <c r="D2" s="560"/>
+      <c r="E2" s="567" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="465"/>
-      <c r="G2" s="465"/>
-      <c r="H2" s="466"/>
-      <c r="I2" s="471" t="s">
+      <c r="F2" s="568"/>
+      <c r="G2" s="568"/>
+      <c r="H2" s="569"/>
+      <c r="I2" s="574" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="472"/>
-      <c r="K2" s="475">
+      <c r="J2" s="575"/>
+      <c r="K2" s="578">
         <f>Данные!B17</f>
         <v>30</v>
       </c>
-      <c r="L2" s="476"/>
+      <c r="L2" s="579"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="509"/>
-      <c r="Q2" s="509"/>
+      <c r="P2" s="612"/>
+      <c r="Q2" s="612"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="458"/>
-      <c r="C3" s="459"/>
-      <c r="D3" s="460"/>
-      <c r="E3" s="468" t="s">
+      <c r="B3" s="561"/>
+      <c r="C3" s="562"/>
+      <c r="D3" s="563"/>
+      <c r="E3" s="571" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="469"/>
-      <c r="G3" s="469"/>
-      <c r="H3" s="470"/>
-      <c r="I3" s="473"/>
-      <c r="J3" s="474"/>
-      <c r="K3" s="477"/>
-      <c r="L3" s="478"/>
+      <c r="F3" s="572"/>
+      <c r="G3" s="572"/>
+      <c r="H3" s="573"/>
+      <c r="I3" s="576"/>
+      <c r="J3" s="577"/>
+      <c r="K3" s="580"/>
+      <c r="L3" s="581"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -10760,9 +13086,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="461"/>
-      <c r="C4" s="462"/>
-      <c r="D4" s="463"/>
+      <c r="B4" s="564"/>
+      <c r="C4" s="565"/>
+      <c r="D4" s="566"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10781,22 +13107,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="440" t="s">
+      <c r="B5" s="543" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="441"/>
-      <c r="D5" s="399" t="str">
+      <c r="C5" s="544"/>
+      <c r="D5" s="492" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="442"/>
-      <c r="J5" s="443"/>
-      <c r="K5" s="400"/>
-      <c r="L5" s="401"/>
+      <c r="E5" s="493"/>
+      <c r="F5" s="493"/>
+      <c r="G5" s="493"/>
+      <c r="H5" s="494"/>
+      <c r="I5" s="545"/>
+      <c r="J5" s="546"/>
+      <c r="K5" s="493"/>
+      <c r="L5" s="494"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -10807,22 +13133,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="440" t="s">
+      <c r="B6" s="543" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="444"/>
-      <c r="D6" s="393" t="str">
+      <c r="C6" s="547"/>
+      <c r="D6" s="486" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="445"/>
-      <c r="F6" s="445"/>
-      <c r="G6" s="445"/>
-      <c r="H6" s="446"/>
-      <c r="I6" s="442"/>
-      <c r="J6" s="443"/>
-      <c r="K6" s="400"/>
-      <c r="L6" s="401"/>
+      <c r="E6" s="548"/>
+      <c r="F6" s="548"/>
+      <c r="G6" s="548"/>
+      <c r="H6" s="549"/>
+      <c r="I6" s="545"/>
+      <c r="J6" s="546"/>
+      <c r="K6" s="493"/>
+      <c r="L6" s="494"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -10833,27 +13159,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="447" t="s">
+      <c r="B7" s="550" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="448"/>
-      <c r="D7" s="402">
+      <c r="C7" s="551"/>
+      <c r="D7" s="495">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="449"/>
-      <c r="F7" s="449"/>
-      <c r="G7" s="449"/>
-      <c r="H7" s="450"/>
-      <c r="I7" s="447" t="s">
+      <c r="E7" s="552"/>
+      <c r="F7" s="552"/>
+      <c r="G7" s="552"/>
+      <c r="H7" s="553"/>
+      <c r="I7" s="550" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="451"/>
-      <c r="K7" s="390">
+      <c r="J7" s="554"/>
+      <c r="K7" s="483">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="484"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -11177,7 +13503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -11227,60 +13553,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="486"/>
-      <c r="C2" s="487"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="495" t="s">
+      <c r="B2" s="589"/>
+      <c r="C2" s="590"/>
+      <c r="D2" s="591"/>
+      <c r="E2" s="598" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="496"/>
-      <c r="G2" s="496"/>
-      <c r="H2" s="497"/>
-      <c r="I2" s="501" t="s">
+      <c r="F2" s="599"/>
+      <c r="G2" s="599"/>
+      <c r="H2" s="600"/>
+      <c r="I2" s="604" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="502"/>
-      <c r="K2" s="505">
+      <c r="J2" s="605"/>
+      <c r="K2" s="608">
         <f>Данные!B18</f>
         <v>70</v>
       </c>
-      <c r="L2" s="506"/>
-      <c r="M2" s="510"/>
-      <c r="N2" s="511"/>
-      <c r="O2" s="511"/>
-      <c r="P2" s="511"/>
-      <c r="Q2" s="511"/>
-      <c r="R2" s="512"/>
+      <c r="L2" s="609"/>
+      <c r="M2" s="613"/>
+      <c r="N2" s="614"/>
+      <c r="O2" s="614"/>
+      <c r="P2" s="614"/>
+      <c r="Q2" s="614"/>
+      <c r="R2" s="615"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="489"/>
-      <c r="C3" s="490"/>
-      <c r="D3" s="491"/>
-      <c r="E3" s="498" t="s">
+      <c r="B3" s="592"/>
+      <c r="C3" s="593"/>
+      <c r="D3" s="594"/>
+      <c r="E3" s="601" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="499"/>
-      <c r="G3" s="499"/>
-      <c r="H3" s="500"/>
-      <c r="I3" s="503"/>
-      <c r="J3" s="504"/>
-      <c r="K3" s="507"/>
-      <c r="L3" s="508"/>
-      <c r="M3" s="513"/>
-      <c r="N3" s="514"/>
-      <c r="O3" s="514"/>
-      <c r="P3" s="514"/>
-      <c r="Q3" s="514"/>
-      <c r="R3" s="515"/>
+      <c r="F3" s="602"/>
+      <c r="G3" s="602"/>
+      <c r="H3" s="603"/>
+      <c r="I3" s="606"/>
+      <c r="J3" s="607"/>
+      <c r="K3" s="610"/>
+      <c r="L3" s="611"/>
+      <c r="M3" s="616"/>
+      <c r="N3" s="617"/>
+      <c r="O3" s="617"/>
+      <c r="P3" s="617"/>
+      <c r="Q3" s="617"/>
+      <c r="R3" s="618"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="492"/>
-      <c r="C4" s="493"/>
-      <c r="D4" s="494"/>
+      <c r="B4" s="595"/>
+      <c r="C4" s="596"/>
+      <c r="D4" s="597"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -11289,95 +13615,95 @@
       <c r="J4" s="249"/>
       <c r="K4" s="252"/>
       <c r="L4" s="253"/>
-      <c r="M4" s="513"/>
-      <c r="N4" s="514"/>
-      <c r="O4" s="514"/>
-      <c r="P4" s="514"/>
-      <c r="Q4" s="514"/>
-      <c r="R4" s="515"/>
+      <c r="M4" s="616"/>
+      <c r="N4" s="617"/>
+      <c r="O4" s="617"/>
+      <c r="P4" s="617"/>
+      <c r="Q4" s="617"/>
+      <c r="R4" s="618"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="440" t="s">
+      <c r="B5" s="543" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="479"/>
-      <c r="D5" s="399" t="str">
+      <c r="C5" s="582"/>
+      <c r="D5" s="492" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="480"/>
-      <c r="J5" s="481"/>
-      <c r="K5" s="482"/>
-      <c r="L5" s="401"/>
-      <c r="M5" s="513"/>
-      <c r="N5" s="514"/>
-      <c r="O5" s="514"/>
-      <c r="P5" s="514"/>
-      <c r="Q5" s="514"/>
-      <c r="R5" s="515"/>
+      <c r="E5" s="493"/>
+      <c r="F5" s="493"/>
+      <c r="G5" s="493"/>
+      <c r="H5" s="494"/>
+      <c r="I5" s="583"/>
+      <c r="J5" s="584"/>
+      <c r="K5" s="585"/>
+      <c r="L5" s="494"/>
+      <c r="M5" s="616"/>
+      <c r="N5" s="617"/>
+      <c r="O5" s="617"/>
+      <c r="P5" s="617"/>
+      <c r="Q5" s="617"/>
+      <c r="R5" s="618"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="440" t="s">
+      <c r="B6" s="543" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="479"/>
-      <c r="D6" s="393" t="str">
+      <c r="C6" s="582"/>
+      <c r="D6" s="486" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="445"/>
-      <c r="F6" s="445"/>
-      <c r="G6" s="445"/>
-      <c r="H6" s="446"/>
-      <c r="I6" s="480"/>
-      <c r="J6" s="481"/>
-      <c r="K6" s="482"/>
-      <c r="L6" s="401"/>
-      <c r="M6" s="513"/>
-      <c r="N6" s="514"/>
-      <c r="O6" s="514"/>
-      <c r="P6" s="514"/>
-      <c r="Q6" s="514"/>
-      <c r="R6" s="515"/>
+      <c r="E6" s="548"/>
+      <c r="F6" s="548"/>
+      <c r="G6" s="548"/>
+      <c r="H6" s="549"/>
+      <c r="I6" s="583"/>
+      <c r="J6" s="584"/>
+      <c r="K6" s="585"/>
+      <c r="L6" s="494"/>
+      <c r="M6" s="616"/>
+      <c r="N6" s="617"/>
+      <c r="O6" s="617"/>
+      <c r="P6" s="617"/>
+      <c r="Q6" s="617"/>
+      <c r="R6" s="618"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="447" t="s">
+      <c r="B7" s="550" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="483"/>
-      <c r="D7" s="402">
+      <c r="C7" s="586"/>
+      <c r="D7" s="495">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="449"/>
-      <c r="F7" s="449"/>
-      <c r="G7" s="449"/>
-      <c r="H7" s="450"/>
-      <c r="I7" s="484" t="s">
+      <c r="E7" s="552"/>
+      <c r="F7" s="552"/>
+      <c r="G7" s="552"/>
+      <c r="H7" s="553"/>
+      <c r="I7" s="587" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="483"/>
-      <c r="K7" s="390">
+      <c r="J7" s="586"/>
+      <c r="K7" s="483">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
-      <c r="M7" s="513"/>
-      <c r="N7" s="514"/>
-      <c r="O7" s="514"/>
-      <c r="P7" s="514"/>
-      <c r="Q7" s="514"/>
-      <c r="R7" s="515"/>
+      <c r="L7" s="484"/>
+      <c r="M7" s="616"/>
+      <c r="N7" s="617"/>
+      <c r="O7" s="617"/>
+      <c r="P7" s="617"/>
+      <c r="Q7" s="617"/>
+      <c r="R7" s="618"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11766,12 +14092,12 @@
     </row>
     <row r="20" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78"/>
-      <c r="B20" s="437" t="s">
+      <c r="B20" s="540" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="438"/>
-      <c r="D20" s="438"/>
-      <c r="E20" s="439"/>
+      <c r="C20" s="541"/>
+      <c r="D20" s="541"/>
+      <c r="E20" s="542"/>
       <c r="F20" s="116" t="s">
         <v>16</v>
       </c>
@@ -11854,7 +14180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S18"/>
   <sheetViews>
@@ -11900,47 +14226,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="486"/>
-      <c r="C2" s="487"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="495" t="s">
+      <c r="B2" s="589"/>
+      <c r="C2" s="590"/>
+      <c r="D2" s="591"/>
+      <c r="E2" s="598" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="496"/>
-      <c r="G2" s="496"/>
-      <c r="H2" s="497"/>
-      <c r="I2" s="501" t="s">
+      <c r="F2" s="599"/>
+      <c r="G2" s="599"/>
+      <c r="H2" s="600"/>
+      <c r="I2" s="604" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="502"/>
-      <c r="K2" s="505">
+      <c r="J2" s="605"/>
+      <c r="K2" s="608">
         <f>Данные!B19</f>
         <v>70</v>
       </c>
-      <c r="L2" s="506"/>
+      <c r="L2" s="609"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="516"/>
-      <c r="Q2" s="516"/>
+      <c r="P2" s="619"/>
+      <c r="Q2" s="619"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="489"/>
-      <c r="C3" s="490"/>
-      <c r="D3" s="491"/>
-      <c r="E3" s="498" t="s">
+      <c r="B3" s="592"/>
+      <c r="C3" s="593"/>
+      <c r="D3" s="594"/>
+      <c r="E3" s="601" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="499"/>
-      <c r="G3" s="499"/>
-      <c r="H3" s="500"/>
-      <c r="I3" s="503"/>
-      <c r="J3" s="504"/>
-      <c r="K3" s="507"/>
-      <c r="L3" s="508"/>
+      <c r="F3" s="602"/>
+      <c r="G3" s="602"/>
+      <c r="H3" s="603"/>
+      <c r="I3" s="606"/>
+      <c r="J3" s="607"/>
+      <c r="K3" s="610"/>
+      <c r="L3" s="611"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11951,9 +14277,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="492"/>
-      <c r="C4" s="493"/>
-      <c r="D4" s="494"/>
+      <c r="B4" s="595"/>
+      <c r="C4" s="596"/>
+      <c r="D4" s="597"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -11972,22 +14298,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="440" t="s">
+      <c r="B5" s="543" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="479"/>
-      <c r="D5" s="399" t="str">
+      <c r="C5" s="582"/>
+      <c r="D5" s="492" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="480"/>
-      <c r="J5" s="481"/>
-      <c r="K5" s="482"/>
-      <c r="L5" s="401"/>
+      <c r="E5" s="493"/>
+      <c r="F5" s="493"/>
+      <c r="G5" s="493"/>
+      <c r="H5" s="494"/>
+      <c r="I5" s="583"/>
+      <c r="J5" s="584"/>
+      <c r="K5" s="585"/>
+      <c r="L5" s="494"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11998,22 +14324,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="440" t="s">
+      <c r="B6" s="543" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="479"/>
-      <c r="D6" s="393" t="str">
+      <c r="C6" s="582"/>
+      <c r="D6" s="486" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="445"/>
-      <c r="F6" s="445"/>
-      <c r="G6" s="445"/>
-      <c r="H6" s="446"/>
-      <c r="I6" s="480"/>
-      <c r="J6" s="481"/>
-      <c r="K6" s="482"/>
-      <c r="L6" s="401"/>
+      <c r="E6" s="548"/>
+      <c r="F6" s="548"/>
+      <c r="G6" s="548"/>
+      <c r="H6" s="549"/>
+      <c r="I6" s="583"/>
+      <c r="J6" s="584"/>
+      <c r="K6" s="585"/>
+      <c r="L6" s="494"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12024,27 +14350,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="447" t="s">
+      <c r="B7" s="550" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="483"/>
-      <c r="D7" s="402">
+      <c r="C7" s="586"/>
+      <c r="D7" s="495">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="449"/>
-      <c r="F7" s="449"/>
-      <c r="G7" s="449"/>
-      <c r="H7" s="450"/>
-      <c r="I7" s="484" t="s">
+      <c r="E7" s="552"/>
+      <c r="F7" s="552"/>
+      <c r="G7" s="552"/>
+      <c r="H7" s="553"/>
+      <c r="I7" s="587" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="483"/>
-      <c r="K7" s="390">
+      <c r="J7" s="586"/>
+      <c r="K7" s="483">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="391"/>
+      <c r="L7" s="484"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12307,12 +14633,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="437" t="s">
+      <c r="B16" s="540" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="438"/>
-      <c r="D16" s="438"/>
-      <c r="E16" s="439"/>
+      <c r="C16" s="541"/>
+      <c r="D16" s="541"/>
+      <c r="E16" s="542"/>
       <c r="F16" s="259" t="s">
         <v>16</v>
       </c>
@@ -12395,617 +14721,4 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S20"/>
-  <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1.33203125" style="169" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="169" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="169" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="169" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="169" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="169" customWidth="1"/>
-    <col min="8" max="18" width="9" style="169" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="169" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="169"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="165"/>
-      <c r="B1" s="166"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
-      <c r="O1" s="167"/>
-      <c r="P1" s="167"/>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="167"/>
-      <c r="S1" s="168"/>
-    </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="170"/>
-      <c r="B2" s="486"/>
-      <c r="C2" s="487"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="495" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="496"/>
-      <c r="G2" s="496"/>
-      <c r="H2" s="497"/>
-      <c r="I2" s="501" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="502"/>
-      <c r="K2" s="505">
-        <f>Данные!B20</f>
-        <v>50</v>
-      </c>
-      <c r="L2" s="506"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="517"/>
-      <c r="Q2" s="517"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="175"/>
-    </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="170"/>
-      <c r="B3" s="489"/>
-      <c r="C3" s="490"/>
-      <c r="D3" s="491"/>
-      <c r="E3" s="498" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="499"/>
-      <c r="G3" s="499"/>
-      <c r="H3" s="500"/>
-      <c r="I3" s="503"/>
-      <c r="J3" s="504"/>
-      <c r="K3" s="507"/>
-      <c r="L3" s="508"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="177"/>
-      <c r="O3" s="177"/>
-      <c r="P3" s="177"/>
-      <c r="Q3" s="177"/>
-      <c r="R3" s="178"/>
-      <c r="S3" s="175"/>
-    </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="170"/>
-      <c r="B4" s="492"/>
-      <c r="C4" s="493"/>
-      <c r="D4" s="494"/>
-      <c r="E4" s="250"/>
-      <c r="F4" s="250"/>
-      <c r="G4" s="250"/>
-      <c r="H4" s="250"/>
-      <c r="I4" s="251"/>
-      <c r="J4" s="249"/>
-      <c r="K4" s="252"/>
-      <c r="L4" s="253"/>
-      <c r="M4" s="176"/>
-      <c r="N4" s="177"/>
-      <c r="O4" s="177"/>
-      <c r="P4" s="177"/>
-      <c r="Q4" s="177"/>
-      <c r="R4" s="178"/>
-      <c r="S4" s="175"/>
-    </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="170"/>
-      <c r="B5" s="440" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="479"/>
-      <c r="D5" s="399" t="str">
-        <f>Данные!$A5</f>
-        <v>PCI</v>
-      </c>
-      <c r="E5" s="400"/>
-      <c r="F5" s="400"/>
-      <c r="G5" s="400"/>
-      <c r="H5" s="401"/>
-      <c r="I5" s="480"/>
-      <c r="J5" s="481"/>
-      <c r="K5" s="482"/>
-      <c r="L5" s="401"/>
-      <c r="M5" s="179"/>
-      <c r="N5" s="177"/>
-      <c r="O5" s="177"/>
-      <c r="P5" s="177"/>
-      <c r="Q5" s="177"/>
-      <c r="R5" s="178"/>
-      <c r="S5" s="175"/>
-    </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="170"/>
-      <c r="B6" s="440" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="479"/>
-      <c r="D6" s="393" t="str">
-        <f>Данные!$A2</f>
-        <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
-      </c>
-      <c r="E6" s="445"/>
-      <c r="F6" s="445"/>
-      <c r="G6" s="445"/>
-      <c r="H6" s="446"/>
-      <c r="I6" s="480"/>
-      <c r="J6" s="481"/>
-      <c r="K6" s="482"/>
-      <c r="L6" s="401"/>
-      <c r="M6" s="176"/>
-      <c r="N6" s="177"/>
-      <c r="O6" s="177"/>
-      <c r="P6" s="177"/>
-      <c r="Q6" s="177"/>
-      <c r="R6" s="178"/>
-      <c r="S6" s="175"/>
-    </row>
-    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="170"/>
-      <c r="B7" s="447" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="483"/>
-      <c r="D7" s="402">
-        <f>Данные!$A8</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="449"/>
-      <c r="F7" s="449"/>
-      <c r="G7" s="449"/>
-      <c r="H7" s="450"/>
-      <c r="I7" s="484" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="483"/>
-      <c r="K7" s="390">
-        <f>Данные!$A11</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="391"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="177"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="178"/>
-      <c r="S7" s="175"/>
-    </row>
-    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="180"/>
-      <c r="B8" s="181"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="183"/>
-      <c r="K8" s="183"/>
-      <c r="L8" s="183"/>
-      <c r="M8" s="184"/>
-      <c r="N8" s="184"/>
-      <c r="O8" s="183"/>
-      <c r="P8" s="183"/>
-      <c r="Q8" s="183"/>
-      <c r="R8" s="185"/>
-      <c r="S8" s="186"/>
-    </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="187"/>
-      <c r="B9" s="254" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="255" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="256" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="257" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="258" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="188"/>
-      <c r="I9" s="188"/>
-      <c r="J9" s="188"/>
-      <c r="K9" s="188"/>
-      <c r="L9" s="188"/>
-      <c r="M9" s="201"/>
-      <c r="N9" s="344"/>
-      <c r="O9" s="344"/>
-      <c r="P9" s="345"/>
-      <c r="Q9" s="344"/>
-      <c r="R9" s="346"/>
-      <c r="S9" s="202"/>
-    </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="180"/>
-      <c r="B10" s="189" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="190">
-        <v>74.75</v>
-      </c>
-      <c r="D10" s="190">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="190">
-        <v>-0.05</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
-      <c r="J10" s="190"/>
-      <c r="K10" s="190"/>
-      <c r="L10" s="190"/>
-      <c r="M10" s="190"/>
-      <c r="N10" s="347" t="s">
-        <v>42</v>
-      </c>
-      <c r="O10" s="347"/>
-      <c r="P10" s="347"/>
-      <c r="Q10" s="347"/>
-      <c r="R10" s="348"/>
-      <c r="S10" s="186"/>
-    </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="180"/>
-      <c r="B11" s="191" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="192">
-        <v>21.1</v>
-      </c>
-      <c r="D11" s="192">
-        <v>0.02</v>
-      </c>
-      <c r="E11" s="192">
-        <v>0</v>
-      </c>
-      <c r="F11" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="192"/>
-      <c r="I11" s="192"/>
-      <c r="J11" s="192"/>
-      <c r="K11" s="192"/>
-      <c r="L11" s="192"/>
-      <c r="M11" s="192"/>
-      <c r="N11" s="349"/>
-      <c r="O11" s="349"/>
-      <c r="P11" s="349"/>
-      <c r="Q11" s="349"/>
-      <c r="R11" s="350"/>
-      <c r="S11" s="186"/>
-    </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="180"/>
-      <c r="B12" s="191" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="359">
-        <v>45.2</v>
-      </c>
-      <c r="D12" s="192">
-        <v>0</v>
-      </c>
-      <c r="E12" s="203">
-        <v>-0.1</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="192"/>
-      <c r="I12" s="192"/>
-      <c r="J12" s="192"/>
-      <c r="K12" s="192"/>
-      <c r="L12" s="192"/>
-      <c r="M12" s="192"/>
-      <c r="N12" s="349"/>
-      <c r="O12" s="349"/>
-      <c r="P12" s="349"/>
-      <c r="Q12" s="349"/>
-      <c r="R12" s="350"/>
-      <c r="S12" s="186"/>
-    </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="180"/>
-      <c r="B13" s="191" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="359">
-        <v>37</v>
-      </c>
-      <c r="D13" s="192">
-        <v>0</v>
-      </c>
-      <c r="E13" s="192">
-        <v>-0.1</v>
-      </c>
-      <c r="F13" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="192"/>
-      <c r="I13" s="192"/>
-      <c r="J13" s="192"/>
-      <c r="K13" s="192"/>
-      <c r="L13" s="192"/>
-      <c r="M13" s="192"/>
-      <c r="N13" s="349"/>
-      <c r="O13" s="349"/>
-      <c r="P13" s="349"/>
-      <c r="Q13" s="349"/>
-      <c r="R13" s="350"/>
-      <c r="S13" s="186"/>
-    </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="180"/>
-      <c r="B14" s="191" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="359">
-        <v>28.5</v>
-      </c>
-      <c r="D14" s="192">
-        <v>0</v>
-      </c>
-      <c r="E14" s="192">
-        <v>-0.1</v>
-      </c>
-      <c r="F14" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="192"/>
-      <c r="I14" s="192"/>
-      <c r="J14" s="192"/>
-      <c r="K14" s="192"/>
-      <c r="L14" s="192"/>
-      <c r="M14" s="192"/>
-      <c r="N14" s="349"/>
-      <c r="O14" s="349"/>
-      <c r="P14" s="349"/>
-      <c r="Q14" s="349"/>
-      <c r="R14" s="350"/>
-      <c r="S14" s="186"/>
-    </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="180"/>
-      <c r="B15" s="191" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="359">
-        <v>9.5</v>
-      </c>
-      <c r="D15" s="192">
-        <v>0.02</v>
-      </c>
-      <c r="E15" s="192">
-        <v>-0.05</v>
-      </c>
-      <c r="F15" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="192"/>
-      <c r="I15" s="192"/>
-      <c r="J15" s="192"/>
-      <c r="K15" s="192"/>
-      <c r="L15" s="192"/>
-      <c r="M15" s="192"/>
-      <c r="N15" s="349"/>
-      <c r="O15" s="349"/>
-      <c r="P15" s="349"/>
-      <c r="Q15" s="349"/>
-      <c r="R15" s="350"/>
-      <c r="S15" s="186"/>
-    </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="180"/>
-      <c r="B16" s="191" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="359">
-        <v>23.8</v>
-      </c>
-      <c r="D16" s="192">
-        <v>0</v>
-      </c>
-      <c r="E16" s="192">
-        <v>-0.05</v>
-      </c>
-      <c r="F16" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="192"/>
-      <c r="I16" s="192"/>
-      <c r="J16" s="192"/>
-      <c r="K16" s="192"/>
-      <c r="L16" s="192"/>
-      <c r="M16" s="192"/>
-      <c r="N16" s="349"/>
-      <c r="O16" s="349"/>
-      <c r="P16" s="349"/>
-      <c r="Q16" s="349"/>
-      <c r="R16" s="350"/>
-      <c r="S16" s="186"/>
-    </row>
-    <row r="17" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="180"/>
-      <c r="B17" s="191" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="192">
-        <v>32.950000000000003</v>
-      </c>
-      <c r="D17" s="192">
-        <v>0.05</v>
-      </c>
-      <c r="E17" s="192">
-        <v>0</v>
-      </c>
-      <c r="F17" s="116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="192"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="192"/>
-      <c r="K17" s="192"/>
-      <c r="L17" s="192"/>
-      <c r="M17" s="192"/>
-      <c r="N17" s="349"/>
-      <c r="O17" s="349"/>
-      <c r="P17" s="349"/>
-      <c r="Q17" s="349"/>
-      <c r="R17" s="350"/>
-      <c r="S17" s="186"/>
-    </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="180"/>
-      <c r="B18" s="191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="359">
-        <v>28.5</v>
-      </c>
-      <c r="D18" s="192">
-        <v>0</v>
-      </c>
-      <c r="E18" s="192">
-        <v>-0.03</v>
-      </c>
-      <c r="F18" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="192"/>
-      <c r="I18" s="192"/>
-      <c r="J18" s="192"/>
-      <c r="K18" s="192"/>
-      <c r="L18" s="192"/>
-      <c r="M18" s="192"/>
-      <c r="N18" s="349"/>
-      <c r="O18" s="349"/>
-      <c r="P18" s="349"/>
-      <c r="Q18" s="349"/>
-      <c r="R18" s="350"/>
-      <c r="S18" s="186"/>
-    </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="193"/>
-      <c r="B19" s="194"/>
-      <c r="C19" s="194"/>
-      <c r="D19" s="194"/>
-      <c r="E19" s="195"/>
-      <c r="F19" s="195"/>
-      <c r="G19" s="194"/>
-      <c r="H19" s="194"/>
-      <c r="I19" s="194"/>
-      <c r="J19" s="194"/>
-      <c r="K19" s="194"/>
-      <c r="L19" s="194"/>
-      <c r="M19" s="194"/>
-      <c r="N19" s="194"/>
-      <c r="O19" s="194"/>
-      <c r="P19" s="194"/>
-      <c r="Q19" s="194"/>
-      <c r="R19" s="194"/>
-      <c r="S19" s="196"/>
-    </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-  </mergeCells>
-  <conditionalFormatting sqref="R14:R15">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"ok"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="notBetween">
-      <formula>$C14+$D14</formula>
-      <formula>$C14+$E14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-30-1-500-7 (Каласы)/от 23.10.2019 Каласы.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-30-1-500-7 (Каласы)/от 23.10.2019 Каласы.xlsx
@@ -3537,6 +3537,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3581,11 +3591,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3604,10 +3613,77 @@
     <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3618,60 +3694,6 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3681,23 +3703,77 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3749,76 +3825,73 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3842,75 +3915,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3937,6 +3941,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3947,12 +3954,12 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3964,13 +3971,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5908,9 +5908,8 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Детали ф-тов"/>
+      <sheetName val="Данные"/>
       <sheetName val="Паспорт"/>
-      <sheetName val="Данные"/>
       <sheetName val="Акт приемки"/>
       <sheetName val="Чист. форма"/>
       <sheetName val="Чист.  поддон"/>
@@ -5922,11 +5921,10 @@
       <sheetName val="Втулка"/>
       <sheetName val="Дут. головка"/>
       <sheetName val="Воронка"/>
+      <sheetName val="Детали ф-тов"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
+      <sheetData sheetId="0">
         <row r="14">
           <cell r="A14" t="str">
             <v>Чистовая форма</v>
@@ -5984,10 +5982,12 @@
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>Дутьевая головка</v>
+            <v>Охладитель плунжера</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
@@ -5998,7 +5998,7 @@
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
+      <sheetData sheetId="13" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6306,25 +6306,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="485" t="s">
+      <c r="A1" s="489" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="489"/>
-      <c r="C1" s="489"/>
-      <c r="D1" s="489"/>
-      <c r="E1" s="489"/>
+      <c r="B1" s="493"/>
+      <c r="C1" s="493"/>
+      <c r="D1" s="493"/>
+      <c r="E1" s="493"/>
       <c r="G1" s="371" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="486" t="s">
+      <c r="A2" s="490" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="487"/>
-      <c r="C2" s="487"/>
-      <c r="D2" s="487"/>
-      <c r="E2" s="488"/>
+      <c r="B2" s="491"/>
+      <c r="C2" s="491"/>
+      <c r="D2" s="491"/>
+      <c r="E2" s="492"/>
       <c r="G2" s="370" t="s">
         <v>79</v>
       </c>
@@ -6335,45 +6335,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="490" t="s">
+      <c r="A4" s="494" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="491"/>
-      <c r="C4" s="491"/>
-      <c r="D4" s="491"/>
-      <c r="E4" s="491"/>
+      <c r="B4" s="495"/>
+      <c r="C4" s="495"/>
+      <c r="D4" s="495"/>
+      <c r="E4" s="495"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="492" t="s">
+      <c r="A5" s="496" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="493"/>
-      <c r="C5" s="493"/>
-      <c r="D5" s="493"/>
-      <c r="E5" s="494"/>
+      <c r="B5" s="497"/>
+      <c r="C5" s="497"/>
+      <c r="D5" s="497"/>
+      <c r="E5" s="498"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="485" t="s">
+      <c r="A7" s="489" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="489"/>
-      <c r="C7" s="489"/>
-      <c r="D7" s="489"/>
-      <c r="E7" s="489"/>
+      <c r="B7" s="493"/>
+      <c r="C7" s="493"/>
+      <c r="D7" s="493"/>
+      <c r="E7" s="493"/>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="495"/>
-      <c r="B8" s="496"/>
-      <c r="C8" s="496"/>
-      <c r="D8" s="496"/>
-      <c r="E8" s="497"/>
+      <c r="A8" s="499"/>
+      <c r="B8" s="500"/>
+      <c r="C8" s="500"/>
+      <c r="D8" s="500"/>
+      <c r="E8" s="501"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="485" t="s">
+      <c r="A10" s="489" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="485"/>
+      <c r="B10" s="489"/>
       <c r="C10" s="372"/>
       <c r="D10" s="380" t="s">
         <v>94</v>
@@ -6384,33 +6384,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="483"/>
-      <c r="B11" s="484"/>
+      <c r="A11" s="487"/>
+      <c r="B11" s="488"/>
       <c r="D11" s="379">
         <v>43761</v>
       </c>
-      <c r="F11" s="498" t="s">
+      <c r="F11" s="484" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="498"/>
-      <c r="H11" s="498"/>
-      <c r="I11" s="498"/>
-      <c r="J11" s="499" t="s">
+      <c r="G11" s="484"/>
+      <c r="H11" s="484"/>
+      <c r="I11" s="484"/>
+      <c r="J11" s="485" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="499"/>
+      <c r="K11" s="485"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="498" t="s">
+      <c r="F12" s="484" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="498"/>
-      <c r="H12" s="498"/>
-      <c r="I12" s="498"/>
-      <c r="J12" s="499" t="s">
+      <c r="G12" s="484"/>
+      <c r="H12" s="484"/>
+      <c r="I12" s="484"/>
+      <c r="J12" s="485" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="499"/>
+      <c r="K12" s="485"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="373" t="s">
@@ -6422,16 +6422,16 @@
       <c r="C13" s="384" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="498" t="s">
+      <c r="F13" s="484" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="498"/>
-      <c r="H13" s="498"/>
-      <c r="I13" s="498"/>
-      <c r="J13" s="499" t="s">
+      <c r="G13" s="484"/>
+      <c r="H13" s="484"/>
+      <c r="I13" s="484"/>
+      <c r="J13" s="485" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="499"/>
+      <c r="K13" s="485"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="375" t="s">
@@ -6585,11 +6585,11 @@
       <c r="A28" s="381"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="482" t="s">
+      <c r="A29" s="486" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="482"/>
-      <c r="C29" s="482"/>
+      <c r="B29" s="486"/>
+      <c r="C29" s="486"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -6598,12 +6598,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -6613,6 +6607,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -6666,47 +6666,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="170"/>
-      <c r="B2" s="589"/>
-      <c r="C2" s="590"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="598" t="s">
+      <c r="B2" s="584"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="599"/>
-      <c r="G2" s="599"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="604" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="599" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="605"/>
-      <c r="K2" s="608">
+      <c r="J2" s="600"/>
+      <c r="K2" s="603">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="L2" s="609"/>
+      <c r="L2" s="604"/>
       <c r="M2" s="171"/>
       <c r="N2" s="172"/>
       <c r="O2" s="173"/>
-      <c r="P2" s="620"/>
-      <c r="Q2" s="620"/>
+      <c r="P2" s="622"/>
+      <c r="Q2" s="622"/>
       <c r="R2" s="174"/>
       <c r="S2" s="175"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="170"/>
-      <c r="B3" s="592"/>
-      <c r="C3" s="593"/>
-      <c r="D3" s="594"/>
-      <c r="E3" s="601" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="596" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="602"/>
-      <c r="G3" s="602"/>
-      <c r="H3" s="603"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="607"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="611"/>
+      <c r="F3" s="597"/>
+      <c r="G3" s="597"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="601"/>
+      <c r="J3" s="602"/>
+      <c r="K3" s="605"/>
+      <c r="L3" s="606"/>
       <c r="M3" s="176"/>
       <c r="N3" s="177"/>
       <c r="O3" s="177"/>
@@ -6717,9 +6717,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="170"/>
-      <c r="B4" s="595"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="597"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -6738,22 +6738,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="170"/>
-      <c r="B5" s="543" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="582"/>
-      <c r="D5" s="492" t="str">
+      <c r="C5" s="607"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="493"/>
-      <c r="F5" s="493"/>
-      <c r="G5" s="493"/>
-      <c r="H5" s="494"/>
-      <c r="I5" s="583"/>
-      <c r="J5" s="584"/>
-      <c r="K5" s="585"/>
-      <c r="L5" s="494"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="609"/>
+      <c r="K5" s="610"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="179"/>
       <c r="N5" s="177"/>
       <c r="O5" s="177"/>
@@ -6764,22 +6764,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="170"/>
-      <c r="B6" s="543" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="582"/>
-      <c r="D6" s="486" t="str">
+      <c r="C6" s="607"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="583"/>
-      <c r="J6" s="584"/>
-      <c r="K6" s="585"/>
-      <c r="L6" s="494"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="176"/>
       <c r="N6" s="177"/>
       <c r="O6" s="177"/>
@@ -6790,27 +6790,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="170"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="586"/>
-      <c r="D7" s="495">
+      <c r="C7" s="611"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="587" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="612" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="483">
+      <c r="J7" s="611"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="484"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="179"/>
       <c r="N7" s="177"/>
       <c r="O7" s="177"/>
@@ -7196,6 +7196,17 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7203,17 +7214,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -7279,47 +7279,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="209"/>
-      <c r="B2" s="589"/>
-      <c r="C2" s="590"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="598" t="s">
+      <c r="B2" s="584"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="599"/>
-      <c r="G2" s="599"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="604" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="599" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="605"/>
-      <c r="K2" s="608">
+      <c r="J2" s="600"/>
+      <c r="K2" s="603">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="L2" s="609"/>
+      <c r="L2" s="604"/>
       <c r="M2" s="210"/>
       <c r="N2" s="211"/>
       <c r="O2" s="212"/>
-      <c r="P2" s="624"/>
-      <c r="Q2" s="624"/>
+      <c r="P2" s="623"/>
+      <c r="Q2" s="623"/>
       <c r="R2" s="213"/>
       <c r="S2" s="214"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="209"/>
-      <c r="B3" s="592"/>
-      <c r="C3" s="593"/>
-      <c r="D3" s="594"/>
-      <c r="E3" s="601" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="596" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="602"/>
-      <c r="G3" s="602"/>
-      <c r="H3" s="603"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="607"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="611"/>
+      <c r="F3" s="597"/>
+      <c r="G3" s="597"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="601"/>
+      <c r="J3" s="602"/>
+      <c r="K3" s="605"/>
+      <c r="L3" s="606"/>
       <c r="M3" s="215"/>
       <c r="N3" s="216"/>
       <c r="O3" s="216"/>
@@ -7330,9 +7330,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="209"/>
-      <c r="B4" s="595"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="597"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7351,22 +7351,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="209"/>
-      <c r="B5" s="543" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="582"/>
-      <c r="D5" s="492" t="str">
+      <c r="C5" s="607"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="493"/>
-      <c r="F5" s="493"/>
-      <c r="G5" s="493"/>
-      <c r="H5" s="494"/>
-      <c r="I5" s="583"/>
-      <c r="J5" s="584"/>
-      <c r="K5" s="585"/>
-      <c r="L5" s="494"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="609"/>
+      <c r="K5" s="610"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="218"/>
       <c r="N5" s="216"/>
       <c r="O5" s="216"/>
@@ -7377,22 +7377,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="209"/>
-      <c r="B6" s="543" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="582"/>
-      <c r="D6" s="486" t="str">
+      <c r="C6" s="607"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="583"/>
-      <c r="J6" s="584"/>
-      <c r="K6" s="585"/>
-      <c r="L6" s="494"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="215"/>
       <c r="N6" s="216"/>
       <c r="O6" s="216"/>
@@ -7403,27 +7403,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="209"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="586"/>
-      <c r="D7" s="495">
+      <c r="C7" s="611"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="587" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="612" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="483">
+      <c r="J7" s="611"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="484"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="218"/>
       <c r="N7" s="216"/>
       <c r="O7" s="216"/>
@@ -7752,12 +7752,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="219"/>
-      <c r="B18" s="621" t="s">
+      <c r="B18" s="624" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="622"/>
-      <c r="D18" s="622"/>
-      <c r="E18" s="623"/>
+      <c r="C18" s="625"/>
+      <c r="D18" s="625"/>
+      <c r="E18" s="626"/>
       <c r="F18" s="116" t="s">
         <v>16</v>
       </c>
@@ -7801,14 +7801,6 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -7820,6 +7812,14 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -7905,47 +7905,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="133"/>
-      <c r="B2" s="589"/>
-      <c r="C2" s="590"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="598" t="s">
+      <c r="B2" s="584"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="599"/>
-      <c r="G2" s="599"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="604" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="599" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="605"/>
-      <c r="K2" s="608">
+      <c r="J2" s="600"/>
+      <c r="K2" s="603">
         <f>Данные!B26</f>
         <v>24</v>
       </c>
-      <c r="L2" s="609"/>
+      <c r="L2" s="604"/>
       <c r="M2" s="134"/>
       <c r="N2" s="135"/>
       <c r="O2" s="136"/>
-      <c r="P2" s="625"/>
-      <c r="Q2" s="625"/>
+      <c r="P2" s="627"/>
+      <c r="Q2" s="627"/>
       <c r="R2" s="137"/>
       <c r="S2" s="138"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="133"/>
-      <c r="B3" s="592"/>
-      <c r="C3" s="593"/>
-      <c r="D3" s="594"/>
-      <c r="E3" s="601" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="596" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="602"/>
-      <c r="G3" s="602"/>
-      <c r="H3" s="603"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="607"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="611"/>
+      <c r="F3" s="597"/>
+      <c r="G3" s="597"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="601"/>
+      <c r="J3" s="602"/>
+      <c r="K3" s="605"/>
+      <c r="L3" s="606"/>
       <c r="M3" s="139"/>
       <c r="N3" s="140"/>
       <c r="O3" s="140"/>
@@ -7956,9 +7956,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="133"/>
-      <c r="B4" s="595"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="597"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7977,22 +7977,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="133"/>
-      <c r="B5" s="543" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="582"/>
-      <c r="D5" s="492" t="str">
+      <c r="C5" s="607"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="493"/>
-      <c r="F5" s="493"/>
-      <c r="G5" s="493"/>
-      <c r="H5" s="494"/>
-      <c r="I5" s="583"/>
-      <c r="J5" s="584"/>
-      <c r="K5" s="585"/>
-      <c r="L5" s="494"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="609"/>
+      <c r="K5" s="610"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="142"/>
       <c r="N5" s="140"/>
       <c r="O5" s="140"/>
@@ -8003,22 +8003,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="133"/>
-      <c r="B6" s="543" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="582"/>
-      <c r="D6" s="486" t="str">
+      <c r="C6" s="607"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="583"/>
-      <c r="J6" s="584"/>
-      <c r="K6" s="585"/>
-      <c r="L6" s="494"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="139"/>
       <c r="N6" s="140"/>
       <c r="O6" s="140"/>
@@ -8029,27 +8029,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="133"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="586"/>
-      <c r="D7" s="495">
+      <c r="C7" s="611"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="587" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="612" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="483">
+      <c r="J7" s="611"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="484"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="142"/>
       <c r="N7" s="140"/>
       <c r="O7" s="140"/>
@@ -8430,6 +8430,17 @@
     <row r="21" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -8437,17 +8448,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -8513,47 +8513,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="266"/>
-      <c r="B2" s="589"/>
-      <c r="C2" s="590"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="598" t="s">
+      <c r="B2" s="584"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="599"/>
-      <c r="G2" s="599"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="604" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="599" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="605"/>
-      <c r="K2" s="626">
+      <c r="J2" s="600"/>
+      <c r="K2" s="629">
         <f>Данные!B23</f>
         <v>24</v>
       </c>
-      <c r="L2" s="627"/>
+      <c r="L2" s="630"/>
       <c r="M2" s="267"/>
       <c r="N2" s="268"/>
       <c r="O2" s="269"/>
-      <c r="P2" s="630"/>
-      <c r="Q2" s="630"/>
+      <c r="P2" s="628"/>
+      <c r="Q2" s="628"/>
       <c r="R2" s="270"/>
       <c r="S2" s="271"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="266"/>
-      <c r="B3" s="592"/>
-      <c r="C3" s="593"/>
-      <c r="D3" s="594"/>
-      <c r="E3" s="601" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="596" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="602"/>
-      <c r="G3" s="602"/>
-      <c r="H3" s="603"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="607"/>
-      <c r="K3" s="628"/>
-      <c r="L3" s="629"/>
+      <c r="F3" s="597"/>
+      <c r="G3" s="597"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="601"/>
+      <c r="J3" s="602"/>
+      <c r="K3" s="631"/>
+      <c r="L3" s="632"/>
       <c r="M3" s="272"/>
       <c r="N3" s="273"/>
       <c r="O3" s="273"/>
@@ -8564,9 +8564,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="266"/>
-      <c r="B4" s="595"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="597"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -8585,22 +8585,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="266"/>
-      <c r="B5" s="543" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="582"/>
-      <c r="D5" s="492" t="str">
+      <c r="C5" s="607"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="493"/>
-      <c r="F5" s="493"/>
-      <c r="G5" s="493"/>
-      <c r="H5" s="494"/>
-      <c r="I5" s="583"/>
-      <c r="J5" s="584"/>
-      <c r="K5" s="585"/>
-      <c r="L5" s="494"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="609"/>
+      <c r="K5" s="610"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="275"/>
       <c r="N5" s="273"/>
       <c r="O5" s="273"/>
@@ -8611,22 +8611,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="266"/>
-      <c r="B6" s="543" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="582"/>
-      <c r="D6" s="486" t="str">
+      <c r="C6" s="607"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="583"/>
-      <c r="J6" s="584"/>
-      <c r="K6" s="585"/>
-      <c r="L6" s="494"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="272"/>
       <c r="N6" s="273"/>
       <c r="O6" s="273"/>
@@ -8637,27 +8637,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="266"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="586"/>
-      <c r="D7" s="495">
+      <c r="C7" s="611"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="587" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="612" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="483">
+      <c r="J7" s="611"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="484"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="275"/>
       <c r="N7" s="273"/>
       <c r="O7" s="273"/>
@@ -8930,6 +8930,8 @@
     <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
@@ -8946,8 +8948,6 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -8976,8 +8976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8998,11 +8998,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="390"/>
-      <c r="B1" s="632" t="s">
+      <c r="B1" s="483" t="s">
         <v>114</v>
       </c>
       <c r="C1" s="390"/>
-      <c r="D1" s="631" t="str">
+      <c r="D1" s="482" t="str">
         <f>Данные!A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
@@ -9032,17 +9032,17 @@
       <c r="L2" s="391"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="502" t="s">
+      <c r="A3" s="507" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="502"/>
-      <c r="C3" s="502"/>
-      <c r="D3" s="502"/>
-      <c r="E3" s="502"/>
-      <c r="F3" s="502"/>
-      <c r="G3" s="502"/>
-      <c r="H3" s="502"/>
-      <c r="I3" s="502"/>
+      <c r="B3" s="507"/>
+      <c r="C3" s="507"/>
+      <c r="D3" s="507"/>
+      <c r="E3" s="507"/>
+      <c r="F3" s="507"/>
+      <c r="G3" s="507"/>
+      <c r="H3" s="507"/>
+      <c r="I3" s="507"/>
       <c r="K3" s="392"/>
       <c r="L3" s="392"/>
       <c r="M3" s="393"/>
@@ -9440,7 +9440,7 @@
       </c>
       <c r="B17" s="418" t="str">
         <f>[1]Данные!A25</f>
-        <v>Дутьевая головка</v>
+        <v>Охладитель плунжера</v>
       </c>
       <c r="C17" s="419" t="str">
         <f>Данные!C26</f>
@@ -9530,31 +9530,31 @@
         <v>18200000</v>
       </c>
       <c r="B21" s="433">
-        <v>43759</v>
+        <v>43781</v>
       </c>
       <c r="C21" s="434">
-        <v>43765</v>
+        <v>43783</v>
       </c>
       <c r="D21" s="433">
-        <v>43769</v>
+        <v>43789</v>
       </c>
       <c r="E21" s="435">
-        <v>948096</v>
+        <v>466668</v>
       </c>
       <c r="F21" s="435">
-        <v>1031915</v>
+        <v>519471</v>
       </c>
       <c r="G21" s="436">
         <f>F21/A$21</f>
-        <v>5.6698626373626375E-2</v>
+        <v>2.8542362637362637E-2</v>
       </c>
       <c r="H21" s="437">
         <f>A21-F21</f>
-        <v>17168085</v>
+        <v>17680529</v>
       </c>
       <c r="I21" s="438">
         <f>1-G21</f>
-        <v>0.94330137362637367</v>
+        <v>0.97145763736263735</v>
       </c>
       <c r="J21" s="439"/>
       <c r="K21" s="413"/>
@@ -9573,11 +9573,11 @@
       </c>
       <c r="H22" s="443">
         <f>H21-F22</f>
-        <v>17168085</v>
+        <v>17680529</v>
       </c>
       <c r="I22" s="444">
         <f>I21-G22</f>
-        <v>0.94330137362637367</v>
+        <v>0.97145763736263735</v>
       </c>
       <c r="J22" s="393"/>
       <c r="K22" s="393"/>
@@ -9718,23 +9718,23 @@
       <c r="D32" s="465"/>
       <c r="E32" s="466">
         <f>SUM(E21:E31)</f>
-        <v>948096</v>
+        <v>466668</v>
       </c>
       <c r="F32" s="467">
         <f>SUM(F21:F31)</f>
-        <v>1031915</v>
+        <v>519471</v>
       </c>
       <c r="G32" s="468">
         <f>SUM(G21:G31)</f>
-        <v>5.6698626373626375E-2</v>
+        <v>2.8542362637362637E-2</v>
       </c>
       <c r="H32" s="469">
         <f>A21-F32</f>
-        <v>17168085</v>
+        <v>17680529</v>
       </c>
       <c r="I32" s="470">
         <f>1-G32</f>
-        <v>0.94330137362637367</v>
+        <v>0.97145763736263735</v>
       </c>
       <c r="J32" s="471"/>
       <c r="K32" s="471"/>
@@ -9753,12 +9753,12 @@
       <c r="J35" s="393"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="503" t="s">
+      <c r="A36" s="508" t="s">
         <v>135</v>
       </c>
-      <c r="B36" s="503"/>
-      <c r="C36" s="503"/>
-      <c r="D36" s="503"/>
+      <c r="B36" s="508"/>
+      <c r="C36" s="508"/>
+      <c r="D36" s="508"/>
       <c r="E36" s="393"/>
       <c r="F36" s="393"/>
       <c r="G36" s="393"/>
@@ -9767,10 +9767,10 @@
       <c r="J36" s="393"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="504" t="s">
+      <c r="A37" s="509" t="s">
         <v>136</v>
       </c>
-      <c r="B37" s="504"/>
+      <c r="B37" s="509"/>
       <c r="C37" s="472" t="s">
         <v>137</v>
       </c>
@@ -9785,18 +9785,18 @@
       <c r="J37" s="393"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="505">
+      <c r="A38" s="510">
         <f>A21-F32</f>
-        <v>17168085</v>
-      </c>
-      <c r="B38" s="506"/>
+        <v>17680529</v>
+      </c>
+      <c r="B38" s="511"/>
       <c r="C38" s="473">
         <f>1-G32</f>
-        <v>0.94330137362637367</v>
+        <v>0.97145763736263735</v>
       </c>
       <c r="D38" s="474">
         <f>(C38/0.8)*100</f>
-        <v>117.91267170329671</v>
+        <v>121.43220467032967</v>
       </c>
       <c r="E38" s="475" t="s">
         <v>139</v>
@@ -9851,8 +9851,8 @@
       <c r="F42" s="477"/>
       <c r="G42" s="477"/>
       <c r="H42" s="477"/>
-      <c r="I42" s="507"/>
-      <c r="J42" s="508"/>
+      <c r="I42" s="502"/>
+      <c r="J42" s="503"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="478"/>
@@ -9946,9 +9946,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="393"/>
-      <c r="B52" s="500"/>
-      <c r="C52" s="500"/>
-      <c r="D52" s="501"/>
+      <c r="B52" s="505"/>
+      <c r="C52" s="505"/>
+      <c r="D52" s="506"/>
       <c r="E52" s="475"/>
       <c r="F52" s="393"/>
       <c r="G52" s="393"/>
@@ -9965,8 +9965,8 @@
       <c r="F53" s="477"/>
       <c r="G53" s="477"/>
       <c r="H53" s="477"/>
-      <c r="I53" s="507"/>
-      <c r="J53" s="508"/>
+      <c r="I53" s="502"/>
+      <c r="J53" s="503"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="478"/>
@@ -9977,8 +9977,8 @@
       <c r="F54" s="423"/>
       <c r="G54" s="423"/>
       <c r="H54" s="479"/>
-      <c r="I54" s="509"/>
-      <c r="J54" s="509"/>
+      <c r="I54" s="504"/>
+      <c r="J54" s="504"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="478"/>
@@ -9989,8 +9989,8 @@
       <c r="F55" s="413"/>
       <c r="G55" s="413"/>
       <c r="H55" s="413"/>
-      <c r="I55" s="509"/>
-      <c r="J55" s="509"/>
+      <c r="I55" s="504"/>
+      <c r="J55" s="504"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="393"/>
@@ -10003,26 +10003,26 @@
       <c r="H56" s="393"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="507"/>
-      <c r="C61" s="508"/>
+      <c r="B61" s="502"/>
+      <c r="C61" s="503"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="507"/>
-      <c r="C68" s="508"/>
+      <c r="B68" s="502"/>
+      <c r="C68" s="503"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
@@ -10103,47 +10103,47 @@
       <c r="J8" s="317"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="511" t="s">
+      <c r="A11" s="537" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="511"/>
-      <c r="C11" s="511"/>
-      <c r="D11" s="511"/>
-      <c r="E11" s="511"/>
-      <c r="F11" s="511"/>
-      <c r="G11" s="511"/>
-      <c r="H11" s="511"/>
-      <c r="I11" s="511"/>
-      <c r="J11" s="511"/>
+      <c r="B11" s="537"/>
+      <c r="C11" s="537"/>
+      <c r="D11" s="537"/>
+      <c r="E11" s="537"/>
+      <c r="F11" s="537"/>
+      <c r="G11" s="537"/>
+      <c r="H11" s="537"/>
+      <c r="I11" s="537"/>
+      <c r="J11" s="537"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="510" t="s">
+      <c r="A12" s="536" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="510"/>
-      <c r="C12" s="510"/>
-      <c r="D12" s="510"/>
-      <c r="E12" s="510"/>
-      <c r="F12" s="510"/>
-      <c r="G12" s="510"/>
-      <c r="H12" s="510"/>
-      <c r="I12" s="510"/>
-      <c r="J12" s="510"/>
+      <c r="B12" s="536"/>
+      <c r="C12" s="536"/>
+      <c r="D12" s="536"/>
+      <c r="E12" s="536"/>
+      <c r="F12" s="536"/>
+      <c r="G12" s="536"/>
+      <c r="H12" s="536"/>
+      <c r="I12" s="536"/>
+      <c r="J12" s="536"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="512" t="str">
+      <c r="A13" s="538" t="str">
         <f>Данные!A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="B13" s="511"/>
-      <c r="C13" s="511"/>
-      <c r="D13" s="511"/>
-      <c r="E13" s="511"/>
-      <c r="F13" s="511"/>
-      <c r="G13" s="511"/>
-      <c r="H13" s="511"/>
-      <c r="I13" s="511"/>
-      <c r="J13" s="511"/>
+      <c r="B13" s="537"/>
+      <c r="C13" s="537"/>
+      <c r="D13" s="537"/>
+      <c r="E13" s="537"/>
+      <c r="F13" s="537"/>
+      <c r="G13" s="537"/>
+      <c r="H13" s="537"/>
+      <c r="I13" s="537"/>
+      <c r="J13" s="537"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="311" t="s">
@@ -10268,482 +10268,482 @@
       <c r="J21" s="312"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="516" t="s">
+      <c r="A22" s="534" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="516" t="s">
+      <c r="B22" s="534" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="516"/>
-      <c r="D22" s="516"/>
-      <c r="E22" s="516" t="s">
+      <c r="C22" s="534"/>
+      <c r="D22" s="534"/>
+      <c r="E22" s="534" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="516"/>
-      <c r="G22" s="534" t="s">
+      <c r="F22" s="534"/>
+      <c r="G22" s="535" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="516" t="s">
+      <c r="H22" s="534" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="516"/>
-      <c r="J22" s="516"/>
+      <c r="I22" s="534"/>
+      <c r="J22" s="534"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="516"/>
-      <c r="B23" s="516"/>
-      <c r="C23" s="516"/>
-      <c r="D23" s="516"/>
-      <c r="E23" s="516"/>
-      <c r="F23" s="516"/>
-      <c r="G23" s="534"/>
-      <c r="H23" s="516"/>
-      <c r="I23" s="516"/>
-      <c r="J23" s="516"/>
+      <c r="A23" s="534"/>
+      <c r="B23" s="534"/>
+      <c r="C23" s="534"/>
+      <c r="D23" s="534"/>
+      <c r="E23" s="534"/>
+      <c r="F23" s="534"/>
+      <c r="G23" s="535"/>
+      <c r="H23" s="534"/>
+      <c r="I23" s="534"/>
+      <c r="J23" s="534"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="517">
+      <c r="A24" s="512">
         <v>1</v>
       </c>
-      <c r="B24" s="531" t="s">
+      <c r="B24" s="539" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="532"/>
-      <c r="D24" s="533"/>
-      <c r="E24" s="519" t="str">
+      <c r="C24" s="540"/>
+      <c r="D24" s="541"/>
+      <c r="E24" s="517" t="str">
         <f>Данные!C14</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F24" s="520"/>
-      <c r="G24" s="523">
+      <c r="F24" s="518"/>
+      <c r="G24" s="521">
         <f>Данные!B14</f>
         <v>26</v>
       </c>
-      <c r="H24" s="525"/>
-      <c r="I24" s="526"/>
-      <c r="J24" s="527"/>
+      <c r="H24" s="523"/>
+      <c r="I24" s="524"/>
+      <c r="J24" s="525"/>
     </row>
     <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="518"/>
-      <c r="B25" s="513" t="str">
+      <c r="A25" s="532"/>
+      <c r="B25" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C25" s="514"/>
-      <c r="D25" s="515"/>
-      <c r="E25" s="521"/>
-      <c r="F25" s="522"/>
-      <c r="G25" s="524"/>
-      <c r="H25" s="528"/>
-      <c r="I25" s="529"/>
-      <c r="J25" s="530"/>
+      <c r="C25" s="530"/>
+      <c r="D25" s="531"/>
+      <c r="E25" s="533"/>
+      <c r="F25" s="520"/>
+      <c r="G25" s="522"/>
+      <c r="H25" s="526"/>
+      <c r="I25" s="527"/>
+      <c r="J25" s="528"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="517">
+      <c r="A26" s="512">
         <v>1</v>
       </c>
-      <c r="B26" s="535" t="s">
+      <c r="B26" s="514" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="536"/>
-      <c r="D26" s="537"/>
-      <c r="E26" s="519" t="str">
+      <c r="C26" s="515"/>
+      <c r="D26" s="516"/>
+      <c r="E26" s="517" t="str">
         <f>Данные!C15</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F26" s="520"/>
-      <c r="G26" s="523">
+      <c r="F26" s="518"/>
+      <c r="G26" s="521">
         <f>Данные!B15</f>
         <v>26</v>
       </c>
-      <c r="H26" s="525"/>
-      <c r="I26" s="526"/>
-      <c r="J26" s="527"/>
+      <c r="H26" s="523"/>
+      <c r="I26" s="524"/>
+      <c r="J26" s="525"/>
     </row>
     <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="518"/>
-      <c r="B27" s="513" t="str">
+      <c r="A27" s="532"/>
+      <c r="B27" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C27" s="514"/>
-      <c r="D27" s="515"/>
-      <c r="E27" s="521"/>
-      <c r="F27" s="522"/>
-      <c r="G27" s="524"/>
-      <c r="H27" s="528"/>
-      <c r="I27" s="529"/>
-      <c r="J27" s="530"/>
+      <c r="C27" s="530"/>
+      <c r="D27" s="531"/>
+      <c r="E27" s="533"/>
+      <c r="F27" s="520"/>
+      <c r="G27" s="522"/>
+      <c r="H27" s="526"/>
+      <c r="I27" s="527"/>
+      <c r="J27" s="528"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="517">
+      <c r="A28" s="512">
         <v>1</v>
       </c>
-      <c r="B28" s="535" t="s">
+      <c r="B28" s="514" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="536"/>
-      <c r="D28" s="537"/>
-      <c r="E28" s="519" t="str">
+      <c r="C28" s="515"/>
+      <c r="D28" s="516"/>
+      <c r="E28" s="517" t="str">
         <f>Данные!C16</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F28" s="520"/>
-      <c r="G28" s="523">
+      <c r="F28" s="518"/>
+      <c r="G28" s="521">
         <f>Данные!B16</f>
         <v>30</v>
       </c>
-      <c r="H28" s="525"/>
-      <c r="I28" s="526"/>
-      <c r="J28" s="527"/>
+      <c r="H28" s="523"/>
+      <c r="I28" s="524"/>
+      <c r="J28" s="525"/>
     </row>
     <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="518"/>
-      <c r="B29" s="513" t="str">
+      <c r="A29" s="532"/>
+      <c r="B29" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C29" s="514"/>
-      <c r="D29" s="515"/>
-      <c r="E29" s="521"/>
-      <c r="F29" s="522"/>
-      <c r="G29" s="524"/>
-      <c r="H29" s="528"/>
-      <c r="I29" s="529"/>
-      <c r="J29" s="530"/>
+      <c r="C29" s="530"/>
+      <c r="D29" s="531"/>
+      <c r="E29" s="533"/>
+      <c r="F29" s="520"/>
+      <c r="G29" s="522"/>
+      <c r="H29" s="526"/>
+      <c r="I29" s="527"/>
+      <c r="J29" s="528"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="517">
+      <c r="A30" s="512">
         <v>1</v>
       </c>
-      <c r="B30" s="535" t="s">
+      <c r="B30" s="514" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="536"/>
-      <c r="D30" s="537"/>
-      <c r="E30" s="519" t="str">
+      <c r="C30" s="515"/>
+      <c r="D30" s="516"/>
+      <c r="E30" s="517" t="str">
         <f>Данные!C17</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F30" s="520"/>
-      <c r="G30" s="523">
+      <c r="F30" s="518"/>
+      <c r="G30" s="521">
         <f>Данные!B17</f>
         <v>30</v>
       </c>
-      <c r="H30" s="525"/>
-      <c r="I30" s="526"/>
-      <c r="J30" s="527"/>
+      <c r="H30" s="523"/>
+      <c r="I30" s="524"/>
+      <c r="J30" s="525"/>
     </row>
     <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="538"/>
-      <c r="B31" s="513" t="str">
+      <c r="A31" s="513"/>
+      <c r="B31" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C31" s="514"/>
-      <c r="D31" s="515"/>
-      <c r="E31" s="539"/>
-      <c r="F31" s="522"/>
-      <c r="G31" s="524"/>
-      <c r="H31" s="528"/>
-      <c r="I31" s="529"/>
-      <c r="J31" s="530"/>
+      <c r="C31" s="530"/>
+      <c r="D31" s="531"/>
+      <c r="E31" s="519"/>
+      <c r="F31" s="520"/>
+      <c r="G31" s="522"/>
+      <c r="H31" s="526"/>
+      <c r="I31" s="527"/>
+      <c r="J31" s="528"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="517">
+      <c r="A32" s="512">
         <v>1</v>
       </c>
-      <c r="B32" s="535" t="s">
+      <c r="B32" s="514" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="536"/>
-      <c r="D32" s="537"/>
-      <c r="E32" s="519" t="str">
+      <c r="C32" s="515"/>
+      <c r="D32" s="516"/>
+      <c r="E32" s="517" t="str">
         <f>Данные!C18</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F32" s="520"/>
-      <c r="G32" s="523">
+      <c r="F32" s="518"/>
+      <c r="G32" s="521">
         <f>Данные!B18</f>
         <v>70</v>
       </c>
-      <c r="H32" s="525"/>
-      <c r="I32" s="526"/>
-      <c r="J32" s="527"/>
+      <c r="H32" s="523"/>
+      <c r="I32" s="524"/>
+      <c r="J32" s="525"/>
     </row>
     <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="538"/>
-      <c r="B33" s="513" t="str">
+      <c r="A33" s="513"/>
+      <c r="B33" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C33" s="514"/>
-      <c r="D33" s="515"/>
-      <c r="E33" s="539"/>
-      <c r="F33" s="522"/>
-      <c r="G33" s="524"/>
-      <c r="H33" s="528"/>
-      <c r="I33" s="529"/>
-      <c r="J33" s="530"/>
+      <c r="C33" s="530"/>
+      <c r="D33" s="531"/>
+      <c r="E33" s="519"/>
+      <c r="F33" s="520"/>
+      <c r="G33" s="522"/>
+      <c r="H33" s="526"/>
+      <c r="I33" s="527"/>
+      <c r="J33" s="528"/>
     </row>
     <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="517">
+      <c r="A34" s="512">
         <v>1</v>
       </c>
-      <c r="B34" s="535" t="s">
+      <c r="B34" s="514" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="536"/>
-      <c r="D34" s="537"/>
-      <c r="E34" s="519" t="str">
+      <c r="C34" s="515"/>
+      <c r="D34" s="516"/>
+      <c r="E34" s="517" t="str">
         <f>Данные!C19</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F34" s="520"/>
-      <c r="G34" s="523">
+      <c r="F34" s="518"/>
+      <c r="G34" s="521">
         <f>Данные!B19</f>
         <v>70</v>
       </c>
-      <c r="H34" s="525"/>
-      <c r="I34" s="526"/>
-      <c r="J34" s="527"/>
+      <c r="H34" s="523"/>
+      <c r="I34" s="524"/>
+      <c r="J34" s="525"/>
     </row>
     <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="538"/>
-      <c r="B35" s="513" t="str">
+      <c r="A35" s="513"/>
+      <c r="B35" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C35" s="514"/>
-      <c r="D35" s="515"/>
-      <c r="E35" s="539"/>
-      <c r="F35" s="522"/>
-      <c r="G35" s="524"/>
-      <c r="H35" s="528"/>
-      <c r="I35" s="529"/>
-      <c r="J35" s="530"/>
+      <c r="C35" s="530"/>
+      <c r="D35" s="531"/>
+      <c r="E35" s="519"/>
+      <c r="F35" s="520"/>
+      <c r="G35" s="522"/>
+      <c r="H35" s="526"/>
+      <c r="I35" s="527"/>
+      <c r="J35" s="528"/>
     </row>
     <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="517">
+      <c r="A36" s="512">
         <v>1</v>
       </c>
-      <c r="B36" s="535" t="s">
+      <c r="B36" s="514" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="536"/>
-      <c r="D36" s="537"/>
-      <c r="E36" s="519" t="str">
+      <c r="C36" s="515"/>
+      <c r="D36" s="516"/>
+      <c r="E36" s="517" t="str">
         <f>Данные!C20</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F36" s="520"/>
-      <c r="G36" s="523">
+      <c r="F36" s="518"/>
+      <c r="G36" s="521">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="H36" s="525"/>
-      <c r="I36" s="526"/>
-      <c r="J36" s="527"/>
+      <c r="H36" s="523"/>
+      <c r="I36" s="524"/>
+      <c r="J36" s="525"/>
     </row>
     <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="538"/>
-      <c r="B37" s="513" t="str">
+      <c r="A37" s="513"/>
+      <c r="B37" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C37" s="514"/>
-      <c r="D37" s="515"/>
-      <c r="E37" s="539"/>
-      <c r="F37" s="522"/>
-      <c r="G37" s="524"/>
-      <c r="H37" s="528"/>
-      <c r="I37" s="529"/>
-      <c r="J37" s="530"/>
+      <c r="C37" s="530"/>
+      <c r="D37" s="531"/>
+      <c r="E37" s="519"/>
+      <c r="F37" s="520"/>
+      <c r="G37" s="522"/>
+      <c r="H37" s="526"/>
+      <c r="I37" s="527"/>
+      <c r="J37" s="528"/>
     </row>
     <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="517">
+      <c r="A38" s="512">
         <v>1</v>
       </c>
-      <c r="B38" s="535" t="s">
+      <c r="B38" s="514" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="536"/>
-      <c r="D38" s="537"/>
-      <c r="E38" s="519" t="str">
+      <c r="C38" s="515"/>
+      <c r="D38" s="516"/>
+      <c r="E38" s="517" t="str">
         <f>Данные!C21</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F38" s="520"/>
-      <c r="G38" s="523">
+      <c r="F38" s="518"/>
+      <c r="G38" s="521">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="H38" s="525"/>
-      <c r="I38" s="526"/>
-      <c r="J38" s="527"/>
+      <c r="H38" s="523"/>
+      <c r="I38" s="524"/>
+      <c r="J38" s="525"/>
     </row>
     <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="538"/>
-      <c r="B39" s="513" t="str">
+      <c r="A39" s="513"/>
+      <c r="B39" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C39" s="514"/>
-      <c r="D39" s="515"/>
-      <c r="E39" s="539"/>
-      <c r="F39" s="522"/>
-      <c r="G39" s="524"/>
-      <c r="H39" s="528"/>
-      <c r="I39" s="529"/>
-      <c r="J39" s="530"/>
+      <c r="C39" s="530"/>
+      <c r="D39" s="531"/>
+      <c r="E39" s="519"/>
+      <c r="F39" s="520"/>
+      <c r="G39" s="522"/>
+      <c r="H39" s="526"/>
+      <c r="I39" s="527"/>
+      <c r="J39" s="528"/>
     </row>
     <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="517">
+      <c r="A40" s="512">
         <v>1</v>
       </c>
-      <c r="B40" s="535" t="s">
+      <c r="B40" s="514" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="536"/>
-      <c r="D40" s="537"/>
-      <c r="E40" s="519" t="str">
+      <c r="C40" s="515"/>
+      <c r="D40" s="516"/>
+      <c r="E40" s="517" t="str">
         <f>Данные!C23</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F40" s="520"/>
-      <c r="G40" s="523">
+      <c r="F40" s="518"/>
+      <c r="G40" s="521">
         <f>Данные!B23</f>
         <v>24</v>
       </c>
-      <c r="H40" s="525"/>
-      <c r="I40" s="526"/>
-      <c r="J40" s="527"/>
+      <c r="H40" s="523"/>
+      <c r="I40" s="524"/>
+      <c r="J40" s="525"/>
     </row>
     <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="538"/>
-      <c r="B41" s="513" t="str">
+      <c r="A41" s="513"/>
+      <c r="B41" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C41" s="514"/>
-      <c r="D41" s="515"/>
-      <c r="E41" s="539"/>
-      <c r="F41" s="522"/>
-      <c r="G41" s="524"/>
-      <c r="H41" s="528"/>
-      <c r="I41" s="529"/>
-      <c r="J41" s="530"/>
+      <c r="C41" s="530"/>
+      <c r="D41" s="531"/>
+      <c r="E41" s="519"/>
+      <c r="F41" s="520"/>
+      <c r="G41" s="522"/>
+      <c r="H41" s="526"/>
+      <c r="I41" s="527"/>
+      <c r="J41" s="528"/>
     </row>
     <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="517">
+      <c r="A42" s="512">
         <v>1</v>
       </c>
-      <c r="B42" s="535" t="s">
+      <c r="B42" s="514" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="536"/>
-      <c r="D42" s="537"/>
-      <c r="E42" s="519" t="str">
+      <c r="C42" s="515"/>
+      <c r="D42" s="516"/>
+      <c r="E42" s="517" t="str">
         <f>Данные!C26</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F42" s="520"/>
-      <c r="G42" s="523">
+      <c r="F42" s="518"/>
+      <c r="G42" s="521">
         <f>Данные!B26</f>
         <v>24</v>
       </c>
-      <c r="H42" s="525"/>
-      <c r="I42" s="526"/>
-      <c r="J42" s="527"/>
+      <c r="H42" s="523"/>
+      <c r="I42" s="524"/>
+      <c r="J42" s="525"/>
     </row>
     <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="538"/>
-      <c r="B43" s="513" t="str">
+      <c r="A43" s="513"/>
+      <c r="B43" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C43" s="514"/>
-      <c r="D43" s="515"/>
-      <c r="E43" s="539"/>
-      <c r="F43" s="522"/>
-      <c r="G43" s="524"/>
-      <c r="H43" s="528"/>
-      <c r="I43" s="529"/>
-      <c r="J43" s="530"/>
+      <c r="C43" s="530"/>
+      <c r="D43" s="531"/>
+      <c r="E43" s="519"/>
+      <c r="F43" s="520"/>
+      <c r="G43" s="522"/>
+      <c r="H43" s="526"/>
+      <c r="I43" s="527"/>
+      <c r="J43" s="528"/>
     </row>
     <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="517">
+      <c r="A44" s="512">
         <v>1</v>
       </c>
-      <c r="B44" s="535" t="s">
+      <c r="B44" s="514" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="536"/>
-      <c r="D44" s="537"/>
-      <c r="E44" s="519">
+      <c r="C44" s="515"/>
+      <c r="D44" s="516"/>
+      <c r="E44" s="517">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="520"/>
-      <c r="G44" s="523">
+      <c r="F44" s="518"/>
+      <c r="G44" s="521">
         <f>Данные!B27</f>
         <v>24</v>
       </c>
-      <c r="H44" s="525"/>
-      <c r="I44" s="526"/>
-      <c r="J44" s="527"/>
+      <c r="H44" s="523"/>
+      <c r="I44" s="524"/>
+      <c r="J44" s="525"/>
     </row>
     <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="538"/>
-      <c r="B45" s="513" t="str">
+      <c r="A45" s="513"/>
+      <c r="B45" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C45" s="514"/>
-      <c r="D45" s="515"/>
-      <c r="E45" s="539"/>
-      <c r="F45" s="522"/>
-      <c r="G45" s="524"/>
-      <c r="H45" s="528"/>
-      <c r="I45" s="529"/>
-      <c r="J45" s="530"/>
+      <c r="C45" s="530"/>
+      <c r="D45" s="531"/>
+      <c r="E45" s="519"/>
+      <c r="F45" s="520"/>
+      <c r="G45" s="522"/>
+      <c r="H45" s="526"/>
+      <c r="I45" s="527"/>
+      <c r="J45" s="528"/>
     </row>
     <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="517">
+      <c r="A46" s="512">
         <v>1</v>
       </c>
-      <c r="B46" s="535" t="s">
+      <c r="B46" s="514" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="536"/>
-      <c r="D46" s="537"/>
-      <c r="E46" s="519" t="str">
+      <c r="C46" s="515"/>
+      <c r="D46" s="516"/>
+      <c r="E46" s="517" t="str">
         <f>Данные!C24</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F46" s="520"/>
-      <c r="G46" s="523">
+      <c r="F46" s="518"/>
+      <c r="G46" s="521">
         <f>Данные!B24</f>
         <v>9</v>
       </c>
-      <c r="H46" s="525"/>
-      <c r="I46" s="526"/>
-      <c r="J46" s="527"/>
+      <c r="H46" s="523"/>
+      <c r="I46" s="524"/>
+      <c r="J46" s="525"/>
     </row>
     <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="538"/>
-      <c r="B47" s="513" t="str">
+      <c r="A47" s="513"/>
+      <c r="B47" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C47" s="514"/>
-      <c r="D47" s="515"/>
-      <c r="E47" s="539"/>
-      <c r="F47" s="522"/>
-      <c r="G47" s="524"/>
-      <c r="H47" s="528"/>
-      <c r="I47" s="529"/>
-      <c r="J47" s="530"/>
+      <c r="C47" s="530"/>
+      <c r="D47" s="531"/>
+      <c r="E47" s="519"/>
+      <c r="F47" s="520"/>
+      <c r="G47" s="522"/>
+      <c r="H47" s="526"/>
+      <c r="I47" s="527"/>
+      <c r="J47" s="528"/>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="311"/>
@@ -10872,70 +10872,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -10952,6 +10888,70 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11006,47 +11006,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="558"/>
-      <c r="C2" s="559"/>
-      <c r="D2" s="560"/>
-      <c r="E2" s="567" t="s">
+      <c r="B2" s="542"/>
+      <c r="C2" s="543"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="551" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="568"/>
-      <c r="G2" s="568"/>
-      <c r="H2" s="569"/>
-      <c r="I2" s="574" t="s">
+      <c r="F2" s="552"/>
+      <c r="G2" s="552"/>
+      <c r="H2" s="553"/>
+      <c r="I2" s="558" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="575"/>
-      <c r="K2" s="578">
+      <c r="J2" s="559"/>
+      <c r="K2" s="562">
         <f>Данные!B14</f>
         <v>26</v>
       </c>
-      <c r="L2" s="579"/>
+      <c r="L2" s="563"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="570"/>
-      <c r="Q2" s="570"/>
+      <c r="P2" s="554"/>
+      <c r="Q2" s="554"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="561"/>
-      <c r="C3" s="562"/>
-      <c r="D3" s="563"/>
-      <c r="E3" s="571" t="s">
+      <c r="B3" s="545"/>
+      <c r="C3" s="546"/>
+      <c r="D3" s="547"/>
+      <c r="E3" s="555" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="572"/>
-      <c r="G3" s="572"/>
-      <c r="H3" s="573"/>
-      <c r="I3" s="576"/>
-      <c r="J3" s="577"/>
-      <c r="K3" s="580"/>
-      <c r="L3" s="581"/>
+      <c r="F3" s="556"/>
+      <c r="G3" s="556"/>
+      <c r="H3" s="557"/>
+      <c r="I3" s="560"/>
+      <c r="J3" s="561"/>
+      <c r="K3" s="564"/>
+      <c r="L3" s="565"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11057,9 +11057,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="564"/>
-      <c r="C4" s="565"/>
-      <c r="D4" s="566"/>
+      <c r="B4" s="548"/>
+      <c r="C4" s="549"/>
+      <c r="D4" s="550"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11078,22 +11078,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="543" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="544"/>
-      <c r="D5" s="492" t="str">
+      <c r="C5" s="570"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="493"/>
-      <c r="F5" s="493"/>
-      <c r="G5" s="493"/>
-      <c r="H5" s="494"/>
-      <c r="I5" s="545"/>
-      <c r="J5" s="546"/>
-      <c r="K5" s="493"/>
-      <c r="L5" s="494"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="571"/>
+      <c r="J5" s="572"/>
+      <c r="K5" s="497"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11104,22 +11104,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="543" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="547"/>
-      <c r="D6" s="486" t="str">
+      <c r="C6" s="573"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="545"/>
-      <c r="J6" s="546"/>
-      <c r="K6" s="493"/>
-      <c r="L6" s="494"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="571"/>
+      <c r="J6" s="572"/>
+      <c r="K6" s="497"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11130,27 +11130,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="551"/>
-      <c r="D7" s="495">
+      <c r="C7" s="577"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="550" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="576" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="554"/>
-      <c r="K7" s="483">
+      <c r="J7" s="580"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="484"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11644,12 +11644,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="555" t="s">
+      <c r="B23" s="581" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="556"/>
-      <c r="D23" s="556"/>
-      <c r="E23" s="557"/>
+      <c r="C23" s="582"/>
+      <c r="D23" s="582"/>
+      <c r="E23" s="583"/>
       <c r="F23" s="116" t="s">
         <v>16</v>
       </c>
@@ -11671,12 +11671,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="540" t="s">
+      <c r="B24" s="566" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="541"/>
-      <c r="D24" s="541"/>
-      <c r="E24" s="542"/>
+      <c r="C24" s="567"/>
+      <c r="D24" s="567"/>
+      <c r="E24" s="568"/>
       <c r="F24" s="116" t="s">
         <v>16</v>
       </c>
@@ -11720,12 +11720,6 @@
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -11740,6 +11734,12 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -11805,50 +11805,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="589">
+      <c r="B2" s="584">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="590"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="598" t="s">
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="599"/>
-      <c r="G2" s="599"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="604" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="599" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="605"/>
-      <c r="K2" s="608">
+      <c r="J2" s="600"/>
+      <c r="K2" s="603">
         <f>Данные!B15</f>
         <v>26</v>
       </c>
-      <c r="L2" s="609"/>
+      <c r="L2" s="604"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="570"/>
-      <c r="Q2" s="570"/>
+      <c r="P2" s="554"/>
+      <c r="Q2" s="554"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="592"/>
-      <c r="C3" s="593"/>
-      <c r="D3" s="594"/>
-      <c r="E3" s="601" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="596" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="602"/>
-      <c r="G3" s="602"/>
-      <c r="H3" s="603"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="607"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="611"/>
+      <c r="F3" s="597"/>
+      <c r="G3" s="597"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="601"/>
+      <c r="J3" s="602"/>
+      <c r="K3" s="605"/>
+      <c r="L3" s="606"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11859,9 +11859,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="595"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="597"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -11880,22 +11880,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="543" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="582"/>
-      <c r="D5" s="492" t="str">
+      <c r="C5" s="607"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="493"/>
-      <c r="F5" s="493"/>
-      <c r="G5" s="493"/>
-      <c r="H5" s="494"/>
-      <c r="I5" s="583"/>
-      <c r="J5" s="584"/>
-      <c r="K5" s="585"/>
-      <c r="L5" s="494"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="609"/>
+      <c r="K5" s="610"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11906,22 +11906,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="543" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="582"/>
-      <c r="D6" s="486" t="str">
+      <c r="C6" s="607"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="583"/>
-      <c r="J6" s="584"/>
-      <c r="K6" s="585"/>
-      <c r="L6" s="494"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11932,27 +11932,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="586"/>
-      <c r="D7" s="495">
+      <c r="C7" s="611"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="587" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="612" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="483">
+      <c r="J7" s="611"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="484"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12149,13 +12149,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="555" t="s">
+      <c r="B14" s="581" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="556"/>
-      <c r="D14" s="556"/>
-      <c r="E14" s="556"/>
-      <c r="F14" s="588"/>
+      <c r="C14" s="582"/>
+      <c r="D14" s="582"/>
+      <c r="E14" s="582"/>
+      <c r="F14" s="613"/>
       <c r="G14" s="56" t="s">
         <v>77</v>
       </c>
@@ -12174,12 +12174,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78"/>
-      <c r="B15" s="540" t="s">
+      <c r="B15" s="566" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="541"/>
-      <c r="D15" s="541"/>
-      <c r="E15" s="542"/>
+      <c r="C15" s="567"/>
+      <c r="D15" s="567"/>
+      <c r="E15" s="568"/>
       <c r="F15" s="116" t="s">
         <v>16</v>
       </c>
@@ -12230,12 +12230,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12250,6 +12244,12 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12323,47 +12323,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="558"/>
-      <c r="C2" s="559"/>
-      <c r="D2" s="560"/>
-      <c r="E2" s="567" t="s">
+      <c r="B2" s="542"/>
+      <c r="C2" s="543"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="551" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="568"/>
-      <c r="G2" s="568"/>
-      <c r="H2" s="569"/>
-      <c r="I2" s="574" t="s">
+      <c r="F2" s="552"/>
+      <c r="G2" s="552"/>
+      <c r="H2" s="553"/>
+      <c r="I2" s="558" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="575"/>
-      <c r="K2" s="578">
+      <c r="J2" s="559"/>
+      <c r="K2" s="562">
         <f>Данные!B16</f>
         <v>30</v>
       </c>
-      <c r="L2" s="579"/>
+      <c r="L2" s="563"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="570"/>
-      <c r="Q2" s="570"/>
+      <c r="P2" s="554"/>
+      <c r="Q2" s="554"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="561"/>
-      <c r="C3" s="562"/>
-      <c r="D3" s="563"/>
-      <c r="E3" s="571" t="s">
+      <c r="B3" s="545"/>
+      <c r="C3" s="546"/>
+      <c r="D3" s="547"/>
+      <c r="E3" s="555" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="572"/>
-      <c r="G3" s="572"/>
-      <c r="H3" s="573"/>
-      <c r="I3" s="576"/>
-      <c r="J3" s="577"/>
-      <c r="K3" s="580"/>
-      <c r="L3" s="581"/>
+      <c r="F3" s="556"/>
+      <c r="G3" s="556"/>
+      <c r="H3" s="557"/>
+      <c r="I3" s="560"/>
+      <c r="J3" s="561"/>
+      <c r="K3" s="564"/>
+      <c r="L3" s="565"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12374,9 +12374,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="564"/>
-      <c r="C4" s="565"/>
-      <c r="D4" s="566"/>
+      <c r="B4" s="548"/>
+      <c r="C4" s="549"/>
+      <c r="D4" s="550"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12395,22 +12395,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="543" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="544"/>
-      <c r="D5" s="492" t="str">
+      <c r="C5" s="570"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="493"/>
-      <c r="F5" s="493"/>
-      <c r="G5" s="493"/>
-      <c r="H5" s="494"/>
-      <c r="I5" s="545"/>
-      <c r="J5" s="546"/>
-      <c r="K5" s="493"/>
-      <c r="L5" s="494"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="571"/>
+      <c r="J5" s="572"/>
+      <c r="K5" s="497"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12421,22 +12421,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="543" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="547"/>
-      <c r="D6" s="486" t="str">
+      <c r="C6" s="573"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="545"/>
-      <c r="J6" s="546"/>
-      <c r="K6" s="493"/>
-      <c r="L6" s="494"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="571"/>
+      <c r="J6" s="572"/>
+      <c r="K6" s="497"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12447,27 +12447,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="551"/>
-      <c r="D7" s="495">
+      <c r="C7" s="577"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="550" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="576" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="554"/>
-      <c r="K7" s="483">
+      <c r="J7" s="580"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="484"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12950,6 +12950,8 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
@@ -12966,8 +12968,6 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -13035,47 +13035,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="558"/>
-      <c r="C2" s="559"/>
-      <c r="D2" s="560"/>
-      <c r="E2" s="567" t="s">
+      <c r="B2" s="542"/>
+      <c r="C2" s="543"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="551" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="568"/>
-      <c r="G2" s="568"/>
-      <c r="H2" s="569"/>
-      <c r="I2" s="574" t="s">
+      <c r="F2" s="552"/>
+      <c r="G2" s="552"/>
+      <c r="H2" s="553"/>
+      <c r="I2" s="558" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="575"/>
-      <c r="K2" s="578">
+      <c r="J2" s="559"/>
+      <c r="K2" s="562">
         <f>Данные!B17</f>
         <v>30</v>
       </c>
-      <c r="L2" s="579"/>
+      <c r="L2" s="563"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="612"/>
-      <c r="Q2" s="612"/>
+      <c r="P2" s="614"/>
+      <c r="Q2" s="614"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="561"/>
-      <c r="C3" s="562"/>
-      <c r="D3" s="563"/>
-      <c r="E3" s="571" t="s">
+      <c r="B3" s="545"/>
+      <c r="C3" s="546"/>
+      <c r="D3" s="547"/>
+      <c r="E3" s="555" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="572"/>
-      <c r="G3" s="572"/>
-      <c r="H3" s="573"/>
-      <c r="I3" s="576"/>
-      <c r="J3" s="577"/>
-      <c r="K3" s="580"/>
-      <c r="L3" s="581"/>
+      <c r="F3" s="556"/>
+      <c r="G3" s="556"/>
+      <c r="H3" s="557"/>
+      <c r="I3" s="560"/>
+      <c r="J3" s="561"/>
+      <c r="K3" s="564"/>
+      <c r="L3" s="565"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13086,9 +13086,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="564"/>
-      <c r="C4" s="565"/>
-      <c r="D4" s="566"/>
+      <c r="B4" s="548"/>
+      <c r="C4" s="549"/>
+      <c r="D4" s="550"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13107,22 +13107,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="543" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="544"/>
-      <c r="D5" s="492" t="str">
+      <c r="C5" s="570"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="493"/>
-      <c r="F5" s="493"/>
-      <c r="G5" s="493"/>
-      <c r="H5" s="494"/>
-      <c r="I5" s="545"/>
-      <c r="J5" s="546"/>
-      <c r="K5" s="493"/>
-      <c r="L5" s="494"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="571"/>
+      <c r="J5" s="572"/>
+      <c r="K5" s="497"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13133,22 +13133,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="543" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="547"/>
-      <c r="D6" s="486" t="str">
+      <c r="C6" s="573"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="545"/>
-      <c r="J6" s="546"/>
-      <c r="K6" s="493"/>
-      <c r="L6" s="494"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="571"/>
+      <c r="J6" s="572"/>
+      <c r="K6" s="497"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13159,27 +13159,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="551"/>
-      <c r="D7" s="495">
+      <c r="C7" s="577"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="550" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="576" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="554"/>
-      <c r="K7" s="483">
+      <c r="J7" s="580"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="484"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13464,17 +13464,6 @@
     <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -13482,6 +13471,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13553,60 +13553,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="589"/>
-      <c r="C2" s="590"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="598" t="s">
+      <c r="B2" s="584"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="599"/>
-      <c r="G2" s="599"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="604" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="599" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="605"/>
-      <c r="K2" s="608">
+      <c r="J2" s="600"/>
+      <c r="K2" s="603">
         <f>Данные!B18</f>
         <v>70</v>
       </c>
-      <c r="L2" s="609"/>
-      <c r="M2" s="613"/>
-      <c r="N2" s="614"/>
-      <c r="O2" s="614"/>
-      <c r="P2" s="614"/>
-      <c r="Q2" s="614"/>
-      <c r="R2" s="615"/>
+      <c r="L2" s="604"/>
+      <c r="M2" s="615"/>
+      <c r="N2" s="616"/>
+      <c r="O2" s="616"/>
+      <c r="P2" s="616"/>
+      <c r="Q2" s="616"/>
+      <c r="R2" s="617"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="592"/>
-      <c r="C3" s="593"/>
-      <c r="D3" s="594"/>
-      <c r="E3" s="601" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="596" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="602"/>
-      <c r="G3" s="602"/>
-      <c r="H3" s="603"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="607"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="611"/>
-      <c r="M3" s="616"/>
-      <c r="N3" s="617"/>
-      <c r="O3" s="617"/>
-      <c r="P3" s="617"/>
-      <c r="Q3" s="617"/>
-      <c r="R3" s="618"/>
+      <c r="F3" s="597"/>
+      <c r="G3" s="597"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="601"/>
+      <c r="J3" s="602"/>
+      <c r="K3" s="605"/>
+      <c r="L3" s="606"/>
+      <c r="M3" s="618"/>
+      <c r="N3" s="619"/>
+      <c r="O3" s="619"/>
+      <c r="P3" s="619"/>
+      <c r="Q3" s="619"/>
+      <c r="R3" s="620"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="595"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="597"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -13615,95 +13615,95 @@
       <c r="J4" s="249"/>
       <c r="K4" s="252"/>
       <c r="L4" s="253"/>
-      <c r="M4" s="616"/>
-      <c r="N4" s="617"/>
-      <c r="O4" s="617"/>
-      <c r="P4" s="617"/>
-      <c r="Q4" s="617"/>
-      <c r="R4" s="618"/>
+      <c r="M4" s="618"/>
+      <c r="N4" s="619"/>
+      <c r="O4" s="619"/>
+      <c r="P4" s="619"/>
+      <c r="Q4" s="619"/>
+      <c r="R4" s="620"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="543" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="582"/>
-      <c r="D5" s="492" t="str">
+      <c r="C5" s="607"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="493"/>
-      <c r="F5" s="493"/>
-      <c r="G5" s="493"/>
-      <c r="H5" s="494"/>
-      <c r="I5" s="583"/>
-      <c r="J5" s="584"/>
-      <c r="K5" s="585"/>
-      <c r="L5" s="494"/>
-      <c r="M5" s="616"/>
-      <c r="N5" s="617"/>
-      <c r="O5" s="617"/>
-      <c r="P5" s="617"/>
-      <c r="Q5" s="617"/>
-      <c r="R5" s="618"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="609"/>
+      <c r="K5" s="610"/>
+      <c r="L5" s="498"/>
+      <c r="M5" s="618"/>
+      <c r="N5" s="619"/>
+      <c r="O5" s="619"/>
+      <c r="P5" s="619"/>
+      <c r="Q5" s="619"/>
+      <c r="R5" s="620"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="543" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="582"/>
-      <c r="D6" s="486" t="str">
+      <c r="C6" s="607"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="583"/>
-      <c r="J6" s="584"/>
-      <c r="K6" s="585"/>
-      <c r="L6" s="494"/>
-      <c r="M6" s="616"/>
-      <c r="N6" s="617"/>
-      <c r="O6" s="617"/>
-      <c r="P6" s="617"/>
-      <c r="Q6" s="617"/>
-      <c r="R6" s="618"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="498"/>
+      <c r="M6" s="618"/>
+      <c r="N6" s="619"/>
+      <c r="O6" s="619"/>
+      <c r="P6" s="619"/>
+      <c r="Q6" s="619"/>
+      <c r="R6" s="620"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="586"/>
-      <c r="D7" s="495">
+      <c r="C7" s="611"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="587" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="612" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="483">
+      <c r="J7" s="611"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="484"/>
-      <c r="M7" s="616"/>
-      <c r="N7" s="617"/>
-      <c r="O7" s="617"/>
-      <c r="P7" s="617"/>
-      <c r="Q7" s="617"/>
-      <c r="R7" s="618"/>
+      <c r="L7" s="488"/>
+      <c r="M7" s="618"/>
+      <c r="N7" s="619"/>
+      <c r="O7" s="619"/>
+      <c r="P7" s="619"/>
+      <c r="Q7" s="619"/>
+      <c r="R7" s="620"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14092,12 +14092,12 @@
     </row>
     <row r="20" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78"/>
-      <c r="B20" s="540" t="s">
+      <c r="B20" s="566" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="541"/>
-      <c r="D20" s="541"/>
-      <c r="E20" s="542"/>
+      <c r="C20" s="567"/>
+      <c r="D20" s="567"/>
+      <c r="E20" s="568"/>
       <c r="F20" s="116" t="s">
         <v>16</v>
       </c>
@@ -14143,6 +14143,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -14155,13 +14162,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -14226,47 +14226,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="589"/>
-      <c r="C2" s="590"/>
-      <c r="D2" s="591"/>
-      <c r="E2" s="598" t="s">
+      <c r="B2" s="584"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="599"/>
-      <c r="G2" s="599"/>
-      <c r="H2" s="600"/>
-      <c r="I2" s="604" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="599" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="605"/>
-      <c r="K2" s="608">
+      <c r="J2" s="600"/>
+      <c r="K2" s="603">
         <f>Данные!B19</f>
         <v>70</v>
       </c>
-      <c r="L2" s="609"/>
+      <c r="L2" s="604"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="619"/>
-      <c r="Q2" s="619"/>
+      <c r="P2" s="621"/>
+      <c r="Q2" s="621"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="592"/>
-      <c r="C3" s="593"/>
-      <c r="D3" s="594"/>
-      <c r="E3" s="601" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="596" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="602"/>
-      <c r="G3" s="602"/>
-      <c r="H3" s="603"/>
-      <c r="I3" s="606"/>
-      <c r="J3" s="607"/>
-      <c r="K3" s="610"/>
-      <c r="L3" s="611"/>
+      <c r="F3" s="597"/>
+      <c r="G3" s="597"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="601"/>
+      <c r="J3" s="602"/>
+      <c r="K3" s="605"/>
+      <c r="L3" s="606"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14277,9 +14277,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="595"/>
-      <c r="C4" s="596"/>
-      <c r="D4" s="597"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -14298,22 +14298,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="543" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="582"/>
-      <c r="D5" s="492" t="str">
+      <c r="C5" s="607"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="493"/>
-      <c r="F5" s="493"/>
-      <c r="G5" s="493"/>
-      <c r="H5" s="494"/>
-      <c r="I5" s="583"/>
-      <c r="J5" s="584"/>
-      <c r="K5" s="585"/>
-      <c r="L5" s="494"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="609"/>
+      <c r="K5" s="610"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14324,22 +14324,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="543" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="582"/>
-      <c r="D6" s="486" t="str">
+      <c r="C6" s="607"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="549"/>
-      <c r="I6" s="583"/>
-      <c r="J6" s="584"/>
-      <c r="K6" s="585"/>
-      <c r="L6" s="494"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14350,27 +14350,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="586"/>
-      <c r="D7" s="495">
+      <c r="C7" s="611"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="587" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="612" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="586"/>
-      <c r="K7" s="483">
+      <c r="J7" s="611"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="484"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14633,12 +14633,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="540" t="s">
+      <c r="B16" s="566" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="541"/>
-      <c r="D16" s="541"/>
-      <c r="E16" s="542"/>
+      <c r="C16" s="567"/>
+      <c r="D16" s="567"/>
+      <c r="E16" s="568"/>
       <c r="F16" s="259" t="s">
         <v>16</v>
       </c>
@@ -14684,6 +14684,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -14694,15 +14703,6 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-30-1-500-7 (Каласы)/от 23.10.2019 Каласы.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-30-1-500-7 (Каласы)/от 23.10.2019 Каласы.xlsx
@@ -3541,12 +3541,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3591,189 +3585,123 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3825,73 +3753,76 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3915,6 +3846,75 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3941,9 +3941,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3952,6 +3949,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6306,25 +6306,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="489" t="s">
+      <c r="A1" s="487" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="493"/>
-      <c r="C1" s="493"/>
-      <c r="D1" s="493"/>
-      <c r="E1" s="493"/>
+      <c r="B1" s="491"/>
+      <c r="C1" s="491"/>
+      <c r="D1" s="491"/>
+      <c r="E1" s="491"/>
       <c r="G1" s="371" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="490" t="s">
+      <c r="A2" s="488" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="491"/>
-      <c r="C2" s="491"/>
-      <c r="D2" s="491"/>
-      <c r="E2" s="492"/>
+      <c r="B2" s="489"/>
+      <c r="C2" s="489"/>
+      <c r="D2" s="489"/>
+      <c r="E2" s="490"/>
       <c r="G2" s="370" t="s">
         <v>79</v>
       </c>
@@ -6335,45 +6335,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="494" t="s">
+      <c r="A4" s="492" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="495"/>
-      <c r="C4" s="495"/>
-      <c r="D4" s="495"/>
-      <c r="E4" s="495"/>
+      <c r="B4" s="493"/>
+      <c r="C4" s="493"/>
+      <c r="D4" s="493"/>
+      <c r="E4" s="493"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="496" t="s">
+      <c r="A5" s="494" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="497"/>
-      <c r="C5" s="497"/>
-      <c r="D5" s="497"/>
-      <c r="E5" s="498"/>
+      <c r="B5" s="495"/>
+      <c r="C5" s="495"/>
+      <c r="D5" s="495"/>
+      <c r="E5" s="496"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="489" t="s">
+      <c r="A7" s="487" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="493"/>
-      <c r="C7" s="493"/>
-      <c r="D7" s="493"/>
-      <c r="E7" s="493"/>
+      <c r="B7" s="491"/>
+      <c r="C7" s="491"/>
+      <c r="D7" s="491"/>
+      <c r="E7" s="491"/>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="499"/>
-      <c r="B8" s="500"/>
-      <c r="C8" s="500"/>
-      <c r="D8" s="500"/>
-      <c r="E8" s="501"/>
+      <c r="A8" s="497"/>
+      <c r="B8" s="498"/>
+      <c r="C8" s="498"/>
+      <c r="D8" s="498"/>
+      <c r="E8" s="499"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="489" t="s">
+      <c r="A10" s="487" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="489"/>
+      <c r="B10" s="487"/>
       <c r="C10" s="372"/>
       <c r="D10" s="380" t="s">
         <v>94</v>
@@ -6384,33 +6384,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="487"/>
-      <c r="B11" s="488"/>
+      <c r="A11" s="485"/>
+      <c r="B11" s="486"/>
       <c r="D11" s="379">
         <v>43761</v>
       </c>
-      <c r="F11" s="484" t="s">
+      <c r="F11" s="500" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="484"/>
-      <c r="H11" s="484"/>
-      <c r="I11" s="484"/>
-      <c r="J11" s="485" t="s">
+      <c r="G11" s="500"/>
+      <c r="H11" s="500"/>
+      <c r="I11" s="500"/>
+      <c r="J11" s="501" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="485"/>
+      <c r="K11" s="501"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="484" t="s">
+      <c r="F12" s="500" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="484"/>
-      <c r="H12" s="484"/>
-      <c r="I12" s="484"/>
-      <c r="J12" s="485" t="s">
+      <c r="G12" s="500"/>
+      <c r="H12" s="500"/>
+      <c r="I12" s="500"/>
+      <c r="J12" s="501" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="485"/>
+      <c r="K12" s="501"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="373" t="s">
@@ -6422,16 +6422,16 @@
       <c r="C13" s="384" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="484" t="s">
+      <c r="F13" s="500" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="484"/>
-      <c r="H13" s="484"/>
-      <c r="I13" s="484"/>
-      <c r="J13" s="485" t="s">
+      <c r="G13" s="500"/>
+      <c r="H13" s="500"/>
+      <c r="I13" s="500"/>
+      <c r="J13" s="501" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="485"/>
+      <c r="K13" s="501"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="375" t="s">
@@ -6585,11 +6585,11 @@
       <c r="A28" s="381"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="486" t="s">
+      <c r="A29" s="484" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="486"/>
-      <c r="C29" s="486"/>
+      <c r="B29" s="484"/>
+      <c r="C29" s="484"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -6598,6 +6598,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -6607,12 +6613,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -6666,24 +6666,24 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="170"/>
-      <c r="B2" s="584"/>
-      <c r="C2" s="585"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="593" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="599" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="600"/>
-      <c r="K2" s="603">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="L2" s="604"/>
+      <c r="L2" s="611"/>
       <c r="M2" s="171"/>
       <c r="N2" s="172"/>
       <c r="O2" s="173"/>
@@ -6694,19 +6694,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="170"/>
-      <c r="B3" s="587"/>
-      <c r="C3" s="588"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="596" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="597"/>
-      <c r="G3" s="597"/>
-      <c r="H3" s="598"/>
-      <c r="I3" s="601"/>
-      <c r="J3" s="602"/>
-      <c r="K3" s="605"/>
-      <c r="L3" s="606"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
       <c r="M3" s="176"/>
       <c r="N3" s="177"/>
       <c r="O3" s="177"/>
@@ -6717,9 +6717,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="170"/>
-      <c r="B4" s="590"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="592"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -6738,22 +6738,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="170"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="584"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="179"/>
       <c r="N5" s="177"/>
       <c r="O5" s="177"/>
@@ -6764,22 +6764,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="170"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="176"/>
       <c r="N6" s="177"/>
       <c r="O6" s="177"/>
@@ -6790,27 +6790,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="170"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="499">
+      <c r="C7" s="588"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="487">
+      <c r="J7" s="588"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="179"/>
       <c r="N7" s="177"/>
       <c r="O7" s="177"/>
@@ -7196,17 +7196,6 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7214,6 +7203,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -7279,47 +7279,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="209"/>
-      <c r="B2" s="584"/>
-      <c r="C2" s="585"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="593" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="599" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="600"/>
-      <c r="K2" s="603">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="L2" s="604"/>
+      <c r="L2" s="611"/>
       <c r="M2" s="210"/>
       <c r="N2" s="211"/>
       <c r="O2" s="212"/>
-      <c r="P2" s="623"/>
-      <c r="Q2" s="623"/>
+      <c r="P2" s="626"/>
+      <c r="Q2" s="626"/>
       <c r="R2" s="213"/>
       <c r="S2" s="214"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="209"/>
-      <c r="B3" s="587"/>
-      <c r="C3" s="588"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="596" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="597"/>
-      <c r="G3" s="597"/>
-      <c r="H3" s="598"/>
-      <c r="I3" s="601"/>
-      <c r="J3" s="602"/>
-      <c r="K3" s="605"/>
-      <c r="L3" s="606"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
       <c r="M3" s="215"/>
       <c r="N3" s="216"/>
       <c r="O3" s="216"/>
@@ -7330,9 +7330,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="209"/>
-      <c r="B4" s="590"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="592"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7351,22 +7351,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="209"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="584"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="218"/>
       <c r="N5" s="216"/>
       <c r="O5" s="216"/>
@@ -7377,22 +7377,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="209"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="215"/>
       <c r="N6" s="216"/>
       <c r="O6" s="216"/>
@@ -7403,27 +7403,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="209"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="499">
+      <c r="C7" s="588"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="487">
+      <c r="J7" s="588"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="218"/>
       <c r="N7" s="216"/>
       <c r="O7" s="216"/>
@@ -7752,12 +7752,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="219"/>
-      <c r="B18" s="624" t="s">
+      <c r="B18" s="623" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="625"/>
-      <c r="D18" s="625"/>
-      <c r="E18" s="626"/>
+      <c r="C18" s="624"/>
+      <c r="D18" s="624"/>
+      <c r="E18" s="625"/>
       <c r="F18" s="116" t="s">
         <v>16</v>
       </c>
@@ -7801,6 +7801,14 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -7812,14 +7820,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -7905,24 +7905,24 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="133"/>
-      <c r="B2" s="584"/>
-      <c r="C2" s="585"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="593" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="599" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="600"/>
-      <c r="K2" s="603">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B26</f>
         <v>24</v>
       </c>
-      <c r="L2" s="604"/>
+      <c r="L2" s="611"/>
       <c r="M2" s="134"/>
       <c r="N2" s="135"/>
       <c r="O2" s="136"/>
@@ -7933,19 +7933,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="133"/>
-      <c r="B3" s="587"/>
-      <c r="C3" s="588"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="596" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="597"/>
-      <c r="G3" s="597"/>
-      <c r="H3" s="598"/>
-      <c r="I3" s="601"/>
-      <c r="J3" s="602"/>
-      <c r="K3" s="605"/>
-      <c r="L3" s="606"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
       <c r="M3" s="139"/>
       <c r="N3" s="140"/>
       <c r="O3" s="140"/>
@@ -7956,9 +7956,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="133"/>
-      <c r="B4" s="590"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="592"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7977,22 +7977,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="133"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="584"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="142"/>
       <c r="N5" s="140"/>
       <c r="O5" s="140"/>
@@ -8003,22 +8003,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="133"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="139"/>
       <c r="N6" s="140"/>
       <c r="O6" s="140"/>
@@ -8029,27 +8029,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="133"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="499">
+      <c r="C7" s="588"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="487">
+      <c r="J7" s="588"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="142"/>
       <c r="N7" s="140"/>
       <c r="O7" s="140"/>
@@ -8430,17 +8430,6 @@
     <row r="21" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -8448,6 +8437,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -8513,19 +8513,19 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="266"/>
-      <c r="B2" s="584"/>
-      <c r="C2" s="585"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="593" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="599" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="600"/>
+      <c r="J2" s="607"/>
       <c r="K2" s="629">
         <f>Данные!B23</f>
         <v>24</v>
@@ -8541,17 +8541,17 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="266"/>
-      <c r="B3" s="587"/>
-      <c r="C3" s="588"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="596" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="597"/>
-      <c r="G3" s="597"/>
-      <c r="H3" s="598"/>
-      <c r="I3" s="601"/>
-      <c r="J3" s="602"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
       <c r="K3" s="631"/>
       <c r="L3" s="632"/>
       <c r="M3" s="272"/>
@@ -8564,9 +8564,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="266"/>
-      <c r="B4" s="590"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="592"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -8585,22 +8585,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="266"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="584"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="275"/>
       <c r="N5" s="273"/>
       <c r="O5" s="273"/>
@@ -8611,22 +8611,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="266"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="272"/>
       <c r="N6" s="273"/>
       <c r="O6" s="273"/>
@@ -8637,27 +8637,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="266"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="499">
+      <c r="C7" s="588"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="487">
+      <c r="J7" s="588"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="275"/>
       <c r="N7" s="273"/>
       <c r="O7" s="273"/>
@@ -8930,6 +8930,8 @@
     <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
@@ -8946,8 +8948,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -8976,8 +8976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9032,17 +9032,17 @@
       <c r="L2" s="391"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="507" t="s">
+      <c r="A3" s="504" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="507"/>
-      <c r="C3" s="507"/>
-      <c r="D3" s="507"/>
-      <c r="E3" s="507"/>
-      <c r="F3" s="507"/>
-      <c r="G3" s="507"/>
-      <c r="H3" s="507"/>
-      <c r="I3" s="507"/>
+      <c r="B3" s="504"/>
+      <c r="C3" s="504"/>
+      <c r="D3" s="504"/>
+      <c r="E3" s="504"/>
+      <c r="F3" s="504"/>
+      <c r="G3" s="504"/>
+      <c r="H3" s="504"/>
+      <c r="I3" s="504"/>
       <c r="K3" s="392"/>
       <c r="L3" s="392"/>
       <c r="M3" s="393"/>
@@ -9753,12 +9753,12 @@
       <c r="J35" s="393"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="508" t="s">
+      <c r="A36" s="505" t="s">
         <v>135</v>
       </c>
-      <c r="B36" s="508"/>
-      <c r="C36" s="508"/>
-      <c r="D36" s="508"/>
+      <c r="B36" s="505"/>
+      <c r="C36" s="505"/>
+      <c r="D36" s="505"/>
       <c r="E36" s="393"/>
       <c r="F36" s="393"/>
       <c r="G36" s="393"/>
@@ -9767,10 +9767,10 @@
       <c r="J36" s="393"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="509" t="s">
+      <c r="A37" s="506" t="s">
         <v>136</v>
       </c>
-      <c r="B37" s="509"/>
+      <c r="B37" s="506"/>
       <c r="C37" s="472" t="s">
         <v>137</v>
       </c>
@@ -9785,11 +9785,11 @@
       <c r="J37" s="393"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="510">
+      <c r="A38" s="507">
         <f>A21-F32</f>
         <v>17680529</v>
       </c>
-      <c r="B38" s="511"/>
+      <c r="B38" s="508"/>
       <c r="C38" s="473">
         <f>1-G32</f>
         <v>0.97145763736263735</v>
@@ -9851,8 +9851,8 @@
       <c r="F42" s="477"/>
       <c r="G42" s="477"/>
       <c r="H42" s="477"/>
-      <c r="I42" s="502"/>
-      <c r="J42" s="503"/>
+      <c r="I42" s="509"/>
+      <c r="J42" s="510"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="478"/>
@@ -9946,9 +9946,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="393"/>
-      <c r="B52" s="505"/>
-      <c r="C52" s="505"/>
-      <c r="D52" s="506"/>
+      <c r="B52" s="502"/>
+      <c r="C52" s="502"/>
+      <c r="D52" s="503"/>
       <c r="E52" s="475"/>
       <c r="F52" s="393"/>
       <c r="G52" s="393"/>
@@ -9965,8 +9965,8 @@
       <c r="F53" s="477"/>
       <c r="G53" s="477"/>
       <c r="H53" s="477"/>
-      <c r="I53" s="502"/>
-      <c r="J53" s="503"/>
+      <c r="I53" s="509"/>
+      <c r="J53" s="510"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="478"/>
@@ -9977,8 +9977,8 @@
       <c r="F54" s="423"/>
       <c r="G54" s="423"/>
       <c r="H54" s="479"/>
-      <c r="I54" s="504"/>
-      <c r="J54" s="504"/>
+      <c r="I54" s="511"/>
+      <c r="J54" s="511"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="478"/>
@@ -9989,8 +9989,8 @@
       <c r="F55" s="413"/>
       <c r="G55" s="413"/>
       <c r="H55" s="413"/>
-      <c r="I55" s="504"/>
-      <c r="J55" s="504"/>
+      <c r="I55" s="511"/>
+      <c r="J55" s="511"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="393"/>
@@ -10003,26 +10003,26 @@
       <c r="H56" s="393"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="502"/>
-      <c r="C61" s="503"/>
+      <c r="B61" s="509"/>
+      <c r="C61" s="510"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="502"/>
-      <c r="C68" s="503"/>
+      <c r="B68" s="509"/>
+      <c r="C68" s="510"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
@@ -10103,47 +10103,47 @@
       <c r="J8" s="317"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="537" t="s">
+      <c r="A11" s="513" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="537"/>
-      <c r="C11" s="537"/>
-      <c r="D11" s="537"/>
-      <c r="E11" s="537"/>
-      <c r="F11" s="537"/>
-      <c r="G11" s="537"/>
-      <c r="H11" s="537"/>
-      <c r="I11" s="537"/>
-      <c r="J11" s="537"/>
+      <c r="B11" s="513"/>
+      <c r="C11" s="513"/>
+      <c r="D11" s="513"/>
+      <c r="E11" s="513"/>
+      <c r="F11" s="513"/>
+      <c r="G11" s="513"/>
+      <c r="H11" s="513"/>
+      <c r="I11" s="513"/>
+      <c r="J11" s="513"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="536" t="s">
+      <c r="A12" s="512" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="536"/>
-      <c r="C12" s="536"/>
-      <c r="D12" s="536"/>
-      <c r="E12" s="536"/>
-      <c r="F12" s="536"/>
-      <c r="G12" s="536"/>
-      <c r="H12" s="536"/>
-      <c r="I12" s="536"/>
-      <c r="J12" s="536"/>
+      <c r="B12" s="512"/>
+      <c r="C12" s="512"/>
+      <c r="D12" s="512"/>
+      <c r="E12" s="512"/>
+      <c r="F12" s="512"/>
+      <c r="G12" s="512"/>
+      <c r="H12" s="512"/>
+      <c r="I12" s="512"/>
+      <c r="J12" s="512"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="538" t="str">
+      <c r="A13" s="514" t="str">
         <f>Данные!A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="B13" s="537"/>
-      <c r="C13" s="537"/>
-      <c r="D13" s="537"/>
-      <c r="E13" s="537"/>
-      <c r="F13" s="537"/>
-      <c r="G13" s="537"/>
-      <c r="H13" s="537"/>
-      <c r="I13" s="537"/>
-      <c r="J13" s="537"/>
+      <c r="B13" s="513"/>
+      <c r="C13" s="513"/>
+      <c r="D13" s="513"/>
+      <c r="E13" s="513"/>
+      <c r="F13" s="513"/>
+      <c r="G13" s="513"/>
+      <c r="H13" s="513"/>
+      <c r="I13" s="513"/>
+      <c r="J13" s="513"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="311" t="s">
@@ -10268,482 +10268,482 @@
       <c r="J21" s="312"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="534" t="s">
+      <c r="A22" s="518" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="534" t="s">
+      <c r="B22" s="518" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="534"/>
-      <c r="D22" s="534"/>
-      <c r="E22" s="534" t="s">
+      <c r="C22" s="518"/>
+      <c r="D22" s="518"/>
+      <c r="E22" s="518" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="534"/>
-      <c r="G22" s="535" t="s">
+      <c r="F22" s="518"/>
+      <c r="G22" s="536" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="534" t="s">
+      <c r="H22" s="518" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="534"/>
-      <c r="J22" s="534"/>
+      <c r="I22" s="518"/>
+      <c r="J22" s="518"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="534"/>
-      <c r="B23" s="534"/>
-      <c r="C23" s="534"/>
-      <c r="D23" s="534"/>
-      <c r="E23" s="534"/>
-      <c r="F23" s="534"/>
-      <c r="G23" s="535"/>
-      <c r="H23" s="534"/>
-      <c r="I23" s="534"/>
-      <c r="J23" s="534"/>
+      <c r="A23" s="518"/>
+      <c r="B23" s="518"/>
+      <c r="C23" s="518"/>
+      <c r="D23" s="518"/>
+      <c r="E23" s="518"/>
+      <c r="F23" s="518"/>
+      <c r="G23" s="536"/>
+      <c r="H23" s="518"/>
+      <c r="I23" s="518"/>
+      <c r="J23" s="518"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="512">
+      <c r="A24" s="519">
         <v>1</v>
       </c>
-      <c r="B24" s="539" t="s">
+      <c r="B24" s="533" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="540"/>
-      <c r="D24" s="541"/>
-      <c r="E24" s="517" t="str">
+      <c r="C24" s="534"/>
+      <c r="D24" s="535"/>
+      <c r="E24" s="521" t="str">
         <f>Данные!C14</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F24" s="518"/>
-      <c r="G24" s="521">
+      <c r="F24" s="522"/>
+      <c r="G24" s="525">
         <f>Данные!B14</f>
         <v>26</v>
       </c>
-      <c r="H24" s="523"/>
-      <c r="I24" s="524"/>
-      <c r="J24" s="525"/>
+      <c r="H24" s="527"/>
+      <c r="I24" s="528"/>
+      <c r="J24" s="529"/>
     </row>
     <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="532"/>
-      <c r="B25" s="529" t="str">
+      <c r="A25" s="520"/>
+      <c r="B25" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C25" s="530"/>
-      <c r="D25" s="531"/>
-      <c r="E25" s="533"/>
-      <c r="F25" s="520"/>
-      <c r="G25" s="522"/>
-      <c r="H25" s="526"/>
-      <c r="I25" s="527"/>
-      <c r="J25" s="528"/>
+      <c r="C25" s="516"/>
+      <c r="D25" s="517"/>
+      <c r="E25" s="523"/>
+      <c r="F25" s="524"/>
+      <c r="G25" s="526"/>
+      <c r="H25" s="530"/>
+      <c r="I25" s="531"/>
+      <c r="J25" s="532"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="512">
+      <c r="A26" s="519">
         <v>1</v>
       </c>
-      <c r="B26" s="514" t="s">
+      <c r="B26" s="537" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="515"/>
-      <c r="D26" s="516"/>
-      <c r="E26" s="517" t="str">
+      <c r="C26" s="538"/>
+      <c r="D26" s="539"/>
+      <c r="E26" s="521" t="str">
         <f>Данные!C15</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F26" s="518"/>
-      <c r="G26" s="521">
+      <c r="F26" s="522"/>
+      <c r="G26" s="525">
         <f>Данные!B15</f>
         <v>26</v>
       </c>
-      <c r="H26" s="523"/>
-      <c r="I26" s="524"/>
-      <c r="J26" s="525"/>
+      <c r="H26" s="527"/>
+      <c r="I26" s="528"/>
+      <c r="J26" s="529"/>
     </row>
     <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="532"/>
-      <c r="B27" s="529" t="str">
+      <c r="A27" s="520"/>
+      <c r="B27" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C27" s="530"/>
-      <c r="D27" s="531"/>
-      <c r="E27" s="533"/>
-      <c r="F27" s="520"/>
-      <c r="G27" s="522"/>
-      <c r="H27" s="526"/>
-      <c r="I27" s="527"/>
-      <c r="J27" s="528"/>
+      <c r="C27" s="516"/>
+      <c r="D27" s="517"/>
+      <c r="E27" s="523"/>
+      <c r="F27" s="524"/>
+      <c r="G27" s="526"/>
+      <c r="H27" s="530"/>
+      <c r="I27" s="531"/>
+      <c r="J27" s="532"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="512">
+      <c r="A28" s="519">
         <v>1</v>
       </c>
-      <c r="B28" s="514" t="s">
+      <c r="B28" s="537" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="515"/>
-      <c r="D28" s="516"/>
-      <c r="E28" s="517" t="str">
+      <c r="C28" s="538"/>
+      <c r="D28" s="539"/>
+      <c r="E28" s="521" t="str">
         <f>Данные!C16</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F28" s="518"/>
-      <c r="G28" s="521">
+      <c r="F28" s="522"/>
+      <c r="G28" s="525">
         <f>Данные!B16</f>
         <v>30</v>
       </c>
-      <c r="H28" s="523"/>
-      <c r="I28" s="524"/>
-      <c r="J28" s="525"/>
+      <c r="H28" s="527"/>
+      <c r="I28" s="528"/>
+      <c r="J28" s="529"/>
     </row>
     <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="532"/>
-      <c r="B29" s="529" t="str">
+      <c r="A29" s="520"/>
+      <c r="B29" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C29" s="530"/>
-      <c r="D29" s="531"/>
-      <c r="E29" s="533"/>
-      <c r="F29" s="520"/>
-      <c r="G29" s="522"/>
-      <c r="H29" s="526"/>
-      <c r="I29" s="527"/>
-      <c r="J29" s="528"/>
+      <c r="C29" s="516"/>
+      <c r="D29" s="517"/>
+      <c r="E29" s="523"/>
+      <c r="F29" s="524"/>
+      <c r="G29" s="526"/>
+      <c r="H29" s="530"/>
+      <c r="I29" s="531"/>
+      <c r="J29" s="532"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="512">
+      <c r="A30" s="519">
         <v>1</v>
       </c>
-      <c r="B30" s="514" t="s">
+      <c r="B30" s="537" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="515"/>
-      <c r="D30" s="516"/>
-      <c r="E30" s="517" t="str">
+      <c r="C30" s="538"/>
+      <c r="D30" s="539"/>
+      <c r="E30" s="521" t="str">
         <f>Данные!C17</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F30" s="518"/>
-      <c r="G30" s="521">
+      <c r="F30" s="522"/>
+      <c r="G30" s="525">
         <f>Данные!B17</f>
         <v>30</v>
       </c>
-      <c r="H30" s="523"/>
-      <c r="I30" s="524"/>
-      <c r="J30" s="525"/>
+      <c r="H30" s="527"/>
+      <c r="I30" s="528"/>
+      <c r="J30" s="529"/>
     </row>
     <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="513"/>
-      <c r="B31" s="529" t="str">
+      <c r="A31" s="540"/>
+      <c r="B31" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C31" s="530"/>
-      <c r="D31" s="531"/>
-      <c r="E31" s="519"/>
-      <c r="F31" s="520"/>
-      <c r="G31" s="522"/>
-      <c r="H31" s="526"/>
-      <c r="I31" s="527"/>
-      <c r="J31" s="528"/>
+      <c r="C31" s="516"/>
+      <c r="D31" s="517"/>
+      <c r="E31" s="541"/>
+      <c r="F31" s="524"/>
+      <c r="G31" s="526"/>
+      <c r="H31" s="530"/>
+      <c r="I31" s="531"/>
+      <c r="J31" s="532"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="512">
+      <c r="A32" s="519">
         <v>1</v>
       </c>
-      <c r="B32" s="514" t="s">
+      <c r="B32" s="537" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="515"/>
-      <c r="D32" s="516"/>
-      <c r="E32" s="517" t="str">
+      <c r="C32" s="538"/>
+      <c r="D32" s="539"/>
+      <c r="E32" s="521" t="str">
         <f>Данные!C18</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F32" s="518"/>
-      <c r="G32" s="521">
+      <c r="F32" s="522"/>
+      <c r="G32" s="525">
         <f>Данные!B18</f>
         <v>70</v>
       </c>
-      <c r="H32" s="523"/>
-      <c r="I32" s="524"/>
-      <c r="J32" s="525"/>
+      <c r="H32" s="527"/>
+      <c r="I32" s="528"/>
+      <c r="J32" s="529"/>
     </row>
     <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="513"/>
-      <c r="B33" s="529" t="str">
+      <c r="A33" s="540"/>
+      <c r="B33" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C33" s="530"/>
-      <c r="D33" s="531"/>
-      <c r="E33" s="519"/>
-      <c r="F33" s="520"/>
-      <c r="G33" s="522"/>
-      <c r="H33" s="526"/>
-      <c r="I33" s="527"/>
-      <c r="J33" s="528"/>
+      <c r="C33" s="516"/>
+      <c r="D33" s="517"/>
+      <c r="E33" s="541"/>
+      <c r="F33" s="524"/>
+      <c r="G33" s="526"/>
+      <c r="H33" s="530"/>
+      <c r="I33" s="531"/>
+      <c r="J33" s="532"/>
     </row>
     <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="512">
+      <c r="A34" s="519">
         <v>1</v>
       </c>
-      <c r="B34" s="514" t="s">
+      <c r="B34" s="537" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="515"/>
-      <c r="D34" s="516"/>
-      <c r="E34" s="517" t="str">
+      <c r="C34" s="538"/>
+      <c r="D34" s="539"/>
+      <c r="E34" s="521" t="str">
         <f>Данные!C19</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F34" s="518"/>
-      <c r="G34" s="521">
+      <c r="F34" s="522"/>
+      <c r="G34" s="525">
         <f>Данные!B19</f>
         <v>70</v>
       </c>
-      <c r="H34" s="523"/>
-      <c r="I34" s="524"/>
-      <c r="J34" s="525"/>
+      <c r="H34" s="527"/>
+      <c r="I34" s="528"/>
+      <c r="J34" s="529"/>
     </row>
     <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="513"/>
-      <c r="B35" s="529" t="str">
+      <c r="A35" s="540"/>
+      <c r="B35" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C35" s="530"/>
-      <c r="D35" s="531"/>
-      <c r="E35" s="519"/>
-      <c r="F35" s="520"/>
-      <c r="G35" s="522"/>
-      <c r="H35" s="526"/>
-      <c r="I35" s="527"/>
-      <c r="J35" s="528"/>
+      <c r="C35" s="516"/>
+      <c r="D35" s="517"/>
+      <c r="E35" s="541"/>
+      <c r="F35" s="524"/>
+      <c r="G35" s="526"/>
+      <c r="H35" s="530"/>
+      <c r="I35" s="531"/>
+      <c r="J35" s="532"/>
     </row>
     <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="512">
+      <c r="A36" s="519">
         <v>1</v>
       </c>
-      <c r="B36" s="514" t="s">
+      <c r="B36" s="537" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="515"/>
-      <c r="D36" s="516"/>
-      <c r="E36" s="517" t="str">
+      <c r="C36" s="538"/>
+      <c r="D36" s="539"/>
+      <c r="E36" s="521" t="str">
         <f>Данные!C20</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F36" s="518"/>
-      <c r="G36" s="521">
+      <c r="F36" s="522"/>
+      <c r="G36" s="525">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="H36" s="523"/>
-      <c r="I36" s="524"/>
-      <c r="J36" s="525"/>
+      <c r="H36" s="527"/>
+      <c r="I36" s="528"/>
+      <c r="J36" s="529"/>
     </row>
     <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="513"/>
-      <c r="B37" s="529" t="str">
+      <c r="A37" s="540"/>
+      <c r="B37" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C37" s="530"/>
-      <c r="D37" s="531"/>
-      <c r="E37" s="519"/>
-      <c r="F37" s="520"/>
-      <c r="G37" s="522"/>
-      <c r="H37" s="526"/>
-      <c r="I37" s="527"/>
-      <c r="J37" s="528"/>
+      <c r="C37" s="516"/>
+      <c r="D37" s="517"/>
+      <c r="E37" s="541"/>
+      <c r="F37" s="524"/>
+      <c r="G37" s="526"/>
+      <c r="H37" s="530"/>
+      <c r="I37" s="531"/>
+      <c r="J37" s="532"/>
     </row>
     <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="512">
+      <c r="A38" s="519">
         <v>1</v>
       </c>
-      <c r="B38" s="514" t="s">
+      <c r="B38" s="537" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="515"/>
-      <c r="D38" s="516"/>
-      <c r="E38" s="517" t="str">
+      <c r="C38" s="538"/>
+      <c r="D38" s="539"/>
+      <c r="E38" s="521" t="str">
         <f>Данные!C21</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F38" s="518"/>
-      <c r="G38" s="521">
+      <c r="F38" s="522"/>
+      <c r="G38" s="525">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="H38" s="523"/>
-      <c r="I38" s="524"/>
-      <c r="J38" s="525"/>
+      <c r="H38" s="527"/>
+      <c r="I38" s="528"/>
+      <c r="J38" s="529"/>
     </row>
     <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="513"/>
-      <c r="B39" s="529" t="str">
+      <c r="A39" s="540"/>
+      <c r="B39" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C39" s="530"/>
-      <c r="D39" s="531"/>
-      <c r="E39" s="519"/>
-      <c r="F39" s="520"/>
-      <c r="G39" s="522"/>
-      <c r="H39" s="526"/>
-      <c r="I39" s="527"/>
-      <c r="J39" s="528"/>
+      <c r="C39" s="516"/>
+      <c r="D39" s="517"/>
+      <c r="E39" s="541"/>
+      <c r="F39" s="524"/>
+      <c r="G39" s="526"/>
+      <c r="H39" s="530"/>
+      <c r="I39" s="531"/>
+      <c r="J39" s="532"/>
     </row>
     <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="512">
+      <c r="A40" s="519">
         <v>1</v>
       </c>
-      <c r="B40" s="514" t="s">
+      <c r="B40" s="537" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="515"/>
-      <c r="D40" s="516"/>
-      <c r="E40" s="517" t="str">
+      <c r="C40" s="538"/>
+      <c r="D40" s="539"/>
+      <c r="E40" s="521" t="str">
         <f>Данные!C23</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F40" s="518"/>
-      <c r="G40" s="521">
+      <c r="F40" s="522"/>
+      <c r="G40" s="525">
         <f>Данные!B23</f>
         <v>24</v>
       </c>
-      <c r="H40" s="523"/>
-      <c r="I40" s="524"/>
-      <c r="J40" s="525"/>
+      <c r="H40" s="527"/>
+      <c r="I40" s="528"/>
+      <c r="J40" s="529"/>
     </row>
     <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="513"/>
-      <c r="B41" s="529" t="str">
+      <c r="A41" s="540"/>
+      <c r="B41" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C41" s="530"/>
-      <c r="D41" s="531"/>
-      <c r="E41" s="519"/>
-      <c r="F41" s="520"/>
-      <c r="G41" s="522"/>
-      <c r="H41" s="526"/>
-      <c r="I41" s="527"/>
-      <c r="J41" s="528"/>
+      <c r="C41" s="516"/>
+      <c r="D41" s="517"/>
+      <c r="E41" s="541"/>
+      <c r="F41" s="524"/>
+      <c r="G41" s="526"/>
+      <c r="H41" s="530"/>
+      <c r="I41" s="531"/>
+      <c r="J41" s="532"/>
     </row>
     <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="512">
+      <c r="A42" s="519">
         <v>1</v>
       </c>
-      <c r="B42" s="514" t="s">
+      <c r="B42" s="537" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="515"/>
-      <c r="D42" s="516"/>
-      <c r="E42" s="517" t="str">
+      <c r="C42" s="538"/>
+      <c r="D42" s="539"/>
+      <c r="E42" s="521" t="str">
         <f>Данные!C26</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F42" s="518"/>
-      <c r="G42" s="521">
+      <c r="F42" s="522"/>
+      <c r="G42" s="525">
         <f>Данные!B26</f>
         <v>24</v>
       </c>
-      <c r="H42" s="523"/>
-      <c r="I42" s="524"/>
-      <c r="J42" s="525"/>
+      <c r="H42" s="527"/>
+      <c r="I42" s="528"/>
+      <c r="J42" s="529"/>
     </row>
     <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="513"/>
-      <c r="B43" s="529" t="str">
+      <c r="A43" s="540"/>
+      <c r="B43" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C43" s="530"/>
-      <c r="D43" s="531"/>
-      <c r="E43" s="519"/>
-      <c r="F43" s="520"/>
-      <c r="G43" s="522"/>
-      <c r="H43" s="526"/>
-      <c r="I43" s="527"/>
-      <c r="J43" s="528"/>
+      <c r="C43" s="516"/>
+      <c r="D43" s="517"/>
+      <c r="E43" s="541"/>
+      <c r="F43" s="524"/>
+      <c r="G43" s="526"/>
+      <c r="H43" s="530"/>
+      <c r="I43" s="531"/>
+      <c r="J43" s="532"/>
     </row>
     <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="512">
+      <c r="A44" s="519">
         <v>1</v>
       </c>
-      <c r="B44" s="514" t="s">
+      <c r="B44" s="537" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="515"/>
-      <c r="D44" s="516"/>
-      <c r="E44" s="517">
+      <c r="C44" s="538"/>
+      <c r="D44" s="539"/>
+      <c r="E44" s="521">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="518"/>
-      <c r="G44" s="521">
+      <c r="F44" s="522"/>
+      <c r="G44" s="525">
         <f>Данные!B27</f>
         <v>24</v>
       </c>
-      <c r="H44" s="523"/>
-      <c r="I44" s="524"/>
-      <c r="J44" s="525"/>
+      <c r="H44" s="527"/>
+      <c r="I44" s="528"/>
+      <c r="J44" s="529"/>
     </row>
     <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="513"/>
-      <c r="B45" s="529" t="str">
+      <c r="A45" s="540"/>
+      <c r="B45" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C45" s="530"/>
-      <c r="D45" s="531"/>
-      <c r="E45" s="519"/>
-      <c r="F45" s="520"/>
-      <c r="G45" s="522"/>
-      <c r="H45" s="526"/>
-      <c r="I45" s="527"/>
-      <c r="J45" s="528"/>
+      <c r="C45" s="516"/>
+      <c r="D45" s="517"/>
+      <c r="E45" s="541"/>
+      <c r="F45" s="524"/>
+      <c r="G45" s="526"/>
+      <c r="H45" s="530"/>
+      <c r="I45" s="531"/>
+      <c r="J45" s="532"/>
     </row>
     <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="512">
+      <c r="A46" s="519">
         <v>1</v>
       </c>
-      <c r="B46" s="514" t="s">
+      <c r="B46" s="537" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="515"/>
-      <c r="D46" s="516"/>
-      <c r="E46" s="517" t="str">
+      <c r="C46" s="538"/>
+      <c r="D46" s="539"/>
+      <c r="E46" s="521" t="str">
         <f>Данные!C24</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F46" s="518"/>
-      <c r="G46" s="521">
+      <c r="F46" s="522"/>
+      <c r="G46" s="525">
         <f>Данные!B24</f>
         <v>9</v>
       </c>
-      <c r="H46" s="523"/>
-      <c r="I46" s="524"/>
-      <c r="J46" s="525"/>
+      <c r="H46" s="527"/>
+      <c r="I46" s="528"/>
+      <c r="J46" s="529"/>
     </row>
     <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="513"/>
-      <c r="B47" s="529" t="str">
+      <c r="A47" s="540"/>
+      <c r="B47" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C47" s="530"/>
-      <c r="D47" s="531"/>
-      <c r="E47" s="519"/>
-      <c r="F47" s="520"/>
-      <c r="G47" s="522"/>
-      <c r="H47" s="526"/>
-      <c r="I47" s="527"/>
-      <c r="J47" s="528"/>
+      <c r="C47" s="516"/>
+      <c r="D47" s="517"/>
+      <c r="E47" s="541"/>
+      <c r="F47" s="524"/>
+      <c r="G47" s="526"/>
+      <c r="H47" s="530"/>
+      <c r="I47" s="531"/>
+      <c r="J47" s="532"/>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="311"/>
@@ -10872,6 +10872,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -10888,70 +10952,6 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11006,47 +11006,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="542"/>
-      <c r="C2" s="543"/>
-      <c r="D2" s="544"/>
-      <c r="E2" s="551" t="s">
+      <c r="B2" s="560"/>
+      <c r="C2" s="561"/>
+      <c r="D2" s="562"/>
+      <c r="E2" s="569" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="552"/>
-      <c r="G2" s="552"/>
-      <c r="H2" s="553"/>
-      <c r="I2" s="558" t="s">
+      <c r="F2" s="570"/>
+      <c r="G2" s="570"/>
+      <c r="H2" s="571"/>
+      <c r="I2" s="576" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="559"/>
-      <c r="K2" s="562">
+      <c r="J2" s="577"/>
+      <c r="K2" s="580">
         <f>Данные!B14</f>
         <v>26</v>
       </c>
-      <c r="L2" s="563"/>
+      <c r="L2" s="581"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="554"/>
-      <c r="Q2" s="554"/>
+      <c r="P2" s="572"/>
+      <c r="Q2" s="572"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="545"/>
-      <c r="C3" s="546"/>
-      <c r="D3" s="547"/>
-      <c r="E3" s="555" t="s">
+      <c r="B3" s="563"/>
+      <c r="C3" s="564"/>
+      <c r="D3" s="565"/>
+      <c r="E3" s="573" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="556"/>
-      <c r="G3" s="556"/>
-      <c r="H3" s="557"/>
-      <c r="I3" s="560"/>
-      <c r="J3" s="561"/>
-      <c r="K3" s="564"/>
-      <c r="L3" s="565"/>
+      <c r="F3" s="574"/>
+      <c r="G3" s="574"/>
+      <c r="H3" s="575"/>
+      <c r="I3" s="578"/>
+      <c r="J3" s="579"/>
+      <c r="K3" s="582"/>
+      <c r="L3" s="583"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11057,9 +11057,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="548"/>
-      <c r="C4" s="549"/>
-      <c r="D4" s="550"/>
+      <c r="B4" s="566"/>
+      <c r="C4" s="567"/>
+      <c r="D4" s="568"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11078,22 +11078,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="570"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="546"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="571"/>
-      <c r="J5" s="572"/>
-      <c r="K5" s="497"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="547"/>
+      <c r="J5" s="548"/>
+      <c r="K5" s="495"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11104,22 +11104,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="573"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="549"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="571"/>
-      <c r="J6" s="572"/>
-      <c r="K6" s="497"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="547"/>
+      <c r="J6" s="548"/>
+      <c r="K6" s="495"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11130,27 +11130,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="577"/>
-      <c r="D7" s="499">
+      <c r="C7" s="553"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="576" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="552" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="580"/>
-      <c r="K7" s="487">
+      <c r="J7" s="556"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11644,12 +11644,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="581" t="s">
+      <c r="B23" s="557" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="582"/>
-      <c r="D23" s="582"/>
-      <c r="E23" s="583"/>
+      <c r="C23" s="558"/>
+      <c r="D23" s="558"/>
+      <c r="E23" s="559"/>
       <c r="F23" s="116" t="s">
         <v>16</v>
       </c>
@@ -11671,12 +11671,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="566" t="s">
+      <c r="B24" s="542" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="567"/>
-      <c r="D24" s="567"/>
-      <c r="E24" s="568"/>
+      <c r="C24" s="543"/>
+      <c r="D24" s="543"/>
+      <c r="E24" s="544"/>
       <c r="F24" s="116" t="s">
         <v>16</v>
       </c>
@@ -11720,6 +11720,12 @@
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -11734,12 +11740,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -11805,50 +11805,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="584">
+      <c r="B2" s="591">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="585"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="593" t="s">
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="599" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="600"/>
-      <c r="K2" s="603">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B15</f>
         <v>26</v>
       </c>
-      <c r="L2" s="604"/>
+      <c r="L2" s="611"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="554"/>
-      <c r="Q2" s="554"/>
+      <c r="P2" s="572"/>
+      <c r="Q2" s="572"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="587"/>
-      <c r="C3" s="588"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="596" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="597"/>
-      <c r="G3" s="597"/>
-      <c r="H3" s="598"/>
-      <c r="I3" s="601"/>
-      <c r="J3" s="602"/>
-      <c r="K3" s="605"/>
-      <c r="L3" s="606"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11859,9 +11859,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="590"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="592"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -11880,22 +11880,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="584"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11906,22 +11906,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11932,27 +11932,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="499">
+      <c r="C7" s="588"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="487">
+      <c r="J7" s="588"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12149,13 +12149,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="581" t="s">
+      <c r="B14" s="557" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="582"/>
-      <c r="D14" s="582"/>
-      <c r="E14" s="582"/>
-      <c r="F14" s="613"/>
+      <c r="C14" s="558"/>
+      <c r="D14" s="558"/>
+      <c r="E14" s="558"/>
+      <c r="F14" s="590"/>
       <c r="G14" s="56" t="s">
         <v>77</v>
       </c>
@@ -12174,12 +12174,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78"/>
-      <c r="B15" s="566" t="s">
+      <c r="B15" s="542" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="567"/>
-      <c r="D15" s="567"/>
-      <c r="E15" s="568"/>
+      <c r="C15" s="543"/>
+      <c r="D15" s="543"/>
+      <c r="E15" s="544"/>
       <c r="F15" s="116" t="s">
         <v>16</v>
       </c>
@@ -12230,6 +12230,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12244,12 +12250,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12323,47 +12323,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="542"/>
-      <c r="C2" s="543"/>
-      <c r="D2" s="544"/>
-      <c r="E2" s="551" t="s">
+      <c r="B2" s="560"/>
+      <c r="C2" s="561"/>
+      <c r="D2" s="562"/>
+      <c r="E2" s="569" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="552"/>
-      <c r="G2" s="552"/>
-      <c r="H2" s="553"/>
-      <c r="I2" s="558" t="s">
+      <c r="F2" s="570"/>
+      <c r="G2" s="570"/>
+      <c r="H2" s="571"/>
+      <c r="I2" s="576" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="559"/>
-      <c r="K2" s="562">
+      <c r="J2" s="577"/>
+      <c r="K2" s="580">
         <f>Данные!B16</f>
         <v>30</v>
       </c>
-      <c r="L2" s="563"/>
+      <c r="L2" s="581"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="554"/>
-      <c r="Q2" s="554"/>
+      <c r="P2" s="572"/>
+      <c r="Q2" s="572"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="545"/>
-      <c r="C3" s="546"/>
-      <c r="D3" s="547"/>
-      <c r="E3" s="555" t="s">
+      <c r="B3" s="563"/>
+      <c r="C3" s="564"/>
+      <c r="D3" s="565"/>
+      <c r="E3" s="573" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="556"/>
-      <c r="G3" s="556"/>
-      <c r="H3" s="557"/>
-      <c r="I3" s="560"/>
-      <c r="J3" s="561"/>
-      <c r="K3" s="564"/>
-      <c r="L3" s="565"/>
+      <c r="F3" s="574"/>
+      <c r="G3" s="574"/>
+      <c r="H3" s="575"/>
+      <c r="I3" s="578"/>
+      <c r="J3" s="579"/>
+      <c r="K3" s="582"/>
+      <c r="L3" s="583"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12374,9 +12374,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="548"/>
-      <c r="C4" s="549"/>
-      <c r="D4" s="550"/>
+      <c r="B4" s="566"/>
+      <c r="C4" s="567"/>
+      <c r="D4" s="568"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12395,22 +12395,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="570"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="546"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="571"/>
-      <c r="J5" s="572"/>
-      <c r="K5" s="497"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="547"/>
+      <c r="J5" s="548"/>
+      <c r="K5" s="495"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12421,22 +12421,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="573"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="549"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="571"/>
-      <c r="J6" s="572"/>
-      <c r="K6" s="497"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="547"/>
+      <c r="J6" s="548"/>
+      <c r="K6" s="495"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12447,27 +12447,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="577"/>
-      <c r="D7" s="499">
+      <c r="C7" s="553"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="576" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="552" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="580"/>
-      <c r="K7" s="487">
+      <c r="J7" s="556"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12950,11 +12950,6 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -12968,6 +12963,11 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -13035,24 +13035,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="542"/>
-      <c r="C2" s="543"/>
-      <c r="D2" s="544"/>
-      <c r="E2" s="551" t="s">
+      <c r="B2" s="560"/>
+      <c r="C2" s="561"/>
+      <c r="D2" s="562"/>
+      <c r="E2" s="569" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="552"/>
-      <c r="G2" s="552"/>
-      <c r="H2" s="553"/>
-      <c r="I2" s="558" t="s">
+      <c r="F2" s="570"/>
+      <c r="G2" s="570"/>
+      <c r="H2" s="571"/>
+      <c r="I2" s="576" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="559"/>
-      <c r="K2" s="562">
+      <c r="J2" s="577"/>
+      <c r="K2" s="580">
         <f>Данные!B17</f>
         <v>30</v>
       </c>
-      <c r="L2" s="563"/>
+      <c r="L2" s="581"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -13063,19 +13063,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="545"/>
-      <c r="C3" s="546"/>
-      <c r="D3" s="547"/>
-      <c r="E3" s="555" t="s">
+      <c r="B3" s="563"/>
+      <c r="C3" s="564"/>
+      <c r="D3" s="565"/>
+      <c r="E3" s="573" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="556"/>
-      <c r="G3" s="556"/>
-      <c r="H3" s="557"/>
-      <c r="I3" s="560"/>
-      <c r="J3" s="561"/>
-      <c r="K3" s="564"/>
-      <c r="L3" s="565"/>
+      <c r="F3" s="574"/>
+      <c r="G3" s="574"/>
+      <c r="H3" s="575"/>
+      <c r="I3" s="578"/>
+      <c r="J3" s="579"/>
+      <c r="K3" s="582"/>
+      <c r="L3" s="583"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13086,9 +13086,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="548"/>
-      <c r="C4" s="549"/>
-      <c r="D4" s="550"/>
+      <c r="B4" s="566"/>
+      <c r="C4" s="567"/>
+      <c r="D4" s="568"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13107,22 +13107,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="570"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="546"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="571"/>
-      <c r="J5" s="572"/>
-      <c r="K5" s="497"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="547"/>
+      <c r="J5" s="548"/>
+      <c r="K5" s="495"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13133,22 +13133,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="573"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="549"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="571"/>
-      <c r="J6" s="572"/>
-      <c r="K6" s="497"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="547"/>
+      <c r="J6" s="548"/>
+      <c r="K6" s="495"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13159,27 +13159,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="577"/>
-      <c r="D7" s="499">
+      <c r="C7" s="553"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="576" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="552" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="580"/>
-      <c r="K7" s="487">
+      <c r="J7" s="556"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13464,6 +13464,17 @@
     <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -13471,17 +13482,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13553,24 +13553,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="584"/>
-      <c r="C2" s="585"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="593" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="599" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="600"/>
-      <c r="K2" s="603">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B18</f>
         <v>70</v>
       </c>
-      <c r="L2" s="604"/>
+      <c r="L2" s="611"/>
       <c r="M2" s="615"/>
       <c r="N2" s="616"/>
       <c r="O2" s="616"/>
@@ -13581,19 +13581,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="587"/>
-      <c r="C3" s="588"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="596" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="597"/>
-      <c r="G3" s="597"/>
-      <c r="H3" s="598"/>
-      <c r="I3" s="601"/>
-      <c r="J3" s="602"/>
-      <c r="K3" s="605"/>
-      <c r="L3" s="606"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
       <c r="M3" s="618"/>
       <c r="N3" s="619"/>
       <c r="O3" s="619"/>
@@ -13604,9 +13604,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="590"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="592"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -13625,22 +13625,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="584"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="618"/>
       <c r="N5" s="619"/>
       <c r="O5" s="619"/>
@@ -13651,22 +13651,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="618"/>
       <c r="N6" s="619"/>
       <c r="O6" s="619"/>
@@ -13677,27 +13677,27 @@
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="499">
+      <c r="C7" s="588"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="487">
+      <c r="J7" s="588"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="618"/>
       <c r="N7" s="619"/>
       <c r="O7" s="619"/>
@@ -14092,12 +14092,12 @@
     </row>
     <row r="20" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78"/>
-      <c r="B20" s="566" t="s">
+      <c r="B20" s="542" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="567"/>
-      <c r="D20" s="567"/>
-      <c r="E20" s="568"/>
+      <c r="C20" s="543"/>
+      <c r="D20" s="543"/>
+      <c r="E20" s="544"/>
       <c r="F20" s="116" t="s">
         <v>16</v>
       </c>
@@ -14143,13 +14143,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -14162,6 +14155,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -14226,24 +14226,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="584"/>
-      <c r="C2" s="585"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="593" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="599" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="600"/>
-      <c r="K2" s="603">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B19</f>
         <v>70</v>
       </c>
-      <c r="L2" s="604"/>
+      <c r="L2" s="611"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -14254,19 +14254,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="587"/>
-      <c r="C3" s="588"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="596" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="597"/>
-      <c r="G3" s="597"/>
-      <c r="H3" s="598"/>
-      <c r="I3" s="601"/>
-      <c r="J3" s="602"/>
-      <c r="K3" s="605"/>
-      <c r="L3" s="606"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14277,9 +14277,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="590"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="592"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -14298,22 +14298,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="584"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14324,22 +14324,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14350,27 +14350,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="499">
+      <c r="C7" s="588"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="487">
+      <c r="J7" s="588"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14633,12 +14633,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="566" t="s">
+      <c r="B16" s="542" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="567"/>
-      <c r="D16" s="567"/>
-      <c r="E16" s="568"/>
+      <c r="C16" s="543"/>
+      <c r="D16" s="543"/>
+      <c r="E16" s="544"/>
       <c r="F16" s="259" t="s">
         <v>16</v>
       </c>
@@ -14684,15 +14684,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -14703,6 +14694,15 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-30-1-500-7 (Каласы)/от 23.10.2019 Каласы.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-30-1-500-7 (Каласы)/от 23.10.2019 Каласы.xlsx
@@ -8930,12 +8930,6 @@
     <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -8948,6 +8942,12 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -8976,14 +8976,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
@@ -9562,22 +9562,32 @@
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="440"/>
-      <c r="B22" s="441"/>
-      <c r="C22" s="441"/>
-      <c r="D22" s="441"/>
-      <c r="E22" s="442"/>
-      <c r="F22" s="442"/>
+      <c r="B22" s="441">
+        <v>43820</v>
+      </c>
+      <c r="C22" s="441">
+        <v>43824</v>
+      </c>
+      <c r="D22" s="441">
+        <v>43468</v>
+      </c>
+      <c r="E22" s="442">
+        <v>829632</v>
+      </c>
+      <c r="F22" s="442">
+        <v>880380</v>
+      </c>
       <c r="G22" s="436">
         <f>F22/A$21</f>
-        <v>0</v>
+        <v>4.8372527472527474E-2</v>
       </c>
       <c r="H22" s="443">
         <f>H21-F22</f>
-        <v>17680529</v>
+        <v>16800149</v>
       </c>
       <c r="I22" s="444">
         <f>I21-G22</f>
-        <v>0.97145763736263735</v>
+        <v>0.92308510989010983</v>
       </c>
       <c r="J22" s="393"/>
       <c r="K22" s="393"/>
@@ -9718,23 +9728,23 @@
       <c r="D32" s="465"/>
       <c r="E32" s="466">
         <f>SUM(E21:E31)</f>
-        <v>466668</v>
+        <v>1296300</v>
       </c>
       <c r="F32" s="467">
         <f>SUM(F21:F31)</f>
-        <v>519471</v>
+        <v>1399851</v>
       </c>
       <c r="G32" s="468">
         <f>SUM(G21:G31)</f>
-        <v>2.8542362637362637E-2</v>
+        <v>7.6914890109890111E-2</v>
       </c>
       <c r="H32" s="469">
         <f>A21-F32</f>
-        <v>17680529</v>
+        <v>16800149</v>
       </c>
       <c r="I32" s="470">
         <f>1-G32</f>
-        <v>0.97145763736263735</v>
+        <v>0.92308510989010983</v>
       </c>
       <c r="J32" s="471"/>
       <c r="K32" s="471"/>
@@ -9787,16 +9797,16 @@
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="507">
         <f>A21-F32</f>
-        <v>17680529</v>
+        <v>16800149</v>
       </c>
       <c r="B38" s="508"/>
       <c r="C38" s="473">
         <f>1-G32</f>
-        <v>0.97145763736263735</v>
+        <v>0.92308510989010983</v>
       </c>
       <c r="D38" s="474">
         <f>(C38/0.8)*100</f>
-        <v>121.43220467032967</v>
+        <v>115.38563873626373</v>
       </c>
       <c r="E38" s="475" t="s">
         <v>139</v>
@@ -10024,8 +10034,9 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="I42:J42"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="38" max="16383" man="1"/>
   </rowBreaks>
@@ -12950,6 +12961,7 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -12967,7 +12979,6 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-30-1-500-7 (Каласы)/от 23.10.2019 Каласы.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-30-1-500-7 (Каласы)/от 23.10.2019 Каласы.xlsx
@@ -391,9 +391,6 @@
     <t>Формокомплект бутылки</t>
   </si>
   <si>
-    <t xml:space="preserve"> (владелец ООО "Ведатранзит" дог. №3 от 23.01.2019)</t>
-  </si>
-  <si>
     <t>Дата поставки  03.10.2019 (c остаточным ресурсом 100 %)</t>
   </si>
   <si>
@@ -464,6 +461,9 @@
   </si>
   <si>
     <t>Начальник УРФ                                             А.Д. Гавриленко</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (владелец Климовичи)</t>
   </si>
 </sst>
 </file>
@@ -3501,8 +3501,6 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3541,6 +3539,12 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3585,11 +3589,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3608,10 +3611,77 @@
     <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3622,60 +3692,6 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3685,23 +3701,77 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3753,76 +3823,73 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3846,75 +3913,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3941,6 +3939,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3951,26 +3952,29 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6294,7 +6298,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6389,28 +6393,28 @@
       <c r="D11" s="379">
         <v>43761</v>
       </c>
-      <c r="F11" s="500" t="s">
+      <c r="F11" s="482" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="500"/>
-      <c r="H11" s="500"/>
-      <c r="I11" s="500"/>
-      <c r="J11" s="501" t="s">
+      <c r="G11" s="482"/>
+      <c r="H11" s="482"/>
+      <c r="I11" s="482"/>
+      <c r="J11" s="483" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="501"/>
+      <c r="K11" s="483"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="500" t="s">
+      <c r="F12" s="482" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="500"/>
-      <c r="H12" s="500"/>
-      <c r="I12" s="500"/>
-      <c r="J12" s="501" t="s">
+      <c r="G12" s="482"/>
+      <c r="H12" s="482"/>
+      <c r="I12" s="482"/>
+      <c r="J12" s="483" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="501"/>
+      <c r="K12" s="483"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="373" t="s">
@@ -6422,16 +6426,16 @@
       <c r="C13" s="384" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="500" t="s">
+      <c r="F13" s="482" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="500"/>
-      <c r="H13" s="500"/>
-      <c r="I13" s="500"/>
-      <c r="J13" s="501" t="s">
+      <c r="G13" s="482"/>
+      <c r="H13" s="482"/>
+      <c r="I13" s="482"/>
+      <c r="J13" s="483" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="501"/>
+      <c r="K13" s="483"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="375" t="s">
@@ -6598,12 +6602,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -6613,6 +6611,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -6666,47 +6670,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="170"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="582"/>
+      <c r="C2" s="583"/>
+      <c r="D2" s="584"/>
+      <c r="E2" s="591" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="592"/>
+      <c r="G2" s="592"/>
+      <c r="H2" s="593"/>
+      <c r="I2" s="597" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="598"/>
+      <c r="K2" s="601">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="602"/>
       <c r="M2" s="171"/>
       <c r="N2" s="172"/>
       <c r="O2" s="173"/>
-      <c r="P2" s="622"/>
-      <c r="Q2" s="622"/>
+      <c r="P2" s="620"/>
+      <c r="Q2" s="620"/>
       <c r="R2" s="174"/>
       <c r="S2" s="175"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="170"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="585"/>
+      <c r="C3" s="586"/>
+      <c r="D3" s="587"/>
+      <c r="E3" s="594" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="595"/>
+      <c r="G3" s="595"/>
+      <c r="H3" s="596"/>
+      <c r="I3" s="599"/>
+      <c r="J3" s="600"/>
+      <c r="K3" s="603"/>
+      <c r="L3" s="604"/>
       <c r="M3" s="176"/>
       <c r="N3" s="177"/>
       <c r="O3" s="177"/>
@@ -6717,9 +6721,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="170"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="588"/>
+      <c r="C4" s="589"/>
+      <c r="D4" s="590"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -6738,10 +6742,10 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="170"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="567" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
+      <c r="C5" s="605"/>
       <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -6750,9 +6754,9 @@
       <c r="F5" s="495"/>
       <c r="G5" s="495"/>
       <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
+      <c r="I5" s="606"/>
+      <c r="J5" s="607"/>
+      <c r="K5" s="608"/>
       <c r="L5" s="496"/>
       <c r="M5" s="179"/>
       <c r="N5" s="177"/>
@@ -6764,21 +6768,21 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="170"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="567" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
+      <c r="C6" s="605"/>
       <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
+      <c r="E6" s="572"/>
+      <c r="F6" s="572"/>
+      <c r="G6" s="572"/>
+      <c r="H6" s="573"/>
+      <c r="I6" s="606"/>
+      <c r="J6" s="607"/>
+      <c r="K6" s="608"/>
       <c r="L6" s="496"/>
       <c r="M6" s="176"/>
       <c r="N6" s="177"/>
@@ -6790,22 +6794,22 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="170"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="574" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
+      <c r="C7" s="609"/>
       <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="576"/>
+      <c r="F7" s="576"/>
+      <c r="G7" s="576"/>
+      <c r="H7" s="577"/>
+      <c r="I7" s="610" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
+      <c r="J7" s="609"/>
       <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -7196,6 +7200,17 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7203,17 +7218,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -7279,47 +7283,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="209"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="582"/>
+      <c r="C2" s="583"/>
+      <c r="D2" s="584"/>
+      <c r="E2" s="591" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="592"/>
+      <c r="G2" s="592"/>
+      <c r="H2" s="593"/>
+      <c r="I2" s="597" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="598"/>
+      <c r="K2" s="601">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="602"/>
       <c r="M2" s="210"/>
       <c r="N2" s="211"/>
       <c r="O2" s="212"/>
-      <c r="P2" s="626"/>
-      <c r="Q2" s="626"/>
+      <c r="P2" s="621"/>
+      <c r="Q2" s="621"/>
       <c r="R2" s="213"/>
       <c r="S2" s="214"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="209"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="585"/>
+      <c r="C3" s="586"/>
+      <c r="D3" s="587"/>
+      <c r="E3" s="594" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="595"/>
+      <c r="G3" s="595"/>
+      <c r="H3" s="596"/>
+      <c r="I3" s="599"/>
+      <c r="J3" s="600"/>
+      <c r="K3" s="603"/>
+      <c r="L3" s="604"/>
       <c r="M3" s="215"/>
       <c r="N3" s="216"/>
       <c r="O3" s="216"/>
@@ -7330,9 +7334,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="209"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="588"/>
+      <c r="C4" s="589"/>
+      <c r="D4" s="590"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7351,10 +7355,10 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="209"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="567" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
+      <c r="C5" s="605"/>
       <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -7363,9 +7367,9 @@
       <c r="F5" s="495"/>
       <c r="G5" s="495"/>
       <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
+      <c r="I5" s="606"/>
+      <c r="J5" s="607"/>
+      <c r="K5" s="608"/>
       <c r="L5" s="496"/>
       <c r="M5" s="218"/>
       <c r="N5" s="216"/>
@@ -7377,21 +7381,21 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="209"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="567" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
+      <c r="C6" s="605"/>
       <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
+      <c r="E6" s="572"/>
+      <c r="F6" s="572"/>
+      <c r="G6" s="572"/>
+      <c r="H6" s="573"/>
+      <c r="I6" s="606"/>
+      <c r="J6" s="607"/>
+      <c r="K6" s="608"/>
       <c r="L6" s="496"/>
       <c r="M6" s="215"/>
       <c r="N6" s="216"/>
@@ -7403,22 +7407,22 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="209"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="574" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
+      <c r="C7" s="609"/>
       <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="576"/>
+      <c r="F7" s="576"/>
+      <c r="G7" s="576"/>
+      <c r="H7" s="577"/>
+      <c r="I7" s="610" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
+      <c r="J7" s="609"/>
       <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -7752,12 +7756,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="219"/>
-      <c r="B18" s="623" t="s">
+      <c r="B18" s="622" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="624"/>
-      <c r="D18" s="624"/>
-      <c r="E18" s="625"/>
+      <c r="C18" s="623"/>
+      <c r="D18" s="623"/>
+      <c r="E18" s="624"/>
       <c r="F18" s="116" t="s">
         <v>16</v>
       </c>
@@ -7801,14 +7805,6 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -7820,6 +7816,14 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -7905,47 +7909,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="133"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="582"/>
+      <c r="C2" s="583"/>
+      <c r="D2" s="584"/>
+      <c r="E2" s="591" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="592"/>
+      <c r="G2" s="592"/>
+      <c r="H2" s="593"/>
+      <c r="I2" s="597" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="598"/>
+      <c r="K2" s="601">
         <f>Данные!B26</f>
         <v>24</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="602"/>
       <c r="M2" s="134"/>
       <c r="N2" s="135"/>
       <c r="O2" s="136"/>
-      <c r="P2" s="627"/>
-      <c r="Q2" s="627"/>
+      <c r="P2" s="625"/>
+      <c r="Q2" s="625"/>
       <c r="R2" s="137"/>
       <c r="S2" s="138"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="133"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="585"/>
+      <c r="C3" s="586"/>
+      <c r="D3" s="587"/>
+      <c r="E3" s="594" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="595"/>
+      <c r="G3" s="595"/>
+      <c r="H3" s="596"/>
+      <c r="I3" s="599"/>
+      <c r="J3" s="600"/>
+      <c r="K3" s="603"/>
+      <c r="L3" s="604"/>
       <c r="M3" s="139"/>
       <c r="N3" s="140"/>
       <c r="O3" s="140"/>
@@ -7956,9 +7960,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="133"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="588"/>
+      <c r="C4" s="589"/>
+      <c r="D4" s="590"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7977,10 +7981,10 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="133"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="567" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
+      <c r="C5" s="605"/>
       <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -7989,9 +7993,9 @@
       <c r="F5" s="495"/>
       <c r="G5" s="495"/>
       <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
+      <c r="I5" s="606"/>
+      <c r="J5" s="607"/>
+      <c r="K5" s="608"/>
       <c r="L5" s="496"/>
       <c r="M5" s="142"/>
       <c r="N5" s="140"/>
@@ -8003,21 +8007,21 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="133"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="567" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
+      <c r="C6" s="605"/>
       <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
+      <c r="E6" s="572"/>
+      <c r="F6" s="572"/>
+      <c r="G6" s="572"/>
+      <c r="H6" s="573"/>
+      <c r="I6" s="606"/>
+      <c r="J6" s="607"/>
+      <c r="K6" s="608"/>
       <c r="L6" s="496"/>
       <c r="M6" s="139"/>
       <c r="N6" s="140"/>
@@ -8029,22 +8033,22 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="133"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="574" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
+      <c r="C7" s="609"/>
       <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="576"/>
+      <c r="F7" s="576"/>
+      <c r="G7" s="576"/>
+      <c r="H7" s="577"/>
+      <c r="I7" s="610" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
+      <c r="J7" s="609"/>
       <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -8430,6 +8434,17 @@
     <row r="21" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -8437,17 +8452,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -8513,47 +8517,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="266"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="582"/>
+      <c r="C2" s="583"/>
+      <c r="D2" s="584"/>
+      <c r="E2" s="591" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="592"/>
+      <c r="G2" s="592"/>
+      <c r="H2" s="593"/>
+      <c r="I2" s="597" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="629">
+      <c r="J2" s="598"/>
+      <c r="K2" s="626">
         <f>Данные!B23</f>
         <v>24</v>
       </c>
-      <c r="L2" s="630"/>
+      <c r="L2" s="627"/>
       <c r="M2" s="267"/>
       <c r="N2" s="268"/>
       <c r="O2" s="269"/>
-      <c r="P2" s="628"/>
-      <c r="Q2" s="628"/>
+      <c r="P2" s="630"/>
+      <c r="Q2" s="630"/>
       <c r="R2" s="270"/>
       <c r="S2" s="271"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="266"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="585"/>
+      <c r="C3" s="586"/>
+      <c r="D3" s="587"/>
+      <c r="E3" s="594" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="631"/>
-      <c r="L3" s="632"/>
+      <c r="F3" s="595"/>
+      <c r="G3" s="595"/>
+      <c r="H3" s="596"/>
+      <c r="I3" s="599"/>
+      <c r="J3" s="600"/>
+      <c r="K3" s="628"/>
+      <c r="L3" s="629"/>
       <c r="M3" s="272"/>
       <c r="N3" s="273"/>
       <c r="O3" s="273"/>
@@ -8564,9 +8568,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="266"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="588"/>
+      <c r="C4" s="589"/>
+      <c r="D4" s="590"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -8585,10 +8589,10 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="266"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="567" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
+      <c r="C5" s="605"/>
       <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -8597,9 +8601,9 @@
       <c r="F5" s="495"/>
       <c r="G5" s="495"/>
       <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
+      <c r="I5" s="606"/>
+      <c r="J5" s="607"/>
+      <c r="K5" s="608"/>
       <c r="L5" s="496"/>
       <c r="M5" s="275"/>
       <c r="N5" s="273"/>
@@ -8611,21 +8615,21 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="266"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="567" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
+      <c r="C6" s="605"/>
       <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
+      <c r="E6" s="572"/>
+      <c r="F6" s="572"/>
+      <c r="G6" s="572"/>
+      <c r="H6" s="573"/>
+      <c r="I6" s="606"/>
+      <c r="J6" s="607"/>
+      <c r="K6" s="608"/>
       <c r="L6" s="496"/>
       <c r="M6" s="272"/>
       <c r="N6" s="273"/>
@@ -8637,22 +8641,22 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="266"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="574" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
+      <c r="C7" s="609"/>
       <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="576"/>
+      <c r="F7" s="576"/>
+      <c r="G7" s="576"/>
+      <c r="H7" s="577"/>
+      <c r="I7" s="610" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
+      <c r="J7" s="609"/>
       <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -8930,6 +8934,8 @@
     <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -8946,8 +8952,6 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -8976,8 +8980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37:F38"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8998,11 +9002,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="390"/>
-      <c r="B1" s="483" t="s">
+      <c r="B1" s="481" t="s">
         <v>114</v>
       </c>
       <c r="C1" s="390"/>
-      <c r="D1" s="482" t="str">
+      <c r="D1" s="480" t="str">
         <f>Данные!A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
@@ -9018,7 +9022,7 @@
     <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="390"/>
       <c r="B2" s="390" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="C2" s="390"/>
       <c r="D2" s="390"/>
@@ -9032,17 +9036,17 @@
       <c r="L2" s="391"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="504" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="504"/>
-      <c r="C3" s="504"/>
-      <c r="D3" s="504"/>
-      <c r="E3" s="504"/>
-      <c r="F3" s="504"/>
-      <c r="G3" s="504"/>
-      <c r="H3" s="504"/>
-      <c r="I3" s="504"/>
+      <c r="A3" s="505" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="505"/>
+      <c r="C3" s="505"/>
+      <c r="D3" s="505"/>
+      <c r="E3" s="505"/>
+      <c r="F3" s="505"/>
+      <c r="G3" s="505"/>
+      <c r="H3" s="505"/>
+      <c r="I3" s="505"/>
       <c r="K3" s="392"/>
       <c r="L3" s="392"/>
       <c r="M3" s="393"/>
@@ -9061,28 +9065,28 @@
     </row>
     <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="397" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="398" t="s">
         <v>117</v>
-      </c>
-      <c r="B5" s="398" t="s">
-        <v>118</v>
       </c>
       <c r="C5" s="398" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="399" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="398" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="398" t="s">
+      <c r="F5" s="398" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="398" t="s">
+      <c r="G5" s="398" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="398" t="s">
+      <c r="H5" s="400" t="s">
         <v>122</v>
-      </c>
-      <c r="H5" s="400" t="s">
-        <v>123</v>
       </c>
       <c r="I5" s="401"/>
       <c r="J5" s="401"/>
@@ -9355,7 +9359,7 @@
         <f>Данные!$B22</f>
         <v>нет</v>
       </c>
-      <c r="E14" s="481" t="s">
+      <c r="E14" s="479" t="s">
         <v>93</v>
       </c>
       <c r="F14" s="389"/>
@@ -9479,7 +9483,7 @@
     <row r="19" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="393"/>
       <c r="B19" s="427" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C19" s="372"/>
       <c r="D19" s="372"/>
@@ -9494,31 +9498,31 @@
     </row>
     <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="397" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="398" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="398" t="s">
+      <c r="C20" s="398" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="398" t="s">
+      <c r="D20" s="398" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="398" t="s">
+      <c r="E20" s="398" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="398" t="s">
+      <c r="F20" s="398" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="398" t="s">
+      <c r="G20" s="429" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="429" t="s">
+      <c r="H20" s="430" t="s">
         <v>131</v>
       </c>
-      <c r="H20" s="430" t="s">
+      <c r="I20" s="431" t="s">
         <v>132</v>
-      </c>
-      <c r="I20" s="431" t="s">
-        <v>133</v>
       </c>
       <c r="J20" s="401"/>
       <c r="K20" s="401"/>
@@ -9721,34 +9725,34 @@
     </row>
     <row r="32" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="463" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B32" s="464"/>
       <c r="C32" s="464"/>
       <c r="D32" s="465"/>
-      <c r="E32" s="466">
+      <c r="E32" s="631">
         <f>SUM(E21:E31)</f>
         <v>1296300</v>
       </c>
-      <c r="F32" s="467">
+      <c r="F32" s="632">
         <f>SUM(F21:F31)</f>
         <v>1399851</v>
       </c>
-      <c r="G32" s="468">
+      <c r="G32" s="466">
         <f>SUM(G21:G31)</f>
         <v>7.6914890109890111E-2</v>
       </c>
-      <c r="H32" s="469">
+      <c r="H32" s="467">
         <f>A21-F32</f>
         <v>16800149</v>
       </c>
-      <c r="I32" s="470">
+      <c r="I32" s="468">
         <f>1-G32</f>
         <v>0.92308510989010983</v>
       </c>
-      <c r="J32" s="471"/>
-      <c r="K32" s="471"/>
-      <c r="L32" s="471"/>
+      <c r="J32" s="469"/>
+      <c r="K32" s="469"/>
+      <c r="L32" s="469"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="393"/>
@@ -9763,12 +9767,12 @@
       <c r="J35" s="393"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="505" t="s">
-        <v>135</v>
-      </c>
-      <c r="B36" s="505"/>
-      <c r="C36" s="505"/>
-      <c r="D36" s="505"/>
+      <c r="A36" s="506" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="506"/>
+      <c r="C36" s="506"/>
+      <c r="D36" s="506"/>
       <c r="E36" s="393"/>
       <c r="F36" s="393"/>
       <c r="G36" s="393"/>
@@ -9777,15 +9781,15 @@
       <c r="J36" s="393"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="506" t="s">
+      <c r="A37" s="507" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="507"/>
+      <c r="C37" s="470" t="s">
         <v>136</v>
       </c>
-      <c r="B37" s="506"/>
-      <c r="C37" s="472" t="s">
+      <c r="D37" s="470" t="s">
         <v>137</v>
-      </c>
-      <c r="D37" s="472" t="s">
-        <v>138</v>
       </c>
       <c r="E37" s="393"/>
       <c r="F37" s="393"/>
@@ -9795,27 +9799,27 @@
       <c r="J37" s="393"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="507">
+      <c r="A38" s="508">
         <f>A21-F32</f>
         <v>16800149</v>
       </c>
-      <c r="B38" s="508"/>
-      <c r="C38" s="473">
+      <c r="B38" s="509"/>
+      <c r="C38" s="471">
         <f>1-G32</f>
         <v>0.92308510989010983</v>
       </c>
-      <c r="D38" s="474">
+      <c r="D38" s="472">
         <f>(C38/0.8)*100</f>
         <v>115.38563873626373</v>
       </c>
-      <c r="E38" s="475" t="s">
-        <v>139</v>
-      </c>
-      <c r="F38" s="475"/>
-      <c r="G38" s="475"/>
-      <c r="H38" s="475"/>
-      <c r="I38" s="475"/>
-      <c r="J38" s="475"/>
+      <c r="E38" s="473" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38" s="473"/>
+      <c r="G38" s="473"/>
+      <c r="H38" s="473"/>
+      <c r="I38" s="473"/>
+      <c r="J38" s="473"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="393"/>
@@ -9842,8 +9846,8 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="393"/>
-      <c r="B41" s="476"/>
-      <c r="C41" s="476"/>
+      <c r="B41" s="474"/>
+      <c r="C41" s="474"/>
       <c r="D41" s="393"/>
       <c r="E41" s="393"/>
       <c r="F41" s="393"/>
@@ -9853,113 +9857,113 @@
       <c r="J41" s="393"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="477"/>
-      <c r="B42" s="477"/>
-      <c r="C42" s="477"/>
-      <c r="D42" s="477"/>
-      <c r="E42" s="477"/>
-      <c r="F42" s="477"/>
-      <c r="G42" s="477"/>
-      <c r="H42" s="477"/>
-      <c r="I42" s="509"/>
-      <c r="J42" s="510"/>
+      <c r="A42" s="475"/>
+      <c r="B42" s="475"/>
+      <c r="C42" s="475"/>
+      <c r="D42" s="475"/>
+      <c r="E42" s="475"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="475"/>
+      <c r="H42" s="475"/>
+      <c r="I42" s="500"/>
+      <c r="J42" s="501"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="478"/>
-      <c r="B43" s="479"/>
-      <c r="C43" s="479"/>
+      <c r="A43" s="476"/>
+      <c r="B43" s="477"/>
+      <c r="C43" s="477"/>
       <c r="D43" s="393"/>
       <c r="E43" s="393"/>
-      <c r="F43" s="479"/>
+      <c r="F43" s="477"/>
       <c r="G43" s="423"/>
-      <c r="H43" s="479"/>
+      <c r="H43" s="477"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="478"/>
-      <c r="B44" s="479"/>
-      <c r="C44" s="479"/>
-      <c r="D44" s="479"/>
-      <c r="E44" s="479"/>
-      <c r="F44" s="479"/>
+      <c r="A44" s="476"/>
+      <c r="B44" s="477"/>
+      <c r="C44" s="477"/>
+      <c r="D44" s="477"/>
+      <c r="E44" s="477"/>
+      <c r="F44" s="477"/>
       <c r="G44" s="423"/>
-      <c r="H44" s="479"/>
+      <c r="H44" s="477"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="478"/>
-      <c r="B45" s="479"/>
-      <c r="C45" s="479"/>
+      <c r="A45" s="476"/>
+      <c r="B45" s="477"/>
+      <c r="C45" s="477"/>
       <c r="D45" s="393"/>
       <c r="E45" s="393"/>
-      <c r="F45" s="479"/>
+      <c r="F45" s="477"/>
       <c r="G45" s="423"/>
-      <c r="H45" s="479"/>
+      <c r="H45" s="477"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="478"/>
-      <c r="B46" s="479"/>
-      <c r="C46" s="479"/>
-      <c r="D46" s="479"/>
-      <c r="E46" s="479"/>
-      <c r="F46" s="479"/>
+      <c r="A46" s="476"/>
+      <c r="B46" s="477"/>
+      <c r="C46" s="477"/>
+      <c r="D46" s="477"/>
+      <c r="E46" s="477"/>
+      <c r="F46" s="477"/>
       <c r="G46" s="423"/>
-      <c r="H46" s="479"/>
+      <c r="H46" s="477"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="478"/>
-      <c r="B47" s="479"/>
-      <c r="C47" s="479"/>
+      <c r="A47" s="476"/>
+      <c r="B47" s="477"/>
+      <c r="C47" s="477"/>
       <c r="D47" s="393"/>
       <c r="E47" s="393"/>
-      <c r="F47" s="479"/>
+      <c r="F47" s="477"/>
       <c r="G47" s="423"/>
-      <c r="H47" s="479"/>
+      <c r="H47" s="477"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="478"/>
-      <c r="B48" s="479"/>
+      <c r="A48" s="476"/>
+      <c r="B48" s="477"/>
       <c r="C48" s="413"/>
-      <c r="D48" s="480"/>
-      <c r="E48" s="480"/>
+      <c r="D48" s="478"/>
+      <c r="E48" s="478"/>
       <c r="F48" s="413"/>
       <c r="G48" s="413"/>
       <c r="H48" s="413"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="478"/>
-      <c r="B49" s="479"/>
-      <c r="C49" s="479"/>
-      <c r="D49" s="479"/>
-      <c r="E49" s="479"/>
-      <c r="F49" s="479"/>
+      <c r="A49" s="476"/>
+      <c r="B49" s="477"/>
+      <c r="C49" s="477"/>
+      <c r="D49" s="477"/>
+      <c r="E49" s="477"/>
+      <c r="F49" s="477"/>
       <c r="G49" s="423"/>
-      <c r="H49" s="479"/>
+      <c r="H49" s="477"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="478"/>
-      <c r="B50" s="479"/>
-      <c r="C50" s="479"/>
-      <c r="D50" s="479"/>
-      <c r="E50" s="479"/>
-      <c r="F50" s="479"/>
+      <c r="A50" s="476"/>
+      <c r="B50" s="477"/>
+      <c r="C50" s="477"/>
+      <c r="D50" s="477"/>
+      <c r="E50" s="477"/>
+      <c r="F50" s="477"/>
       <c r="G50" s="423"/>
-      <c r="H50" s="479"/>
+      <c r="H50" s="477"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="478"/>
-      <c r="B51" s="479"/>
-      <c r="C51" s="479"/>
+      <c r="A51" s="476"/>
+      <c r="B51" s="477"/>
+      <c r="C51" s="477"/>
       <c r="D51" s="393"/>
       <c r="E51" s="393"/>
-      <c r="F51" s="479"/>
+      <c r="F51" s="477"/>
       <c r="G51" s="423"/>
-      <c r="H51" s="479"/>
+      <c r="H51" s="477"/>
     </row>
     <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="393"/>
-      <c r="B52" s="502"/>
-      <c r="C52" s="502"/>
-      <c r="D52" s="503"/>
-      <c r="E52" s="475"/>
+      <c r="B52" s="503"/>
+      <c r="C52" s="503"/>
+      <c r="D52" s="504"/>
+      <c r="E52" s="473"/>
       <c r="F52" s="393"/>
       <c r="G52" s="393"/>
       <c r="H52" s="393"/>
@@ -9967,31 +9971,31 @@
       <c r="J52" s="393"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="477"/>
-      <c r="B53" s="477"/>
-      <c r="C53" s="477"/>
-      <c r="D53" s="477"/>
-      <c r="E53" s="477"/>
-      <c r="F53" s="477"/>
-      <c r="G53" s="477"/>
-      <c r="H53" s="477"/>
-      <c r="I53" s="509"/>
-      <c r="J53" s="510"/>
+      <c r="A53" s="475"/>
+      <c r="B53" s="475"/>
+      <c r="C53" s="475"/>
+      <c r="D53" s="475"/>
+      <c r="E53" s="475"/>
+      <c r="F53" s="475"/>
+      <c r="G53" s="475"/>
+      <c r="H53" s="475"/>
+      <c r="I53" s="500"/>
+      <c r="J53" s="501"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="478"/>
+      <c r="A54" s="476"/>
       <c r="B54" s="393"/>
       <c r="C54" s="393"/>
       <c r="D54" s="393"/>
       <c r="E54" s="393"/>
       <c r="F54" s="423"/>
       <c r="G54" s="423"/>
-      <c r="H54" s="479"/>
-      <c r="I54" s="511"/>
-      <c r="J54" s="511"/>
+      <c r="H54" s="477"/>
+      <c r="I54" s="502"/>
+      <c r="J54" s="502"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="478"/>
+      <c r="A55" s="476"/>
       <c r="B55" s="393"/>
       <c r="C55" s="393"/>
       <c r="D55" s="413"/>
@@ -9999,8 +10003,8 @@
       <c r="F55" s="413"/>
       <c r="G55" s="413"/>
       <c r="H55" s="413"/>
-      <c r="I55" s="511"/>
-      <c r="J55" s="511"/>
+      <c r="I55" s="502"/>
+      <c r="J55" s="502"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="393"/>
@@ -10013,26 +10017,26 @@
       <c r="H56" s="393"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="509"/>
-      <c r="C61" s="510"/>
+      <c r="B61" s="500"/>
+      <c r="C61" s="501"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="509"/>
-      <c r="C68" s="510"/>
+      <c r="B68" s="500"/>
+      <c r="C68" s="501"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10114,47 +10118,47 @@
       <c r="J8" s="317"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="513" t="s">
+      <c r="A11" s="535" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="513"/>
-      <c r="C11" s="513"/>
-      <c r="D11" s="513"/>
-      <c r="E11" s="513"/>
-      <c r="F11" s="513"/>
-      <c r="G11" s="513"/>
-      <c r="H11" s="513"/>
-      <c r="I11" s="513"/>
-      <c r="J11" s="513"/>
+      <c r="B11" s="535"/>
+      <c r="C11" s="535"/>
+      <c r="D11" s="535"/>
+      <c r="E11" s="535"/>
+      <c r="F11" s="535"/>
+      <c r="G11" s="535"/>
+      <c r="H11" s="535"/>
+      <c r="I11" s="535"/>
+      <c r="J11" s="535"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="512" t="s">
+      <c r="A12" s="534" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="512"/>
-      <c r="C12" s="512"/>
-      <c r="D12" s="512"/>
-      <c r="E12" s="512"/>
-      <c r="F12" s="512"/>
-      <c r="G12" s="512"/>
-      <c r="H12" s="512"/>
-      <c r="I12" s="512"/>
-      <c r="J12" s="512"/>
+      <c r="B12" s="534"/>
+      <c r="C12" s="534"/>
+      <c r="D12" s="534"/>
+      <c r="E12" s="534"/>
+      <c r="F12" s="534"/>
+      <c r="G12" s="534"/>
+      <c r="H12" s="534"/>
+      <c r="I12" s="534"/>
+      <c r="J12" s="534"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="514" t="str">
+      <c r="A13" s="536" t="str">
         <f>Данные!A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="B13" s="513"/>
-      <c r="C13" s="513"/>
-      <c r="D13" s="513"/>
-      <c r="E13" s="513"/>
-      <c r="F13" s="513"/>
-      <c r="G13" s="513"/>
-      <c r="H13" s="513"/>
-      <c r="I13" s="513"/>
-      <c r="J13" s="513"/>
+      <c r="B13" s="535"/>
+      <c r="C13" s="535"/>
+      <c r="D13" s="535"/>
+      <c r="E13" s="535"/>
+      <c r="F13" s="535"/>
+      <c r="G13" s="535"/>
+      <c r="H13" s="535"/>
+      <c r="I13" s="535"/>
+      <c r="J13" s="535"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="311" t="s">
@@ -10279,482 +10283,482 @@
       <c r="J21" s="312"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="518" t="s">
+      <c r="A22" s="532" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="518" t="s">
+      <c r="B22" s="532" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="518"/>
-      <c r="D22" s="518"/>
-      <c r="E22" s="518" t="s">
+      <c r="C22" s="532"/>
+      <c r="D22" s="532"/>
+      <c r="E22" s="532" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="518"/>
-      <c r="G22" s="536" t="s">
+      <c r="F22" s="532"/>
+      <c r="G22" s="533" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="518" t="s">
+      <c r="H22" s="532" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="518"/>
-      <c r="J22" s="518"/>
+      <c r="I22" s="532"/>
+      <c r="J22" s="532"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="518"/>
-      <c r="B23" s="518"/>
-      <c r="C23" s="518"/>
-      <c r="D23" s="518"/>
-      <c r="E23" s="518"/>
-      <c r="F23" s="518"/>
-      <c r="G23" s="536"/>
-      <c r="H23" s="518"/>
-      <c r="I23" s="518"/>
-      <c r="J23" s="518"/>
+      <c r="A23" s="532"/>
+      <c r="B23" s="532"/>
+      <c r="C23" s="532"/>
+      <c r="D23" s="532"/>
+      <c r="E23" s="532"/>
+      <c r="F23" s="532"/>
+      <c r="G23" s="533"/>
+      <c r="H23" s="532"/>
+      <c r="I23" s="532"/>
+      <c r="J23" s="532"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="519">
+      <c r="A24" s="510">
         <v>1</v>
       </c>
-      <c r="B24" s="533" t="s">
+      <c r="B24" s="537" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="534"/>
-      <c r="D24" s="535"/>
-      <c r="E24" s="521" t="str">
+      <c r="C24" s="538"/>
+      <c r="D24" s="539"/>
+      <c r="E24" s="515" t="str">
         <f>Данные!C14</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F24" s="522"/>
-      <c r="G24" s="525">
+      <c r="F24" s="516"/>
+      <c r="G24" s="519">
         <f>Данные!B14</f>
         <v>26</v>
       </c>
-      <c r="H24" s="527"/>
-      <c r="I24" s="528"/>
-      <c r="J24" s="529"/>
+      <c r="H24" s="521"/>
+      <c r="I24" s="522"/>
+      <c r="J24" s="523"/>
     </row>
     <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="520"/>
-      <c r="B25" s="515" t="str">
+      <c r="A25" s="530"/>
+      <c r="B25" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C25" s="516"/>
-      <c r="D25" s="517"/>
-      <c r="E25" s="523"/>
-      <c r="F25" s="524"/>
-      <c r="G25" s="526"/>
-      <c r="H25" s="530"/>
-      <c r="I25" s="531"/>
-      <c r="J25" s="532"/>
+      <c r="C25" s="528"/>
+      <c r="D25" s="529"/>
+      <c r="E25" s="531"/>
+      <c r="F25" s="518"/>
+      <c r="G25" s="520"/>
+      <c r="H25" s="524"/>
+      <c r="I25" s="525"/>
+      <c r="J25" s="526"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="519">
+      <c r="A26" s="510">
         <v>1</v>
       </c>
-      <c r="B26" s="537" t="s">
+      <c r="B26" s="512" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="538"/>
-      <c r="D26" s="539"/>
-      <c r="E26" s="521" t="str">
+      <c r="C26" s="513"/>
+      <c r="D26" s="514"/>
+      <c r="E26" s="515" t="str">
         <f>Данные!C15</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F26" s="522"/>
-      <c r="G26" s="525">
+      <c r="F26" s="516"/>
+      <c r="G26" s="519">
         <f>Данные!B15</f>
         <v>26</v>
       </c>
-      <c r="H26" s="527"/>
-      <c r="I26" s="528"/>
-      <c r="J26" s="529"/>
+      <c r="H26" s="521"/>
+      <c r="I26" s="522"/>
+      <c r="J26" s="523"/>
     </row>
     <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="520"/>
-      <c r="B27" s="515" t="str">
+      <c r="A27" s="530"/>
+      <c r="B27" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C27" s="516"/>
-      <c r="D27" s="517"/>
-      <c r="E27" s="523"/>
-      <c r="F27" s="524"/>
-      <c r="G27" s="526"/>
-      <c r="H27" s="530"/>
-      <c r="I27" s="531"/>
-      <c r="J27" s="532"/>
+      <c r="C27" s="528"/>
+      <c r="D27" s="529"/>
+      <c r="E27" s="531"/>
+      <c r="F27" s="518"/>
+      <c r="G27" s="520"/>
+      <c r="H27" s="524"/>
+      <c r="I27" s="525"/>
+      <c r="J27" s="526"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="519">
+      <c r="A28" s="510">
         <v>1</v>
       </c>
-      <c r="B28" s="537" t="s">
+      <c r="B28" s="512" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="538"/>
-      <c r="D28" s="539"/>
-      <c r="E28" s="521" t="str">
+      <c r="C28" s="513"/>
+      <c r="D28" s="514"/>
+      <c r="E28" s="515" t="str">
         <f>Данные!C16</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F28" s="522"/>
-      <c r="G28" s="525">
+      <c r="F28" s="516"/>
+      <c r="G28" s="519">
         <f>Данные!B16</f>
         <v>30</v>
       </c>
-      <c r="H28" s="527"/>
-      <c r="I28" s="528"/>
-      <c r="J28" s="529"/>
+      <c r="H28" s="521"/>
+      <c r="I28" s="522"/>
+      <c r="J28" s="523"/>
     </row>
     <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="520"/>
-      <c r="B29" s="515" t="str">
+      <c r="A29" s="530"/>
+      <c r="B29" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C29" s="516"/>
-      <c r="D29" s="517"/>
-      <c r="E29" s="523"/>
-      <c r="F29" s="524"/>
-      <c r="G29" s="526"/>
-      <c r="H29" s="530"/>
-      <c r="I29" s="531"/>
-      <c r="J29" s="532"/>
+      <c r="C29" s="528"/>
+      <c r="D29" s="529"/>
+      <c r="E29" s="531"/>
+      <c r="F29" s="518"/>
+      <c r="G29" s="520"/>
+      <c r="H29" s="524"/>
+      <c r="I29" s="525"/>
+      <c r="J29" s="526"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="519">
+      <c r="A30" s="510">
         <v>1</v>
       </c>
-      <c r="B30" s="537" t="s">
+      <c r="B30" s="512" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="538"/>
-      <c r="D30" s="539"/>
-      <c r="E30" s="521" t="str">
+      <c r="C30" s="513"/>
+      <c r="D30" s="514"/>
+      <c r="E30" s="515" t="str">
         <f>Данные!C17</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F30" s="522"/>
-      <c r="G30" s="525">
+      <c r="F30" s="516"/>
+      <c r="G30" s="519">
         <f>Данные!B17</f>
         <v>30</v>
       </c>
-      <c r="H30" s="527"/>
-      <c r="I30" s="528"/>
-      <c r="J30" s="529"/>
+      <c r="H30" s="521"/>
+      <c r="I30" s="522"/>
+      <c r="J30" s="523"/>
     </row>
     <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="540"/>
-      <c r="B31" s="515" t="str">
+      <c r="A31" s="511"/>
+      <c r="B31" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C31" s="516"/>
-      <c r="D31" s="517"/>
-      <c r="E31" s="541"/>
-      <c r="F31" s="524"/>
-      <c r="G31" s="526"/>
-      <c r="H31" s="530"/>
-      <c r="I31" s="531"/>
-      <c r="J31" s="532"/>
+      <c r="C31" s="528"/>
+      <c r="D31" s="529"/>
+      <c r="E31" s="517"/>
+      <c r="F31" s="518"/>
+      <c r="G31" s="520"/>
+      <c r="H31" s="524"/>
+      <c r="I31" s="525"/>
+      <c r="J31" s="526"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="519">
+      <c r="A32" s="510">
         <v>1</v>
       </c>
-      <c r="B32" s="537" t="s">
+      <c r="B32" s="512" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="538"/>
-      <c r="D32" s="539"/>
-      <c r="E32" s="521" t="str">
+      <c r="C32" s="513"/>
+      <c r="D32" s="514"/>
+      <c r="E32" s="515" t="str">
         <f>Данные!C18</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F32" s="522"/>
-      <c r="G32" s="525">
+      <c r="F32" s="516"/>
+      <c r="G32" s="519">
         <f>Данные!B18</f>
         <v>70</v>
       </c>
-      <c r="H32" s="527"/>
-      <c r="I32" s="528"/>
-      <c r="J32" s="529"/>
+      <c r="H32" s="521"/>
+      <c r="I32" s="522"/>
+      <c r="J32" s="523"/>
     </row>
     <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="540"/>
-      <c r="B33" s="515" t="str">
+      <c r="A33" s="511"/>
+      <c r="B33" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C33" s="516"/>
-      <c r="D33" s="517"/>
-      <c r="E33" s="541"/>
-      <c r="F33" s="524"/>
-      <c r="G33" s="526"/>
-      <c r="H33" s="530"/>
-      <c r="I33" s="531"/>
-      <c r="J33" s="532"/>
+      <c r="C33" s="528"/>
+      <c r="D33" s="529"/>
+      <c r="E33" s="517"/>
+      <c r="F33" s="518"/>
+      <c r="G33" s="520"/>
+      <c r="H33" s="524"/>
+      <c r="I33" s="525"/>
+      <c r="J33" s="526"/>
     </row>
     <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="519">
+      <c r="A34" s="510">
         <v>1</v>
       </c>
-      <c r="B34" s="537" t="s">
+      <c r="B34" s="512" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="538"/>
-      <c r="D34" s="539"/>
-      <c r="E34" s="521" t="str">
+      <c r="C34" s="513"/>
+      <c r="D34" s="514"/>
+      <c r="E34" s="515" t="str">
         <f>Данные!C19</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F34" s="522"/>
-      <c r="G34" s="525">
+      <c r="F34" s="516"/>
+      <c r="G34" s="519">
         <f>Данные!B19</f>
         <v>70</v>
       </c>
-      <c r="H34" s="527"/>
-      <c r="I34" s="528"/>
-      <c r="J34" s="529"/>
+      <c r="H34" s="521"/>
+      <c r="I34" s="522"/>
+      <c r="J34" s="523"/>
     </row>
     <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="540"/>
-      <c r="B35" s="515" t="str">
+      <c r="A35" s="511"/>
+      <c r="B35" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C35" s="516"/>
-      <c r="D35" s="517"/>
-      <c r="E35" s="541"/>
-      <c r="F35" s="524"/>
-      <c r="G35" s="526"/>
-      <c r="H35" s="530"/>
-      <c r="I35" s="531"/>
-      <c r="J35" s="532"/>
+      <c r="C35" s="528"/>
+      <c r="D35" s="529"/>
+      <c r="E35" s="517"/>
+      <c r="F35" s="518"/>
+      <c r="G35" s="520"/>
+      <c r="H35" s="524"/>
+      <c r="I35" s="525"/>
+      <c r="J35" s="526"/>
     </row>
     <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="519">
+      <c r="A36" s="510">
         <v>1</v>
       </c>
-      <c r="B36" s="537" t="s">
+      <c r="B36" s="512" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="538"/>
-      <c r="D36" s="539"/>
-      <c r="E36" s="521" t="str">
+      <c r="C36" s="513"/>
+      <c r="D36" s="514"/>
+      <c r="E36" s="515" t="str">
         <f>Данные!C20</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F36" s="522"/>
-      <c r="G36" s="525">
+      <c r="F36" s="516"/>
+      <c r="G36" s="519">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="H36" s="527"/>
-      <c r="I36" s="528"/>
-      <c r="J36" s="529"/>
+      <c r="H36" s="521"/>
+      <c r="I36" s="522"/>
+      <c r="J36" s="523"/>
     </row>
     <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="540"/>
-      <c r="B37" s="515" t="str">
+      <c r="A37" s="511"/>
+      <c r="B37" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C37" s="516"/>
-      <c r="D37" s="517"/>
-      <c r="E37" s="541"/>
-      <c r="F37" s="524"/>
-      <c r="G37" s="526"/>
-      <c r="H37" s="530"/>
-      <c r="I37" s="531"/>
-      <c r="J37" s="532"/>
+      <c r="C37" s="528"/>
+      <c r="D37" s="529"/>
+      <c r="E37" s="517"/>
+      <c r="F37" s="518"/>
+      <c r="G37" s="520"/>
+      <c r="H37" s="524"/>
+      <c r="I37" s="525"/>
+      <c r="J37" s="526"/>
     </row>
     <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="519">
+      <c r="A38" s="510">
         <v>1</v>
       </c>
-      <c r="B38" s="537" t="s">
+      <c r="B38" s="512" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="538"/>
-      <c r="D38" s="539"/>
-      <c r="E38" s="521" t="str">
+      <c r="C38" s="513"/>
+      <c r="D38" s="514"/>
+      <c r="E38" s="515" t="str">
         <f>Данные!C21</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F38" s="522"/>
-      <c r="G38" s="525">
+      <c r="F38" s="516"/>
+      <c r="G38" s="519">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="H38" s="527"/>
-      <c r="I38" s="528"/>
-      <c r="J38" s="529"/>
+      <c r="H38" s="521"/>
+      <c r="I38" s="522"/>
+      <c r="J38" s="523"/>
     </row>
     <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="540"/>
-      <c r="B39" s="515" t="str">
+      <c r="A39" s="511"/>
+      <c r="B39" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C39" s="516"/>
-      <c r="D39" s="517"/>
-      <c r="E39" s="541"/>
-      <c r="F39" s="524"/>
-      <c r="G39" s="526"/>
-      <c r="H39" s="530"/>
-      <c r="I39" s="531"/>
-      <c r="J39" s="532"/>
+      <c r="C39" s="528"/>
+      <c r="D39" s="529"/>
+      <c r="E39" s="517"/>
+      <c r="F39" s="518"/>
+      <c r="G39" s="520"/>
+      <c r="H39" s="524"/>
+      <c r="I39" s="525"/>
+      <c r="J39" s="526"/>
     </row>
     <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="519">
+      <c r="A40" s="510">
         <v>1</v>
       </c>
-      <c r="B40" s="537" t="s">
+      <c r="B40" s="512" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="538"/>
-      <c r="D40" s="539"/>
-      <c r="E40" s="521" t="str">
+      <c r="C40" s="513"/>
+      <c r="D40" s="514"/>
+      <c r="E40" s="515" t="str">
         <f>Данные!C23</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F40" s="522"/>
-      <c r="G40" s="525">
+      <c r="F40" s="516"/>
+      <c r="G40" s="519">
         <f>Данные!B23</f>
         <v>24</v>
       </c>
-      <c r="H40" s="527"/>
-      <c r="I40" s="528"/>
-      <c r="J40" s="529"/>
+      <c r="H40" s="521"/>
+      <c r="I40" s="522"/>
+      <c r="J40" s="523"/>
     </row>
     <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="540"/>
-      <c r="B41" s="515" t="str">
+      <c r="A41" s="511"/>
+      <c r="B41" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C41" s="516"/>
-      <c r="D41" s="517"/>
-      <c r="E41" s="541"/>
-      <c r="F41" s="524"/>
-      <c r="G41" s="526"/>
-      <c r="H41" s="530"/>
-      <c r="I41" s="531"/>
-      <c r="J41" s="532"/>
+      <c r="C41" s="528"/>
+      <c r="D41" s="529"/>
+      <c r="E41" s="517"/>
+      <c r="F41" s="518"/>
+      <c r="G41" s="520"/>
+      <c r="H41" s="524"/>
+      <c r="I41" s="525"/>
+      <c r="J41" s="526"/>
     </row>
     <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="519">
+      <c r="A42" s="510">
         <v>1</v>
       </c>
-      <c r="B42" s="537" t="s">
+      <c r="B42" s="512" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="538"/>
-      <c r="D42" s="539"/>
-      <c r="E42" s="521" t="str">
+      <c r="C42" s="513"/>
+      <c r="D42" s="514"/>
+      <c r="E42" s="515" t="str">
         <f>Данные!C26</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F42" s="522"/>
-      <c r="G42" s="525">
+      <c r="F42" s="516"/>
+      <c r="G42" s="519">
         <f>Данные!B26</f>
         <v>24</v>
       </c>
-      <c r="H42" s="527"/>
-      <c r="I42" s="528"/>
-      <c r="J42" s="529"/>
+      <c r="H42" s="521"/>
+      <c r="I42" s="522"/>
+      <c r="J42" s="523"/>
     </row>
     <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="540"/>
-      <c r="B43" s="515" t="str">
+      <c r="A43" s="511"/>
+      <c r="B43" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C43" s="516"/>
-      <c r="D43" s="517"/>
-      <c r="E43" s="541"/>
-      <c r="F43" s="524"/>
-      <c r="G43" s="526"/>
-      <c r="H43" s="530"/>
-      <c r="I43" s="531"/>
-      <c r="J43" s="532"/>
+      <c r="C43" s="528"/>
+      <c r="D43" s="529"/>
+      <c r="E43" s="517"/>
+      <c r="F43" s="518"/>
+      <c r="G43" s="520"/>
+      <c r="H43" s="524"/>
+      <c r="I43" s="525"/>
+      <c r="J43" s="526"/>
     </row>
     <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="519">
+      <c r="A44" s="510">
         <v>1</v>
       </c>
-      <c r="B44" s="537" t="s">
+      <c r="B44" s="512" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="538"/>
-      <c r="D44" s="539"/>
-      <c r="E44" s="521">
+      <c r="C44" s="513"/>
+      <c r="D44" s="514"/>
+      <c r="E44" s="515">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="522"/>
-      <c r="G44" s="525">
+      <c r="F44" s="516"/>
+      <c r="G44" s="519">
         <f>Данные!B27</f>
         <v>24</v>
       </c>
-      <c r="H44" s="527"/>
-      <c r="I44" s="528"/>
-      <c r="J44" s="529"/>
+      <c r="H44" s="521"/>
+      <c r="I44" s="522"/>
+      <c r="J44" s="523"/>
     </row>
     <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="540"/>
-      <c r="B45" s="515" t="str">
+      <c r="A45" s="511"/>
+      <c r="B45" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C45" s="516"/>
-      <c r="D45" s="517"/>
-      <c r="E45" s="541"/>
-      <c r="F45" s="524"/>
-      <c r="G45" s="526"/>
-      <c r="H45" s="530"/>
-      <c r="I45" s="531"/>
-      <c r="J45" s="532"/>
+      <c r="C45" s="528"/>
+      <c r="D45" s="529"/>
+      <c r="E45" s="517"/>
+      <c r="F45" s="518"/>
+      <c r="G45" s="520"/>
+      <c r="H45" s="524"/>
+      <c r="I45" s="525"/>
+      <c r="J45" s="526"/>
     </row>
     <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="519">
+      <c r="A46" s="510">
         <v>1</v>
       </c>
-      <c r="B46" s="537" t="s">
+      <c r="B46" s="512" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="538"/>
-      <c r="D46" s="539"/>
-      <c r="E46" s="521" t="str">
+      <c r="C46" s="513"/>
+      <c r="D46" s="514"/>
+      <c r="E46" s="515" t="str">
         <f>Данные!C24</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F46" s="522"/>
-      <c r="G46" s="525">
+      <c r="F46" s="516"/>
+      <c r="G46" s="519">
         <f>Данные!B24</f>
         <v>9</v>
       </c>
-      <c r="H46" s="527"/>
-      <c r="I46" s="528"/>
-      <c r="J46" s="529"/>
+      <c r="H46" s="521"/>
+      <c r="I46" s="522"/>
+      <c r="J46" s="523"/>
     </row>
     <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="540"/>
-      <c r="B47" s="515" t="str">
+      <c r="A47" s="511"/>
+      <c r="B47" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C47" s="516"/>
-      <c r="D47" s="517"/>
-      <c r="E47" s="541"/>
-      <c r="F47" s="524"/>
-      <c r="G47" s="526"/>
-      <c r="H47" s="530"/>
-      <c r="I47" s="531"/>
-      <c r="J47" s="532"/>
+      <c r="C47" s="528"/>
+      <c r="D47" s="529"/>
+      <c r="E47" s="517"/>
+      <c r="F47" s="518"/>
+      <c r="G47" s="520"/>
+      <c r="H47" s="524"/>
+      <c r="I47" s="525"/>
+      <c r="J47" s="526"/>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="311"/>
@@ -10883,70 +10887,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -10963,6 +10903,70 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11017,47 +11021,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="560"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="562"/>
-      <c r="E2" s="569" t="s">
+      <c r="B2" s="540"/>
+      <c r="C2" s="541"/>
+      <c r="D2" s="542"/>
+      <c r="E2" s="549" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="570"/>
-      <c r="G2" s="570"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="576" t="s">
+      <c r="F2" s="550"/>
+      <c r="G2" s="550"/>
+      <c r="H2" s="551"/>
+      <c r="I2" s="556" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="577"/>
-      <c r="K2" s="580">
+      <c r="J2" s="557"/>
+      <c r="K2" s="560">
         <f>Данные!B14</f>
         <v>26</v>
       </c>
-      <c r="L2" s="581"/>
+      <c r="L2" s="561"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="572"/>
-      <c r="Q2" s="572"/>
+      <c r="P2" s="552"/>
+      <c r="Q2" s="552"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="563"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="573" t="s">
+      <c r="B3" s="543"/>
+      <c r="C3" s="544"/>
+      <c r="D3" s="545"/>
+      <c r="E3" s="553" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="574"/>
-      <c r="G3" s="574"/>
-      <c r="H3" s="575"/>
-      <c r="I3" s="578"/>
-      <c r="J3" s="579"/>
-      <c r="K3" s="582"/>
-      <c r="L3" s="583"/>
+      <c r="F3" s="554"/>
+      <c r="G3" s="554"/>
+      <c r="H3" s="555"/>
+      <c r="I3" s="558"/>
+      <c r="J3" s="559"/>
+      <c r="K3" s="562"/>
+      <c r="L3" s="563"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11068,9 +11072,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="566"/>
-      <c r="C4" s="567"/>
-      <c r="D4" s="568"/>
+      <c r="B4" s="546"/>
+      <c r="C4" s="547"/>
+      <c r="D4" s="548"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11089,10 +11093,10 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="567" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="546"/>
+      <c r="C5" s="568"/>
       <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -11101,8 +11105,8 @@
       <c r="F5" s="495"/>
       <c r="G5" s="495"/>
       <c r="H5" s="496"/>
-      <c r="I5" s="547"/>
-      <c r="J5" s="548"/>
+      <c r="I5" s="569"/>
+      <c r="J5" s="570"/>
       <c r="K5" s="495"/>
       <c r="L5" s="496"/>
       <c r="M5" s="74"/>
@@ -11115,20 +11119,20 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="567" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="549"/>
+      <c r="C6" s="571"/>
       <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="547"/>
-      <c r="J6" s="548"/>
+      <c r="E6" s="572"/>
+      <c r="F6" s="572"/>
+      <c r="G6" s="572"/>
+      <c r="H6" s="573"/>
+      <c r="I6" s="569"/>
+      <c r="J6" s="570"/>
       <c r="K6" s="495"/>
       <c r="L6" s="496"/>
       <c r="M6" s="74"/>
@@ -11141,22 +11145,22 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="574" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="553"/>
+      <c r="C7" s="575"/>
       <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="552" t="s">
+      <c r="E7" s="576"/>
+      <c r="F7" s="576"/>
+      <c r="G7" s="576"/>
+      <c r="H7" s="577"/>
+      <c r="I7" s="574" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="556"/>
+      <c r="J7" s="578"/>
       <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -11655,12 +11659,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="557" t="s">
+      <c r="B23" s="579" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="558"/>
-      <c r="D23" s="558"/>
-      <c r="E23" s="559"/>
+      <c r="C23" s="580"/>
+      <c r="D23" s="580"/>
+      <c r="E23" s="581"/>
       <c r="F23" s="116" t="s">
         <v>16</v>
       </c>
@@ -11682,12 +11686,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="542" t="s">
+      <c r="B24" s="564" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="543"/>
-      <c r="D24" s="543"/>
-      <c r="E24" s="544"/>
+      <c r="C24" s="565"/>
+      <c r="D24" s="565"/>
+      <c r="E24" s="566"/>
       <c r="F24" s="116" t="s">
         <v>16</v>
       </c>
@@ -11731,12 +11735,6 @@
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -11751,6 +11749,12 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -11816,50 +11820,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="591">
+      <c r="B2" s="582">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="C2" s="583"/>
+      <c r="D2" s="584"/>
+      <c r="E2" s="591" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="592"/>
+      <c r="G2" s="592"/>
+      <c r="H2" s="593"/>
+      <c r="I2" s="597" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="598"/>
+      <c r="K2" s="601">
         <f>Данные!B15</f>
         <v>26</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="602"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="572"/>
-      <c r="Q2" s="572"/>
+      <c r="P2" s="552"/>
+      <c r="Q2" s="552"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="585"/>
+      <c r="C3" s="586"/>
+      <c r="D3" s="587"/>
+      <c r="E3" s="594" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="595"/>
+      <c r="G3" s="595"/>
+      <c r="H3" s="596"/>
+      <c r="I3" s="599"/>
+      <c r="J3" s="600"/>
+      <c r="K3" s="603"/>
+      <c r="L3" s="604"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11870,9 +11874,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="588"/>
+      <c r="C4" s="589"/>
+      <c r="D4" s="590"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -11891,10 +11895,10 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="567" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
+      <c r="C5" s="605"/>
       <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -11903,9 +11907,9 @@
       <c r="F5" s="495"/>
       <c r="G5" s="495"/>
       <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
+      <c r="I5" s="606"/>
+      <c r="J5" s="607"/>
+      <c r="K5" s="608"/>
       <c r="L5" s="496"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
@@ -11917,21 +11921,21 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="567" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
+      <c r="C6" s="605"/>
       <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
+      <c r="E6" s="572"/>
+      <c r="F6" s="572"/>
+      <c r="G6" s="572"/>
+      <c r="H6" s="573"/>
+      <c r="I6" s="606"/>
+      <c r="J6" s="607"/>
+      <c r="K6" s="608"/>
       <c r="L6" s="496"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
@@ -11943,22 +11947,22 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="574" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
+      <c r="C7" s="609"/>
       <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="576"/>
+      <c r="F7" s="576"/>
+      <c r="G7" s="576"/>
+      <c r="H7" s="577"/>
+      <c r="I7" s="610" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
+      <c r="J7" s="609"/>
       <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -12160,13 +12164,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="557" t="s">
+      <c r="B14" s="579" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="558"/>
-      <c r="D14" s="558"/>
-      <c r="E14" s="558"/>
-      <c r="F14" s="590"/>
+      <c r="C14" s="580"/>
+      <c r="D14" s="580"/>
+      <c r="E14" s="580"/>
+      <c r="F14" s="611"/>
       <c r="G14" s="56" t="s">
         <v>77</v>
       </c>
@@ -12185,12 +12189,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78"/>
-      <c r="B15" s="542" t="s">
+      <c r="B15" s="564" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="543"/>
-      <c r="D15" s="543"/>
-      <c r="E15" s="544"/>
+      <c r="C15" s="565"/>
+      <c r="D15" s="565"/>
+      <c r="E15" s="566"/>
       <c r="F15" s="116" t="s">
         <v>16</v>
       </c>
@@ -12241,12 +12245,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12261,6 +12259,12 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12334,47 +12338,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="560"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="562"/>
-      <c r="E2" s="569" t="s">
+      <c r="B2" s="540"/>
+      <c r="C2" s="541"/>
+      <c r="D2" s="542"/>
+      <c r="E2" s="549" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="570"/>
-      <c r="G2" s="570"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="576" t="s">
+      <c r="F2" s="550"/>
+      <c r="G2" s="550"/>
+      <c r="H2" s="551"/>
+      <c r="I2" s="556" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="577"/>
-      <c r="K2" s="580">
+      <c r="J2" s="557"/>
+      <c r="K2" s="560">
         <f>Данные!B16</f>
         <v>30</v>
       </c>
-      <c r="L2" s="581"/>
+      <c r="L2" s="561"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="572"/>
-      <c r="Q2" s="572"/>
+      <c r="P2" s="552"/>
+      <c r="Q2" s="552"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="563"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="573" t="s">
+      <c r="B3" s="543"/>
+      <c r="C3" s="544"/>
+      <c r="D3" s="545"/>
+      <c r="E3" s="553" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="574"/>
-      <c r="G3" s="574"/>
-      <c r="H3" s="575"/>
-      <c r="I3" s="578"/>
-      <c r="J3" s="579"/>
-      <c r="K3" s="582"/>
-      <c r="L3" s="583"/>
+      <c r="F3" s="554"/>
+      <c r="G3" s="554"/>
+      <c r="H3" s="555"/>
+      <c r="I3" s="558"/>
+      <c r="J3" s="559"/>
+      <c r="K3" s="562"/>
+      <c r="L3" s="563"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12385,9 +12389,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="566"/>
-      <c r="C4" s="567"/>
-      <c r="D4" s="568"/>
+      <c r="B4" s="546"/>
+      <c r="C4" s="547"/>
+      <c r="D4" s="548"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12406,10 +12410,10 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="567" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="546"/>
+      <c r="C5" s="568"/>
       <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -12418,8 +12422,8 @@
       <c r="F5" s="495"/>
       <c r="G5" s="495"/>
       <c r="H5" s="496"/>
-      <c r="I5" s="547"/>
-      <c r="J5" s="548"/>
+      <c r="I5" s="569"/>
+      <c r="J5" s="570"/>
       <c r="K5" s="495"/>
       <c r="L5" s="496"/>
       <c r="M5" s="74"/>
@@ -12432,20 +12436,20 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="567" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="549"/>
+      <c r="C6" s="571"/>
       <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="547"/>
-      <c r="J6" s="548"/>
+      <c r="E6" s="572"/>
+      <c r="F6" s="572"/>
+      <c r="G6" s="572"/>
+      <c r="H6" s="573"/>
+      <c r="I6" s="569"/>
+      <c r="J6" s="570"/>
       <c r="K6" s="495"/>
       <c r="L6" s="496"/>
       <c r="M6" s="74"/>
@@ -12458,22 +12462,22 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="574" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="553"/>
+      <c r="C7" s="575"/>
       <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="552" t="s">
+      <c r="E7" s="576"/>
+      <c r="F7" s="576"/>
+      <c r="G7" s="576"/>
+      <c r="H7" s="577"/>
+      <c r="I7" s="574" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="556"/>
+      <c r="J7" s="578"/>
       <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -12961,6 +12965,8 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
@@ -12977,8 +12983,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -13046,47 +13050,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="560"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="562"/>
-      <c r="E2" s="569" t="s">
+      <c r="B2" s="540"/>
+      <c r="C2" s="541"/>
+      <c r="D2" s="542"/>
+      <c r="E2" s="549" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="570"/>
-      <c r="G2" s="570"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="576" t="s">
+      <c r="F2" s="550"/>
+      <c r="G2" s="550"/>
+      <c r="H2" s="551"/>
+      <c r="I2" s="556" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="577"/>
-      <c r="K2" s="580">
+      <c r="J2" s="557"/>
+      <c r="K2" s="560">
         <f>Данные!B17</f>
         <v>30</v>
       </c>
-      <c r="L2" s="581"/>
+      <c r="L2" s="561"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="614"/>
-      <c r="Q2" s="614"/>
+      <c r="P2" s="612"/>
+      <c r="Q2" s="612"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="563"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="573" t="s">
+      <c r="B3" s="543"/>
+      <c r="C3" s="544"/>
+      <c r="D3" s="545"/>
+      <c r="E3" s="553" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="574"/>
-      <c r="G3" s="574"/>
-      <c r="H3" s="575"/>
-      <c r="I3" s="578"/>
-      <c r="J3" s="579"/>
-      <c r="K3" s="582"/>
-      <c r="L3" s="583"/>
+      <c r="F3" s="554"/>
+      <c r="G3" s="554"/>
+      <c r="H3" s="555"/>
+      <c r="I3" s="558"/>
+      <c r="J3" s="559"/>
+      <c r="K3" s="562"/>
+      <c r="L3" s="563"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13097,9 +13101,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="566"/>
-      <c r="C4" s="567"/>
-      <c r="D4" s="568"/>
+      <c r="B4" s="546"/>
+      <c r="C4" s="547"/>
+      <c r="D4" s="548"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13118,10 +13122,10 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="567" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="546"/>
+      <c r="C5" s="568"/>
       <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -13130,8 +13134,8 @@
       <c r="F5" s="495"/>
       <c r="G5" s="495"/>
       <c r="H5" s="496"/>
-      <c r="I5" s="547"/>
-      <c r="J5" s="548"/>
+      <c r="I5" s="569"/>
+      <c r="J5" s="570"/>
       <c r="K5" s="495"/>
       <c r="L5" s="496"/>
       <c r="M5" s="21"/>
@@ -13144,20 +13148,20 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="567" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="549"/>
+      <c r="C6" s="571"/>
       <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="547"/>
-      <c r="J6" s="548"/>
+      <c r="E6" s="572"/>
+      <c r="F6" s="572"/>
+      <c r="G6" s="572"/>
+      <c r="H6" s="573"/>
+      <c r="I6" s="569"/>
+      <c r="J6" s="570"/>
       <c r="K6" s="495"/>
       <c r="L6" s="496"/>
       <c r="M6" s="21"/>
@@ -13170,22 +13174,22 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="574" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="553"/>
+      <c r="C7" s="575"/>
       <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="552" t="s">
+      <c r="E7" s="576"/>
+      <c r="F7" s="576"/>
+      <c r="G7" s="576"/>
+      <c r="H7" s="577"/>
+      <c r="I7" s="574" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="556"/>
+      <c r="J7" s="578"/>
       <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -13475,17 +13479,6 @@
     <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -13493,6 +13486,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13564,60 +13568,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="582"/>
+      <c r="C2" s="583"/>
+      <c r="D2" s="584"/>
+      <c r="E2" s="591" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="592"/>
+      <c r="G2" s="592"/>
+      <c r="H2" s="593"/>
+      <c r="I2" s="597" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="598"/>
+      <c r="K2" s="601">
         <f>Данные!B18</f>
         <v>70</v>
       </c>
-      <c r="L2" s="611"/>
-      <c r="M2" s="615"/>
-      <c r="N2" s="616"/>
-      <c r="O2" s="616"/>
-      <c r="P2" s="616"/>
-      <c r="Q2" s="616"/>
-      <c r="R2" s="617"/>
+      <c r="L2" s="602"/>
+      <c r="M2" s="613"/>
+      <c r="N2" s="614"/>
+      <c r="O2" s="614"/>
+      <c r="P2" s="614"/>
+      <c r="Q2" s="614"/>
+      <c r="R2" s="615"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="585"/>
+      <c r="C3" s="586"/>
+      <c r="D3" s="587"/>
+      <c r="E3" s="594" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
-      <c r="M3" s="618"/>
-      <c r="N3" s="619"/>
-      <c r="O3" s="619"/>
-      <c r="P3" s="619"/>
-      <c r="Q3" s="619"/>
-      <c r="R3" s="620"/>
+      <c r="F3" s="595"/>
+      <c r="G3" s="595"/>
+      <c r="H3" s="596"/>
+      <c r="I3" s="599"/>
+      <c r="J3" s="600"/>
+      <c r="K3" s="603"/>
+      <c r="L3" s="604"/>
+      <c r="M3" s="616"/>
+      <c r="N3" s="617"/>
+      <c r="O3" s="617"/>
+      <c r="P3" s="617"/>
+      <c r="Q3" s="617"/>
+      <c r="R3" s="618"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="588"/>
+      <c r="C4" s="589"/>
+      <c r="D4" s="590"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -13626,20 +13630,20 @@
       <c r="J4" s="249"/>
       <c r="K4" s="252"/>
       <c r="L4" s="253"/>
-      <c r="M4" s="618"/>
-      <c r="N4" s="619"/>
-      <c r="O4" s="619"/>
-      <c r="P4" s="619"/>
-      <c r="Q4" s="619"/>
-      <c r="R4" s="620"/>
+      <c r="M4" s="616"/>
+      <c r="N4" s="617"/>
+      <c r="O4" s="617"/>
+      <c r="P4" s="617"/>
+      <c r="Q4" s="617"/>
+      <c r="R4" s="618"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="567" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
+      <c r="C5" s="605"/>
       <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -13648,73 +13652,73 @@
       <c r="F5" s="495"/>
       <c r="G5" s="495"/>
       <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
+      <c r="I5" s="606"/>
+      <c r="J5" s="607"/>
+      <c r="K5" s="608"/>
       <c r="L5" s="496"/>
-      <c r="M5" s="618"/>
-      <c r="N5" s="619"/>
-      <c r="O5" s="619"/>
-      <c r="P5" s="619"/>
-      <c r="Q5" s="619"/>
-      <c r="R5" s="620"/>
+      <c r="M5" s="616"/>
+      <c r="N5" s="617"/>
+      <c r="O5" s="617"/>
+      <c r="P5" s="617"/>
+      <c r="Q5" s="617"/>
+      <c r="R5" s="618"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="567" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
+      <c r="C6" s="605"/>
       <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
+      <c r="E6" s="572"/>
+      <c r="F6" s="572"/>
+      <c r="G6" s="572"/>
+      <c r="H6" s="573"/>
+      <c r="I6" s="606"/>
+      <c r="J6" s="607"/>
+      <c r="K6" s="608"/>
       <c r="L6" s="496"/>
-      <c r="M6" s="618"/>
-      <c r="N6" s="619"/>
-      <c r="O6" s="619"/>
-      <c r="P6" s="619"/>
-      <c r="Q6" s="619"/>
-      <c r="R6" s="620"/>
+      <c r="M6" s="616"/>
+      <c r="N6" s="617"/>
+      <c r="O6" s="617"/>
+      <c r="P6" s="617"/>
+      <c r="Q6" s="617"/>
+      <c r="R6" s="618"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="574" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
+      <c r="C7" s="609"/>
       <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="576"/>
+      <c r="F7" s="576"/>
+      <c r="G7" s="576"/>
+      <c r="H7" s="577"/>
+      <c r="I7" s="610" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
+      <c r="J7" s="609"/>
       <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
       <c r="L7" s="486"/>
-      <c r="M7" s="618"/>
-      <c r="N7" s="619"/>
-      <c r="O7" s="619"/>
-      <c r="P7" s="619"/>
-      <c r="Q7" s="619"/>
-      <c r="R7" s="620"/>
+      <c r="M7" s="616"/>
+      <c r="N7" s="617"/>
+      <c r="O7" s="617"/>
+      <c r="P7" s="617"/>
+      <c r="Q7" s="617"/>
+      <c r="R7" s="618"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14103,12 +14107,12 @@
     </row>
     <row r="20" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78"/>
-      <c r="B20" s="542" t="s">
+      <c r="B20" s="564" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="543"/>
-      <c r="D20" s="543"/>
-      <c r="E20" s="544"/>
+      <c r="C20" s="565"/>
+      <c r="D20" s="565"/>
+      <c r="E20" s="566"/>
       <c r="F20" s="116" t="s">
         <v>16</v>
       </c>
@@ -14154,6 +14158,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -14166,13 +14177,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -14237,47 +14241,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="582"/>
+      <c r="C2" s="583"/>
+      <c r="D2" s="584"/>
+      <c r="E2" s="591" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="592"/>
+      <c r="G2" s="592"/>
+      <c r="H2" s="593"/>
+      <c r="I2" s="597" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="598"/>
+      <c r="K2" s="601">
         <f>Данные!B19</f>
         <v>70</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="602"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="621"/>
-      <c r="Q2" s="621"/>
+      <c r="P2" s="619"/>
+      <c r="Q2" s="619"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="585"/>
+      <c r="C3" s="586"/>
+      <c r="D3" s="587"/>
+      <c r="E3" s="594" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="595"/>
+      <c r="G3" s="595"/>
+      <c r="H3" s="596"/>
+      <c r="I3" s="599"/>
+      <c r="J3" s="600"/>
+      <c r="K3" s="603"/>
+      <c r="L3" s="604"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14288,9 +14292,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="588"/>
+      <c r="C4" s="589"/>
+      <c r="D4" s="590"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -14309,10 +14313,10 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="567" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
+      <c r="C5" s="605"/>
       <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -14321,9 +14325,9 @@
       <c r="F5" s="495"/>
       <c r="G5" s="495"/>
       <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
+      <c r="I5" s="606"/>
+      <c r="J5" s="607"/>
+      <c r="K5" s="608"/>
       <c r="L5" s="496"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
@@ -14335,21 +14339,21 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="567" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
+      <c r="C6" s="605"/>
       <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
+      <c r="E6" s="572"/>
+      <c r="F6" s="572"/>
+      <c r="G6" s="572"/>
+      <c r="H6" s="573"/>
+      <c r="I6" s="606"/>
+      <c r="J6" s="607"/>
+      <c r="K6" s="608"/>
       <c r="L6" s="496"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
@@ -14361,22 +14365,22 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="574" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
+      <c r="C7" s="609"/>
       <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="576"/>
+      <c r="F7" s="576"/>
+      <c r="G7" s="576"/>
+      <c r="H7" s="577"/>
+      <c r="I7" s="610" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
+      <c r="J7" s="609"/>
       <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -14644,12 +14648,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="542" t="s">
+      <c r="B16" s="564" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="543"/>
-      <c r="D16" s="543"/>
-      <c r="E16" s="544"/>
+      <c r="C16" s="565"/>
+      <c r="D16" s="565"/>
+      <c r="E16" s="566"/>
       <c r="F16" s="259" t="s">
         <v>16</v>
       </c>
@@ -14695,6 +14699,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -14705,15 +14718,6 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-30-1-500-7 (Каласы)/от 23.10.2019 Каласы.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-30-1-500-7 (Каласы)/от 23.10.2019 Каласы.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-КПМ-30-1-500-7 (Каласы)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AAF4F2-9E5F-4A0E-BEC9-7CEB326595F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -39,7 +40,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Чист.  поддон'!$A$1:$S$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист. форма'!$A$1:$S$25</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -469,13 +477,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="58" x14ac:knownFonts="1">
     <font>
@@ -2152,7 +2160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="633">
@@ -3355,7 +3363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3370,7 +3378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3432,25 +3440,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3462,11 +3470,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3476,7 +3484,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3490,11 +3498,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
@@ -3504,13 +3512,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="98" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="98" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3523,7 +3531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3539,11 +3547,11 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3589,189 +3597,123 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3823,73 +3765,76 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3913,6 +3858,75 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3939,22 +3953,25 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3966,21 +3983,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Процентный" xfId="4" builtinId="5"/>
     <cellStyle name="Финансовый" xfId="3" builtinId="3"/>
   </cellStyles>
@@ -4270,7 +4278,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4316,7 +4330,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4361,7 +4381,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Прямая соединительная линия 9"/>
+        <xdr:cNvPr id="10" name="Прямая соединительная линия 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4405,7 +4431,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4454,7 +4486,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1"/>
+        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4500,7 +4538,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4544,7 +4588,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4588,7 +4638,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4637,7 +4693,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4683,7 +4745,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4727,7 +4795,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4771,7 +4845,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4820,7 +4900,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4866,7 +4952,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4910,7 +5002,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4954,7 +5052,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5003,7 +5107,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG"/>
+        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5049,7 +5159,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5093,7 +5209,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5137,7 +5259,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5186,7 +5314,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5232,7 +5366,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5281,7 +5421,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)"/>
+        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5327,7 +5473,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5376,7 +5528,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif"/>
+        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5422,7 +5580,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5466,7 +5630,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5510,7 +5680,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5559,7 +5735,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE"/>
+        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5605,7 +5787,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5649,7 +5837,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5693,7 +5887,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5742,7 +5942,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD"/>
+        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5788,7 +5994,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5832,7 +6044,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5876,7 +6094,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6084,6 +6308,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6119,6 +6360,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -6294,22 +6552,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="487" t="s">
         <v>82</v>
       </c>
@@ -6321,7 +6579,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="488" t="s">
         <v>110</v>
       </c>
@@ -6333,12 +6591,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="G3" s="370" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="492" t="s">
         <v>83</v>
       </c>
@@ -6347,7 +6605,7 @@
       <c r="D4" s="493"/>
       <c r="E4" s="493"/>
     </row>
-    <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="494" t="s">
         <v>87</v>
       </c>
@@ -6356,8 +6614,8 @@
       <c r="D5" s="495"/>
       <c r="E5" s="496"/>
     </row>
-    <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="487" t="s">
         <v>84</v>
       </c>
@@ -6366,14 +6624,14 @@
       <c r="D7" s="491"/>
       <c r="E7" s="491"/>
     </row>
-    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="497"/>
       <c r="B8" s="498"/>
       <c r="C8" s="498"/>
       <c r="D8" s="498"/>
       <c r="E8" s="499"/>
     </row>
-    <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="487" t="s">
         <v>85</v>
       </c>
@@ -6387,36 +6645,36 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="485"/>
       <c r="B11" s="486"/>
       <c r="D11" s="379">
         <v>43761</v>
       </c>
-      <c r="F11" s="482" t="s">
+      <c r="F11" s="500" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="482"/>
-      <c r="H11" s="482"/>
-      <c r="I11" s="482"/>
-      <c r="J11" s="483" t="s">
+      <c r="G11" s="500"/>
+      <c r="H11" s="500"/>
+      <c r="I11" s="500"/>
+      <c r="J11" s="501" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="483"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="482" t="s">
+      <c r="K11" s="501"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F12" s="500" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="482"/>
-      <c r="H12" s="482"/>
-      <c r="I12" s="482"/>
-      <c r="J12" s="483" t="s">
+      <c r="G12" s="500"/>
+      <c r="H12" s="500"/>
+      <c r="I12" s="500"/>
+      <c r="J12" s="501" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="483"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="501"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="373" t="s">
         <v>88</v>
       </c>
@@ -6426,18 +6684,18 @@
       <c r="C13" s="384" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="482" t="s">
+      <c r="F13" s="500" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="482"/>
-      <c r="H13" s="482"/>
-      <c r="I13" s="482"/>
-      <c r="J13" s="483" t="s">
+      <c r="G13" s="500"/>
+      <c r="H13" s="500"/>
+      <c r="I13" s="500"/>
+      <c r="J13" s="501" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="483"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="501"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="375" t="s">
         <v>43</v>
       </c>
@@ -6448,7 +6706,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="375" t="s">
         <v>44</v>
       </c>
@@ -6459,7 +6717,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="375" t="s">
         <v>38</v>
       </c>
@@ -6470,7 +6728,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="375" t="s">
         <v>23</v>
       </c>
@@ -6481,7 +6739,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="375" t="s">
         <v>47</v>
       </c>
@@ -6492,7 +6750,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="375" t="s">
         <v>90</v>
       </c>
@@ -6503,7 +6761,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="375" t="s">
         <v>51</v>
       </c>
@@ -6514,7 +6772,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="375" t="s">
         <v>53</v>
       </c>
@@ -6525,7 +6783,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="375" t="s">
         <v>91</v>
       </c>
@@ -6534,7 +6792,7 @@
       </c>
       <c r="C22" s="382"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="375" t="s">
         <v>56</v>
       </c>
@@ -6545,7 +6803,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="375" t="s">
         <v>70</v>
       </c>
@@ -6556,7 +6814,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="375" t="s">
         <v>92</v>
       </c>
@@ -6565,7 +6823,7 @@
       </c>
       <c r="C25" s="382"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="377" t="s">
         <v>55</v>
       </c>
@@ -6576,7 +6834,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="377" t="s">
         <v>106</v>
       </c>
@@ -6585,23 +6843,29 @@
       </c>
       <c r="C27" s="385"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="381"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="484" t="s">
         <v>107</v>
       </c>
       <c r="B29" s="484"/>
       <c r="C29" s="484"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -6611,12 +6875,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -6624,7 +6882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -6634,20 +6892,20 @@
       <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="169" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="169" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="169" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="169" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="169" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="169" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="169" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="169" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="169" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="169" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="169" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="169" customWidth="1"/>
     <col min="8" max="18" width="9" style="169" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="169" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="169"/>
+    <col min="19" max="19" width="1.42578125" style="169" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="169"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="165"/>
       <c r="B1" s="166"/>
       <c r="C1" s="167"/>
@@ -6668,49 +6926,49 @@
       <c r="R1" s="167"/>
       <c r="S1" s="168"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="170"/>
-      <c r="B2" s="582"/>
-      <c r="C2" s="583"/>
-      <c r="D2" s="584"/>
-      <c r="E2" s="591" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="592"/>
-      <c r="G2" s="592"/>
-      <c r="H2" s="593"/>
-      <c r="I2" s="597" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="598"/>
-      <c r="K2" s="601">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="L2" s="602"/>
+      <c r="L2" s="611"/>
       <c r="M2" s="171"/>
       <c r="N2" s="172"/>
       <c r="O2" s="173"/>
-      <c r="P2" s="620"/>
-      <c r="Q2" s="620"/>
+      <c r="P2" s="622"/>
+      <c r="Q2" s="622"/>
       <c r="R2" s="174"/>
       <c r="S2" s="175"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="170"/>
-      <c r="B3" s="585"/>
-      <c r="C3" s="586"/>
-      <c r="D3" s="587"/>
-      <c r="E3" s="594" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="595"/>
-      <c r="G3" s="595"/>
-      <c r="H3" s="596"/>
-      <c r="I3" s="599"/>
-      <c r="J3" s="600"/>
-      <c r="K3" s="603"/>
-      <c r="L3" s="604"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
       <c r="M3" s="176"/>
       <c r="N3" s="177"/>
       <c r="O3" s="177"/>
@@ -6719,11 +6977,11 @@
       <c r="R3" s="178"/>
       <c r="S3" s="175"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="170"/>
-      <c r="B4" s="588"/>
-      <c r="C4" s="589"/>
-      <c r="D4" s="590"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -6740,12 +6998,12 @@
       <c r="R4" s="178"/>
       <c r="S4" s="175"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="170"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="605"/>
+      <c r="C5" s="584"/>
       <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -6754,9 +7012,9 @@
       <c r="F5" s="495"/>
       <c r="G5" s="495"/>
       <c r="H5" s="496"/>
-      <c r="I5" s="606"/>
-      <c r="J5" s="607"/>
-      <c r="K5" s="608"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
       <c r="L5" s="496"/>
       <c r="M5" s="179"/>
       <c r="N5" s="177"/>
@@ -6766,23 +7024,23 @@
       <c r="R5" s="178"/>
       <c r="S5" s="175"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="170"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="605"/>
+      <c r="C6" s="584"/>
       <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="606"/>
-      <c r="J6" s="607"/>
-      <c r="K6" s="608"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
       <c r="L6" s="496"/>
       <c r="M6" s="176"/>
       <c r="N6" s="177"/>
@@ -6792,24 +7050,24 @@
       <c r="R6" s="178"/>
       <c r="S6" s="175"/>
     </row>
-    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="170"/>
-      <c r="B7" s="574" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="609"/>
+      <c r="C7" s="588"/>
       <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="576"/>
-      <c r="F7" s="576"/>
-      <c r="G7" s="576"/>
-      <c r="H7" s="577"/>
-      <c r="I7" s="610" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="609"/>
+      <c r="J7" s="588"/>
       <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -6823,7 +7081,7 @@
       <c r="R7" s="178"/>
       <c r="S7" s="175"/>
     </row>
-    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="180"/>
       <c r="B8" s="181"/>
       <c r="C8" s="182"/>
@@ -6844,7 +7102,7 @@
       <c r="R8" s="185"/>
       <c r="S8" s="186"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="187"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -6877,7 +7135,7 @@
       <c r="R9" s="346"/>
       <c r="S9" s="202"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="180"/>
       <c r="B10" s="189" t="s">
         <v>25</v>
@@ -6912,7 +7170,7 @@
       <c r="R10" s="348"/>
       <c r="S10" s="186"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="180"/>
       <c r="B11" s="191" t="s">
         <v>26</v>
@@ -6945,7 +7203,7 @@
       <c r="R11" s="350"/>
       <c r="S11" s="186"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="180"/>
       <c r="B12" s="191" t="s">
         <v>2</v>
@@ -6978,7 +7236,7 @@
       <c r="R12" s="350"/>
       <c r="S12" s="186"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="180"/>
       <c r="B13" s="191" t="s">
         <v>3</v>
@@ -7011,7 +7269,7 @@
       <c r="R13" s="350"/>
       <c r="S13" s="186"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="180"/>
       <c r="B14" s="191" t="s">
         <v>27</v>
@@ -7044,7 +7302,7 @@
       <c r="R14" s="350"/>
       <c r="S14" s="186"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="180"/>
       <c r="B15" s="191" t="s">
         <v>28</v>
@@ -7077,7 +7335,7 @@
       <c r="R15" s="350"/>
       <c r="S15" s="186"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="180"/>
       <c r="B16" s="191" t="s">
         <v>4</v>
@@ -7110,7 +7368,7 @@
       <c r="R16" s="350"/>
       <c r="S16" s="186"/>
     </row>
-    <row r="17" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A17" s="180"/>
       <c r="B17" s="191" t="s">
         <v>9</v>
@@ -7143,7 +7401,7 @@
       <c r="R17" s="350"/>
       <c r="S17" s="186"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="180"/>
       <c r="B18" s="191" t="s">
         <v>5</v>
@@ -7176,7 +7434,7 @@
       <c r="R18" s="350"/>
       <c r="S18" s="186"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="193"/>
       <c r="B19" s="194"/>
       <c r="C19" s="194"/>
@@ -7197,20 +7455,9 @@
       <c r="R19" s="194"/>
       <c r="S19" s="196"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7218,6 +7465,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -7237,7 +7495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -7247,20 +7505,20 @@
       <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="208" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="208" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="208" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="208" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="208" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="208" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="208" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="208" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="208" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="208" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="208" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="208" customWidth="1"/>
     <col min="8" max="18" width="9" style="208" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="208" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="208"/>
+    <col min="19" max="19" width="1.42578125" style="208" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="208"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="204"/>
       <c r="B1" s="205"/>
       <c r="C1" s="206"/>
@@ -7281,49 +7539,49 @@
       <c r="R1" s="206"/>
       <c r="S1" s="207"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="209"/>
-      <c r="B2" s="582"/>
-      <c r="C2" s="583"/>
-      <c r="D2" s="584"/>
-      <c r="E2" s="591" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="592"/>
-      <c r="G2" s="592"/>
-      <c r="H2" s="593"/>
-      <c r="I2" s="597" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="598"/>
-      <c r="K2" s="601">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="L2" s="602"/>
+      <c r="L2" s="611"/>
       <c r="M2" s="210"/>
       <c r="N2" s="211"/>
       <c r="O2" s="212"/>
-      <c r="P2" s="621"/>
-      <c r="Q2" s="621"/>
+      <c r="P2" s="626"/>
+      <c r="Q2" s="626"/>
       <c r="R2" s="213"/>
       <c r="S2" s="214"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="209"/>
-      <c r="B3" s="585"/>
-      <c r="C3" s="586"/>
-      <c r="D3" s="587"/>
-      <c r="E3" s="594" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="595"/>
-      <c r="G3" s="595"/>
-      <c r="H3" s="596"/>
-      <c r="I3" s="599"/>
-      <c r="J3" s="600"/>
-      <c r="K3" s="603"/>
-      <c r="L3" s="604"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
       <c r="M3" s="215"/>
       <c r="N3" s="216"/>
       <c r="O3" s="216"/>
@@ -7332,11 +7590,11 @@
       <c r="R3" s="217"/>
       <c r="S3" s="214"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="209"/>
-      <c r="B4" s="588"/>
-      <c r="C4" s="589"/>
-      <c r="D4" s="590"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7353,12 +7611,12 @@
       <c r="R4" s="217"/>
       <c r="S4" s="214"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="209"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="605"/>
+      <c r="C5" s="584"/>
       <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -7367,9 +7625,9 @@
       <c r="F5" s="495"/>
       <c r="G5" s="495"/>
       <c r="H5" s="496"/>
-      <c r="I5" s="606"/>
-      <c r="J5" s="607"/>
-      <c r="K5" s="608"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
       <c r="L5" s="496"/>
       <c r="M5" s="218"/>
       <c r="N5" s="216"/>
@@ -7379,23 +7637,23 @@
       <c r="R5" s="217"/>
       <c r="S5" s="214"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="209"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="605"/>
+      <c r="C6" s="584"/>
       <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="606"/>
-      <c r="J6" s="607"/>
-      <c r="K6" s="608"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
       <c r="L6" s="496"/>
       <c r="M6" s="215"/>
       <c r="N6" s="216"/>
@@ -7405,24 +7663,24 @@
       <c r="R6" s="217"/>
       <c r="S6" s="214"/>
     </row>
-    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="209"/>
-      <c r="B7" s="574" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="609"/>
+      <c r="C7" s="588"/>
       <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="576"/>
-      <c r="F7" s="576"/>
-      <c r="G7" s="576"/>
-      <c r="H7" s="577"/>
-      <c r="I7" s="610" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="609"/>
+      <c r="J7" s="588"/>
       <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -7436,7 +7694,7 @@
       <c r="R7" s="217"/>
       <c r="S7" s="214"/>
     </row>
-    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="219"/>
       <c r="B8" s="220"/>
       <c r="C8" s="221"/>
@@ -7457,7 +7715,7 @@
       <c r="R8" s="224"/>
       <c r="S8" s="225"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="226"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -7490,7 +7748,7 @@
       <c r="R9" s="228"/>
       <c r="S9" s="229"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="219"/>
       <c r="B10" s="230" t="s">
         <v>25</v>
@@ -7523,7 +7781,7 @@
       <c r="R10" s="234"/>
       <c r="S10" s="225"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="219"/>
       <c r="B11" s="235" t="s">
         <v>26</v>
@@ -7556,7 +7814,7 @@
       <c r="R11" s="239"/>
       <c r="S11" s="225"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="219"/>
       <c r="B12" s="235" t="s">
         <v>2</v>
@@ -7589,7 +7847,7 @@
       <c r="R12" s="239"/>
       <c r="S12" s="225"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="219"/>
       <c r="B13" s="235" t="s">
         <v>3</v>
@@ -7622,7 +7880,7 @@
       <c r="R13" s="239"/>
       <c r="S13" s="225"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="219"/>
       <c r="B14" s="235" t="s">
         <v>27</v>
@@ -7655,7 +7913,7 @@
       <c r="R14" s="239"/>
       <c r="S14" s="225"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="219"/>
       <c r="B15" s="235" t="s">
         <v>28</v>
@@ -7688,7 +7946,7 @@
       <c r="R15" s="239"/>
       <c r="S15" s="225"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="219"/>
       <c r="B16" s="235" t="s">
         <v>9</v>
@@ -7721,7 +7979,7 @@
       <c r="R16" s="239"/>
       <c r="S16" s="225"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="219"/>
       <c r="B17" s="235" t="s">
         <v>5</v>
@@ -7754,14 +8012,14 @@
       <c r="R17" s="239"/>
       <c r="S17" s="225"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="219"/>
-      <c r="B18" s="622" t="s">
+      <c r="B18" s="623" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="623"/>
-      <c r="D18" s="623"/>
-      <c r="E18" s="624"/>
+      <c r="C18" s="624"/>
+      <c r="D18" s="624"/>
+      <c r="E18" s="625"/>
       <c r="F18" s="116" t="s">
         <v>16</v>
       </c>
@@ -7781,7 +8039,7 @@
       <c r="R18" s="243"/>
       <c r="S18" s="225"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="244"/>
       <c r="B19" s="245"/>
       <c r="C19" s="245"/>
@@ -7802,9 +8060,17 @@
       <c r="R19" s="245"/>
       <c r="S19" s="247"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -7816,14 +8082,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -7863,7 +8121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -7873,20 +8131,20 @@
       <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -7907,49 +8165,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="133"/>
-      <c r="B2" s="582"/>
-      <c r="C2" s="583"/>
-      <c r="D2" s="584"/>
-      <c r="E2" s="591" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="592"/>
-      <c r="G2" s="592"/>
-      <c r="H2" s="593"/>
-      <c r="I2" s="597" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="598"/>
-      <c r="K2" s="601">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B26</f>
         <v>24</v>
       </c>
-      <c r="L2" s="602"/>
+      <c r="L2" s="611"/>
       <c r="M2" s="134"/>
       <c r="N2" s="135"/>
       <c r="O2" s="136"/>
-      <c r="P2" s="625"/>
-      <c r="Q2" s="625"/>
+      <c r="P2" s="627"/>
+      <c r="Q2" s="627"/>
       <c r="R2" s="137"/>
       <c r="S2" s="138"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="133"/>
-      <c r="B3" s="585"/>
-      <c r="C3" s="586"/>
-      <c r="D3" s="587"/>
-      <c r="E3" s="594" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="595"/>
-      <c r="G3" s="595"/>
-      <c r="H3" s="596"/>
-      <c r="I3" s="599"/>
-      <c r="J3" s="600"/>
-      <c r="K3" s="603"/>
-      <c r="L3" s="604"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
       <c r="M3" s="139"/>
       <c r="N3" s="140"/>
       <c r="O3" s="140"/>
@@ -7958,11 +8216,11 @@
       <c r="R3" s="141"/>
       <c r="S3" s="138"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="133"/>
-      <c r="B4" s="588"/>
-      <c r="C4" s="589"/>
-      <c r="D4" s="590"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7979,12 +8237,12 @@
       <c r="R4" s="141"/>
       <c r="S4" s="138"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="133"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="605"/>
+      <c r="C5" s="584"/>
       <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -7993,9 +8251,9 @@
       <c r="F5" s="495"/>
       <c r="G5" s="495"/>
       <c r="H5" s="496"/>
-      <c r="I5" s="606"/>
-      <c r="J5" s="607"/>
-      <c r="K5" s="608"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
       <c r="L5" s="496"/>
       <c r="M5" s="142"/>
       <c r="N5" s="140"/>
@@ -8005,23 +8263,23 @@
       <c r="R5" s="141"/>
       <c r="S5" s="138"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="133"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="605"/>
+      <c r="C6" s="584"/>
       <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="606"/>
-      <c r="J6" s="607"/>
-      <c r="K6" s="608"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
       <c r="L6" s="496"/>
       <c r="M6" s="139"/>
       <c r="N6" s="140"/>
@@ -8031,24 +8289,24 @@
       <c r="R6" s="141"/>
       <c r="S6" s="138"/>
     </row>
-    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="133"/>
-      <c r="B7" s="574" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="609"/>
+      <c r="C7" s="588"/>
       <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="576"/>
-      <c r="F7" s="576"/>
-      <c r="G7" s="576"/>
-      <c r="H7" s="577"/>
-      <c r="I7" s="610" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="609"/>
+      <c r="J7" s="588"/>
       <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -8062,7 +8320,7 @@
       <c r="R7" s="141"/>
       <c r="S7" s="138"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="143"/>
       <c r="C8" s="144"/>
@@ -8083,7 +8341,7 @@
       <c r="R8" s="147"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="148"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -8116,7 +8374,7 @@
       <c r="R9" s="151"/>
       <c r="S9" s="152"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="153"/>
       <c r="B10" s="154" t="s">
         <v>25</v>
@@ -8149,7 +8407,7 @@
       <c r="R10" s="156"/>
       <c r="S10" s="157"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="153"/>
       <c r="B11" s="154" t="s">
         <v>26</v>
@@ -8182,7 +8440,7 @@
       <c r="R11" s="156"/>
       <c r="S11" s="157"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="153"/>
       <c r="B12" s="154" t="s">
         <v>2</v>
@@ -8215,7 +8473,7 @@
       <c r="R12" s="156"/>
       <c r="S12" s="157"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="153"/>
       <c r="B13" s="154" t="s">
         <v>3</v>
@@ -8248,7 +8506,7 @@
       <c r="R13" s="156"/>
       <c r="S13" s="157"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="153"/>
       <c r="B14" s="154" t="s">
         <v>27</v>
@@ -8281,7 +8539,7 @@
       <c r="R14" s="156"/>
       <c r="S14" s="157"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="153"/>
       <c r="B15" s="154" t="s">
         <v>28</v>
@@ -8314,7 +8572,7 @@
       <c r="R15" s="156"/>
       <c r="S15" s="157"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="153"/>
       <c r="B16" s="154" t="s">
         <v>4</v>
@@ -8347,7 +8605,7 @@
       <c r="R16" s="156"/>
       <c r="S16" s="157"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="97"/>
       <c r="C17" s="98"/>
@@ -8368,7 +8626,7 @@
       <c r="R17" s="100"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="97"/>
       <c r="C18" s="98"/>
@@ -8389,7 +8647,7 @@
       <c r="R18" s="100"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78"/>
       <c r="B19" s="104"/>
       <c r="C19" s="105"/>
@@ -8410,7 +8668,7 @@
       <c r="R19" s="109"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="110"/>
       <c r="B20" s="111"/>
       <c r="C20" s="111"/>
@@ -8431,20 +8689,9 @@
       <c r="R20" s="113"/>
       <c r="S20" s="114"/>
     </row>
-    <row r="21" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -8452,6 +8699,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -8471,7 +8729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -8481,20 +8739,20 @@
       <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="265" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="265" customWidth="1"/>
     <col min="2" max="2" width="5" style="265" customWidth="1"/>
     <col min="3" max="3" width="11" style="265" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="265" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="265" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="265" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="265" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="265" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="265" customWidth="1"/>
     <col min="8" max="18" width="9" style="265" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="265" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="265"/>
+    <col min="19" max="19" width="1.42578125" style="265" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="265"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="261"/>
       <c r="B1" s="262"/>
       <c r="C1" s="263"/>
@@ -8515,49 +8773,49 @@
       <c r="R1" s="263"/>
       <c r="S1" s="264"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="266"/>
-      <c r="B2" s="582"/>
-      <c r="C2" s="583"/>
-      <c r="D2" s="584"/>
-      <c r="E2" s="591" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="592"/>
-      <c r="G2" s="592"/>
-      <c r="H2" s="593"/>
-      <c r="I2" s="597" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="598"/>
-      <c r="K2" s="626">
+      <c r="J2" s="607"/>
+      <c r="K2" s="629">
         <f>Данные!B23</f>
         <v>24</v>
       </c>
-      <c r="L2" s="627"/>
+      <c r="L2" s="630"/>
       <c r="M2" s="267"/>
       <c r="N2" s="268"/>
       <c r="O2" s="269"/>
-      <c r="P2" s="630"/>
-      <c r="Q2" s="630"/>
+      <c r="P2" s="628"/>
+      <c r="Q2" s="628"/>
       <c r="R2" s="270"/>
       <c r="S2" s="271"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="266"/>
-      <c r="B3" s="585"/>
-      <c r="C3" s="586"/>
-      <c r="D3" s="587"/>
-      <c r="E3" s="594" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="595"/>
-      <c r="G3" s="595"/>
-      <c r="H3" s="596"/>
-      <c r="I3" s="599"/>
-      <c r="J3" s="600"/>
-      <c r="K3" s="628"/>
-      <c r="L3" s="629"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="631"/>
+      <c r="L3" s="632"/>
       <c r="M3" s="272"/>
       <c r="N3" s="273"/>
       <c r="O3" s="273"/>
@@ -8566,11 +8824,11 @@
       <c r="R3" s="274"/>
       <c r="S3" s="271"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="266"/>
-      <c r="B4" s="588"/>
-      <c r="C4" s="589"/>
-      <c r="D4" s="590"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -8587,12 +8845,12 @@
       <c r="R4" s="274"/>
       <c r="S4" s="271"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="266"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="605"/>
+      <c r="C5" s="584"/>
       <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -8601,9 +8859,9 @@
       <c r="F5" s="495"/>
       <c r="G5" s="495"/>
       <c r="H5" s="496"/>
-      <c r="I5" s="606"/>
-      <c r="J5" s="607"/>
-      <c r="K5" s="608"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
       <c r="L5" s="496"/>
       <c r="M5" s="275"/>
       <c r="N5" s="273"/>
@@ -8613,23 +8871,23 @@
       <c r="R5" s="274"/>
       <c r="S5" s="271"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="266"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="605"/>
+      <c r="C6" s="584"/>
       <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="606"/>
-      <c r="J6" s="607"/>
-      <c r="K6" s="608"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
       <c r="L6" s="496"/>
       <c r="M6" s="272"/>
       <c r="N6" s="273"/>
@@ -8639,24 +8897,24 @@
       <c r="R6" s="274"/>
       <c r="S6" s="271"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="266"/>
-      <c r="B7" s="574" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="609"/>
+      <c r="C7" s="588"/>
       <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="576"/>
-      <c r="F7" s="576"/>
-      <c r="G7" s="576"/>
-      <c r="H7" s="577"/>
-      <c r="I7" s="610" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="609"/>
+      <c r="J7" s="588"/>
       <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -8670,7 +8928,7 @@
       <c r="R7" s="274"/>
       <c r="S7" s="271"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="276"/>
       <c r="B8" s="277"/>
       <c r="C8" s="278"/>
@@ -8691,7 +8949,7 @@
       <c r="R8" s="281"/>
       <c r="S8" s="282"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="283"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -8724,7 +8982,7 @@
       <c r="R9" s="352"/>
       <c r="S9" s="285"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="276"/>
       <c r="B10" s="286" t="s">
         <v>25</v>
@@ -8757,7 +9015,7 @@
       <c r="R10" s="354"/>
       <c r="S10" s="282"/>
     </row>
-    <row r="11" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A11" s="276"/>
       <c r="B11" s="290" t="s">
         <v>26</v>
@@ -8790,7 +9048,7 @@
       <c r="R11" s="355"/>
       <c r="S11" s="282"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="276"/>
       <c r="B12" s="290" t="s">
         <v>2</v>
@@ -8823,7 +9081,7 @@
       <c r="R12" s="357"/>
       <c r="S12" s="282"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="276"/>
       <c r="B13" s="290" t="s">
         <v>28</v>
@@ -8856,7 +9114,7 @@
       <c r="R13" s="357"/>
       <c r="S13" s="282"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="276"/>
       <c r="B14" s="290" t="s">
         <v>4</v>
@@ -8889,7 +9147,7 @@
       <c r="R14" s="357"/>
       <c r="S14" s="282"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="276"/>
       <c r="B15" s="296"/>
       <c r="C15" s="297"/>
@@ -8910,7 +9168,7 @@
       <c r="R15" s="339"/>
       <c r="S15" s="282"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="299"/>
       <c r="B16" s="300"/>
       <c r="C16" s="300"/>
@@ -8931,9 +9189,11 @@
       <c r="R16" s="300"/>
       <c r="S16" s="302"/>
     </row>
-    <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
@@ -8950,8 +9210,6 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -8977,30 +9235,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:F32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="390"/>
       <c r="B1" s="481" t="s">
         <v>114</v>
@@ -9019,7 +9277,7 @@
       <c r="K1" s="390"/>
       <c r="L1" s="390"/>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="390"/>
       <c r="B2" s="390" t="s">
         <v>139</v>
@@ -9035,23 +9293,23 @@
       <c r="K2" s="391"/>
       <c r="L2" s="391"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="505" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="504" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="505"/>
-      <c r="C3" s="505"/>
-      <c r="D3" s="505"/>
-      <c r="E3" s="505"/>
-      <c r="F3" s="505"/>
-      <c r="G3" s="505"/>
-      <c r="H3" s="505"/>
-      <c r="I3" s="505"/>
+      <c r="B3" s="504"/>
+      <c r="C3" s="504"/>
+      <c r="D3" s="504"/>
+      <c r="E3" s="504"/>
+      <c r="F3" s="504"/>
+      <c r="G3" s="504"/>
+      <c r="H3" s="504"/>
+      <c r="I3" s="504"/>
       <c r="K3" s="392"/>
       <c r="L3" s="392"/>
       <c r="M3" s="393"/>
     </row>
-    <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="393"/>
       <c r="B4" s="394"/>
       <c r="C4" s="394"/>
@@ -9063,7 +9321,7 @@
       <c r="K4" s="392"/>
       <c r="M4" s="372"/>
     </row>
-    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="397" t="s">
         <v>116</v>
       </c>
@@ -9093,7 +9351,7 @@
       <c r="K5" s="401"/>
       <c r="L5" s="401"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="402">
         <v>1</v>
       </c>
@@ -9123,7 +9381,7 @@
       <c r="K6" s="393"/>
       <c r="L6" s="407"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="408">
         <f>A6+1</f>
         <v>2</v>
@@ -9154,7 +9412,7 @@
       <c r="K7" s="393"/>
       <c r="L7" s="407"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="408">
         <f t="shared" ref="A8:A17" si="1">A7+1</f>
         <v>3</v>
@@ -9185,7 +9443,7 @@
       <c r="K8" s="393"/>
       <c r="L8" s="407"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="408">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -9216,7 +9474,7 @@
       <c r="K9" s="393"/>
       <c r="L9" s="407"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="408">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -9247,7 +9505,7 @@
       <c r="K10" s="413"/>
       <c r="L10" s="407"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="408">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -9278,7 +9536,7 @@
       <c r="K11" s="393"/>
       <c r="L11" s="407"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="408">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -9310,7 +9568,7 @@
       <c r="L12" s="407"/>
       <c r="M12" s="415"/>
     </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="408">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -9342,7 +9600,7 @@
       <c r="L13" s="407"/>
       <c r="M13" s="415"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="408">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -9375,7 +9633,7 @@
       <c r="K14" s="413"/>
       <c r="L14" s="407"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="408">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -9406,7 +9664,7 @@
       <c r="K15" s="413"/>
       <c r="L15" s="407"/>
     </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="408">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -9437,7 +9695,7 @@
       <c r="K16" s="413"/>
       <c r="L16" s="407"/>
     </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="417">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -9468,7 +9726,7 @@
       <c r="K17" s="413"/>
       <c r="L17" s="407"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="424"/>
       <c r="B18" s="425"/>
       <c r="C18" s="393"/>
@@ -9480,7 +9738,7 @@
       <c r="I18" s="393"/>
       <c r="J18" s="393"/>
     </row>
-    <row r="19" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="393"/>
       <c r="B19" s="427" t="s">
         <v>123</v>
@@ -9496,7 +9754,7 @@
       <c r="K19" s="428"/>
       <c r="L19" s="428"/>
     </row>
-    <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="397" t="s">
         <v>124</v>
       </c>
@@ -9528,7 +9786,7 @@
       <c r="K20" s="401"/>
       <c r="L20" s="401"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="432">
         <f>D6*700000</f>
         <v>18200000</v>
@@ -9564,7 +9822,7 @@
       <c r="K21" s="413"/>
       <c r="L21" s="413"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="440"/>
       <c r="B22" s="441">
         <v>43820</v>
@@ -9597,7 +9855,7 @@
       <c r="K22" s="393"/>
       <c r="L22" s="393"/>
     </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="445"/>
       <c r="B23" s="446"/>
       <c r="C23" s="446"/>
@@ -9611,7 +9869,7 @@
       <c r="K23" s="413"/>
       <c r="L23" s="413"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="445"/>
       <c r="B24" s="385"/>
       <c r="C24" s="385"/>
@@ -9625,7 +9883,7 @@
       <c r="K24" s="439"/>
       <c r="L24" s="393"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="445"/>
       <c r="B25" s="446"/>
       <c r="C25" s="446"/>
@@ -9639,7 +9897,7 @@
       <c r="K25" s="453"/>
       <c r="L25" s="393"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="445"/>
       <c r="B26" s="446"/>
       <c r="C26" s="446"/>
@@ -9653,7 +9911,7 @@
       <c r="K26" s="439"/>
       <c r="L26" s="393"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="445"/>
       <c r="B27" s="446"/>
       <c r="C27" s="446"/>
@@ -9667,7 +9925,7 @@
       <c r="K27" s="439"/>
       <c r="L27" s="393"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="445"/>
       <c r="B28" s="446"/>
       <c r="C28" s="446"/>
@@ -9681,7 +9939,7 @@
       <c r="K28" s="439"/>
       <c r="L28" s="393"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="445"/>
       <c r="B29" s="446"/>
       <c r="C29" s="446"/>
@@ -9695,7 +9953,7 @@
       <c r="K29" s="439"/>
       <c r="L29" s="393"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="445"/>
       <c r="B30" s="446"/>
       <c r="C30" s="446"/>
@@ -9709,7 +9967,7 @@
       <c r="K30" s="439"/>
       <c r="L30" s="393"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="456"/>
       <c r="B31" s="457"/>
       <c r="C31" s="457"/>
@@ -9723,18 +9981,18 @@
       <c r="K31" s="393"/>
       <c r="L31" s="393"/>
     </row>
-    <row r="32" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="463" t="s">
         <v>133</v>
       </c>
       <c r="B32" s="464"/>
       <c r="C32" s="464"/>
       <c r="D32" s="465"/>
-      <c r="E32" s="631">
+      <c r="E32" s="482">
         <f>SUM(E21:E31)</f>
         <v>1296300</v>
       </c>
-      <c r="F32" s="632">
+      <c r="F32" s="483">
         <f>SUM(F21:F31)</f>
         <v>1399851</v>
       </c>
@@ -9754,7 +10012,7 @@
       <c r="K32" s="469"/>
       <c r="L32" s="469"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="393"/>
       <c r="B35" s="393"/>
       <c r="C35" s="393"/>
@@ -9766,13 +10024,13 @@
       <c r="I35" s="393"/>
       <c r="J35" s="393"/>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="506" t="s">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="505" t="s">
         <v>134</v>
       </c>
-      <c r="B36" s="506"/>
-      <c r="C36" s="506"/>
-      <c r="D36" s="506"/>
+      <c r="B36" s="505"/>
+      <c r="C36" s="505"/>
+      <c r="D36" s="505"/>
       <c r="E36" s="393"/>
       <c r="F36" s="393"/>
       <c r="G36" s="393"/>
@@ -9780,11 +10038,11 @@
       <c r="I36" s="393"/>
       <c r="J36" s="393"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="507" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="506" t="s">
         <v>135</v>
       </c>
-      <c r="B37" s="507"/>
+      <c r="B37" s="506"/>
       <c r="C37" s="470" t="s">
         <v>136</v>
       </c>
@@ -9798,12 +10056,12 @@
       <c r="I37" s="393"/>
       <c r="J37" s="393"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="508">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="507">
         <f>A21-F32</f>
         <v>16800149</v>
       </c>
-      <c r="B38" s="509"/>
+      <c r="B38" s="508"/>
       <c r="C38" s="471">
         <f>1-G32</f>
         <v>0.92308510989010983</v>
@@ -9821,7 +10079,7 @@
       <c r="I38" s="473"/>
       <c r="J38" s="473"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="393"/>
       <c r="B39" s="393"/>
       <c r="C39" s="393"/>
@@ -9829,7 +10087,7 @@
       <c r="E39" s="393"/>
       <c r="F39" s="393"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="393"/>
       <c r="B40" s="393"/>
       <c r="C40" s="393"/>
@@ -9844,7 +10102,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="393"/>
       <c r="B41" s="474"/>
       <c r="C41" s="474"/>
@@ -9856,7 +10114,7 @@
       <c r="I41" s="393"/>
       <c r="J41" s="393"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="475"/>
       <c r="B42" s="475"/>
       <c r="C42" s="475"/>
@@ -9865,10 +10123,10 @@
       <c r="F42" s="475"/>
       <c r="G42" s="475"/>
       <c r="H42" s="475"/>
-      <c r="I42" s="500"/>
-      <c r="J42" s="501"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I42" s="509"/>
+      <c r="J42" s="510"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="476"/>
       <c r="B43" s="477"/>
       <c r="C43" s="477"/>
@@ -9878,7 +10136,7 @@
       <c r="G43" s="423"/>
       <c r="H43" s="477"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="476"/>
       <c r="B44" s="477"/>
       <c r="C44" s="477"/>
@@ -9888,7 +10146,7 @@
       <c r="G44" s="423"/>
       <c r="H44" s="477"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="476"/>
       <c r="B45" s="477"/>
       <c r="C45" s="477"/>
@@ -9898,7 +10156,7 @@
       <c r="G45" s="423"/>
       <c r="H45" s="477"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="476"/>
       <c r="B46" s="477"/>
       <c r="C46" s="477"/>
@@ -9908,7 +10166,7 @@
       <c r="G46" s="423"/>
       <c r="H46" s="477"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="476"/>
       <c r="B47" s="477"/>
       <c r="C47" s="477"/>
@@ -9918,7 +10176,7 @@
       <c r="G47" s="423"/>
       <c r="H47" s="477"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="476"/>
       <c r="B48" s="477"/>
       <c r="C48" s="413"/>
@@ -9928,7 +10186,7 @@
       <c r="G48" s="413"/>
       <c r="H48" s="413"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="476"/>
       <c r="B49" s="477"/>
       <c r="C49" s="477"/>
@@ -9938,7 +10196,7 @@
       <c r="G49" s="423"/>
       <c r="H49" s="477"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="476"/>
       <c r="B50" s="477"/>
       <c r="C50" s="477"/>
@@ -9948,7 +10206,7 @@
       <c r="G50" s="423"/>
       <c r="H50" s="477"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="476"/>
       <c r="B51" s="477"/>
       <c r="C51" s="477"/>
@@ -9958,11 +10216,11 @@
       <c r="G51" s="423"/>
       <c r="H51" s="477"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="393"/>
-      <c r="B52" s="503"/>
-      <c r="C52" s="503"/>
-      <c r="D52" s="504"/>
+      <c r="B52" s="502"/>
+      <c r="C52" s="502"/>
+      <c r="D52" s="503"/>
       <c r="E52" s="473"/>
       <c r="F52" s="393"/>
       <c r="G52" s="393"/>
@@ -9970,7 +10228,7 @@
       <c r="I52" s="393"/>
       <c r="J52" s="393"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="475"/>
       <c r="B53" s="475"/>
       <c r="C53" s="475"/>
@@ -9979,10 +10237,10 @@
       <c r="F53" s="475"/>
       <c r="G53" s="475"/>
       <c r="H53" s="475"/>
-      <c r="I53" s="500"/>
-      <c r="J53" s="501"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I53" s="509"/>
+      <c r="J53" s="510"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="476"/>
       <c r="B54" s="393"/>
       <c r="C54" s="393"/>
@@ -9991,10 +10249,10 @@
       <c r="F54" s="423"/>
       <c r="G54" s="423"/>
       <c r="H54" s="477"/>
-      <c r="I54" s="502"/>
-      <c r="J54" s="502"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I54" s="511"/>
+      <c r="J54" s="511"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="476"/>
       <c r="B55" s="393"/>
       <c r="C55" s="393"/>
@@ -10003,10 +10261,10 @@
       <c r="F55" s="413"/>
       <c r="G55" s="413"/>
       <c r="H55" s="413"/>
-      <c r="I55" s="502"/>
-      <c r="J55" s="502"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I55" s="511"/>
+      <c r="J55" s="511"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="393"/>
       <c r="B56" s="393"/>
       <c r="C56" s="393"/>
@@ -10016,31 +10274,31 @@
       <c r="G56" s="393"/>
       <c r="H56" s="393"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="500"/>
-      <c r="C61" s="501"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="500"/>
-      <c r="C68" s="501"/>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="509"/>
+      <c r="C61" s="510"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68" s="509"/>
+      <c r="C68" s="510"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="38" max="16383" man="1"/>
   </rowBreaks>
@@ -10048,25 +10306,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K57"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A22" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B31" sqref="B31:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="307"/>
+    <col min="1" max="3" width="9.140625" style="307"/>
     <col min="4" max="4" width="8" style="307" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" style="307"/>
-    <col min="7" max="7" width="9.109375" style="307" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="307" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="307" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="307"/>
+    <col min="5" max="6" width="9.140625" style="307"/>
+    <col min="7" max="7" width="9.140625" style="307" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="307" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="307" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="307"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="367" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G2" s="316" t="s">
         <v>58</v>
       </c>
@@ -10075,7 +10333,7 @@
       <c r="J2" s="317"/>
       <c r="K2" s="317"/>
     </row>
-    <row r="3" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="367" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G3" s="316" t="s">
         <v>102</v>
       </c>
@@ -10084,7 +10342,7 @@
       <c r="J3" s="317"/>
       <c r="K3" s="317"/>
     </row>
-    <row r="4" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="367" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G4" s="316" t="s">
         <v>105</v>
       </c>
@@ -10093,8 +10351,8 @@
       <c r="J4" s="317"/>
       <c r="K4" s="317"/>
     </row>
-    <row r="5" spans="1:11" s="367" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="367" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" s="367" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G6" s="368"/>
       <c r="H6" s="316" t="s">
         <v>103</v>
@@ -10102,12 +10360,12 @@
       <c r="I6" s="317"/>
       <c r="J6" s="317"/>
     </row>
-    <row r="7" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" s="367" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="H7" s="317"/>
       <c r="I7" s="317"/>
       <c r="J7" s="317"/>
     </row>
-    <row r="8" spans="1:11" s="367" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" s="367" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G8" s="310" t="s">
         <v>59</v>
       </c>
@@ -10117,50 +10375,50 @@
       </c>
       <c r="J8" s="317"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="535" t="s">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="513" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="535"/>
-      <c r="C11" s="535"/>
-      <c r="D11" s="535"/>
-      <c r="E11" s="535"/>
-      <c r="F11" s="535"/>
-      <c r="G11" s="535"/>
-      <c r="H11" s="535"/>
-      <c r="I11" s="535"/>
-      <c r="J11" s="535"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="534" t="s">
+      <c r="B11" s="513"/>
+      <c r="C11" s="513"/>
+      <c r="D11" s="513"/>
+      <c r="E11" s="513"/>
+      <c r="F11" s="513"/>
+      <c r="G11" s="513"/>
+      <c r="H11" s="513"/>
+      <c r="I11" s="513"/>
+      <c r="J11" s="513"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="512" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="534"/>
-      <c r="C12" s="534"/>
-      <c r="D12" s="534"/>
-      <c r="E12" s="534"/>
-      <c r="F12" s="534"/>
-      <c r="G12" s="534"/>
-      <c r="H12" s="534"/>
-      <c r="I12" s="534"/>
-      <c r="J12" s="534"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="536" t="str">
+      <c r="B12" s="512"/>
+      <c r="C12" s="512"/>
+      <c r="D12" s="512"/>
+      <c r="E12" s="512"/>
+      <c r="F12" s="512"/>
+      <c r="G12" s="512"/>
+      <c r="H12" s="512"/>
+      <c r="I12" s="512"/>
+      <c r="J12" s="512"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="514" t="str">
         <f>Данные!A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="B13" s="535"/>
-      <c r="C13" s="535"/>
-      <c r="D13" s="535"/>
-      <c r="E13" s="535"/>
-      <c r="F13" s="535"/>
-      <c r="G13" s="535"/>
-      <c r="H13" s="535"/>
-      <c r="I13" s="535"/>
-      <c r="J13" s="535"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="513"/>
+      <c r="C13" s="513"/>
+      <c r="D13" s="513"/>
+      <c r="E13" s="513"/>
+      <c r="F13" s="513"/>
+      <c r="G13" s="513"/>
+      <c r="H13" s="513"/>
+      <c r="I13" s="513"/>
+      <c r="J13" s="513"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="311" t="s">
         <v>60</v>
       </c>
@@ -10177,7 +10435,7 @@
       <c r="I15" s="311"/>
       <c r="J15" s="312"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="311" t="s">
         <v>96</v>
       </c>
@@ -10191,7 +10449,7 @@
       <c r="I16" s="311"/>
       <c r="J16" s="312"/>
     </row>
-    <row r="17" spans="1:10" s="369" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="369" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="319" t="s">
         <v>61</v>
       </c>
@@ -10212,7 +10470,7 @@
       </c>
       <c r="J17" s="312"/>
     </row>
-    <row r="18" spans="1:10" s="369" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="369" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="319" t="s">
         <v>61</v>
       </c>
@@ -10233,7 +10491,7 @@
       </c>
       <c r="J18" s="312"/>
     </row>
-    <row r="19" spans="1:10" s="369" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="369" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="320"/>
       <c r="B19" s="320"/>
       <c r="C19" s="320"/>
@@ -10251,7 +10509,7 @@
       </c>
       <c r="J19" s="312"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="311" t="s">
         <v>75</v>
       </c>
@@ -10268,7 +10526,7 @@
       </c>
       <c r="J20" s="312"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="311" t="s">
         <v>76</v>
       </c>
@@ -10282,485 +10540,485 @@
       <c r="I21" s="311"/>
       <c r="J21" s="312"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="532" t="s">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="518" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="532" t="s">
+      <c r="B22" s="518" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="532"/>
-      <c r="D22" s="532"/>
-      <c r="E22" s="532" t="s">
+      <c r="C22" s="518"/>
+      <c r="D22" s="518"/>
+      <c r="E22" s="518" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="532"/>
-      <c r="G22" s="533" t="s">
+      <c r="F22" s="518"/>
+      <c r="G22" s="536" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="532" t="s">
+      <c r="H22" s="518" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="532"/>
-      <c r="J22" s="532"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="532"/>
-      <c r="B23" s="532"/>
-      <c r="C23" s="532"/>
-      <c r="D23" s="532"/>
-      <c r="E23" s="532"/>
-      <c r="F23" s="532"/>
-      <c r="G23" s="533"/>
-      <c r="H23" s="532"/>
-      <c r="I23" s="532"/>
-      <c r="J23" s="532"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="510">
+      <c r="I22" s="518"/>
+      <c r="J22" s="518"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="518"/>
+      <c r="B23" s="518"/>
+      <c r="C23" s="518"/>
+      <c r="D23" s="518"/>
+      <c r="E23" s="518"/>
+      <c r="F23" s="518"/>
+      <c r="G23" s="536"/>
+      <c r="H23" s="518"/>
+      <c r="I23" s="518"/>
+      <c r="J23" s="518"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="519">
         <v>1</v>
       </c>
-      <c r="B24" s="537" t="s">
+      <c r="B24" s="533" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="538"/>
-      <c r="D24" s="539"/>
-      <c r="E24" s="515" t="str">
+      <c r="C24" s="534"/>
+      <c r="D24" s="535"/>
+      <c r="E24" s="521" t="str">
         <f>Данные!C14</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F24" s="516"/>
-      <c r="G24" s="519">
+      <c r="F24" s="522"/>
+      <c r="G24" s="525">
         <f>Данные!B14</f>
         <v>26</v>
       </c>
-      <c r="H24" s="521"/>
-      <c r="I24" s="522"/>
-      <c r="J24" s="523"/>
-    </row>
-    <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="530"/>
-      <c r="B25" s="527" t="str">
+      <c r="H24" s="527"/>
+      <c r="I24" s="528"/>
+      <c r="J24" s="529"/>
+    </row>
+    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="520"/>
+      <c r="B25" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C25" s="528"/>
-      <c r="D25" s="529"/>
-      <c r="E25" s="531"/>
-      <c r="F25" s="518"/>
-      <c r="G25" s="520"/>
-      <c r="H25" s="524"/>
-      <c r="I25" s="525"/>
-      <c r="J25" s="526"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="510">
+      <c r="C25" s="516"/>
+      <c r="D25" s="517"/>
+      <c r="E25" s="523"/>
+      <c r="F25" s="524"/>
+      <c r="G25" s="526"/>
+      <c r="H25" s="530"/>
+      <c r="I25" s="531"/>
+      <c r="J25" s="532"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="519">
         <v>1</v>
       </c>
-      <c r="B26" s="512" t="s">
+      <c r="B26" s="537" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="513"/>
-      <c r="D26" s="514"/>
-      <c r="E26" s="515" t="str">
+      <c r="C26" s="538"/>
+      <c r="D26" s="539"/>
+      <c r="E26" s="521" t="str">
         <f>Данные!C15</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F26" s="516"/>
-      <c r="G26" s="519">
+      <c r="F26" s="522"/>
+      <c r="G26" s="525">
         <f>Данные!B15</f>
         <v>26</v>
       </c>
-      <c r="H26" s="521"/>
-      <c r="I26" s="522"/>
-      <c r="J26" s="523"/>
-    </row>
-    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="530"/>
-      <c r="B27" s="527" t="str">
+      <c r="H26" s="527"/>
+      <c r="I26" s="528"/>
+      <c r="J26" s="529"/>
+    </row>
+    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="520"/>
+      <c r="B27" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C27" s="528"/>
-      <c r="D27" s="529"/>
-      <c r="E27" s="531"/>
-      <c r="F27" s="518"/>
-      <c r="G27" s="520"/>
-      <c r="H27" s="524"/>
-      <c r="I27" s="525"/>
-      <c r="J27" s="526"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="510">
+      <c r="C27" s="516"/>
+      <c r="D27" s="517"/>
+      <c r="E27" s="523"/>
+      <c r="F27" s="524"/>
+      <c r="G27" s="526"/>
+      <c r="H27" s="530"/>
+      <c r="I27" s="531"/>
+      <c r="J27" s="532"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="519">
         <v>1</v>
       </c>
-      <c r="B28" s="512" t="s">
+      <c r="B28" s="537" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="513"/>
-      <c r="D28" s="514"/>
-      <c r="E28" s="515" t="str">
+      <c r="C28" s="538"/>
+      <c r="D28" s="539"/>
+      <c r="E28" s="521" t="str">
         <f>Данные!C16</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F28" s="516"/>
-      <c r="G28" s="519">
+      <c r="F28" s="522"/>
+      <c r="G28" s="525">
         <f>Данные!B16</f>
         <v>30</v>
       </c>
-      <c r="H28" s="521"/>
-      <c r="I28" s="522"/>
-      <c r="J28" s="523"/>
-    </row>
-    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="530"/>
-      <c r="B29" s="527" t="str">
+      <c r="H28" s="527"/>
+      <c r="I28" s="528"/>
+      <c r="J28" s="529"/>
+    </row>
+    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="520"/>
+      <c r="B29" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C29" s="528"/>
-      <c r="D29" s="529"/>
-      <c r="E29" s="531"/>
-      <c r="F29" s="518"/>
-      <c r="G29" s="520"/>
-      <c r="H29" s="524"/>
-      <c r="I29" s="525"/>
-      <c r="J29" s="526"/>
-    </row>
-    <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="510">
+      <c r="C29" s="516"/>
+      <c r="D29" s="517"/>
+      <c r="E29" s="523"/>
+      <c r="F29" s="524"/>
+      <c r="G29" s="526"/>
+      <c r="H29" s="530"/>
+      <c r="I29" s="531"/>
+      <c r="J29" s="532"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="519">
         <v>1</v>
       </c>
-      <c r="B30" s="512" t="s">
+      <c r="B30" s="537" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="513"/>
-      <c r="D30" s="514"/>
-      <c r="E30" s="515" t="str">
+      <c r="C30" s="538"/>
+      <c r="D30" s="539"/>
+      <c r="E30" s="521" t="str">
         <f>Данные!C17</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F30" s="516"/>
-      <c r="G30" s="519">
+      <c r="F30" s="522"/>
+      <c r="G30" s="525">
         <f>Данные!B17</f>
         <v>30</v>
       </c>
-      <c r="H30" s="521"/>
-      <c r="I30" s="522"/>
-      <c r="J30" s="523"/>
-    </row>
-    <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="511"/>
-      <c r="B31" s="527" t="str">
+      <c r="H30" s="527"/>
+      <c r="I30" s="528"/>
+      <c r="J30" s="529"/>
+    </row>
+    <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="540"/>
+      <c r="B31" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C31" s="528"/>
-      <c r="D31" s="529"/>
-      <c r="E31" s="517"/>
-      <c r="F31" s="518"/>
-      <c r="G31" s="520"/>
-      <c r="H31" s="524"/>
-      <c r="I31" s="525"/>
-      <c r="J31" s="526"/>
-    </row>
-    <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="510">
+      <c r="C31" s="516"/>
+      <c r="D31" s="517"/>
+      <c r="E31" s="541"/>
+      <c r="F31" s="524"/>
+      <c r="G31" s="526"/>
+      <c r="H31" s="530"/>
+      <c r="I31" s="531"/>
+      <c r="J31" s="532"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="519">
         <v>1</v>
       </c>
-      <c r="B32" s="512" t="s">
+      <c r="B32" s="537" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="513"/>
-      <c r="D32" s="514"/>
-      <c r="E32" s="515" t="str">
+      <c r="C32" s="538"/>
+      <c r="D32" s="539"/>
+      <c r="E32" s="521" t="str">
         <f>Данные!C18</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F32" s="516"/>
-      <c r="G32" s="519">
+      <c r="F32" s="522"/>
+      <c r="G32" s="525">
         <f>Данные!B18</f>
         <v>70</v>
       </c>
-      <c r="H32" s="521"/>
-      <c r="I32" s="522"/>
-      <c r="J32" s="523"/>
-    </row>
-    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="511"/>
-      <c r="B33" s="527" t="str">
+      <c r="H32" s="527"/>
+      <c r="I32" s="528"/>
+      <c r="J32" s="529"/>
+    </row>
+    <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="540"/>
+      <c r="B33" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C33" s="528"/>
-      <c r="D33" s="529"/>
-      <c r="E33" s="517"/>
-      <c r="F33" s="518"/>
-      <c r="G33" s="520"/>
-      <c r="H33" s="524"/>
-      <c r="I33" s="525"/>
-      <c r="J33" s="526"/>
-    </row>
-    <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="510">
+      <c r="C33" s="516"/>
+      <c r="D33" s="517"/>
+      <c r="E33" s="541"/>
+      <c r="F33" s="524"/>
+      <c r="G33" s="526"/>
+      <c r="H33" s="530"/>
+      <c r="I33" s="531"/>
+      <c r="J33" s="532"/>
+    </row>
+    <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="519">
         <v>1</v>
       </c>
-      <c r="B34" s="512" t="s">
+      <c r="B34" s="537" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="513"/>
-      <c r="D34" s="514"/>
-      <c r="E34" s="515" t="str">
+      <c r="C34" s="538"/>
+      <c r="D34" s="539"/>
+      <c r="E34" s="521" t="str">
         <f>Данные!C19</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F34" s="516"/>
-      <c r="G34" s="519">
+      <c r="F34" s="522"/>
+      <c r="G34" s="525">
         <f>Данные!B19</f>
         <v>70</v>
       </c>
-      <c r="H34" s="521"/>
-      <c r="I34" s="522"/>
-      <c r="J34" s="523"/>
-    </row>
-    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="511"/>
-      <c r="B35" s="527" t="str">
+      <c r="H34" s="527"/>
+      <c r="I34" s="528"/>
+      <c r="J34" s="529"/>
+    </row>
+    <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="540"/>
+      <c r="B35" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C35" s="528"/>
-      <c r="D35" s="529"/>
-      <c r="E35" s="517"/>
-      <c r="F35" s="518"/>
-      <c r="G35" s="520"/>
-      <c r="H35" s="524"/>
-      <c r="I35" s="525"/>
-      <c r="J35" s="526"/>
-    </row>
-    <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="510">
+      <c r="C35" s="516"/>
+      <c r="D35" s="517"/>
+      <c r="E35" s="541"/>
+      <c r="F35" s="524"/>
+      <c r="G35" s="526"/>
+      <c r="H35" s="530"/>
+      <c r="I35" s="531"/>
+      <c r="J35" s="532"/>
+    </row>
+    <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="519">
         <v>1</v>
       </c>
-      <c r="B36" s="512" t="s">
+      <c r="B36" s="537" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="513"/>
-      <c r="D36" s="514"/>
-      <c r="E36" s="515" t="str">
+      <c r="C36" s="538"/>
+      <c r="D36" s="539"/>
+      <c r="E36" s="521" t="str">
         <f>Данные!C20</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F36" s="516"/>
-      <c r="G36" s="519">
+      <c r="F36" s="522"/>
+      <c r="G36" s="525">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="H36" s="521"/>
-      <c r="I36" s="522"/>
-      <c r="J36" s="523"/>
-    </row>
-    <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="511"/>
-      <c r="B37" s="527" t="str">
+      <c r="H36" s="527"/>
+      <c r="I36" s="528"/>
+      <c r="J36" s="529"/>
+    </row>
+    <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="540"/>
+      <c r="B37" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C37" s="528"/>
-      <c r="D37" s="529"/>
-      <c r="E37" s="517"/>
-      <c r="F37" s="518"/>
-      <c r="G37" s="520"/>
-      <c r="H37" s="524"/>
-      <c r="I37" s="525"/>
-      <c r="J37" s="526"/>
-    </row>
-    <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="510">
+      <c r="C37" s="516"/>
+      <c r="D37" s="517"/>
+      <c r="E37" s="541"/>
+      <c r="F37" s="524"/>
+      <c r="G37" s="526"/>
+      <c r="H37" s="530"/>
+      <c r="I37" s="531"/>
+      <c r="J37" s="532"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="519">
         <v>1</v>
       </c>
-      <c r="B38" s="512" t="s">
+      <c r="B38" s="537" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="513"/>
-      <c r="D38" s="514"/>
-      <c r="E38" s="515" t="str">
+      <c r="C38" s="538"/>
+      <c r="D38" s="539"/>
+      <c r="E38" s="521" t="str">
         <f>Данные!C21</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F38" s="516"/>
-      <c r="G38" s="519">
+      <c r="F38" s="522"/>
+      <c r="G38" s="525">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="H38" s="521"/>
-      <c r="I38" s="522"/>
-      <c r="J38" s="523"/>
-    </row>
-    <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="511"/>
-      <c r="B39" s="527" t="str">
+      <c r="H38" s="527"/>
+      <c r="I38" s="528"/>
+      <c r="J38" s="529"/>
+    </row>
+    <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="540"/>
+      <c r="B39" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C39" s="528"/>
-      <c r="D39" s="529"/>
-      <c r="E39" s="517"/>
-      <c r="F39" s="518"/>
-      <c r="G39" s="520"/>
-      <c r="H39" s="524"/>
-      <c r="I39" s="525"/>
-      <c r="J39" s="526"/>
-    </row>
-    <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="510">
+      <c r="C39" s="516"/>
+      <c r="D39" s="517"/>
+      <c r="E39" s="541"/>
+      <c r="F39" s="524"/>
+      <c r="G39" s="526"/>
+      <c r="H39" s="530"/>
+      <c r="I39" s="531"/>
+      <c r="J39" s="532"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="519">
         <v>1</v>
       </c>
-      <c r="B40" s="512" t="s">
+      <c r="B40" s="537" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="513"/>
-      <c r="D40" s="514"/>
-      <c r="E40" s="515" t="str">
+      <c r="C40" s="538"/>
+      <c r="D40" s="539"/>
+      <c r="E40" s="521" t="str">
         <f>Данные!C23</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F40" s="516"/>
-      <c r="G40" s="519">
+      <c r="F40" s="522"/>
+      <c r="G40" s="525">
         <f>Данные!B23</f>
         <v>24</v>
       </c>
-      <c r="H40" s="521"/>
-      <c r="I40" s="522"/>
-      <c r="J40" s="523"/>
-    </row>
-    <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="511"/>
-      <c r="B41" s="527" t="str">
+      <c r="H40" s="527"/>
+      <c r="I40" s="528"/>
+      <c r="J40" s="529"/>
+    </row>
+    <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="540"/>
+      <c r="B41" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C41" s="528"/>
-      <c r="D41" s="529"/>
-      <c r="E41" s="517"/>
-      <c r="F41" s="518"/>
-      <c r="G41" s="520"/>
-      <c r="H41" s="524"/>
-      <c r="I41" s="525"/>
-      <c r="J41" s="526"/>
-    </row>
-    <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="510">
+      <c r="C41" s="516"/>
+      <c r="D41" s="517"/>
+      <c r="E41" s="541"/>
+      <c r="F41" s="524"/>
+      <c r="G41" s="526"/>
+      <c r="H41" s="530"/>
+      <c r="I41" s="531"/>
+      <c r="J41" s="532"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="519">
         <v>1</v>
       </c>
-      <c r="B42" s="512" t="s">
+      <c r="B42" s="537" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="513"/>
-      <c r="D42" s="514"/>
-      <c r="E42" s="515" t="str">
+      <c r="C42" s="538"/>
+      <c r="D42" s="539"/>
+      <c r="E42" s="521" t="str">
         <f>Данные!C26</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F42" s="516"/>
-      <c r="G42" s="519">
+      <c r="F42" s="522"/>
+      <c r="G42" s="525">
         <f>Данные!B26</f>
         <v>24</v>
       </c>
-      <c r="H42" s="521"/>
-      <c r="I42" s="522"/>
-      <c r="J42" s="523"/>
-    </row>
-    <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="511"/>
-      <c r="B43" s="527" t="str">
+      <c r="H42" s="527"/>
+      <c r="I42" s="528"/>
+      <c r="J42" s="529"/>
+    </row>
+    <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="540"/>
+      <c r="B43" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C43" s="528"/>
-      <c r="D43" s="529"/>
-      <c r="E43" s="517"/>
-      <c r="F43" s="518"/>
-      <c r="G43" s="520"/>
-      <c r="H43" s="524"/>
-      <c r="I43" s="525"/>
-      <c r="J43" s="526"/>
-    </row>
-    <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="510">
+      <c r="C43" s="516"/>
+      <c r="D43" s="517"/>
+      <c r="E43" s="541"/>
+      <c r="F43" s="524"/>
+      <c r="G43" s="526"/>
+      <c r="H43" s="530"/>
+      <c r="I43" s="531"/>
+      <c r="J43" s="532"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="519">
         <v>1</v>
       </c>
-      <c r="B44" s="512" t="s">
+      <c r="B44" s="537" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="513"/>
-      <c r="D44" s="514"/>
-      <c r="E44" s="515">
+      <c r="C44" s="538"/>
+      <c r="D44" s="539"/>
+      <c r="E44" s="521">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="516"/>
-      <c r="G44" s="519">
+      <c r="F44" s="522"/>
+      <c r="G44" s="525">
         <f>Данные!B27</f>
         <v>24</v>
       </c>
-      <c r="H44" s="521"/>
-      <c r="I44" s="522"/>
-      <c r="J44" s="523"/>
-    </row>
-    <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="511"/>
-      <c r="B45" s="527" t="str">
+      <c r="H44" s="527"/>
+      <c r="I44" s="528"/>
+      <c r="J44" s="529"/>
+    </row>
+    <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="540"/>
+      <c r="B45" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C45" s="528"/>
-      <c r="D45" s="529"/>
-      <c r="E45" s="517"/>
-      <c r="F45" s="518"/>
-      <c r="G45" s="520"/>
-      <c r="H45" s="524"/>
-      <c r="I45" s="525"/>
-      <c r="J45" s="526"/>
-    </row>
-    <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="510">
+      <c r="C45" s="516"/>
+      <c r="D45" s="517"/>
+      <c r="E45" s="541"/>
+      <c r="F45" s="524"/>
+      <c r="G45" s="526"/>
+      <c r="H45" s="530"/>
+      <c r="I45" s="531"/>
+      <c r="J45" s="532"/>
+    </row>
+    <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="519">
         <v>1</v>
       </c>
-      <c r="B46" s="512" t="s">
+      <c r="B46" s="537" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="513"/>
-      <c r="D46" s="514"/>
-      <c r="E46" s="515" t="str">
+      <c r="C46" s="538"/>
+      <c r="D46" s="539"/>
+      <c r="E46" s="521" t="str">
         <f>Данные!C24</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F46" s="516"/>
-      <c r="G46" s="519">
+      <c r="F46" s="522"/>
+      <c r="G46" s="525">
         <f>Данные!B24</f>
         <v>9</v>
       </c>
-      <c r="H46" s="521"/>
-      <c r="I46" s="522"/>
-      <c r="J46" s="523"/>
-    </row>
-    <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="511"/>
-      <c r="B47" s="527" t="str">
+      <c r="H46" s="527"/>
+      <c r="I46" s="528"/>
+      <c r="J46" s="529"/>
+    </row>
+    <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="540"/>
+      <c r="B47" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C47" s="528"/>
-      <c r="D47" s="529"/>
-      <c r="E47" s="517"/>
-      <c r="F47" s="518"/>
-      <c r="G47" s="520"/>
-      <c r="H47" s="524"/>
-      <c r="I47" s="525"/>
-      <c r="J47" s="526"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C47" s="516"/>
+      <c r="D47" s="517"/>
+      <c r="E47" s="541"/>
+      <c r="F47" s="524"/>
+      <c r="G47" s="526"/>
+      <c r="H47" s="530"/>
+      <c r="I47" s="531"/>
+      <c r="J47" s="532"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="311"/>
       <c r="B48" s="311"/>
       <c r="C48" s="311"/>
@@ -10772,7 +11030,7 @@
       <c r="I48" s="311"/>
       <c r="J48" s="312"/>
     </row>
-    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="311" t="s">
         <v>71</v>
       </c>
@@ -10786,7 +11044,7 @@
       <c r="I49" s="311"/>
       <c r="J49" s="312"/>
     </row>
-    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="311"/>
       <c r="B50" s="311"/>
       <c r="C50" s="311"/>
@@ -10798,7 +11056,7 @@
       <c r="I50" s="311"/>
       <c r="J50" s="312"/>
     </row>
-    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="311"/>
       <c r="B51" s="314" t="s">
         <v>72</v>
@@ -10814,7 +11072,7 @@
       <c r="I51" s="311"/>
       <c r="J51" s="312"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="311"/>
       <c r="B52" s="311"/>
       <c r="C52" s="311"/>
@@ -10826,7 +11084,7 @@
       <c r="I52" s="311"/>
       <c r="J52" s="312"/>
     </row>
-    <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="311"/>
       <c r="B53" s="311"/>
       <c r="C53" s="311"/>
@@ -10840,7 +11098,7 @@
       </c>
       <c r="J53" s="311"/>
     </row>
-    <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="311"/>
       <c r="B54" s="311"/>
       <c r="C54" s="311"/>
@@ -10851,7 +11109,7 @@
       <c r="I54" s="311"/>
       <c r="J54" s="311"/>
     </row>
-    <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="311"/>
       <c r="B55" s="311"/>
       <c r="C55" s="311"/>
@@ -10864,14 +11122,14 @@
         <v>Д.Е. Серков</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="308"/>
       <c r="B56" s="308"/>
       <c r="C56" s="308"/>
       <c r="D56" s="308"/>
       <c r="E56" s="308"/>
     </row>
-    <row r="57" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="308"/>
       <c r="B57" s="308"/>
       <c r="C57" s="308"/>
@@ -10887,6 +11145,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -10903,70 +11225,6 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10975,7 +11233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -10985,20 +11243,20 @@
       <selection pane="bottomRight" activeCell="C21" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
     <col min="2" max="2" width="5" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.85546875" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -11019,49 +11277,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="540"/>
-      <c r="C2" s="541"/>
-      <c r="D2" s="542"/>
-      <c r="E2" s="549" t="s">
+      <c r="B2" s="560"/>
+      <c r="C2" s="561"/>
+      <c r="D2" s="562"/>
+      <c r="E2" s="569" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="550"/>
-      <c r="G2" s="550"/>
-      <c r="H2" s="551"/>
-      <c r="I2" s="556" t="s">
+      <c r="F2" s="570"/>
+      <c r="G2" s="570"/>
+      <c r="H2" s="571"/>
+      <c r="I2" s="576" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="557"/>
-      <c r="K2" s="560">
+      <c r="J2" s="577"/>
+      <c r="K2" s="580">
         <f>Данные!B14</f>
         <v>26</v>
       </c>
-      <c r="L2" s="561"/>
+      <c r="L2" s="581"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="552"/>
-      <c r="Q2" s="552"/>
+      <c r="P2" s="572"/>
+      <c r="Q2" s="572"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="543"/>
-      <c r="C3" s="544"/>
-      <c r="D3" s="545"/>
-      <c r="E3" s="553" t="s">
+      <c r="B3" s="563"/>
+      <c r="C3" s="564"/>
+      <c r="D3" s="565"/>
+      <c r="E3" s="573" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="554"/>
-      <c r="G3" s="554"/>
-      <c r="H3" s="555"/>
-      <c r="I3" s="558"/>
-      <c r="J3" s="559"/>
-      <c r="K3" s="562"/>
-      <c r="L3" s="563"/>
+      <c r="F3" s="574"/>
+      <c r="G3" s="574"/>
+      <c r="H3" s="575"/>
+      <c r="I3" s="578"/>
+      <c r="J3" s="579"/>
+      <c r="K3" s="582"/>
+      <c r="L3" s="583"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11070,11 +11328,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="546"/>
-      <c r="C4" s="547"/>
-      <c r="D4" s="548"/>
+      <c r="B4" s="566"/>
+      <c r="C4" s="567"/>
+      <c r="D4" s="568"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11091,12 +11349,12 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="568"/>
+      <c r="C5" s="546"/>
       <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -11105,8 +11363,8 @@
       <c r="F5" s="495"/>
       <c r="G5" s="495"/>
       <c r="H5" s="496"/>
-      <c r="I5" s="569"/>
-      <c r="J5" s="570"/>
+      <c r="I5" s="547"/>
+      <c r="J5" s="548"/>
       <c r="K5" s="495"/>
       <c r="L5" s="496"/>
       <c r="M5" s="74"/>
@@ -11117,22 +11375,22 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="571"/>
+      <c r="C6" s="549"/>
       <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="569"/>
-      <c r="J6" s="570"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="547"/>
+      <c r="J6" s="548"/>
       <c r="K6" s="495"/>
       <c r="L6" s="496"/>
       <c r="M6" s="74"/>
@@ -11143,24 +11401,24 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="574" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="575"/>
+      <c r="C7" s="553"/>
       <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="576"/>
-      <c r="F7" s="576"/>
-      <c r="G7" s="576"/>
-      <c r="H7" s="577"/>
-      <c r="I7" s="574" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="552" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="578"/>
+      <c r="J7" s="556"/>
       <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -11174,7 +11432,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -11195,7 +11453,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -11228,7 +11486,7 @@
       <c r="R9" s="325"/>
       <c r="S9" s="197"/>
     </row>
-    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -11261,7 +11519,7 @@
       <c r="R10" s="327"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>26</v>
@@ -11294,7 +11552,7 @@
       <c r="R11" s="329"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>2</v>
@@ -11327,7 +11585,7 @@
       <c r="R12" s="329"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>3</v>
@@ -11360,7 +11618,7 @@
       <c r="R13" s="329"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>27</v>
@@ -11393,7 +11651,7 @@
       <c r="R14" s="329"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>9</v>
@@ -11426,7 +11684,7 @@
       <c r="R15" s="329"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>5</v>
@@ -11459,7 +11717,7 @@
       <c r="R16" s="329"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="97" t="s">
         <v>30</v>
@@ -11492,7 +11750,7 @@
       <c r="R17" s="329"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="104" t="s">
         <v>32</v>
@@ -11525,7 +11783,7 @@
       <c r="R18" s="331"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="104" t="s">
         <v>33</v>
@@ -11558,7 +11816,7 @@
       <c r="R19" s="331"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="104" t="s">
         <v>35</v>
@@ -11591,7 +11849,7 @@
       <c r="R20" s="331"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="78"/>
       <c r="B21" s="104" t="s">
         <v>40</v>
@@ -11624,7 +11882,7 @@
       <c r="R21" s="331"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="78"/>
       <c r="B22" s="104" t="s">
         <v>41</v>
@@ -11657,14 +11915,14 @@
       <c r="R22" s="331"/>
       <c r="S22" s="86"/>
     </row>
-    <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="579" t="s">
+      <c r="B23" s="557" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="580"/>
-      <c r="D23" s="580"/>
-      <c r="E23" s="581"/>
+      <c r="C23" s="558"/>
+      <c r="D23" s="558"/>
+      <c r="E23" s="559"/>
       <c r="F23" s="116" t="s">
         <v>16</v>
       </c>
@@ -11684,14 +11942,14 @@
       <c r="R23" s="331"/>
       <c r="S23" s="86"/>
     </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="564" t="s">
+      <c r="B24" s="542" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="565"/>
-      <c r="D24" s="565"/>
-      <c r="E24" s="566"/>
+      <c r="C24" s="543"/>
+      <c r="D24" s="543"/>
+      <c r="E24" s="544"/>
       <c r="F24" s="116" t="s">
         <v>16</v>
       </c>
@@ -11711,7 +11969,7 @@
       <c r="R24" s="333"/>
       <c r="S24" s="86"/>
     </row>
-    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="110"/>
       <c r="B25" s="111"/>
       <c r="C25" s="111"/>
@@ -11732,9 +11990,15 @@
       <c r="R25" s="113"/>
       <c r="S25" s="114"/>
     </row>
-    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -11749,12 +12013,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -11774,7 +12032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -11784,20 +12042,20 @@
       <selection pane="bottomRight" activeCell="B14" sqref="B14:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
     <col min="4" max="5" width="6" style="64" customWidth="1"/>
     <col min="6" max="6" width="7" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -11818,52 +12076,52 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="582">
+      <c r="B2" s="591">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="583"/>
-      <c r="D2" s="584"/>
-      <c r="E2" s="591" t="s">
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="592"/>
-      <c r="G2" s="592"/>
-      <c r="H2" s="593"/>
-      <c r="I2" s="597" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="598"/>
-      <c r="K2" s="601">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B15</f>
         <v>26</v>
       </c>
-      <c r="L2" s="602"/>
+      <c r="L2" s="611"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="552"/>
-      <c r="Q2" s="552"/>
+      <c r="P2" s="572"/>
+      <c r="Q2" s="572"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="585"/>
-      <c r="C3" s="586"/>
-      <c r="D3" s="587"/>
-      <c r="E3" s="594" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="595"/>
-      <c r="G3" s="595"/>
-      <c r="H3" s="596"/>
-      <c r="I3" s="599"/>
-      <c r="J3" s="600"/>
-      <c r="K3" s="603"/>
-      <c r="L3" s="604"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11872,11 +12130,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="588"/>
-      <c r="C4" s="589"/>
-      <c r="D4" s="590"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -11893,12 +12151,12 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="605"/>
+      <c r="C5" s="584"/>
       <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -11907,9 +12165,9 @@
       <c r="F5" s="495"/>
       <c r="G5" s="495"/>
       <c r="H5" s="496"/>
-      <c r="I5" s="606"/>
-      <c r="J5" s="607"/>
-      <c r="K5" s="608"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
       <c r="L5" s="496"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
@@ -11919,23 +12177,23 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="605"/>
+      <c r="C6" s="584"/>
       <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="606"/>
-      <c r="J6" s="607"/>
-      <c r="K6" s="608"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
       <c r="L6" s="496"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
@@ -11945,24 +12203,24 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="574" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="609"/>
+      <c r="C7" s="588"/>
       <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="576"/>
-      <c r="F7" s="576"/>
-      <c r="G7" s="576"/>
-      <c r="H7" s="577"/>
-      <c r="I7" s="610" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="609"/>
+      <c r="J7" s="588"/>
       <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -11976,7 +12234,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -11997,7 +12255,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12030,7 +12288,7 @@
       <c r="R9" s="325"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -12063,7 +12321,7 @@
       <c r="R10" s="327"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>28</v>
@@ -12096,7 +12354,7 @@
       <c r="R11" s="329"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>4</v>
@@ -12129,7 +12387,7 @@
       <c r="R12" s="329"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>5</v>
@@ -12162,15 +12420,15 @@
       <c r="R13" s="329"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="579" t="s">
+      <c r="B14" s="557" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="580"/>
-      <c r="D14" s="580"/>
-      <c r="E14" s="580"/>
-      <c r="F14" s="611"/>
+      <c r="C14" s="558"/>
+      <c r="D14" s="558"/>
+      <c r="E14" s="558"/>
+      <c r="F14" s="590"/>
       <c r="G14" s="56" t="s">
         <v>77</v>
       </c>
@@ -12187,14 +12445,14 @@
       <c r="R14" s="331"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="564" t="s">
+      <c r="B15" s="542" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="565"/>
-      <c r="D15" s="565"/>
-      <c r="E15" s="566"/>
+      <c r="C15" s="543"/>
+      <c r="D15" s="543"/>
+      <c r="E15" s="544"/>
       <c r="F15" s="116" t="s">
         <v>16</v>
       </c>
@@ -12214,7 +12472,7 @@
       <c r="R15" s="333"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="110"/>
       <c r="B16" s="111"/>
       <c r="C16" s="111"/>
@@ -12235,16 +12493,22 @@
       <c r="R16" s="113"/>
       <c r="S16" s="114"/>
     </row>
-    <row r="17" spans="2:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B17" s="123"/>
       <c r="P17" s="124"/>
     </row>
-    <row r="18" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="123"/>
       <c r="P18" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12259,12 +12523,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12292,7 +12550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -12302,20 +12560,20 @@
       <selection pane="bottomRight" activeCell="D7" sqref="D7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.88671875" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.5546875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.5703125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -12336,49 +12594,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="540"/>
-      <c r="C2" s="541"/>
-      <c r="D2" s="542"/>
-      <c r="E2" s="549" t="s">
+      <c r="B2" s="560"/>
+      <c r="C2" s="561"/>
+      <c r="D2" s="562"/>
+      <c r="E2" s="569" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="550"/>
-      <c r="G2" s="550"/>
-      <c r="H2" s="551"/>
-      <c r="I2" s="556" t="s">
+      <c r="F2" s="570"/>
+      <c r="G2" s="570"/>
+      <c r="H2" s="571"/>
+      <c r="I2" s="576" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="557"/>
-      <c r="K2" s="560">
+      <c r="J2" s="577"/>
+      <c r="K2" s="580">
         <f>Данные!B16</f>
         <v>30</v>
       </c>
-      <c r="L2" s="561"/>
+      <c r="L2" s="581"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="552"/>
-      <c r="Q2" s="552"/>
+      <c r="P2" s="572"/>
+      <c r="Q2" s="572"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="543"/>
-      <c r="C3" s="544"/>
-      <c r="D3" s="545"/>
-      <c r="E3" s="553" t="s">
+      <c r="B3" s="563"/>
+      <c r="C3" s="564"/>
+      <c r="D3" s="565"/>
+      <c r="E3" s="573" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="554"/>
-      <c r="G3" s="554"/>
-      <c r="H3" s="555"/>
-      <c r="I3" s="558"/>
-      <c r="J3" s="559"/>
-      <c r="K3" s="562"/>
-      <c r="L3" s="563"/>
+      <c r="F3" s="574"/>
+      <c r="G3" s="574"/>
+      <c r="H3" s="575"/>
+      <c r="I3" s="578"/>
+      <c r="J3" s="579"/>
+      <c r="K3" s="582"/>
+      <c r="L3" s="583"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12387,11 +12645,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="546"/>
-      <c r="C4" s="547"/>
-      <c r="D4" s="548"/>
+      <c r="B4" s="566"/>
+      <c r="C4" s="567"/>
+      <c r="D4" s="568"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12408,12 +12666,12 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="568"/>
+      <c r="C5" s="546"/>
       <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -12422,8 +12680,8 @@
       <c r="F5" s="495"/>
       <c r="G5" s="495"/>
       <c r="H5" s="496"/>
-      <c r="I5" s="569"/>
-      <c r="J5" s="570"/>
+      <c r="I5" s="547"/>
+      <c r="J5" s="548"/>
       <c r="K5" s="495"/>
       <c r="L5" s="496"/>
       <c r="M5" s="74"/>
@@ -12434,22 +12692,22 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="571"/>
+      <c r="C6" s="549"/>
       <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="569"/>
-      <c r="J6" s="570"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="547"/>
+      <c r="J6" s="548"/>
       <c r="K6" s="495"/>
       <c r="L6" s="496"/>
       <c r="M6" s="74"/>
@@ -12460,24 +12718,24 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="574" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="575"/>
+      <c r="C7" s="553"/>
       <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="576"/>
-      <c r="F7" s="576"/>
-      <c r="G7" s="576"/>
-      <c r="H7" s="577"/>
-      <c r="I7" s="574" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="552" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="578"/>
+      <c r="J7" s="556"/>
       <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -12491,7 +12749,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -12512,7 +12770,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12548,7 +12806,7 @@
       <c r="W9" s="91"/>
       <c r="X9" s="91"/>
     </row>
-    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -12584,7 +12842,7 @@
       <c r="W10" s="91"/>
       <c r="X10" s="91"/>
     </row>
-    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>3</v>
@@ -12620,7 +12878,7 @@
       <c r="W11" s="101"/>
       <c r="X11" s="91"/>
     </row>
-    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>27</v>
@@ -12656,7 +12914,7 @@
       <c r="W12" s="102"/>
       <c r="X12" s="91"/>
     </row>
-    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>4</v>
@@ -12692,7 +12950,7 @@
       <c r="W13" s="102"/>
       <c r="X13" s="91"/>
     </row>
-    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>5</v>
@@ -12728,7 +12986,7 @@
       <c r="W14" s="102"/>
       <c r="X14" s="91"/>
     </row>
-    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>30</v>
@@ -12764,7 +13022,7 @@
       <c r="W15" s="101"/>
       <c r="X15" s="91"/>
     </row>
-    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>31</v>
@@ -12800,7 +13058,7 @@
       <c r="W16" s="102"/>
       <c r="X16" s="91"/>
     </row>
-    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="104" t="s">
         <v>32</v>
@@ -12836,7 +13094,7 @@
       <c r="W17" s="101"/>
       <c r="X17" s="91"/>
     </row>
-    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="104" t="s">
         <v>33</v>
@@ -12872,7 +13130,7 @@
       <c r="W18" s="101"/>
       <c r="X18" s="91"/>
     </row>
-    <row r="19" spans="1:24" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="104" t="s">
         <v>34</v>
@@ -12908,7 +13166,7 @@
       <c r="W19" s="101"/>
       <c r="X19" s="91"/>
     </row>
-    <row r="20" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
       <c r="B20" s="104" t="s">
         <v>35</v>
@@ -12941,7 +13199,7 @@
       <c r="R20" s="333"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
       <c r="B21" s="111"/>
       <c r="C21" s="111"/>
@@ -12962,9 +13220,11 @@
       <c r="R21" s="113"/>
       <c r="S21" s="114"/>
     </row>
-    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
@@ -12981,8 +13241,6 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -13004,7 +13262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -13014,20 +13272,20 @@
       <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="5" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="5" customWidth="1"/>
     <col min="8" max="18" width="9" style="5" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="5"/>
+    <col min="19" max="19" width="0.85546875" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -13048,49 +13306,49 @@
       <c r="R1" s="3"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="540"/>
-      <c r="C2" s="541"/>
-      <c r="D2" s="542"/>
-      <c r="E2" s="549" t="s">
+      <c r="B2" s="560"/>
+      <c r="C2" s="561"/>
+      <c r="D2" s="562"/>
+      <c r="E2" s="569" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="550"/>
-      <c r="G2" s="550"/>
-      <c r="H2" s="551"/>
-      <c r="I2" s="556" t="s">
+      <c r="F2" s="570"/>
+      <c r="G2" s="570"/>
+      <c r="H2" s="571"/>
+      <c r="I2" s="576" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="557"/>
-      <c r="K2" s="560">
+      <c r="J2" s="577"/>
+      <c r="K2" s="580">
         <f>Данные!B17</f>
         <v>30</v>
       </c>
-      <c r="L2" s="561"/>
+      <c r="L2" s="581"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="612"/>
-      <c r="Q2" s="612"/>
+      <c r="P2" s="614"/>
+      <c r="Q2" s="614"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="543"/>
-      <c r="C3" s="544"/>
-      <c r="D3" s="545"/>
-      <c r="E3" s="553" t="s">
+      <c r="B3" s="563"/>
+      <c r="C3" s="564"/>
+      <c r="D3" s="565"/>
+      <c r="E3" s="573" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="554"/>
-      <c r="G3" s="554"/>
-      <c r="H3" s="555"/>
-      <c r="I3" s="558"/>
-      <c r="J3" s="559"/>
-      <c r="K3" s="562"/>
-      <c r="L3" s="563"/>
+      <c r="F3" s="574"/>
+      <c r="G3" s="574"/>
+      <c r="H3" s="575"/>
+      <c r="I3" s="578"/>
+      <c r="J3" s="579"/>
+      <c r="K3" s="582"/>
+      <c r="L3" s="583"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13099,11 +13357,11 @@
       <c r="R3" s="15"/>
       <c r="S3" s="11"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="546"/>
-      <c r="C4" s="547"/>
-      <c r="D4" s="548"/>
+      <c r="B4" s="566"/>
+      <c r="C4" s="567"/>
+      <c r="D4" s="568"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13120,12 +13378,12 @@
       <c r="R4" s="15"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="568"/>
+      <c r="C5" s="546"/>
       <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -13134,8 +13392,8 @@
       <c r="F5" s="495"/>
       <c r="G5" s="495"/>
       <c r="H5" s="496"/>
-      <c r="I5" s="569"/>
-      <c r="J5" s="570"/>
+      <c r="I5" s="547"/>
+      <c r="J5" s="548"/>
       <c r="K5" s="495"/>
       <c r="L5" s="496"/>
       <c r="M5" s="21"/>
@@ -13146,22 +13404,22 @@
       <c r="R5" s="15"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="571"/>
+      <c r="C6" s="549"/>
       <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="569"/>
-      <c r="J6" s="570"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="547"/>
+      <c r="J6" s="548"/>
       <c r="K6" s="495"/>
       <c r="L6" s="496"/>
       <c r="M6" s="21"/>
@@ -13172,24 +13430,24 @@
       <c r="R6" s="15"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="574" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="575"/>
+      <c r="C7" s="553"/>
       <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="576"/>
-      <c r="F7" s="576"/>
-      <c r="G7" s="576"/>
-      <c r="H7" s="577"/>
-      <c r="I7" s="574" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="552" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="578"/>
+      <c r="J7" s="556"/>
       <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -13203,7 +13461,7 @@
       <c r="R7" s="23"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26"/>
@@ -13224,7 +13482,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="32"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -13257,7 +13515,7 @@
       <c r="R9" s="335"/>
       <c r="S9" s="38"/>
     </row>
-    <row r="10" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="50" t="s">
         <v>6</v>
@@ -13290,7 +13548,7 @@
       <c r="R10" s="337"/>
       <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="50" t="s">
         <v>2</v>
@@ -13323,7 +13581,7 @@
       <c r="R11" s="337"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="50" t="s">
         <v>3</v>
@@ -13356,7 +13614,7 @@
       <c r="R12" s="337"/>
       <c r="S12" s="32"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="50" t="s">
         <v>7</v>
@@ -13389,7 +13647,7 @@
       <c r="R13" s="337"/>
       <c r="S13" s="32"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
       <c r="B14" s="50" t="s">
         <v>8</v>
@@ -13422,7 +13680,7 @@
       <c r="R14" s="337"/>
       <c r="S14" s="32"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="57" t="s">
         <v>4</v>
@@ -13455,7 +13713,7 @@
       <c r="R15" s="339"/>
       <c r="S15" s="32"/>
     </row>
-    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -13476,9 +13734,20 @@
       <c r="R16" s="46"/>
       <c r="S16" s="43"/>
     </row>
-    <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -13486,17 +13755,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13519,7 +13777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13532,20 +13790,20 @@
       <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
-    <col min="8" max="18" width="8.88671875" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
+    <col min="8" max="18" width="8.85546875" style="64" customWidth="1"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -13566,62 +13824,62 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="582"/>
-      <c r="C2" s="583"/>
-      <c r="D2" s="584"/>
-      <c r="E2" s="591" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="592"/>
-      <c r="G2" s="592"/>
-      <c r="H2" s="593"/>
-      <c r="I2" s="597" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="598"/>
-      <c r="K2" s="601">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B18</f>
         <v>70</v>
       </c>
-      <c r="L2" s="602"/>
-      <c r="M2" s="613"/>
-      <c r="N2" s="614"/>
-      <c r="O2" s="614"/>
-      <c r="P2" s="614"/>
-      <c r="Q2" s="614"/>
-      <c r="R2" s="615"/>
+      <c r="L2" s="611"/>
+      <c r="M2" s="615"/>
+      <c r="N2" s="616"/>
+      <c r="O2" s="616"/>
+      <c r="P2" s="616"/>
+      <c r="Q2" s="616"/>
+      <c r="R2" s="617"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="585"/>
-      <c r="C3" s="586"/>
-      <c r="D3" s="587"/>
-      <c r="E3" s="594" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="595"/>
-      <c r="G3" s="595"/>
-      <c r="H3" s="596"/>
-      <c r="I3" s="599"/>
-      <c r="J3" s="600"/>
-      <c r="K3" s="603"/>
-      <c r="L3" s="604"/>
-      <c r="M3" s="616"/>
-      <c r="N3" s="617"/>
-      <c r="O3" s="617"/>
-      <c r="P3" s="617"/>
-      <c r="Q3" s="617"/>
-      <c r="R3" s="618"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
+      <c r="M3" s="618"/>
+      <c r="N3" s="619"/>
+      <c r="O3" s="619"/>
+      <c r="P3" s="619"/>
+      <c r="Q3" s="619"/>
+      <c r="R3" s="620"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="588"/>
-      <c r="C4" s="589"/>
-      <c r="D4" s="590"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -13630,20 +13888,20 @@
       <c r="J4" s="249"/>
       <c r="K4" s="252"/>
       <c r="L4" s="253"/>
-      <c r="M4" s="616"/>
-      <c r="N4" s="617"/>
-      <c r="O4" s="617"/>
-      <c r="P4" s="617"/>
-      <c r="Q4" s="617"/>
-      <c r="R4" s="618"/>
+      <c r="M4" s="618"/>
+      <c r="N4" s="619"/>
+      <c r="O4" s="619"/>
+      <c r="P4" s="619"/>
+      <c r="Q4" s="619"/>
+      <c r="R4" s="620"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="605"/>
+      <c r="C5" s="584"/>
       <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -13652,76 +13910,76 @@
       <c r="F5" s="495"/>
       <c r="G5" s="495"/>
       <c r="H5" s="496"/>
-      <c r="I5" s="606"/>
-      <c r="J5" s="607"/>
-      <c r="K5" s="608"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
       <c r="L5" s="496"/>
-      <c r="M5" s="616"/>
-      <c r="N5" s="617"/>
-      <c r="O5" s="617"/>
-      <c r="P5" s="617"/>
-      <c r="Q5" s="617"/>
-      <c r="R5" s="618"/>
+      <c r="M5" s="618"/>
+      <c r="N5" s="619"/>
+      <c r="O5" s="619"/>
+      <c r="P5" s="619"/>
+      <c r="Q5" s="619"/>
+      <c r="R5" s="620"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="605"/>
+      <c r="C6" s="584"/>
       <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="606"/>
-      <c r="J6" s="607"/>
-      <c r="K6" s="608"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
       <c r="L6" s="496"/>
-      <c r="M6" s="616"/>
-      <c r="N6" s="617"/>
-      <c r="O6" s="617"/>
-      <c r="P6" s="617"/>
-      <c r="Q6" s="617"/>
-      <c r="R6" s="618"/>
+      <c r="M6" s="618"/>
+      <c r="N6" s="619"/>
+      <c r="O6" s="619"/>
+      <c r="P6" s="619"/>
+      <c r="Q6" s="619"/>
+      <c r="R6" s="620"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="574" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="609"/>
+      <c r="C7" s="588"/>
       <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="576"/>
-      <c r="F7" s="576"/>
-      <c r="G7" s="576"/>
-      <c r="H7" s="577"/>
-      <c r="I7" s="610" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="609"/>
+      <c r="J7" s="588"/>
       <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
       <c r="L7" s="486"/>
-      <c r="M7" s="616"/>
-      <c r="N7" s="617"/>
-      <c r="O7" s="617"/>
-      <c r="P7" s="617"/>
-      <c r="Q7" s="617"/>
-      <c r="R7" s="618"/>
+      <c r="M7" s="618"/>
+      <c r="N7" s="619"/>
+      <c r="O7" s="619"/>
+      <c r="P7" s="619"/>
+      <c r="Q7" s="619"/>
+      <c r="R7" s="620"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -13742,7 +14000,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -13775,7 +14033,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -13808,7 +14066,7 @@
       <c r="R10" s="96"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="200" t="s">
         <v>26</v>
@@ -13841,7 +14099,7 @@
       <c r="R11" s="100"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="200" t="s">
         <v>2</v>
@@ -13874,7 +14132,7 @@
       <c r="R12" s="100"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="200" t="s">
         <v>3</v>
@@ -13907,7 +14165,7 @@
       <c r="R13" s="100"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>27</v>
@@ -13940,7 +14198,7 @@
       <c r="R14" s="100"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>28</v>
@@ -13973,7 +14231,7 @@
       <c r="R15" s="100"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>9</v>
@@ -14006,7 +14264,7 @@
       <c r="R16" s="100"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="97" t="s">
         <v>29</v>
@@ -14039,7 +14297,7 @@
       <c r="R17" s="100"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="97" t="s">
         <v>30</v>
@@ -14072,7 +14330,7 @@
       <c r="R18" s="100"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="97" t="s">
         <v>35</v>
@@ -14105,14 +14363,14 @@
       <c r="R19" s="100"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
-      <c r="B20" s="564" t="s">
+      <c r="B20" s="542" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="565"/>
-      <c r="D20" s="565"/>
-      <c r="E20" s="566"/>
+      <c r="C20" s="543"/>
+      <c r="D20" s="543"/>
+      <c r="E20" s="544"/>
       <c r="F20" s="116" t="s">
         <v>16</v>
       </c>
@@ -14132,7 +14390,7 @@
       <c r="R20" s="109"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
       <c r="B21" s="111"/>
       <c r="C21" s="111"/>
@@ -14153,18 +14411,11 @@
       <c r="R21" s="113"/>
       <c r="S21" s="114"/>
     </row>
-    <row r="22" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B22" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -14177,6 +14428,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -14196,7 +14454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -14206,19 +14464,19 @@
       <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.109375" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.140625" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -14239,49 +14497,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="582"/>
-      <c r="C2" s="583"/>
-      <c r="D2" s="584"/>
-      <c r="E2" s="591" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="592"/>
-      <c r="G2" s="592"/>
-      <c r="H2" s="593"/>
-      <c r="I2" s="597" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="598"/>
-      <c r="K2" s="601">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B19</f>
         <v>70</v>
       </c>
-      <c r="L2" s="602"/>
+      <c r="L2" s="611"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="619"/>
-      <c r="Q2" s="619"/>
+      <c r="P2" s="621"/>
+      <c r="Q2" s="621"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="585"/>
-      <c r="C3" s="586"/>
-      <c r="D3" s="587"/>
-      <c r="E3" s="594" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="595"/>
-      <c r="G3" s="595"/>
-      <c r="H3" s="596"/>
-      <c r="I3" s="599"/>
-      <c r="J3" s="600"/>
-      <c r="K3" s="603"/>
-      <c r="L3" s="604"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14290,11 +14548,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="588"/>
-      <c r="C4" s="589"/>
-      <c r="D4" s="590"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -14311,12 +14569,12 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="567" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="605"/>
+      <c r="C5" s="584"/>
       <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -14325,9 +14583,9 @@
       <c r="F5" s="495"/>
       <c r="G5" s="495"/>
       <c r="H5" s="496"/>
-      <c r="I5" s="606"/>
-      <c r="J5" s="607"/>
-      <c r="K5" s="608"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
       <c r="L5" s="496"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
@@ -14337,23 +14595,23 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="567" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="605"/>
+      <c r="C6" s="584"/>
       <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="573"/>
-      <c r="I6" s="606"/>
-      <c r="J6" s="607"/>
-      <c r="K6" s="608"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
       <c r="L6" s="496"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
@@ -14363,24 +14621,24 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="574" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="609"/>
+      <c r="C7" s="588"/>
       <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="576"/>
-      <c r="F7" s="576"/>
-      <c r="G7" s="576"/>
-      <c r="H7" s="577"/>
-      <c r="I7" s="610" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="609"/>
+      <c r="J7" s="588"/>
       <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
@@ -14394,7 +14652,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -14415,7 +14673,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -14448,7 +14706,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="129" t="s">
         <v>26</v>
@@ -14481,7 +14739,7 @@
       <c r="R10" s="100"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="129" t="s">
         <v>2</v>
@@ -14514,7 +14772,7 @@
       <c r="R11" s="100"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="129" t="s">
         <v>3</v>
@@ -14547,7 +14805,7 @@
       <c r="R12" s="100"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="129" t="s">
         <v>27</v>
@@ -14580,7 +14838,7 @@
       <c r="R13" s="100"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="129" t="s">
         <v>9</v>
@@ -14613,7 +14871,7 @@
       <c r="R14" s="100"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="129" t="s">
         <v>5</v>
@@ -14646,14 +14904,14 @@
       <c r="R15" s="100"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="564" t="s">
+      <c r="B16" s="542" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="565"/>
-      <c r="D16" s="565"/>
-      <c r="E16" s="566"/>
+      <c r="C16" s="543"/>
+      <c r="D16" s="543"/>
+      <c r="E16" s="544"/>
       <c r="F16" s="259" t="s">
         <v>16</v>
       </c>
@@ -14673,7 +14931,7 @@
       <c r="R16" s="122"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="110"/>
       <c r="B17" s="128"/>
       <c r="C17" s="127"/>
@@ -14694,20 +14952,11 @@
       <c r="R17" s="113"/>
       <c r="S17" s="114"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -14718,6 +14967,15 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-30-1-500-7 (Каласы)/от 23.10.2019 Каласы.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-30-1-500-7 (Каласы)/от 23.10.2019 Каласы.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-КПМ-30-1-500-7 (Каласы)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AAF4F2-9E5F-4A0E-BEC9-7CEB326595F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDE990E-268D-488B-9BE5-5520D214DDD4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Акт приемки'!$A$1:$J$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Горл. кольцо'!$A$1:$S$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$I$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$J$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Плунжер!$A$1:$S$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Черн. поддон'!$A$1:$S$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Черн. форма'!$A$1:$R$21</definedName>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="141">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -473,6 +473,9 @@
   <si>
     <t xml:space="preserve"> (владелец Климовичи)</t>
   </si>
+  <si>
+    <t>Вес, гр. (ном. 370 гр.)</t>
+  </si>
 </sst>
 </file>
 
@@ -485,7 +488,7 @@
     <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -886,6 +889,11 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -2163,7 +2171,7 @@
     <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="633">
+  <cellXfs count="642">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3471,41 +3479,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
@@ -3553,6 +3535,27 @@
     <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="58" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3597,11 +3600,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3620,10 +3622,77 @@
     <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3634,60 +3703,6 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3697,23 +3712,77 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3765,76 +3834,73 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3858,75 +3924,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3953,6 +3950,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3963,26 +3963,71 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6149,7 +6194,6 @@
       <sheetName val="Втулка"/>
       <sheetName val="Дут. головка"/>
       <sheetName val="Воронка"/>
-      <sheetName val="Детали ф-тов"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -6226,7 +6270,6 @@
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6568,25 +6611,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="487" t="s">
+      <c r="A1" s="482" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="491"/>
-      <c r="C1" s="491"/>
-      <c r="D1" s="491"/>
-      <c r="E1" s="491"/>
+      <c r="B1" s="486"/>
+      <c r="C1" s="486"/>
+      <c r="D1" s="486"/>
+      <c r="E1" s="486"/>
       <c r="G1" s="371" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="488" t="s">
+      <c r="A2" s="483" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="489"/>
-      <c r="C2" s="489"/>
-      <c r="D2" s="489"/>
-      <c r="E2" s="490"/>
+      <c r="B2" s="484"/>
+      <c r="C2" s="484"/>
+      <c r="D2" s="484"/>
+      <c r="E2" s="485"/>
       <c r="G2" s="370" t="s">
         <v>79</v>
       </c>
@@ -6597,45 +6640,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="492" t="s">
+      <c r="A4" s="487" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="493"/>
-      <c r="C4" s="493"/>
-      <c r="D4" s="493"/>
-      <c r="E4" s="493"/>
+      <c r="B4" s="488"/>
+      <c r="C4" s="488"/>
+      <c r="D4" s="488"/>
+      <c r="E4" s="488"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="494" t="s">
+      <c r="A5" s="489" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="495"/>
-      <c r="C5" s="495"/>
-      <c r="D5" s="495"/>
-      <c r="E5" s="496"/>
+      <c r="B5" s="490"/>
+      <c r="C5" s="490"/>
+      <c r="D5" s="490"/>
+      <c r="E5" s="491"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="487" t="s">
+      <c r="A7" s="482" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="491"/>
-      <c r="C7" s="491"/>
-      <c r="D7" s="491"/>
-      <c r="E7" s="491"/>
+      <c r="B7" s="486"/>
+      <c r="C7" s="486"/>
+      <c r="D7" s="486"/>
+      <c r="E7" s="486"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="497"/>
-      <c r="B8" s="498"/>
-      <c r="C8" s="498"/>
-      <c r="D8" s="498"/>
-      <c r="E8" s="499"/>
+      <c r="A8" s="492"/>
+      <c r="B8" s="493"/>
+      <c r="C8" s="493"/>
+      <c r="D8" s="493"/>
+      <c r="E8" s="494"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="487" t="s">
+      <c r="A10" s="482" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="487"/>
+      <c r="B10" s="482"/>
       <c r="C10" s="372"/>
       <c r="D10" s="380" t="s">
         <v>94</v>
@@ -6646,33 +6689,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="485"/>
-      <c r="B11" s="486"/>
+      <c r="A11" s="480"/>
+      <c r="B11" s="481"/>
       <c r="D11" s="379">
         <v>43761</v>
       </c>
-      <c r="F11" s="500" t="s">
+      <c r="F11" s="477" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="500"/>
-      <c r="H11" s="500"/>
-      <c r="I11" s="500"/>
-      <c r="J11" s="501" t="s">
+      <c r="G11" s="477"/>
+      <c r="H11" s="477"/>
+      <c r="I11" s="477"/>
+      <c r="J11" s="478" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="501"/>
+      <c r="K11" s="478"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="500" t="s">
+      <c r="F12" s="477" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="500"/>
-      <c r="H12" s="500"/>
-      <c r="I12" s="500"/>
-      <c r="J12" s="501" t="s">
+      <c r="G12" s="477"/>
+      <c r="H12" s="477"/>
+      <c r="I12" s="477"/>
+      <c r="J12" s="478" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="501"/>
+      <c r="K12" s="478"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="373" t="s">
@@ -6684,16 +6727,16 @@
       <c r="C13" s="384" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="500" t="s">
+      <c r="F13" s="477" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="500"/>
-      <c r="H13" s="500"/>
-      <c r="I13" s="500"/>
-      <c r="J13" s="501" t="s">
+      <c r="G13" s="477"/>
+      <c r="H13" s="477"/>
+      <c r="I13" s="477"/>
+      <c r="J13" s="478" t="s">
         <v>101</v>
       </c>
-      <c r="K13" s="501"/>
+      <c r="K13" s="478"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="375" t="s">
@@ -6847,11 +6890,11 @@
       <c r="A28" s="381"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="484" t="s">
+      <c r="A29" s="479" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="484"/>
-      <c r="C29" s="484"/>
+      <c r="B29" s="479"/>
+      <c r="C29" s="479"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -6860,12 +6903,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -6875,6 +6912,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -6928,47 +6971,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="170"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="577"/>
+      <c r="C2" s="578"/>
+      <c r="D2" s="579"/>
+      <c r="E2" s="586" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="587"/>
+      <c r="G2" s="587"/>
+      <c r="H2" s="588"/>
+      <c r="I2" s="592" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="593"/>
+      <c r="K2" s="596">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="597"/>
       <c r="M2" s="171"/>
       <c r="N2" s="172"/>
       <c r="O2" s="173"/>
-      <c r="P2" s="622"/>
-      <c r="Q2" s="622"/>
+      <c r="P2" s="615"/>
+      <c r="Q2" s="615"/>
       <c r="R2" s="174"/>
       <c r="S2" s="175"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="170"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="580"/>
+      <c r="C3" s="581"/>
+      <c r="D3" s="582"/>
+      <c r="E3" s="589" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="590"/>
+      <c r="G3" s="590"/>
+      <c r="H3" s="591"/>
+      <c r="I3" s="594"/>
+      <c r="J3" s="595"/>
+      <c r="K3" s="598"/>
+      <c r="L3" s="599"/>
       <c r="M3" s="176"/>
       <c r="N3" s="177"/>
       <c r="O3" s="177"/>
@@ -6979,9 +7022,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="170"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="583"/>
+      <c r="C4" s="584"/>
+      <c r="D4" s="585"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7000,22 +7043,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="170"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="562" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="600"/>
+      <c r="D5" s="489" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="490"/>
+      <c r="F5" s="490"/>
+      <c r="G5" s="490"/>
+      <c r="H5" s="491"/>
+      <c r="I5" s="601"/>
+      <c r="J5" s="602"/>
+      <c r="K5" s="603"/>
+      <c r="L5" s="491"/>
       <c r="M5" s="179"/>
       <c r="N5" s="177"/>
       <c r="O5" s="177"/>
@@ -7026,22 +7069,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="170"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="562" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="600"/>
+      <c r="D6" s="483" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="567"/>
+      <c r="F6" s="567"/>
+      <c r="G6" s="567"/>
+      <c r="H6" s="568"/>
+      <c r="I6" s="601"/>
+      <c r="J6" s="602"/>
+      <c r="K6" s="603"/>
+      <c r="L6" s="491"/>
       <c r="M6" s="176"/>
       <c r="N6" s="177"/>
       <c r="O6" s="177"/>
@@ -7052,27 +7095,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="170"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="569" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="497">
+      <c r="C7" s="604"/>
+      <c r="D7" s="492">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="571"/>
+      <c r="F7" s="571"/>
+      <c r="G7" s="571"/>
+      <c r="H7" s="572"/>
+      <c r="I7" s="605" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="485">
+      <c r="J7" s="604"/>
+      <c r="K7" s="480">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="481"/>
       <c r="M7" s="179"/>
       <c r="N7" s="177"/>
       <c r="O7" s="177"/>
@@ -7458,6 +7501,17 @@
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7465,17 +7519,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -7541,47 +7584,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="209"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="577"/>
+      <c r="C2" s="578"/>
+      <c r="D2" s="579"/>
+      <c r="E2" s="586" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="587"/>
+      <c r="G2" s="587"/>
+      <c r="H2" s="588"/>
+      <c r="I2" s="592" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="593"/>
+      <c r="K2" s="596">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="597"/>
       <c r="M2" s="210"/>
       <c r="N2" s="211"/>
       <c r="O2" s="212"/>
-      <c r="P2" s="626"/>
-      <c r="Q2" s="626"/>
+      <c r="P2" s="616"/>
+      <c r="Q2" s="616"/>
       <c r="R2" s="213"/>
       <c r="S2" s="214"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="209"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="580"/>
+      <c r="C3" s="581"/>
+      <c r="D3" s="582"/>
+      <c r="E3" s="589" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="590"/>
+      <c r="G3" s="590"/>
+      <c r="H3" s="591"/>
+      <c r="I3" s="594"/>
+      <c r="J3" s="595"/>
+      <c r="K3" s="598"/>
+      <c r="L3" s="599"/>
       <c r="M3" s="215"/>
       <c r="N3" s="216"/>
       <c r="O3" s="216"/>
@@ -7592,9 +7635,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="209"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="583"/>
+      <c r="C4" s="584"/>
+      <c r="D4" s="585"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7613,22 +7656,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="209"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="562" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="600"/>
+      <c r="D5" s="489" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="490"/>
+      <c r="F5" s="490"/>
+      <c r="G5" s="490"/>
+      <c r="H5" s="491"/>
+      <c r="I5" s="601"/>
+      <c r="J5" s="602"/>
+      <c r="K5" s="603"/>
+      <c r="L5" s="491"/>
       <c r="M5" s="218"/>
       <c r="N5" s="216"/>
       <c r="O5" s="216"/>
@@ -7639,22 +7682,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="209"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="562" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="600"/>
+      <c r="D6" s="483" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="567"/>
+      <c r="F6" s="567"/>
+      <c r="G6" s="567"/>
+      <c r="H6" s="568"/>
+      <c r="I6" s="601"/>
+      <c r="J6" s="602"/>
+      <c r="K6" s="603"/>
+      <c r="L6" s="491"/>
       <c r="M6" s="215"/>
       <c r="N6" s="216"/>
       <c r="O6" s="216"/>
@@ -7665,27 +7708,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="209"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="569" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="497">
+      <c r="C7" s="604"/>
+      <c r="D7" s="492">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="571"/>
+      <c r="F7" s="571"/>
+      <c r="G7" s="571"/>
+      <c r="H7" s="572"/>
+      <c r="I7" s="605" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="485">
+      <c r="J7" s="604"/>
+      <c r="K7" s="480">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="481"/>
       <c r="M7" s="218"/>
       <c r="N7" s="216"/>
       <c r="O7" s="216"/>
@@ -8014,12 +8057,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="219"/>
-      <c r="B18" s="623" t="s">
+      <c r="B18" s="617" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="624"/>
-      <c r="D18" s="624"/>
-      <c r="E18" s="625"/>
+      <c r="C18" s="618"/>
+      <c r="D18" s="618"/>
+      <c r="E18" s="619"/>
       <c r="F18" s="116" t="s">
         <v>16</v>
       </c>
@@ -8063,14 +8106,6 @@
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -8082,6 +8117,14 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8167,47 +8210,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="133"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="577"/>
+      <c r="C2" s="578"/>
+      <c r="D2" s="579"/>
+      <c r="E2" s="586" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="587"/>
+      <c r="G2" s="587"/>
+      <c r="H2" s="588"/>
+      <c r="I2" s="592" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="593"/>
+      <c r="K2" s="596">
         <f>Данные!B26</f>
         <v>24</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="597"/>
       <c r="M2" s="134"/>
       <c r="N2" s="135"/>
       <c r="O2" s="136"/>
-      <c r="P2" s="627"/>
-      <c r="Q2" s="627"/>
+      <c r="P2" s="620"/>
+      <c r="Q2" s="620"/>
       <c r="R2" s="137"/>
       <c r="S2" s="138"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="133"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="580"/>
+      <c r="C3" s="581"/>
+      <c r="D3" s="582"/>
+      <c r="E3" s="589" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="590"/>
+      <c r="G3" s="590"/>
+      <c r="H3" s="591"/>
+      <c r="I3" s="594"/>
+      <c r="J3" s="595"/>
+      <c r="K3" s="598"/>
+      <c r="L3" s="599"/>
       <c r="M3" s="139"/>
       <c r="N3" s="140"/>
       <c r="O3" s="140"/>
@@ -8218,9 +8261,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="133"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="583"/>
+      <c r="C4" s="584"/>
+      <c r="D4" s="585"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -8239,22 +8282,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="133"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="562" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="600"/>
+      <c r="D5" s="489" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="490"/>
+      <c r="F5" s="490"/>
+      <c r="G5" s="490"/>
+      <c r="H5" s="491"/>
+      <c r="I5" s="601"/>
+      <c r="J5" s="602"/>
+      <c r="K5" s="603"/>
+      <c r="L5" s="491"/>
       <c r="M5" s="142"/>
       <c r="N5" s="140"/>
       <c r="O5" s="140"/>
@@ -8265,22 +8308,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="133"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="562" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="600"/>
+      <c r="D6" s="483" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="567"/>
+      <c r="F6" s="567"/>
+      <c r="G6" s="567"/>
+      <c r="H6" s="568"/>
+      <c r="I6" s="601"/>
+      <c r="J6" s="602"/>
+      <c r="K6" s="603"/>
+      <c r="L6" s="491"/>
       <c r="M6" s="139"/>
       <c r="N6" s="140"/>
       <c r="O6" s="140"/>
@@ -8291,27 +8334,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="133"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="569" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="497">
+      <c r="C7" s="604"/>
+      <c r="D7" s="492">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="571"/>
+      <c r="F7" s="571"/>
+      <c r="G7" s="571"/>
+      <c r="H7" s="572"/>
+      <c r="I7" s="605" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="485">
+      <c r="J7" s="604"/>
+      <c r="K7" s="480">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="481"/>
       <c r="M7" s="142"/>
       <c r="N7" s="140"/>
       <c r="O7" s="140"/>
@@ -8692,6 +8735,17 @@
     <row r="21" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -8699,17 +8753,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -8775,47 +8818,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="266"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="577"/>
+      <c r="C2" s="578"/>
+      <c r="D2" s="579"/>
+      <c r="E2" s="586" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="587"/>
+      <c r="G2" s="587"/>
+      <c r="H2" s="588"/>
+      <c r="I2" s="592" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="629">
+      <c r="J2" s="593"/>
+      <c r="K2" s="622">
         <f>Данные!B23</f>
         <v>24</v>
       </c>
-      <c r="L2" s="630"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="267"/>
       <c r="N2" s="268"/>
       <c r="O2" s="269"/>
-      <c r="P2" s="628"/>
-      <c r="Q2" s="628"/>
+      <c r="P2" s="621"/>
+      <c r="Q2" s="621"/>
       <c r="R2" s="270"/>
       <c r="S2" s="271"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="266"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="580"/>
+      <c r="C3" s="581"/>
+      <c r="D3" s="582"/>
+      <c r="E3" s="589" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="631"/>
-      <c r="L3" s="632"/>
+      <c r="F3" s="590"/>
+      <c r="G3" s="590"/>
+      <c r="H3" s="591"/>
+      <c r="I3" s="594"/>
+      <c r="J3" s="595"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="272"/>
       <c r="N3" s="273"/>
       <c r="O3" s="273"/>
@@ -8826,9 +8869,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="266"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="583"/>
+      <c r="C4" s="584"/>
+      <c r="D4" s="585"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -8847,22 +8890,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="266"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="562" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="600"/>
+      <c r="D5" s="489" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="490"/>
+      <c r="F5" s="490"/>
+      <c r="G5" s="490"/>
+      <c r="H5" s="491"/>
+      <c r="I5" s="601"/>
+      <c r="J5" s="602"/>
+      <c r="K5" s="603"/>
+      <c r="L5" s="491"/>
       <c r="M5" s="275"/>
       <c r="N5" s="273"/>
       <c r="O5" s="273"/>
@@ -8873,22 +8916,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="266"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="562" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="600"/>
+      <c r="D6" s="483" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="567"/>
+      <c r="F6" s="567"/>
+      <c r="G6" s="567"/>
+      <c r="H6" s="568"/>
+      <c r="I6" s="601"/>
+      <c r="J6" s="602"/>
+      <c r="K6" s="603"/>
+      <c r="L6" s="491"/>
       <c r="M6" s="272"/>
       <c r="N6" s="273"/>
       <c r="O6" s="273"/>
@@ -8899,27 +8942,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="266"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="569" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="497">
+      <c r="C7" s="604"/>
+      <c r="D7" s="492">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="571"/>
+      <c r="F7" s="571"/>
+      <c r="G7" s="571"/>
+      <c r="H7" s="572"/>
+      <c r="I7" s="605" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="485">
+      <c r="J7" s="604"/>
+      <c r="K7" s="480">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="481"/>
       <c r="M7" s="275"/>
       <c r="N7" s="273"/>
       <c r="O7" s="273"/>
@@ -9192,7 +9235,6 @@
     <row r="17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
@@ -9210,6 +9252,7 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9238,8 +9281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9253,18 +9296,18 @@
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" customWidth="1"/>
     <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="390"/>
-      <c r="B1" s="481" t="s">
+      <c r="B1" s="469" t="s">
         <v>114</v>
       </c>
       <c r="C1" s="390"/>
-      <c r="D1" s="480" t="str">
+      <c r="D1" s="468" t="str">
         <f>Данные!A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
@@ -9294,17 +9337,17 @@
       <c r="L2" s="391"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="504" t="s">
+      <c r="A3" s="500" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="504"/>
-      <c r="C3" s="504"/>
-      <c r="D3" s="504"/>
-      <c r="E3" s="504"/>
-      <c r="F3" s="504"/>
-      <c r="G3" s="504"/>
-      <c r="H3" s="504"/>
-      <c r="I3" s="504"/>
+      <c r="B3" s="500"/>
+      <c r="C3" s="500"/>
+      <c r="D3" s="500"/>
+      <c r="E3" s="500"/>
+      <c r="F3" s="500"/>
+      <c r="G3" s="500"/>
+      <c r="H3" s="500"/>
+      <c r="I3" s="500"/>
       <c r="K3" s="392"/>
       <c r="L3" s="392"/>
       <c r="M3" s="393"/>
@@ -9617,7 +9660,7 @@
         <f>Данные!$B22</f>
         <v>нет</v>
       </c>
-      <c r="E14" s="479" t="s">
+      <c r="E14" s="467" t="s">
         <v>93</v>
       </c>
       <c r="F14" s="389"/>
@@ -9782,7 +9825,9 @@
       <c r="I20" s="431" t="s">
         <v>132</v>
       </c>
-      <c r="J20" s="401"/>
+      <c r="J20" s="431" t="s">
+        <v>140</v>
+      </c>
       <c r="K20" s="401"/>
       <c r="L20" s="401"/>
     </row>
@@ -9818,7 +9863,7 @@
         <f>1-G21</f>
         <v>0.97145763736263735</v>
       </c>
-      <c r="J21" s="439"/>
+      <c r="J21" s="473"/>
       <c r="K21" s="413"/>
       <c r="L21" s="413"/>
     </row>
@@ -9851,166 +9896,208 @@
         <f>I21-G22</f>
         <v>0.92308510989010983</v>
       </c>
-      <c r="J22" s="393"/>
+      <c r="J22" s="474"/>
       <c r="K22" s="393"/>
       <c r="L22" s="393"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="445"/>
-      <c r="B23" s="446"/>
-      <c r="C23" s="446"/>
-      <c r="D23" s="446"/>
-      <c r="E23" s="447"/>
-      <c r="F23" s="447"/>
-      <c r="G23" s="448"/>
-      <c r="H23" s="449"/>
-      <c r="I23" s="450"/>
-      <c r="J23" s="439"/>
+      <c r="B23" s="446">
+        <v>44186</v>
+      </c>
+      <c r="C23" s="446">
+        <v>44188</v>
+      </c>
+      <c r="D23" s="472">
+        <v>44200</v>
+      </c>
+      <c r="E23" s="447">
+        <v>504216</v>
+      </c>
+      <c r="F23" s="447">
+        <v>530100</v>
+      </c>
+      <c r="G23" s="436">
+        <f t="shared" ref="G23" si="2">F23/A$21</f>
+        <v>2.9126373626373627E-2</v>
+      </c>
+      <c r="H23" s="443">
+        <f t="shared" ref="H23" si="3">H22-F23</f>
+        <v>16270049</v>
+      </c>
+      <c r="I23" s="444">
+        <f t="shared" ref="I23" si="4">I22-G23</f>
+        <v>0.89395873626373623</v>
+      </c>
+      <c r="J23" s="475">
+        <v>360</v>
+      </c>
       <c r="K23" s="413"/>
       <c r="L23" s="413"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="445"/>
-      <c r="B24" s="385"/>
-      <c r="C24" s="385"/>
-      <c r="D24" s="385"/>
-      <c r="E24" s="385"/>
-      <c r="F24" s="385"/>
-      <c r="G24" s="385"/>
-      <c r="H24" s="385"/>
-      <c r="I24" s="451"/>
-      <c r="J24" s="439"/>
+      <c r="B24" s="379">
+        <v>44341</v>
+      </c>
+      <c r="C24" s="379">
+        <v>44343</v>
+      </c>
+      <c r="D24" s="379">
+        <v>44349</v>
+      </c>
+      <c r="E24" s="638">
+        <v>450576</v>
+      </c>
+      <c r="F24" s="638">
+        <v>500850</v>
+      </c>
+      <c r="G24" s="436">
+        <f t="shared" ref="G24" si="5">F24/A$21</f>
+        <v>2.7519230769230768E-2</v>
+      </c>
+      <c r="H24" s="443">
+        <f t="shared" ref="H24" si="6">H23-F24</f>
+        <v>15769199</v>
+      </c>
+      <c r="I24" s="444">
+        <f t="shared" ref="I24" si="7">I23-G24</f>
+        <v>0.86643950549450544</v>
+      </c>
+      <c r="J24" s="626">
+        <v>359</v>
+      </c>
       <c r="K24" s="439"/>
       <c r="L24" s="393"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="445"/>
-      <c r="B25" s="446"/>
-      <c r="C25" s="446"/>
-      <c r="D25" s="446"/>
-      <c r="E25" s="447"/>
-      <c r="F25" s="447"/>
-      <c r="G25" s="452"/>
-      <c r="H25" s="449"/>
-      <c r="I25" s="450"/>
-      <c r="J25" s="439"/>
-      <c r="K25" s="453"/>
+      <c r="B25" s="379"/>
+      <c r="C25" s="379"/>
+      <c r="D25" s="379"/>
+      <c r="E25" s="639"/>
+      <c r="F25" s="639"/>
+      <c r="G25" s="628"/>
+      <c r="H25" s="627"/>
+      <c r="I25" s="448"/>
+      <c r="J25" s="475"/>
+      <c r="K25" s="449"/>
       <c r="L25" s="393"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="445"/>
-      <c r="B26" s="446"/>
-      <c r="C26" s="446"/>
-      <c r="D26" s="446"/>
-      <c r="E26" s="447"/>
-      <c r="F26" s="447"/>
-      <c r="G26" s="452"/>
-      <c r="H26" s="449"/>
-      <c r="I26" s="450"/>
-      <c r="J26" s="439"/>
+      <c r="B26" s="379"/>
+      <c r="C26" s="379"/>
+      <c r="D26" s="379"/>
+      <c r="E26" s="639"/>
+      <c r="F26" s="639"/>
+      <c r="G26" s="628"/>
+      <c r="H26" s="627"/>
+      <c r="I26" s="448"/>
+      <c r="J26" s="475"/>
       <c r="K26" s="439"/>
       <c r="L26" s="393"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="445"/>
-      <c r="B27" s="446"/>
-      <c r="C27" s="446"/>
-      <c r="D27" s="446"/>
-      <c r="E27" s="449"/>
-      <c r="F27" s="447"/>
-      <c r="G27" s="452"/>
-      <c r="H27" s="449"/>
-      <c r="I27" s="450"/>
-      <c r="J27" s="439"/>
+      <c r="B27" s="379"/>
+      <c r="C27" s="379"/>
+      <c r="D27" s="379"/>
+      <c r="E27" s="639"/>
+      <c r="F27" s="639"/>
+      <c r="G27" s="628"/>
+      <c r="H27" s="627"/>
+      <c r="I27" s="448"/>
+      <c r="J27" s="475"/>
       <c r="K27" s="439"/>
       <c r="L27" s="393"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="445"/>
-      <c r="B28" s="446"/>
-      <c r="C28" s="446"/>
-      <c r="D28" s="446"/>
-      <c r="E28" s="449"/>
-      <c r="F28" s="447"/>
-      <c r="G28" s="452"/>
-      <c r="H28" s="449"/>
-      <c r="I28" s="450"/>
-      <c r="J28" s="439"/>
+      <c r="B28" s="379"/>
+      <c r="C28" s="379"/>
+      <c r="D28" s="379"/>
+      <c r="E28" s="639"/>
+      <c r="F28" s="639"/>
+      <c r="G28" s="628"/>
+      <c r="H28" s="627"/>
+      <c r="I28" s="448"/>
+      <c r="J28" s="475"/>
       <c r="K28" s="439"/>
       <c r="L28" s="393"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="445"/>
-      <c r="B29" s="446"/>
-      <c r="C29" s="446"/>
-      <c r="D29" s="385"/>
-      <c r="E29" s="385"/>
-      <c r="F29" s="447"/>
-      <c r="G29" s="454"/>
-      <c r="H29" s="449"/>
-      <c r="I29" s="455"/>
-      <c r="J29" s="439"/>
+      <c r="B29" s="379"/>
+      <c r="C29" s="379"/>
+      <c r="D29" s="376"/>
+      <c r="E29" s="638"/>
+      <c r="F29" s="639"/>
+      <c r="G29" s="629"/>
+      <c r="H29" s="627"/>
+      <c r="I29" s="630"/>
+      <c r="J29" s="631"/>
       <c r="K29" s="439"/>
       <c r="L29" s="393"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="445"/>
-      <c r="B30" s="446"/>
-      <c r="C30" s="446"/>
-      <c r="D30" s="385"/>
-      <c r="E30" s="385"/>
-      <c r="F30" s="447"/>
-      <c r="G30" s="452"/>
-      <c r="H30" s="449"/>
-      <c r="I30" s="455"/>
-      <c r="J30" s="439"/>
+      <c r="B30" s="379"/>
+      <c r="C30" s="379"/>
+      <c r="D30" s="376"/>
+      <c r="E30" s="638"/>
+      <c r="F30" s="639"/>
+      <c r="G30" s="628"/>
+      <c r="H30" s="627"/>
+      <c r="I30" s="630"/>
+      <c r="J30" s="631"/>
       <c r="K30" s="439"/>
       <c r="L30" s="393"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="456"/>
-      <c r="B31" s="457"/>
-      <c r="C31" s="457"/>
-      <c r="D31" s="458"/>
-      <c r="E31" s="458"/>
-      <c r="F31" s="459"/>
-      <c r="G31" s="460"/>
-      <c r="H31" s="461"/>
-      <c r="I31" s="462"/>
-      <c r="J31" s="393"/>
+      <c r="A31" s="450"/>
+      <c r="B31" s="632"/>
+      <c r="C31" s="632"/>
+      <c r="D31" s="633"/>
+      <c r="E31" s="640"/>
+      <c r="F31" s="641"/>
+      <c r="G31" s="634"/>
+      <c r="H31" s="635"/>
+      <c r="I31" s="636"/>
+      <c r="J31" s="637"/>
       <c r="K31" s="393"/>
       <c r="L31" s="393"/>
     </row>
     <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="463" t="s">
+      <c r="A32" s="451" t="s">
         <v>133</v>
       </c>
-      <c r="B32" s="464"/>
-      <c r="C32" s="464"/>
-      <c r="D32" s="465"/>
-      <c r="E32" s="482">
+      <c r="B32" s="452"/>
+      <c r="C32" s="452"/>
+      <c r="D32" s="453"/>
+      <c r="E32" s="470">
         <f>SUM(E21:E31)</f>
-        <v>1296300</v>
-      </c>
-      <c r="F32" s="483">
+        <v>2251092</v>
+      </c>
+      <c r="F32" s="471">
         <f>SUM(F21:F31)</f>
-        <v>1399851</v>
-      </c>
-      <c r="G32" s="466">
+        <v>2430801</v>
+      </c>
+      <c r="G32" s="454">
         <f>SUM(G21:G31)</f>
-        <v>7.6914890109890111E-2</v>
-      </c>
-      <c r="H32" s="467">
+        <v>0.13356049450549451</v>
+      </c>
+      <c r="H32" s="455">
         <f>A21-F32</f>
-        <v>16800149</v>
-      </c>
-      <c r="I32" s="468">
+        <v>15769199</v>
+      </c>
+      <c r="I32" s="456">
         <f>1-G32</f>
-        <v>0.92308510989010983</v>
-      </c>
-      <c r="J32" s="469"/>
-      <c r="K32" s="469"/>
-      <c r="L32" s="469"/>
+        <v>0.86643950549450555</v>
+      </c>
+      <c r="J32" s="476"/>
+      <c r="K32" s="457"/>
+      <c r="L32" s="457"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="393"/>
@@ -10025,12 +10112,12 @@
       <c r="J35" s="393"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="505" t="s">
+      <c r="A36" s="501" t="s">
         <v>134</v>
       </c>
-      <c r="B36" s="505"/>
-      <c r="C36" s="505"/>
-      <c r="D36" s="505"/>
+      <c r="B36" s="501"/>
+      <c r="C36" s="501"/>
+      <c r="D36" s="501"/>
       <c r="E36" s="393"/>
       <c r="F36" s="393"/>
       <c r="G36" s="393"/>
@@ -10039,14 +10126,14 @@
       <c r="J36" s="393"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="506" t="s">
+      <c r="A37" s="502" t="s">
         <v>135</v>
       </c>
-      <c r="B37" s="506"/>
-      <c r="C37" s="470" t="s">
+      <c r="B37" s="502"/>
+      <c r="C37" s="458" t="s">
         <v>136</v>
       </c>
-      <c r="D37" s="470" t="s">
+      <c r="D37" s="458" t="s">
         <v>137</v>
       </c>
       <c r="E37" s="393"/>
@@ -10057,27 +10144,27 @@
       <c r="J37" s="393"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="507">
+      <c r="A38" s="503">
         <f>A21-F32</f>
-        <v>16800149</v>
-      </c>
-      <c r="B38" s="508"/>
-      <c r="C38" s="471">
+        <v>15769199</v>
+      </c>
+      <c r="B38" s="504"/>
+      <c r="C38" s="459">
         <f>1-G32</f>
-        <v>0.92308510989010983</v>
-      </c>
-      <c r="D38" s="472">
+        <v>0.86643950549450555</v>
+      </c>
+      <c r="D38" s="460">
         <f>(C38/0.8)*100</f>
-        <v>115.38563873626373</v>
-      </c>
-      <c r="E38" s="473" t="s">
+        <v>108.30493818681319</v>
+      </c>
+      <c r="E38" s="461" t="s">
         <v>138</v>
       </c>
-      <c r="F38" s="473"/>
-      <c r="G38" s="473"/>
-      <c r="H38" s="473"/>
-      <c r="I38" s="473"/>
-      <c r="J38" s="473"/>
+      <c r="F38" s="461"/>
+      <c r="G38" s="461"/>
+      <c r="H38" s="461"/>
+      <c r="I38" s="461"/>
+      <c r="J38" s="461"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="393"/>
@@ -10104,8 +10191,8 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="393"/>
-      <c r="B41" s="474"/>
-      <c r="C41" s="474"/>
+      <c r="B41" s="462"/>
+      <c r="C41" s="462"/>
       <c r="D41" s="393"/>
       <c r="E41" s="393"/>
       <c r="F41" s="393"/>
@@ -10115,113 +10202,113 @@
       <c r="J41" s="393"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="475"/>
-      <c r="B42" s="475"/>
-      <c r="C42" s="475"/>
-      <c r="D42" s="475"/>
-      <c r="E42" s="475"/>
-      <c r="F42" s="475"/>
-      <c r="G42" s="475"/>
-      <c r="H42" s="475"/>
-      <c r="I42" s="509"/>
-      <c r="J42" s="510"/>
+      <c r="A42" s="463"/>
+      <c r="B42" s="463"/>
+      <c r="C42" s="463"/>
+      <c r="D42" s="463"/>
+      <c r="E42" s="463"/>
+      <c r="F42" s="463"/>
+      <c r="G42" s="463"/>
+      <c r="H42" s="463"/>
+      <c r="I42" s="495"/>
+      <c r="J42" s="496"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="476"/>
-      <c r="B43" s="477"/>
-      <c r="C43" s="477"/>
+      <c r="A43" s="464"/>
+      <c r="B43" s="465"/>
+      <c r="C43" s="465"/>
       <c r="D43" s="393"/>
       <c r="E43" s="393"/>
-      <c r="F43" s="477"/>
+      <c r="F43" s="465"/>
       <c r="G43" s="423"/>
-      <c r="H43" s="477"/>
+      <c r="H43" s="465"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="476"/>
-      <c r="B44" s="477"/>
-      <c r="C44" s="477"/>
-      <c r="D44" s="477"/>
-      <c r="E44" s="477"/>
-      <c r="F44" s="477"/>
+      <c r="A44" s="464"/>
+      <c r="B44" s="465"/>
+      <c r="C44" s="465"/>
+      <c r="D44" s="465"/>
+      <c r="E44" s="465"/>
+      <c r="F44" s="465"/>
       <c r="G44" s="423"/>
-      <c r="H44" s="477"/>
+      <c r="H44" s="465"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="476"/>
-      <c r="B45" s="477"/>
-      <c r="C45" s="477"/>
+      <c r="A45" s="464"/>
+      <c r="B45" s="465"/>
+      <c r="C45" s="465"/>
       <c r="D45" s="393"/>
       <c r="E45" s="393"/>
-      <c r="F45" s="477"/>
+      <c r="F45" s="465"/>
       <c r="G45" s="423"/>
-      <c r="H45" s="477"/>
+      <c r="H45" s="465"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="476"/>
-      <c r="B46" s="477"/>
-      <c r="C46" s="477"/>
-      <c r="D46" s="477"/>
-      <c r="E46" s="477"/>
-      <c r="F46" s="477"/>
+      <c r="A46" s="464"/>
+      <c r="B46" s="465"/>
+      <c r="C46" s="465"/>
+      <c r="D46" s="465"/>
+      <c r="E46" s="465"/>
+      <c r="F46" s="465"/>
       <c r="G46" s="423"/>
-      <c r="H46" s="477"/>
+      <c r="H46" s="465"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="476"/>
-      <c r="B47" s="477"/>
-      <c r="C47" s="477"/>
+      <c r="A47" s="464"/>
+      <c r="B47" s="465"/>
+      <c r="C47" s="465"/>
       <c r="D47" s="393"/>
       <c r="E47" s="393"/>
-      <c r="F47" s="477"/>
+      <c r="F47" s="465"/>
       <c r="G47" s="423"/>
-      <c r="H47" s="477"/>
+      <c r="H47" s="465"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="476"/>
-      <c r="B48" s="477"/>
+      <c r="A48" s="464"/>
+      <c r="B48" s="465"/>
       <c r="C48" s="413"/>
-      <c r="D48" s="478"/>
-      <c r="E48" s="478"/>
+      <c r="D48" s="466"/>
+      <c r="E48" s="466"/>
       <c r="F48" s="413"/>
       <c r="G48" s="413"/>
       <c r="H48" s="413"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="476"/>
-      <c r="B49" s="477"/>
-      <c r="C49" s="477"/>
-      <c r="D49" s="477"/>
-      <c r="E49" s="477"/>
-      <c r="F49" s="477"/>
+      <c r="A49" s="464"/>
+      <c r="B49" s="465"/>
+      <c r="C49" s="465"/>
+      <c r="D49" s="465"/>
+      <c r="E49" s="465"/>
+      <c r="F49" s="465"/>
       <c r="G49" s="423"/>
-      <c r="H49" s="477"/>
+      <c r="H49" s="465"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="476"/>
-      <c r="B50" s="477"/>
-      <c r="C50" s="477"/>
-      <c r="D50" s="477"/>
-      <c r="E50" s="477"/>
-      <c r="F50" s="477"/>
+      <c r="A50" s="464"/>
+      <c r="B50" s="465"/>
+      <c r="C50" s="465"/>
+      <c r="D50" s="465"/>
+      <c r="E50" s="465"/>
+      <c r="F50" s="465"/>
       <c r="G50" s="423"/>
-      <c r="H50" s="477"/>
+      <c r="H50" s="465"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="476"/>
-      <c r="B51" s="477"/>
-      <c r="C51" s="477"/>
+      <c r="A51" s="464"/>
+      <c r="B51" s="465"/>
+      <c r="C51" s="465"/>
       <c r="D51" s="393"/>
       <c r="E51" s="393"/>
-      <c r="F51" s="477"/>
+      <c r="F51" s="465"/>
       <c r="G51" s="423"/>
-      <c r="H51" s="477"/>
+      <c r="H51" s="465"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="393"/>
-      <c r="B52" s="502"/>
-      <c r="C52" s="502"/>
-      <c r="D52" s="503"/>
-      <c r="E52" s="473"/>
+      <c r="B52" s="498"/>
+      <c r="C52" s="498"/>
+      <c r="D52" s="499"/>
+      <c r="E52" s="461"/>
       <c r="F52" s="393"/>
       <c r="G52" s="393"/>
       <c r="H52" s="393"/>
@@ -10229,31 +10316,31 @@
       <c r="J52" s="393"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="475"/>
-      <c r="B53" s="475"/>
-      <c r="C53" s="475"/>
-      <c r="D53" s="475"/>
-      <c r="E53" s="475"/>
-      <c r="F53" s="475"/>
-      <c r="G53" s="475"/>
-      <c r="H53" s="475"/>
-      <c r="I53" s="509"/>
-      <c r="J53" s="510"/>
+      <c r="A53" s="463"/>
+      <c r="B53" s="463"/>
+      <c r="C53" s="463"/>
+      <c r="D53" s="463"/>
+      <c r="E53" s="463"/>
+      <c r="F53" s="463"/>
+      <c r="G53" s="463"/>
+      <c r="H53" s="463"/>
+      <c r="I53" s="495"/>
+      <c r="J53" s="496"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="476"/>
+      <c r="A54" s="464"/>
       <c r="B54" s="393"/>
       <c r="C54" s="393"/>
       <c r="D54" s="393"/>
       <c r="E54" s="393"/>
       <c r="F54" s="423"/>
       <c r="G54" s="423"/>
-      <c r="H54" s="477"/>
-      <c r="I54" s="511"/>
-      <c r="J54" s="511"/>
+      <c r="H54" s="465"/>
+      <c r="I54" s="497"/>
+      <c r="J54" s="497"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="476"/>
+      <c r="A55" s="464"/>
       <c r="B55" s="393"/>
       <c r="C55" s="393"/>
       <c r="D55" s="413"/>
@@ -10261,8 +10348,8 @@
       <c r="F55" s="413"/>
       <c r="G55" s="413"/>
       <c r="H55" s="413"/>
-      <c r="I55" s="511"/>
-      <c r="J55" s="511"/>
+      <c r="I55" s="497"/>
+      <c r="J55" s="497"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="393"/>
@@ -10275,26 +10362,26 @@
       <c r="H56" s="393"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="509"/>
-      <c r="C61" s="510"/>
+      <c r="B61" s="495"/>
+      <c r="C61" s="496"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="509"/>
-      <c r="C68" s="510"/>
+      <c r="B68" s="495"/>
+      <c r="C68" s="496"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10376,47 +10463,47 @@
       <c r="J8" s="317"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="513" t="s">
+      <c r="A11" s="530" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="513"/>
-      <c r="C11" s="513"/>
-      <c r="D11" s="513"/>
-      <c r="E11" s="513"/>
-      <c r="F11" s="513"/>
-      <c r="G11" s="513"/>
-      <c r="H11" s="513"/>
-      <c r="I11" s="513"/>
-      <c r="J11" s="513"/>
+      <c r="B11" s="530"/>
+      <c r="C11" s="530"/>
+      <c r="D11" s="530"/>
+      <c r="E11" s="530"/>
+      <c r="F11" s="530"/>
+      <c r="G11" s="530"/>
+      <c r="H11" s="530"/>
+      <c r="I11" s="530"/>
+      <c r="J11" s="530"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="512" t="s">
+      <c r="A12" s="529" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="512"/>
-      <c r="C12" s="512"/>
-      <c r="D12" s="512"/>
-      <c r="E12" s="512"/>
-      <c r="F12" s="512"/>
-      <c r="G12" s="512"/>
-      <c r="H12" s="512"/>
-      <c r="I12" s="512"/>
-      <c r="J12" s="512"/>
+      <c r="B12" s="529"/>
+      <c r="C12" s="529"/>
+      <c r="D12" s="529"/>
+      <c r="E12" s="529"/>
+      <c r="F12" s="529"/>
+      <c r="G12" s="529"/>
+      <c r="H12" s="529"/>
+      <c r="I12" s="529"/>
+      <c r="J12" s="529"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="514" t="str">
+      <c r="A13" s="531" t="str">
         <f>Данные!A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="B13" s="513"/>
-      <c r="C13" s="513"/>
-      <c r="D13" s="513"/>
-      <c r="E13" s="513"/>
-      <c r="F13" s="513"/>
-      <c r="G13" s="513"/>
-      <c r="H13" s="513"/>
-      <c r="I13" s="513"/>
-      <c r="J13" s="513"/>
+      <c r="B13" s="530"/>
+      <c r="C13" s="530"/>
+      <c r="D13" s="530"/>
+      <c r="E13" s="530"/>
+      <c r="F13" s="530"/>
+      <c r="G13" s="530"/>
+      <c r="H13" s="530"/>
+      <c r="I13" s="530"/>
+      <c r="J13" s="530"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="311" t="s">
@@ -10541,482 +10628,482 @@
       <c r="J21" s="312"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="518" t="s">
+      <c r="A22" s="527" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="518" t="s">
+      <c r="B22" s="527" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="518"/>
-      <c r="D22" s="518"/>
-      <c r="E22" s="518" t="s">
+      <c r="C22" s="527"/>
+      <c r="D22" s="527"/>
+      <c r="E22" s="527" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="518"/>
-      <c r="G22" s="536" t="s">
+      <c r="F22" s="527"/>
+      <c r="G22" s="528" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="518" t="s">
+      <c r="H22" s="527" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="518"/>
-      <c r="J22" s="518"/>
+      <c r="I22" s="527"/>
+      <c r="J22" s="527"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="518"/>
-      <c r="B23" s="518"/>
-      <c r="C23" s="518"/>
-      <c r="D23" s="518"/>
-      <c r="E23" s="518"/>
-      <c r="F23" s="518"/>
-      <c r="G23" s="536"/>
-      <c r="H23" s="518"/>
-      <c r="I23" s="518"/>
-      <c r="J23" s="518"/>
+      <c r="A23" s="527"/>
+      <c r="B23" s="527"/>
+      <c r="C23" s="527"/>
+      <c r="D23" s="527"/>
+      <c r="E23" s="527"/>
+      <c r="F23" s="527"/>
+      <c r="G23" s="528"/>
+      <c r="H23" s="527"/>
+      <c r="I23" s="527"/>
+      <c r="J23" s="527"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="519">
+      <c r="A24" s="505">
         <v>1</v>
       </c>
-      <c r="B24" s="533" t="s">
+      <c r="B24" s="532" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="534"/>
-      <c r="D24" s="535"/>
-      <c r="E24" s="521" t="str">
+      <c r="C24" s="533"/>
+      <c r="D24" s="534"/>
+      <c r="E24" s="510" t="str">
         <f>Данные!C14</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F24" s="522"/>
-      <c r="G24" s="525">
+      <c r="F24" s="511"/>
+      <c r="G24" s="514">
         <f>Данные!B14</f>
         <v>26</v>
       </c>
-      <c r="H24" s="527"/>
-      <c r="I24" s="528"/>
-      <c r="J24" s="529"/>
+      <c r="H24" s="516"/>
+      <c r="I24" s="517"/>
+      <c r="J24" s="518"/>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="520"/>
-      <c r="B25" s="515" t="str">
+      <c r="A25" s="525"/>
+      <c r="B25" s="522" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C25" s="516"/>
-      <c r="D25" s="517"/>
-      <c r="E25" s="523"/>
-      <c r="F25" s="524"/>
-      <c r="G25" s="526"/>
-      <c r="H25" s="530"/>
-      <c r="I25" s="531"/>
-      <c r="J25" s="532"/>
+      <c r="C25" s="523"/>
+      <c r="D25" s="524"/>
+      <c r="E25" s="526"/>
+      <c r="F25" s="513"/>
+      <c r="G25" s="515"/>
+      <c r="H25" s="519"/>
+      <c r="I25" s="520"/>
+      <c r="J25" s="521"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="519">
+      <c r="A26" s="505">
         <v>1</v>
       </c>
-      <c r="B26" s="537" t="s">
+      <c r="B26" s="507" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="538"/>
-      <c r="D26" s="539"/>
-      <c r="E26" s="521" t="str">
+      <c r="C26" s="508"/>
+      <c r="D26" s="509"/>
+      <c r="E26" s="510" t="str">
         <f>Данные!C15</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F26" s="522"/>
-      <c r="G26" s="525">
+      <c r="F26" s="511"/>
+      <c r="G26" s="514">
         <f>Данные!B15</f>
         <v>26</v>
       </c>
-      <c r="H26" s="527"/>
-      <c r="I26" s="528"/>
-      <c r="J26" s="529"/>
+      <c r="H26" s="516"/>
+      <c r="I26" s="517"/>
+      <c r="J26" s="518"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="520"/>
-      <c r="B27" s="515" t="str">
+      <c r="A27" s="525"/>
+      <c r="B27" s="522" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C27" s="516"/>
-      <c r="D27" s="517"/>
-      <c r="E27" s="523"/>
-      <c r="F27" s="524"/>
-      <c r="G27" s="526"/>
-      <c r="H27" s="530"/>
-      <c r="I27" s="531"/>
-      <c r="J27" s="532"/>
+      <c r="C27" s="523"/>
+      <c r="D27" s="524"/>
+      <c r="E27" s="526"/>
+      <c r="F27" s="513"/>
+      <c r="G27" s="515"/>
+      <c r="H27" s="519"/>
+      <c r="I27" s="520"/>
+      <c r="J27" s="521"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="519">
+      <c r="A28" s="505">
         <v>1</v>
       </c>
-      <c r="B28" s="537" t="s">
+      <c r="B28" s="507" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="538"/>
-      <c r="D28" s="539"/>
-      <c r="E28" s="521" t="str">
+      <c r="C28" s="508"/>
+      <c r="D28" s="509"/>
+      <c r="E28" s="510" t="str">
         <f>Данные!C16</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F28" s="522"/>
-      <c r="G28" s="525">
+      <c r="F28" s="511"/>
+      <c r="G28" s="514">
         <f>Данные!B16</f>
         <v>30</v>
       </c>
-      <c r="H28" s="527"/>
-      <c r="I28" s="528"/>
-      <c r="J28" s="529"/>
+      <c r="H28" s="516"/>
+      <c r="I28" s="517"/>
+      <c r="J28" s="518"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="520"/>
-      <c r="B29" s="515" t="str">
+      <c r="A29" s="525"/>
+      <c r="B29" s="522" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C29" s="516"/>
-      <c r="D29" s="517"/>
-      <c r="E29" s="523"/>
-      <c r="F29" s="524"/>
-      <c r="G29" s="526"/>
-      <c r="H29" s="530"/>
-      <c r="I29" s="531"/>
-      <c r="J29" s="532"/>
+      <c r="C29" s="523"/>
+      <c r="D29" s="524"/>
+      <c r="E29" s="526"/>
+      <c r="F29" s="513"/>
+      <c r="G29" s="515"/>
+      <c r="H29" s="519"/>
+      <c r="I29" s="520"/>
+      <c r="J29" s="521"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="519">
+      <c r="A30" s="505">
         <v>1</v>
       </c>
-      <c r="B30" s="537" t="s">
+      <c r="B30" s="507" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="538"/>
-      <c r="D30" s="539"/>
-      <c r="E30" s="521" t="str">
+      <c r="C30" s="508"/>
+      <c r="D30" s="509"/>
+      <c r="E30" s="510" t="str">
         <f>Данные!C17</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F30" s="522"/>
-      <c r="G30" s="525">
+      <c r="F30" s="511"/>
+      <c r="G30" s="514">
         <f>Данные!B17</f>
         <v>30</v>
       </c>
-      <c r="H30" s="527"/>
-      <c r="I30" s="528"/>
-      <c r="J30" s="529"/>
+      <c r="H30" s="516"/>
+      <c r="I30" s="517"/>
+      <c r="J30" s="518"/>
     </row>
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="540"/>
-      <c r="B31" s="515" t="str">
+      <c r="A31" s="506"/>
+      <c r="B31" s="522" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C31" s="516"/>
-      <c r="D31" s="517"/>
-      <c r="E31" s="541"/>
-      <c r="F31" s="524"/>
-      <c r="G31" s="526"/>
-      <c r="H31" s="530"/>
-      <c r="I31" s="531"/>
-      <c r="J31" s="532"/>
+      <c r="C31" s="523"/>
+      <c r="D31" s="524"/>
+      <c r="E31" s="512"/>
+      <c r="F31" s="513"/>
+      <c r="G31" s="515"/>
+      <c r="H31" s="519"/>
+      <c r="I31" s="520"/>
+      <c r="J31" s="521"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="519">
+      <c r="A32" s="505">
         <v>1</v>
       </c>
-      <c r="B32" s="537" t="s">
+      <c r="B32" s="507" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="538"/>
-      <c r="D32" s="539"/>
-      <c r="E32" s="521" t="str">
+      <c r="C32" s="508"/>
+      <c r="D32" s="509"/>
+      <c r="E32" s="510" t="str">
         <f>Данные!C18</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F32" s="522"/>
-      <c r="G32" s="525">
+      <c r="F32" s="511"/>
+      <c r="G32" s="514">
         <f>Данные!B18</f>
         <v>70</v>
       </c>
-      <c r="H32" s="527"/>
-      <c r="I32" s="528"/>
-      <c r="J32" s="529"/>
+      <c r="H32" s="516"/>
+      <c r="I32" s="517"/>
+      <c r="J32" s="518"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="540"/>
-      <c r="B33" s="515" t="str">
+      <c r="A33" s="506"/>
+      <c r="B33" s="522" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C33" s="516"/>
-      <c r="D33" s="517"/>
-      <c r="E33" s="541"/>
-      <c r="F33" s="524"/>
-      <c r="G33" s="526"/>
-      <c r="H33" s="530"/>
-      <c r="I33" s="531"/>
-      <c r="J33" s="532"/>
+      <c r="C33" s="523"/>
+      <c r="D33" s="524"/>
+      <c r="E33" s="512"/>
+      <c r="F33" s="513"/>
+      <c r="G33" s="515"/>
+      <c r="H33" s="519"/>
+      <c r="I33" s="520"/>
+      <c r="J33" s="521"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="519">
+      <c r="A34" s="505">
         <v>1</v>
       </c>
-      <c r="B34" s="537" t="s">
+      <c r="B34" s="507" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="538"/>
-      <c r="D34" s="539"/>
-      <c r="E34" s="521" t="str">
+      <c r="C34" s="508"/>
+      <c r="D34" s="509"/>
+      <c r="E34" s="510" t="str">
         <f>Данные!C19</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F34" s="522"/>
-      <c r="G34" s="525">
+      <c r="F34" s="511"/>
+      <c r="G34" s="514">
         <f>Данные!B19</f>
         <v>70</v>
       </c>
-      <c r="H34" s="527"/>
-      <c r="I34" s="528"/>
-      <c r="J34" s="529"/>
+      <c r="H34" s="516"/>
+      <c r="I34" s="517"/>
+      <c r="J34" s="518"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="540"/>
-      <c r="B35" s="515" t="str">
+      <c r="A35" s="506"/>
+      <c r="B35" s="522" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C35" s="516"/>
-      <c r="D35" s="517"/>
-      <c r="E35" s="541"/>
-      <c r="F35" s="524"/>
-      <c r="G35" s="526"/>
-      <c r="H35" s="530"/>
-      <c r="I35" s="531"/>
-      <c r="J35" s="532"/>
+      <c r="C35" s="523"/>
+      <c r="D35" s="524"/>
+      <c r="E35" s="512"/>
+      <c r="F35" s="513"/>
+      <c r="G35" s="515"/>
+      <c r="H35" s="519"/>
+      <c r="I35" s="520"/>
+      <c r="J35" s="521"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="519">
+      <c r="A36" s="505">
         <v>1</v>
       </c>
-      <c r="B36" s="537" t="s">
+      <c r="B36" s="507" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="538"/>
-      <c r="D36" s="539"/>
-      <c r="E36" s="521" t="str">
+      <c r="C36" s="508"/>
+      <c r="D36" s="509"/>
+      <c r="E36" s="510" t="str">
         <f>Данные!C20</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F36" s="522"/>
-      <c r="G36" s="525">
+      <c r="F36" s="511"/>
+      <c r="G36" s="514">
         <f>Данные!B20</f>
         <v>50</v>
       </c>
-      <c r="H36" s="527"/>
-      <c r="I36" s="528"/>
-      <c r="J36" s="529"/>
+      <c r="H36" s="516"/>
+      <c r="I36" s="517"/>
+      <c r="J36" s="518"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="540"/>
-      <c r="B37" s="515" t="str">
+      <c r="A37" s="506"/>
+      <c r="B37" s="522" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C37" s="516"/>
-      <c r="D37" s="517"/>
-      <c r="E37" s="541"/>
-      <c r="F37" s="524"/>
-      <c r="G37" s="526"/>
-      <c r="H37" s="530"/>
-      <c r="I37" s="531"/>
-      <c r="J37" s="532"/>
+      <c r="C37" s="523"/>
+      <c r="D37" s="524"/>
+      <c r="E37" s="512"/>
+      <c r="F37" s="513"/>
+      <c r="G37" s="515"/>
+      <c r="H37" s="519"/>
+      <c r="I37" s="520"/>
+      <c r="J37" s="521"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="519">
+      <c r="A38" s="505">
         <v>1</v>
       </c>
-      <c r="B38" s="537" t="s">
+      <c r="B38" s="507" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="538"/>
-      <c r="D38" s="539"/>
-      <c r="E38" s="521" t="str">
+      <c r="C38" s="508"/>
+      <c r="D38" s="509"/>
+      <c r="E38" s="510" t="str">
         <f>Данные!C21</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F38" s="522"/>
-      <c r="G38" s="525">
+      <c r="F38" s="511"/>
+      <c r="G38" s="514">
         <f>Данные!B21</f>
         <v>24</v>
       </c>
-      <c r="H38" s="527"/>
-      <c r="I38" s="528"/>
-      <c r="J38" s="529"/>
+      <c r="H38" s="516"/>
+      <c r="I38" s="517"/>
+      <c r="J38" s="518"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="540"/>
-      <c r="B39" s="515" t="str">
+      <c r="A39" s="506"/>
+      <c r="B39" s="522" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C39" s="516"/>
-      <c r="D39" s="517"/>
-      <c r="E39" s="541"/>
-      <c r="F39" s="524"/>
-      <c r="G39" s="526"/>
-      <c r="H39" s="530"/>
-      <c r="I39" s="531"/>
-      <c r="J39" s="532"/>
+      <c r="C39" s="523"/>
+      <c r="D39" s="524"/>
+      <c r="E39" s="512"/>
+      <c r="F39" s="513"/>
+      <c r="G39" s="515"/>
+      <c r="H39" s="519"/>
+      <c r="I39" s="520"/>
+      <c r="J39" s="521"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="519">
+      <c r="A40" s="505">
         <v>1</v>
       </c>
-      <c r="B40" s="537" t="s">
+      <c r="B40" s="507" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="538"/>
-      <c r="D40" s="539"/>
-      <c r="E40" s="521" t="str">
+      <c r="C40" s="508"/>
+      <c r="D40" s="509"/>
+      <c r="E40" s="510" t="str">
         <f>Данные!C23</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F40" s="522"/>
-      <c r="G40" s="525">
+      <c r="F40" s="511"/>
+      <c r="G40" s="514">
         <f>Данные!B23</f>
         <v>24</v>
       </c>
-      <c r="H40" s="527"/>
-      <c r="I40" s="528"/>
-      <c r="J40" s="529"/>
+      <c r="H40" s="516"/>
+      <c r="I40" s="517"/>
+      <c r="J40" s="518"/>
     </row>
     <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="540"/>
-      <c r="B41" s="515" t="str">
+      <c r="A41" s="506"/>
+      <c r="B41" s="522" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C41" s="516"/>
-      <c r="D41" s="517"/>
-      <c r="E41" s="541"/>
-      <c r="F41" s="524"/>
-      <c r="G41" s="526"/>
-      <c r="H41" s="530"/>
-      <c r="I41" s="531"/>
-      <c r="J41" s="532"/>
+      <c r="C41" s="523"/>
+      <c r="D41" s="524"/>
+      <c r="E41" s="512"/>
+      <c r="F41" s="513"/>
+      <c r="G41" s="515"/>
+      <c r="H41" s="519"/>
+      <c r="I41" s="520"/>
+      <c r="J41" s="521"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="519">
+      <c r="A42" s="505">
         <v>1</v>
       </c>
-      <c r="B42" s="537" t="s">
+      <c r="B42" s="507" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="538"/>
-      <c r="D42" s="539"/>
-      <c r="E42" s="521" t="str">
+      <c r="C42" s="508"/>
+      <c r="D42" s="509"/>
+      <c r="E42" s="510" t="str">
         <f>Данные!C26</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F42" s="522"/>
-      <c r="G42" s="525">
+      <c r="F42" s="511"/>
+      <c r="G42" s="514">
         <f>Данные!B26</f>
         <v>24</v>
       </c>
-      <c r="H42" s="527"/>
-      <c r="I42" s="528"/>
-      <c r="J42" s="529"/>
+      <c r="H42" s="516"/>
+      <c r="I42" s="517"/>
+      <c r="J42" s="518"/>
     </row>
     <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="540"/>
-      <c r="B43" s="515" t="str">
+      <c r="A43" s="506"/>
+      <c r="B43" s="522" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C43" s="516"/>
-      <c r="D43" s="517"/>
-      <c r="E43" s="541"/>
-      <c r="F43" s="524"/>
-      <c r="G43" s="526"/>
-      <c r="H43" s="530"/>
-      <c r="I43" s="531"/>
-      <c r="J43" s="532"/>
+      <c r="C43" s="523"/>
+      <c r="D43" s="524"/>
+      <c r="E43" s="512"/>
+      <c r="F43" s="513"/>
+      <c r="G43" s="515"/>
+      <c r="H43" s="519"/>
+      <c r="I43" s="520"/>
+      <c r="J43" s="521"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="519">
+      <c r="A44" s="505">
         <v>1</v>
       </c>
-      <c r="B44" s="537" t="s">
+      <c r="B44" s="507" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="538"/>
-      <c r="D44" s="539"/>
-      <c r="E44" s="521">
+      <c r="C44" s="508"/>
+      <c r="D44" s="509"/>
+      <c r="E44" s="510">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="522"/>
-      <c r="G44" s="525">
+      <c r="F44" s="511"/>
+      <c r="G44" s="514">
         <f>Данные!B27</f>
         <v>24</v>
       </c>
-      <c r="H44" s="527"/>
-      <c r="I44" s="528"/>
-      <c r="J44" s="529"/>
+      <c r="H44" s="516"/>
+      <c r="I44" s="517"/>
+      <c r="J44" s="518"/>
     </row>
     <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="540"/>
-      <c r="B45" s="515" t="str">
+      <c r="A45" s="506"/>
+      <c r="B45" s="522" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C45" s="516"/>
-      <c r="D45" s="517"/>
-      <c r="E45" s="541"/>
-      <c r="F45" s="524"/>
-      <c r="G45" s="526"/>
-      <c r="H45" s="530"/>
-      <c r="I45" s="531"/>
-      <c r="J45" s="532"/>
+      <c r="C45" s="523"/>
+      <c r="D45" s="524"/>
+      <c r="E45" s="512"/>
+      <c r="F45" s="513"/>
+      <c r="G45" s="515"/>
+      <c r="H45" s="519"/>
+      <c r="I45" s="520"/>
+      <c r="J45" s="521"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="519">
+      <c r="A46" s="505">
         <v>1</v>
       </c>
-      <c r="B46" s="537" t="s">
+      <c r="B46" s="507" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="538"/>
-      <c r="D46" s="539"/>
-      <c r="E46" s="521" t="str">
+      <c r="C46" s="508"/>
+      <c r="D46" s="509"/>
+      <c r="E46" s="510" t="str">
         <f>Данные!C24</f>
         <v>ХXI-КПМ-30-1-500-7</v>
       </c>
-      <c r="F46" s="522"/>
-      <c r="G46" s="525">
+      <c r="F46" s="511"/>
+      <c r="G46" s="514">
         <f>Данные!B24</f>
         <v>9</v>
       </c>
-      <c r="H46" s="527"/>
-      <c r="I46" s="528"/>
-      <c r="J46" s="529"/>
+      <c r="H46" s="516"/>
+      <c r="I46" s="517"/>
+      <c r="J46" s="518"/>
     </row>
     <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="540"/>
-      <c r="B47" s="515" t="str">
+      <c r="A47" s="506"/>
+      <c r="B47" s="522" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
       </c>
-      <c r="C47" s="516"/>
-      <c r="D47" s="517"/>
-      <c r="E47" s="541"/>
-      <c r="F47" s="524"/>
-      <c r="G47" s="526"/>
-      <c r="H47" s="530"/>
-      <c r="I47" s="531"/>
-      <c r="J47" s="532"/>
+      <c r="C47" s="523"/>
+      <c r="D47" s="524"/>
+      <c r="E47" s="512"/>
+      <c r="F47" s="513"/>
+      <c r="G47" s="515"/>
+      <c r="H47" s="519"/>
+      <c r="I47" s="520"/>
+      <c r="J47" s="521"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="311"/>
@@ -11145,70 +11232,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11225,6 +11248,70 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11279,47 +11366,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="560"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="562"/>
-      <c r="E2" s="569" t="s">
+      <c r="B2" s="535"/>
+      <c r="C2" s="536"/>
+      <c r="D2" s="537"/>
+      <c r="E2" s="544" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="570"/>
-      <c r="G2" s="570"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="576" t="s">
+      <c r="F2" s="545"/>
+      <c r="G2" s="545"/>
+      <c r="H2" s="546"/>
+      <c r="I2" s="551" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="577"/>
-      <c r="K2" s="580">
+      <c r="J2" s="552"/>
+      <c r="K2" s="555">
         <f>Данные!B14</f>
         <v>26</v>
       </c>
-      <c r="L2" s="581"/>
+      <c r="L2" s="556"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="572"/>
-      <c r="Q2" s="572"/>
+      <c r="P2" s="547"/>
+      <c r="Q2" s="547"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="563"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="573" t="s">
+      <c r="B3" s="538"/>
+      <c r="C3" s="539"/>
+      <c r="D3" s="540"/>
+      <c r="E3" s="548" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="574"/>
-      <c r="G3" s="574"/>
-      <c r="H3" s="575"/>
-      <c r="I3" s="578"/>
-      <c r="J3" s="579"/>
-      <c r="K3" s="582"/>
-      <c r="L3" s="583"/>
+      <c r="F3" s="549"/>
+      <c r="G3" s="549"/>
+      <c r="H3" s="550"/>
+      <c r="I3" s="553"/>
+      <c r="J3" s="554"/>
+      <c r="K3" s="557"/>
+      <c r="L3" s="558"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11330,9 +11417,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="566"/>
-      <c r="C4" s="567"/>
-      <c r="D4" s="568"/>
+      <c r="B4" s="541"/>
+      <c r="C4" s="542"/>
+      <c r="D4" s="543"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11351,22 +11438,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="562" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="546"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="563"/>
+      <c r="D5" s="489" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="547"/>
-      <c r="J5" s="548"/>
-      <c r="K5" s="495"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="490"/>
+      <c r="F5" s="490"/>
+      <c r="G5" s="490"/>
+      <c r="H5" s="491"/>
+      <c r="I5" s="564"/>
+      <c r="J5" s="565"/>
+      <c r="K5" s="490"/>
+      <c r="L5" s="491"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11377,22 +11464,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="562" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="549"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="566"/>
+      <c r="D6" s="483" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="547"/>
-      <c r="J6" s="548"/>
-      <c r="K6" s="495"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="567"/>
+      <c r="F6" s="567"/>
+      <c r="G6" s="567"/>
+      <c r="H6" s="568"/>
+      <c r="I6" s="564"/>
+      <c r="J6" s="565"/>
+      <c r="K6" s="490"/>
+      <c r="L6" s="491"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11403,27 +11490,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="569" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="553"/>
-      <c r="D7" s="497">
+      <c r="C7" s="570"/>
+      <c r="D7" s="492">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="552" t="s">
+      <c r="E7" s="571"/>
+      <c r="F7" s="571"/>
+      <c r="G7" s="571"/>
+      <c r="H7" s="572"/>
+      <c r="I7" s="569" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="556"/>
-      <c r="K7" s="485">
+      <c r="J7" s="573"/>
+      <c r="K7" s="480">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="481"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11917,12 +12004,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="557" t="s">
+      <c r="B23" s="574" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="558"/>
-      <c r="D23" s="558"/>
-      <c r="E23" s="559"/>
+      <c r="C23" s="575"/>
+      <c r="D23" s="575"/>
+      <c r="E23" s="576"/>
       <c r="F23" s="116" t="s">
         <v>16</v>
       </c>
@@ -11944,12 +12031,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="542" t="s">
+      <c r="B24" s="559" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="543"/>
-      <c r="D24" s="543"/>
-      <c r="E24" s="544"/>
+      <c r="C24" s="560"/>
+      <c r="D24" s="560"/>
+      <c r="E24" s="561"/>
       <c r="F24" s="116" t="s">
         <v>16</v>
       </c>
@@ -11993,12 +12080,6 @@
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -12013,6 +12094,12 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -12078,50 +12165,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="591">
+      <c r="B2" s="577">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="C2" s="578"/>
+      <c r="D2" s="579"/>
+      <c r="E2" s="586" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="587"/>
+      <c r="G2" s="587"/>
+      <c r="H2" s="588"/>
+      <c r="I2" s="592" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="593"/>
+      <c r="K2" s="596">
         <f>Данные!B15</f>
         <v>26</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="597"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="572"/>
-      <c r="Q2" s="572"/>
+      <c r="P2" s="547"/>
+      <c r="Q2" s="547"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="580"/>
+      <c r="C3" s="581"/>
+      <c r="D3" s="582"/>
+      <c r="E3" s="589" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="590"/>
+      <c r="G3" s="590"/>
+      <c r="H3" s="591"/>
+      <c r="I3" s="594"/>
+      <c r="J3" s="595"/>
+      <c r="K3" s="598"/>
+      <c r="L3" s="599"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12132,9 +12219,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="583"/>
+      <c r="C4" s="584"/>
+      <c r="D4" s="585"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -12153,22 +12240,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="562" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="600"/>
+      <c r="D5" s="489" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="490"/>
+      <c r="F5" s="490"/>
+      <c r="G5" s="490"/>
+      <c r="H5" s="491"/>
+      <c r="I5" s="601"/>
+      <c r="J5" s="602"/>
+      <c r="K5" s="603"/>
+      <c r="L5" s="491"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12179,22 +12266,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="562" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="600"/>
+      <c r="D6" s="483" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="567"/>
+      <c r="F6" s="567"/>
+      <c r="G6" s="567"/>
+      <c r="H6" s="568"/>
+      <c r="I6" s="601"/>
+      <c r="J6" s="602"/>
+      <c r="K6" s="603"/>
+      <c r="L6" s="491"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12205,27 +12292,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="569" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="497">
+      <c r="C7" s="604"/>
+      <c r="D7" s="492">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="571"/>
+      <c r="F7" s="571"/>
+      <c r="G7" s="571"/>
+      <c r="H7" s="572"/>
+      <c r="I7" s="605" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="485">
+      <c r="J7" s="604"/>
+      <c r="K7" s="480">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="481"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12422,13 +12509,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="557" t="s">
+      <c r="B14" s="574" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="558"/>
-      <c r="D14" s="558"/>
-      <c r="E14" s="558"/>
-      <c r="F14" s="590"/>
+      <c r="C14" s="575"/>
+      <c r="D14" s="575"/>
+      <c r="E14" s="575"/>
+      <c r="F14" s="606"/>
       <c r="G14" s="56" t="s">
         <v>77</v>
       </c>
@@ -12447,12 +12534,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="542" t="s">
+      <c r="B15" s="559" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="543"/>
-      <c r="D15" s="543"/>
-      <c r="E15" s="544"/>
+      <c r="C15" s="560"/>
+      <c r="D15" s="560"/>
+      <c r="E15" s="561"/>
       <c r="F15" s="116" t="s">
         <v>16</v>
       </c>
@@ -12503,12 +12590,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12523,6 +12604,12 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12596,47 +12683,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="560"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="562"/>
-      <c r="E2" s="569" t="s">
+      <c r="B2" s="535"/>
+      <c r="C2" s="536"/>
+      <c r="D2" s="537"/>
+      <c r="E2" s="544" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="570"/>
-      <c r="G2" s="570"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="576" t="s">
+      <c r="F2" s="545"/>
+      <c r="G2" s="545"/>
+      <c r="H2" s="546"/>
+      <c r="I2" s="551" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="577"/>
-      <c r="K2" s="580">
+      <c r="J2" s="552"/>
+      <c r="K2" s="555">
         <f>Данные!B16</f>
         <v>30</v>
       </c>
-      <c r="L2" s="581"/>
+      <c r="L2" s="556"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="572"/>
-      <c r="Q2" s="572"/>
+      <c r="P2" s="547"/>
+      <c r="Q2" s="547"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="563"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="573" t="s">
+      <c r="B3" s="538"/>
+      <c r="C3" s="539"/>
+      <c r="D3" s="540"/>
+      <c r="E3" s="548" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="574"/>
-      <c r="G3" s="574"/>
-      <c r="H3" s="575"/>
-      <c r="I3" s="578"/>
-      <c r="J3" s="579"/>
-      <c r="K3" s="582"/>
-      <c r="L3" s="583"/>
+      <c r="F3" s="549"/>
+      <c r="G3" s="549"/>
+      <c r="H3" s="550"/>
+      <c r="I3" s="553"/>
+      <c r="J3" s="554"/>
+      <c r="K3" s="557"/>
+      <c r="L3" s="558"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12647,9 +12734,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="566"/>
-      <c r="C4" s="567"/>
-      <c r="D4" s="568"/>
+      <c r="B4" s="541"/>
+      <c r="C4" s="542"/>
+      <c r="D4" s="543"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12668,22 +12755,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="562" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="546"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="563"/>
+      <c r="D5" s="489" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="547"/>
-      <c r="J5" s="548"/>
-      <c r="K5" s="495"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="490"/>
+      <c r="F5" s="490"/>
+      <c r="G5" s="490"/>
+      <c r="H5" s="491"/>
+      <c r="I5" s="564"/>
+      <c r="J5" s="565"/>
+      <c r="K5" s="490"/>
+      <c r="L5" s="491"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12694,22 +12781,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="562" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="549"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="566"/>
+      <c r="D6" s="483" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="547"/>
-      <c r="J6" s="548"/>
-      <c r="K6" s="495"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="567"/>
+      <c r="F6" s="567"/>
+      <c r="G6" s="567"/>
+      <c r="H6" s="568"/>
+      <c r="I6" s="564"/>
+      <c r="J6" s="565"/>
+      <c r="K6" s="490"/>
+      <c r="L6" s="491"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12720,27 +12807,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="569" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="553"/>
-      <c r="D7" s="497">
+      <c r="C7" s="570"/>
+      <c r="D7" s="492">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="552" t="s">
+      <c r="E7" s="571"/>
+      <c r="F7" s="571"/>
+      <c r="G7" s="571"/>
+      <c r="H7" s="572"/>
+      <c r="I7" s="569" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="556"/>
-      <c r="K7" s="485">
+      <c r="J7" s="573"/>
+      <c r="K7" s="480">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="481"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13223,7 +13310,6 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
@@ -13241,6 +13327,7 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I2:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -13308,47 +13395,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="560"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="562"/>
-      <c r="E2" s="569" t="s">
+      <c r="B2" s="535"/>
+      <c r="C2" s="536"/>
+      <c r="D2" s="537"/>
+      <c r="E2" s="544" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="570"/>
-      <c r="G2" s="570"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="576" t="s">
+      <c r="F2" s="545"/>
+      <c r="G2" s="545"/>
+      <c r="H2" s="546"/>
+      <c r="I2" s="551" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="577"/>
-      <c r="K2" s="580">
+      <c r="J2" s="552"/>
+      <c r="K2" s="555">
         <f>Данные!B17</f>
         <v>30</v>
       </c>
-      <c r="L2" s="581"/>
+      <c r="L2" s="556"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="614"/>
-      <c r="Q2" s="614"/>
+      <c r="P2" s="607"/>
+      <c r="Q2" s="607"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="563"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="573" t="s">
+      <c r="B3" s="538"/>
+      <c r="C3" s="539"/>
+      <c r="D3" s="540"/>
+      <c r="E3" s="548" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="574"/>
-      <c r="G3" s="574"/>
-      <c r="H3" s="575"/>
-      <c r="I3" s="578"/>
-      <c r="J3" s="579"/>
-      <c r="K3" s="582"/>
-      <c r="L3" s="583"/>
+      <c r="F3" s="549"/>
+      <c r="G3" s="549"/>
+      <c r="H3" s="550"/>
+      <c r="I3" s="553"/>
+      <c r="J3" s="554"/>
+      <c r="K3" s="557"/>
+      <c r="L3" s="558"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13359,9 +13446,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="566"/>
-      <c r="C4" s="567"/>
-      <c r="D4" s="568"/>
+      <c r="B4" s="541"/>
+      <c r="C4" s="542"/>
+      <c r="D4" s="543"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13380,22 +13467,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="562" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="546"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="563"/>
+      <c r="D5" s="489" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="547"/>
-      <c r="J5" s="548"/>
-      <c r="K5" s="495"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="490"/>
+      <c r="F5" s="490"/>
+      <c r="G5" s="490"/>
+      <c r="H5" s="491"/>
+      <c r="I5" s="564"/>
+      <c r="J5" s="565"/>
+      <c r="K5" s="490"/>
+      <c r="L5" s="491"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13406,22 +13493,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="562" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="549"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="566"/>
+      <c r="D6" s="483" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="547"/>
-      <c r="J6" s="548"/>
-      <c r="K6" s="495"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="567"/>
+      <c r="F6" s="567"/>
+      <c r="G6" s="567"/>
+      <c r="H6" s="568"/>
+      <c r="I6" s="564"/>
+      <c r="J6" s="565"/>
+      <c r="K6" s="490"/>
+      <c r="L6" s="491"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13432,27 +13519,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="569" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="553"/>
-      <c r="D7" s="497">
+      <c r="C7" s="570"/>
+      <c r="D7" s="492">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="552" t="s">
+      <c r="E7" s="571"/>
+      <c r="F7" s="571"/>
+      <c r="G7" s="571"/>
+      <c r="H7" s="572"/>
+      <c r="I7" s="569" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="556"/>
-      <c r="K7" s="485">
+      <c r="J7" s="573"/>
+      <c r="K7" s="480">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="481"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13737,17 +13824,6 @@
     <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -13755,6 +13831,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13826,60 +13913,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="577"/>
+      <c r="C2" s="578"/>
+      <c r="D2" s="579"/>
+      <c r="E2" s="586" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="587"/>
+      <c r="G2" s="587"/>
+      <c r="H2" s="588"/>
+      <c r="I2" s="592" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="593"/>
+      <c r="K2" s="596">
         <f>Данные!B18</f>
         <v>70</v>
       </c>
-      <c r="L2" s="611"/>
-      <c r="M2" s="615"/>
-      <c r="N2" s="616"/>
-      <c r="O2" s="616"/>
-      <c r="P2" s="616"/>
-      <c r="Q2" s="616"/>
-      <c r="R2" s="617"/>
+      <c r="L2" s="597"/>
+      <c r="M2" s="608"/>
+      <c r="N2" s="609"/>
+      <c r="O2" s="609"/>
+      <c r="P2" s="609"/>
+      <c r="Q2" s="609"/>
+      <c r="R2" s="610"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="580"/>
+      <c r="C3" s="581"/>
+      <c r="D3" s="582"/>
+      <c r="E3" s="589" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
-      <c r="M3" s="618"/>
-      <c r="N3" s="619"/>
-      <c r="O3" s="619"/>
-      <c r="P3" s="619"/>
-      <c r="Q3" s="619"/>
-      <c r="R3" s="620"/>
+      <c r="F3" s="590"/>
+      <c r="G3" s="590"/>
+      <c r="H3" s="591"/>
+      <c r="I3" s="594"/>
+      <c r="J3" s="595"/>
+      <c r="K3" s="598"/>
+      <c r="L3" s="599"/>
+      <c r="M3" s="611"/>
+      <c r="N3" s="612"/>
+      <c r="O3" s="612"/>
+      <c r="P3" s="612"/>
+      <c r="Q3" s="612"/>
+      <c r="R3" s="613"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="583"/>
+      <c r="C4" s="584"/>
+      <c r="D4" s="585"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -13888,95 +13975,95 @@
       <c r="J4" s="249"/>
       <c r="K4" s="252"/>
       <c r="L4" s="253"/>
-      <c r="M4" s="618"/>
-      <c r="N4" s="619"/>
-      <c r="O4" s="619"/>
-      <c r="P4" s="619"/>
-      <c r="Q4" s="619"/>
-      <c r="R4" s="620"/>
+      <c r="M4" s="611"/>
+      <c r="N4" s="612"/>
+      <c r="O4" s="612"/>
+      <c r="P4" s="612"/>
+      <c r="Q4" s="612"/>
+      <c r="R4" s="613"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="562" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="600"/>
+      <c r="D5" s="489" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
-      <c r="M5" s="618"/>
-      <c r="N5" s="619"/>
-      <c r="O5" s="619"/>
-      <c r="P5" s="619"/>
-      <c r="Q5" s="619"/>
-      <c r="R5" s="620"/>
+      <c r="E5" s="490"/>
+      <c r="F5" s="490"/>
+      <c r="G5" s="490"/>
+      <c r="H5" s="491"/>
+      <c r="I5" s="601"/>
+      <c r="J5" s="602"/>
+      <c r="K5" s="603"/>
+      <c r="L5" s="491"/>
+      <c r="M5" s="611"/>
+      <c r="N5" s="612"/>
+      <c r="O5" s="612"/>
+      <c r="P5" s="612"/>
+      <c r="Q5" s="612"/>
+      <c r="R5" s="613"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="562" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="600"/>
+      <c r="D6" s="483" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
-      <c r="M6" s="618"/>
-      <c r="N6" s="619"/>
-      <c r="O6" s="619"/>
-      <c r="P6" s="619"/>
-      <c r="Q6" s="619"/>
-      <c r="R6" s="620"/>
+      <c r="E6" s="567"/>
+      <c r="F6" s="567"/>
+      <c r="G6" s="567"/>
+      <c r="H6" s="568"/>
+      <c r="I6" s="601"/>
+      <c r="J6" s="602"/>
+      <c r="K6" s="603"/>
+      <c r="L6" s="491"/>
+      <c r="M6" s="611"/>
+      <c r="N6" s="612"/>
+      <c r="O6" s="612"/>
+      <c r="P6" s="612"/>
+      <c r="Q6" s="612"/>
+      <c r="R6" s="613"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="569" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="497">
+      <c r="C7" s="604"/>
+      <c r="D7" s="492">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="571"/>
+      <c r="F7" s="571"/>
+      <c r="G7" s="571"/>
+      <c r="H7" s="572"/>
+      <c r="I7" s="605" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="485">
+      <c r="J7" s="604"/>
+      <c r="K7" s="480">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
-      <c r="M7" s="618"/>
-      <c r="N7" s="619"/>
-      <c r="O7" s="619"/>
-      <c r="P7" s="619"/>
-      <c r="Q7" s="619"/>
-      <c r="R7" s="620"/>
+      <c r="L7" s="481"/>
+      <c r="M7" s="611"/>
+      <c r="N7" s="612"/>
+      <c r="O7" s="612"/>
+      <c r="P7" s="612"/>
+      <c r="Q7" s="612"/>
+      <c r="R7" s="613"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14365,12 +14452,12 @@
     </row>
     <row r="20" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
-      <c r="B20" s="542" t="s">
+      <c r="B20" s="559" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="543"/>
-      <c r="D20" s="543"/>
-      <c r="E20" s="544"/>
+      <c r="C20" s="560"/>
+      <c r="D20" s="560"/>
+      <c r="E20" s="561"/>
       <c r="F20" s="116" t="s">
         <v>16</v>
       </c>
@@ -14416,6 +14503,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -14428,13 +14522,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -14499,47 +14586,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="577"/>
+      <c r="C2" s="578"/>
+      <c r="D2" s="579"/>
+      <c r="E2" s="586" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="587"/>
+      <c r="G2" s="587"/>
+      <c r="H2" s="588"/>
+      <c r="I2" s="592" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="593"/>
+      <c r="K2" s="596">
         <f>Данные!B19</f>
         <v>70</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="597"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="621"/>
-      <c r="Q2" s="621"/>
+      <c r="P2" s="614"/>
+      <c r="Q2" s="614"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="580"/>
+      <c r="C3" s="581"/>
+      <c r="D3" s="582"/>
+      <c r="E3" s="589" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="590"/>
+      <c r="G3" s="590"/>
+      <c r="H3" s="591"/>
+      <c r="I3" s="594"/>
+      <c r="J3" s="595"/>
+      <c r="K3" s="598"/>
+      <c r="L3" s="599"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14550,9 +14637,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="583"/>
+      <c r="C4" s="584"/>
+      <c r="D4" s="585"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -14571,22 +14658,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="562" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="600"/>
+      <c r="D5" s="489" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="490"/>
+      <c r="F5" s="490"/>
+      <c r="G5" s="490"/>
+      <c r="H5" s="491"/>
+      <c r="I5" s="601"/>
+      <c r="J5" s="602"/>
+      <c r="K5" s="603"/>
+      <c r="L5" s="491"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14597,22 +14684,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="562" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="600"/>
+      <c r="D6" s="483" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-30-1-500-7 (Каласы 0.5 л.)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="567"/>
+      <c r="F6" s="567"/>
+      <c r="G6" s="567"/>
+      <c r="H6" s="568"/>
+      <c r="I6" s="601"/>
+      <c r="J6" s="602"/>
+      <c r="K6" s="603"/>
+      <c r="L6" s="491"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14623,27 +14710,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="569" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="497">
+      <c r="C7" s="604"/>
+      <c r="D7" s="492">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="571"/>
+      <c r="F7" s="571"/>
+      <c r="G7" s="571"/>
+      <c r="H7" s="572"/>
+      <c r="I7" s="605" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="485">
+      <c r="J7" s="604"/>
+      <c r="K7" s="480">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="481"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14906,12 +14993,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="542" t="s">
+      <c r="B16" s="559" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="543"/>
-      <c r="D16" s="543"/>
-      <c r="E16" s="544"/>
+      <c r="C16" s="560"/>
+      <c r="D16" s="560"/>
+      <c r="E16" s="561"/>
       <c r="F16" s="259" t="s">
         <v>16</v>
       </c>
@@ -14957,6 +15044,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -14967,15 +15063,6 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
